--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9116352-4626-4025-8A29-DFA9FF913862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859F2FFE-6F41-407B-80E3-90281C8D9E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -492,18 +492,6 @@
     <t>il sofware non consente l' inserimento di una posizione anagrafica con un valore sesso diverso da male,femal,undefined</t>
   </si>
   <si>
-    <t>28/04/202310:47:11</t>
-  </si>
-  <si>
-    <t>28/04/202310:47:13</t>
-  </si>
-  <si>
-    <t>28/04/202310:48:13</t>
-  </si>
-  <si>
-    <t>28/04/202310:49:13</t>
-  </si>
-  <si>
     <t>il sofware non consente di effettuare la validazione del documento della lettera di dimissione ospedaliera se  non viene compilato il campo diagnosi alla dimissione</t>
   </si>
   <si>
@@ -543,9 +531,6 @@
     <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: Z15]</t>
   </si>
   <si>
-    <t>28/04/202310:45:10</t>
-  </si>
-  <si>
     <t>28/04/2023T14:46:26Z</t>
   </si>
   <si>
@@ -562,6 +547,9 @@
   </si>
   <si>
     <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: Z16]</t>
+  </si>
+  <si>
+    <t>403-Il campo purpose_of_use non è valorizzato</t>
   </si>
 </sst>
 </file>
@@ -897,29 +885,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,6 +916,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1247,10 +1235,10 @@
   <dimension ref="A1:T646"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1289,14 +1277,14 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="37"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1314,14 +1302,14 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="46"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1339,12 +1327,12 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1363,12 +1351,12 @@
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="46"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1386,8 +1374,8 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="7"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1664,19 +1652,15 @@
       <c r="E13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="13">
-        <v>45043</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15" t="s">
         <v>66</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -1728,7 +1712,9 @@
       <c r="M14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="15"/>
+      <c r="N14" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="O14" s="15" t="s">
         <v>39</v>
       </c>
@@ -1910,12 +1896,8 @@
       <c r="E18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="13">
-        <v>45043</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15" t="s">
@@ -1990,45 +1972,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="46" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
+    <row r="20" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
         <v>66</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="39">
-        <v>45044</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="42" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="45" t="s">
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2048,12 +2026,8 @@
       <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="13">
-        <v>45044</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15" t="s">
@@ -2090,12 +2064,8 @@
       <c r="E22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="13">
-        <v>45044</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15" t="s">
@@ -2132,19 +2102,15 @@
       <c r="E23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="13">
-        <v>45044</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15" t="s">
         <v>66</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -2174,19 +2140,15 @@
       <c r="E24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="13">
-        <v>45044</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15" t="s">
         <v>66</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -2220,13 +2182,13 @@
         <v>45044</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>39</v>
@@ -2239,7 +2201,7 @@
         <v>39</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>66</v>
@@ -2274,13 +2236,13 @@
         <v>45044</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>39</v>
@@ -2293,7 +2255,7 @@
         <v>39</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>66</v>
@@ -2328,13 +2290,13 @@
         <v>45044</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>39</v>
@@ -2347,7 +2309,7 @@
         <v>39</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>66</v>
@@ -2382,13 +2344,13 @@
         <v>45044</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>39</v>
@@ -2401,7 +2363,7 @@
         <v>39</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>66</v>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859F2FFE-6F41-407B-80E3-90281C8D9E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{794AA547-44BC-40DE-997E-701C40F87386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -399,12 +399,6 @@
     <t>NBS</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.663dc1571230aa3bbeb4bd41cc6f19be34cc9a08bf3cb85531d5a716bf2e5b2e.f229404ff2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e4b761ce70e414d0</t>
-  </si>
-  <si>
     <t>subject_application_vendor:NBS</t>
   </si>
   <si>
@@ -414,70 +408,13 @@
     <t>subject_application_version:v.4.10.106</t>
   </si>
   <si>
-    <t>7cdd869efe59e9a9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.5ce18902729de3076558226239472f25a15211952cc70b920c4f495c4062436b.313e96b80f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>27/04/202312:18:16</t>
-  </si>
-  <si>
-    <t>27/04/202311:11:11</t>
-  </si>
-  <si>
-    <t>27/04/202309:12:27</t>
-  </si>
-  <si>
-    <t>325c2da88f3404d2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.caf3c632754492c8484104925756c2e004954af595dcda62dff03ef5fca290ce.6520339e51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>400ERRORE: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'confidentialityCode' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'confidentialityCode' is not valid with respect to its type, 'st'."</t>
-  </si>
-  <si>
-    <t>27/04/202312:45:44</t>
-  </si>
-  <si>
-    <t>53e1aeb6234b85ae</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.bfc3b64c31afea3864bf7a8b838dec23b56752f5f7b5f9dc39cb8a9d8ab1bc16.1c14a6874f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>27/04/202313:00:41</t>
-  </si>
-  <si>
-    <t>1aee02e19e18c0e9</t>
-  </si>
-  <si>
     <t>Viene segnalato un errore di connessione al gateway e si chiede di segnalare il problema all'amministratore di sistema</t>
-  </si>
-  <si>
-    <t>d9bdf7e413dbcbb9</t>
-  </si>
-  <si>
-    <t>27/04/202313:08:37</t>
-  </si>
-  <si>
-    <t>27/04/202313:08:38</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO </t>
   </si>
   <si>
-    <t>27/04/202315:07:43</t>
-  </si>
-  <si>
-    <t>b153654d5938ac0c</t>
-  </si>
-  <si>
     <t>422-[ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.8dfd98d7d0ad186a38b7f22a69c627ba2ffe35d3ca765627665e9cb638044cb8.ff52f2c9ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Il software esegue controlli di congruneza del  CF e corretttezza impostandolo in maiuscolo</t>
@@ -498,52 +435,13 @@
     <t xml:space="preserve">il sofware non consente di effettuare la validazione del documento della lettera di dimissione ospedaliera se  non viene compilato il  campo Decorso Ospedaliero </t>
   </si>
   <si>
-    <t>28/04/202312:11:54</t>
-  </si>
-  <si>
-    <t>0ea27036ddf84f98</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.006e2c398c419acf440313ea1209d7947024d00f891f400e462ab6b70a069819.5d90b9aaad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato</t>
-  </si>
-  <si>
-    <t>28/04/202314:46:26</t>
-  </si>
-  <si>
-    <t>e96f882d867ef0c4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.093a3e114a4e7f1ac8a5f2dd1b30ef90b93be822ce711894306b33d96157a24b.2140288698^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-Errore semantico:[ERRORE-b94|Sezione Terapia farmacologica alla dimissione: section/entry/substanceAdministration/effectiveTime deve avere l'elemento 'low' valorizzato</t>
-  </si>
-  <si>
-    <t>9bcefe3146b8a5b0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.6eb526351163654889c8422a63441d269113a528cf94bb1860d2baf0a01975e9.bbf377fb4e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: Z15]</t>
   </si>
   <si>
-    <t>28/04/2023T14:46:26Z</t>
-  </si>
-  <si>
     <t>Alcune delle infromazioni dei campi opzionali non sono presenti sull' applicativo</t>
-  </si>
-  <si>
-    <t>a986b38051310a43</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.2897fda186e42b2601498b1399136d11457bf242958e8f18aca6e8b4e860ba61.2c6f80286a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>28/04/202316:16:10Z</t>
   </si>
   <si>
     <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: Z16]</t>
@@ -551,12 +449,99 @@
   <si>
     <t>403-Il campo purpose_of_use non è valorizzato</t>
   </si>
+  <si>
+    <t>8c8f43cc9de24318</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.df1d0559856200310bac03497c5ba7f1483d77451c9bf611f9ad2a4c5328191c.217cf41ece^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6fb211d777c883e5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.711dfbff5046bbd42bb887af374f5e4c4dadab2d5ddb2d75b676d36a6601c5e0.a7cb2790e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>16/05/202316:20:20</t>
+  </si>
+  <si>
+    <t>1df522d6dc4c0bed</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.c5d2a92985e398d5a79c098f4fc3ec8af67af74b8166fa1a496207be457b0adc.0ab68fce13^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>16/05/202316:24:51</t>
+  </si>
+  <si>
+    <t>b18ded85b1263f88</t>
+  </si>
+  <si>
+    <t>088b2b1c91236091</t>
+  </si>
+  <si>
+    <t>16/05/202316:29:15</t>
+  </si>
+  <si>
+    <t>400ERROREERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
+  </si>
+  <si>
+    <t>2b2cbddba6144bb1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.8145bff7ccd5b67a1a7eb1bc60ee039287b299ffa8622e1a5b0994a5d84fc3f1.348fb46450^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>16/05/202316:57:11</t>
+  </si>
+  <si>
+    <t>18/05/202311:41:06</t>
+  </si>
+  <si>
+    <t>881ac63d8298b761</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.222c9daa15cc42a5a7f858ec1474769c4d08586a8f6e3dea7e06b5b7695748f5.cc10824e73^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7e2c490e2a41d975</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.7cfe9ca95a7a43d48ae106b386ceead8b65d08670d4e8cdd4a11ac5608322dcf.ec1bf74de7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e633e0f281971e9b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.f056229fb4493079f283df927f79b6e6f066dfaa09ffba9a007f26cb1348aaab.edd45473ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b26| Sotto-sezione Anamnesi: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.e121c21e8a7eaa29b5d72cc45b785a32859b7e1ac715932b01fe79b23ca815eb.2f0690af08^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f22fc4fafd2c425d</t>
+  </si>
+  <si>
+    <t>18/05/2023 15:28:19Z</t>
+  </si>
+  <si>
+    <t>0c6f8db22fd89cca</t>
+  </si>
+  <si>
+    <t>18/05/202315:49:37Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.da0d043f0024341bda9f3364781f94ed39aa7f588cffd80d41b5de35ab7f193f.36737e40f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +598,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -819,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -939,6 +930,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1235,10 +1235,10 @@
   <dimension ref="A1:T646"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="46"/>
       <c r="F3" s="3"/>
@@ -1330,7 +1330,7 @@
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="2"/>
@@ -1354,7 +1354,7 @@
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
       <c r="C5" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="46"/>
       <c r="F5" s="3"/>
@@ -1509,16 +1509,16 @@
         <v>27</v>
       </c>
       <c r="F10" s="13">
-        <v>45043</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>81</v>
+        <v>45058</v>
+      </c>
+      <c r="G10" s="14">
+        <v>45058.617442129631</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>39</v>
@@ -1557,16 +1557,16 @@
         <v>29</v>
       </c>
       <c r="F11" s="13">
-        <v>45043</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>80</v>
+        <v>45062</v>
+      </c>
+      <c r="G11" s="14">
+        <v>45062.611122685186</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>39</v>
@@ -1601,20 +1601,20 @@
       <c r="D12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="13">
-        <v>45043</v>
+        <v>45062</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>39</v>
@@ -1649,7 +1649,7 @@
       <c r="D13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="47" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="13"/>
@@ -1660,7 +1660,7 @@
         <v>66</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -1684,20 +1684,20 @@
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="13">
-        <v>45043</v>
+        <v>45062</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>67</v>
@@ -1713,13 +1713,13 @@
         <v>39</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>39</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="16"/>
@@ -1745,13 +1745,13 @@
         <v>37</v>
       </c>
       <c r="F15" s="13">
-        <v>45043</v>
+        <v>45062</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>67</v>
@@ -1773,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="16"/>
@@ -1801,10 +1801,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="13">
-        <v>45043</v>
+        <v>45062</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1826,7 +1826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>63</v>
       </c>
@@ -1843,16 +1843,16 @@
         <v>42</v>
       </c>
       <c r="F17" s="13">
-        <v>45043</v>
+        <v>45062</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>39</v>
@@ -1865,13 +1865,13 @@
         <v>66</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="16"/>
@@ -1904,7 +1904,7 @@
         <v>66</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -1929,22 +1929,22 @@
         <v>24</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="13">
-        <v>45043</v>
+        <v>45064</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>39</v>
@@ -1957,13 +1957,13 @@
         <v>39</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="O19" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="16"/>
@@ -1996,7 +1996,7 @@
         <v>66</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -2034,7 +2034,7 @@
         <v>66</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -2072,7 +2072,7 @@
         <v>66</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
@@ -2110,7 +2110,7 @@
         <v>66</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -2148,7 +2148,7 @@
         <v>66</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -2179,18 +2179,18 @@
         <v>57</v>
       </c>
       <c r="F25" s="13">
-        <v>45044</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>105</v>
+        <v>45064</v>
+      </c>
+      <c r="G25" s="14">
+        <v>45064.626828703702</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="49" t="s">
         <v>39</v>
       </c>
       <c r="K25" s="15"/>
@@ -2201,13 +2201,13 @@
         <v>39</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="15"/>
       <c r="R25" s="16"/>
@@ -2233,16 +2233,16 @@
         <v>59</v>
       </c>
       <c r="F26" s="13">
-        <v>45044</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>109</v>
+        <v>45064</v>
+      </c>
+      <c r="G26" s="14">
+        <v>45064.608437499999</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>39</v>
@@ -2255,13 +2255,13 @@
         <v>39</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="16"/>
@@ -2287,16 +2287,16 @@
         <v>61</v>
       </c>
       <c r="F27" s="13">
-        <v>45044</v>
+        <v>45064</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>113</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>39</v>
@@ -2309,13 +2309,13 @@
         <v>39</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
@@ -2341,16 +2341,16 @@
         <v>63</v>
       </c>
       <c r="F28" s="13">
-        <v>45044</v>
+        <v>45064</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>39</v>
@@ -2363,13 +2363,13 @@
         <v>39</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="16"/>
@@ -11989,6 +11989,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{794AA547-44BC-40DE-997E-701C40F87386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3537D411-74D1-47DA-AF31-C267EE7F9732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="117">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -456,21 +456,6 @@
     <t>2.16.840.1.113883.2.9.2.110.4.4.df1d0559856200310bac03497c5ba7f1483d77451c9bf611f9ad2a4c5328191c.217cf41ece^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>6fb211d777c883e5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.711dfbff5046bbd42bb887af374f5e4c4dadab2d5ddb2d75b676d36a6601c5e0.a7cb2790e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16/05/202316:20:20</t>
-  </si>
-  <si>
-    <t>1df522d6dc4c0bed</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.c5d2a92985e398d5a79c098f4fc3ec8af67af74b8166fa1a496207be457b0adc.0ab68fce13^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>16/05/202316:24:51</t>
   </si>
   <si>
@@ -535,6 +520,18 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.110.4.4.da0d043f0024341bda9f3364781f94ed39aa7f588cffd80d41b5de35ab7f193f.36737e40f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c48d69dd71c32516</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.21b45100b08a16f3ff689d3f1941ab85602f6f1bc2ca8baba71fcd7d75694d71.4603109b06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7401e2608bcd608b</t>
+  </si>
+  <si>
+    <t>31/05/202310:25:09</t>
   </si>
 </sst>
 </file>
@@ -810,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -907,6 +904,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,14 +936,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,10 +1235,10 @@
   <dimension ref="A1:T646"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1277,14 +1277,14 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="40"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1302,14 +1302,14 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="49"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1327,12 +1327,12 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1351,12 +1351,12 @@
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="49"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1374,8 +1374,8 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1557,16 +1557,16 @@
         <v>29</v>
       </c>
       <c r="F11" s="13">
-        <v>45062</v>
+        <v>45076</v>
       </c>
       <c r="G11" s="14">
-        <v>45062.611122685186</v>
+        <v>45076.753506944442</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>39</v>
@@ -1601,20 +1601,20 @@
       <c r="D12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="13">
-        <v>45062</v>
+        <v>45077</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>94</v>
+        <v>116</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>39</v>
@@ -1649,7 +1649,7 @@
       <c r="D13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="34" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="13"/>
@@ -1684,7 +1684,7 @@
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="35" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1694,10 +1694,10 @@
         <v>45062</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>67</v>
@@ -1748,10 +1748,10 @@
         <v>45062</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>67</v>
@@ -1804,7 +1804,7 @@
         <v>45062</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1846,13 +1846,13 @@
         <v>45062</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>39</v>
@@ -1865,7 +1865,7 @@
         <v>66</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>66</v>
@@ -1938,13 +1938,13 @@
         <v>45064</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>39</v>
@@ -2185,12 +2185,12 @@
         <v>45064.626828703702</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="36" t="s">
         <v>39</v>
       </c>
       <c r="K25" s="15"/>
@@ -2201,7 +2201,7 @@
         <v>39</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>66</v>
@@ -2239,10 +2239,10 @@
         <v>45064.608437499999</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>39</v>
@@ -2290,13 +2290,13 @@
         <v>45064</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>39</v>
@@ -2344,13 +2344,13 @@
         <v>45064</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>39</v>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3537D411-74D1-47DA-AF31-C267EE7F9732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A520A4B-A4DE-4165-8611-223AC226A188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="118">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -387,9 +387,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>IL SERVIZIO MOSTRA UN MESSAGGIO DI ERRORE INTERNO E TENTA IL REINVIO</t>
-  </si>
-  <si>
     <t>403:Il campo action_id non è corretto</t>
   </si>
   <si>
@@ -532,6 +529,13 @@
   </si>
   <si>
     <t>31/05/202310:25:09</t>
+  </si>
+  <si>
+    <t>Viene visualizzato messaggio a video con il dettaglio dell'errore. Viene chiesto all'operatore di tentare una nuova validazione. Nel caso in cui non sia possibile validare, il processo clinico prosegue e il documento viene salvato e riproposto per la validazione al ripristinarsi del servizio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attenzione!
+Il servizio di validazione ha impiegato troppo tempo a rispondere.Procedere con la firma del documento? </t>
   </si>
 </sst>
 </file>
@@ -913,6 +917,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,9 +943,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1235,10 +1239,10 @@
   <dimension ref="A1:T646"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1277,14 +1281,14 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="41"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1302,14 +1306,14 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="50"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1327,12 +1331,12 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="49"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="50"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1351,12 +1355,12 @@
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="49"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="50"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1374,8 +1378,8 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="7"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1515,10 +1519,10 @@
         <v>45058.617442129631</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>39</v>
@@ -1563,10 +1567,10 @@
         <v>45076.753506944442</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>39</v>
@@ -1608,13 +1612,13 @@
         <v>45077</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="50" t="s">
         <v>115</v>
       </c>
+      <c r="H12" s="37" t="s">
+        <v>114</v>
+      </c>
       <c r="I12" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>39</v>
@@ -1660,7 +1664,7 @@
         <v>66</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -1694,10 +1698,10 @@
         <v>45062</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>67</v>
@@ -1713,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>39</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="16"/>
@@ -1748,10 +1752,10 @@
         <v>45062</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>67</v>
@@ -1767,24 +1771,24 @@
         <v>39</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>39</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="16"/>
       <c r="S15" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T15" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>45</v>
       </c>
@@ -1804,18 +1808,28 @@
         <v>45062</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+      <c r="L16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="P16" s="15" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="21" t="s">
@@ -1846,13 +1860,13 @@
         <v>45062</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>39</v>
@@ -1865,13 +1879,13 @@
         <v>66</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="16"/>
@@ -1904,7 +1918,7 @@
         <v>66</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -1929,7 +1943,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>45</v>
@@ -1938,13 +1952,13 @@
         <v>45064</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>39</v>
@@ -1957,13 +1971,13 @@
         <v>39</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O19" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="16"/>
@@ -1996,7 +2010,7 @@
         <v>66</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -2034,7 +2048,7 @@
         <v>66</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -2072,7 +2086,7 @@
         <v>66</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
@@ -2110,7 +2124,7 @@
         <v>66</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -2148,7 +2162,7 @@
         <v>66</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -2185,10 +2199,10 @@
         <v>45064.626828703702</v>
       </c>
       <c r="H25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="J25" s="36" t="s">
         <v>39</v>
@@ -2201,13 +2215,13 @@
         <v>39</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="15"/>
       <c r="R25" s="16"/>
@@ -2239,10 +2253,10 @@
         <v>45064.608437499999</v>
       </c>
       <c r="H26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>39</v>
@@ -2255,13 +2269,13 @@
         <v>39</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="16"/>
@@ -2290,13 +2304,13 @@
         <v>45064</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>39</v>
@@ -2309,13 +2323,13 @@
         <v>39</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
@@ -2344,13 +2358,13 @@
         <v>45064</v>
       </c>
       <c r="G28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>39</v>
@@ -2363,13 +2377,13 @@
         <v>39</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="16"/>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A520A4B-A4DE-4165-8611-223AC226A188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484E212-E792-4A4E-B189-F1B44F5E37AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,11 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$28</definedName>
-    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$60</definedName>
+    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$60</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhUlYP9yzNmk4f07XMJovPPUaqOhw=="/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -42,7 +38,6 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -53,16 +48,11 @@
       </text>
     </comment>
   </commentList>
-  <extLst>
-    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhEsft9aLzt0rIU/uY/OVuC5+7zJg=="/>
-    </ext>
-  </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="238">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -387,6 +377,9 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
+    <t>IL SERVIZIO MOSTRA UN MESSAGGIO DI ERRORE INTERNO E TENTA IL REINVIO</t>
+  </si>
+  <si>
     <t>403:Il campo action_id non è corretto</t>
   </si>
   <si>
@@ -414,9 +407,6 @@
     <t>422-[ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
   </si>
   <si>
-    <t>Il software esegue controlli di congruneza del  CF e corretttezza impostandolo in maiuscolo</t>
-  </si>
-  <si>
     <t>il software non consente l' inserimento di una posizione anagrafica priva di comune di residenza</t>
   </si>
   <si>
@@ -441,9 +431,6 @@
     <t>Alcune delle infromazioni dei campi opzionali non sono presenti sull' applicativo</t>
   </si>
   <si>
-    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: Z16]</t>
-  </si>
-  <si>
     <t>403-Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
@@ -531,11 +518,418 @@
     <t>31/05/202310:25:09</t>
   </si>
   <si>
-    <t>Viene visualizzato messaggio a video con il dettaglio dell'errore. Viene chiesto all'operatore di tentare una nuova validazione. Nel caso in cui non sia possibile validare, il processo clinico prosegue e il documento viene salvato e riproposto per la validazione al ripristinarsi del servizio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attenzione!
-Il servizio di validazione ha impiegato troppo tempo a rispondere.Procedere con la firma del documento? </t>
+    <t>VPS</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT1</t>
+  </si>
+  <si>
+    <t>https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Precondizioni:Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondizioni:Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+ </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_VPS_TIMEOUT</t>
+  </si>
+  <si>
+    <t>00-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: Z16]</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT5_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT9_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT10_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT11_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT19_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT21_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT22_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT23_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT24_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT25_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT26_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT27_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT28_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT29_KO</t>
+  </si>
+  <si>
+    <t>da4278baecfda4a7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.ccc97c12937e3fc73a6418f78f3e901f13350ed72befb4e5d55235a88418afaf.80bf49624b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8342563512c878ca</t>
+  </si>
+  <si>
+    <t>403-Campo token JWT non valido,Il campo purpose_of_use non è valorizzato</t>
+  </si>
+  <si>
+    <t>9fd189afccaf2260</t>
+  </si>
+  <si>
+    <t>Attenzione!
+Il servizio di validazione ha impiegato troppo tempo a rispondere. 
+Tentare di nuovo il processo di validazione?</t>
+  </si>
+  <si>
+    <t>5dee594ca16b3830</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.4b8ebc26a9b85b640342a8b48894aa8de24b2cc27b07c6bc064ddce61bc06a12.96a810d08d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected</t>
+  </si>
+  <si>
+    <t>Il software esegue controlli di congruneza del  CF e correttezza impostandolo in maiuscolo</t>
+  </si>
+  <si>
+    <t>ddbab7f924200386</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.21b58269ff1d3eff565e6ae5f3d93b933669dce354b62f341b6974d30ce8739f.673f0ff6aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il software esegue controlli sul comune di residenza e blocca l'esecuzione in caso di mancato inserimento</t>
+  </si>
+  <si>
+    <t>Il software esegue controlli  sul nome e il cognome e blocca l'esecuzione in caso di mancato inserimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il sofware non consente il mancato inserimento delle informazioni relative alla modalità di trasporto.Avvisa l' utemte del mancato inesrimento tramite alert e blocca l' esecuzione </t>
+  </si>
+  <si>
+    <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'assignedPerson'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b1| Sezione Modalità di Trasporto: la sezione DEVE essere presente],[ERRORE-b2| Sezione Modalità di Trasporto: la sezione deve contenere l'elemento templateId valorizzato con l'attributo @root='2.16.840.1.113883.2.9.10.1.6.20'],[ERRORE-b3| Sezione Modalità di Trasporto: la sezione DEVE contenere un elemento 'text' e un solo elemento 'entry']",
+  "status" : 422,</t>
+  </si>
+  <si>
+    <t>9e04106d51980769</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.1e22b077ada35de0e4f88576b1f7abc5bde358f78f8496029f7717f3278b7811.5aad7043cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5b97319d0a66442d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.b105ecc8f8875a16b1f73513f00cc1f8641d22144d18dcc08ca29ce1ae03f06c.76c565d44d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c291107ae88d2e71</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.1732961a48b4e3e740bb3148e361e5f0cd9b9233c55773d7e7ebfc4b8a85c3c8.a9fef30f43^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 422-[ERRORE-b3| Sezione Modalità di Trasporto: la sezione DEVE contenere un elemento 'text' e un solo elemento 'entry']</t>
+  </si>
+  <si>
+    <t>13a892cefc94555e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.2d2721b0005c12e8715d65f4791bcb494fe037a5202dc946a398c50a81c530fd.3113f6d74f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b11| Sezione Motivo della visita: l'elemento entry/observation/value relativo al \"Problema Principale\" DEVE essere valorizzato col value set ProblemaPrincipale_VPS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento del codice triage </t>
+  </si>
+  <si>
+    <t>sofware non consente il mancato inserimento della data di insorgenza del problema</t>
+  </si>
+  <si>
+    <t>8fb029e5ec77b904</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.9a9c858b399b0cab493808f8849ebe43529977fa5bb5aafa3ad64bb961affecc.5ee79ac37d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b114| Sotto-sezione Anamnesi: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento della data relativa a inizio e fine in cui l' allergia è attiva</t>
+  </si>
+  <si>
+    <t>d4f54b56790f9157</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.07ea63bba06843cce173523ca92f277e4fca2ef546983c734a12d956dd5b579d.7cd539da5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b154| Sezione Encounters: L'elemento entry/encounters/effectiveTime deve essere presente e deve avere gli elementi 'low' e 'high' valorizzati.]</t>
+  </si>
+  <si>
+    <t>07/06/2023 11:03;17</t>
+  </si>
+  <si>
+    <t>e79798fc46cebdbc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.08fb39d369cde96a783d3e222e9f0526482cd55957117411cd3dd1d0ef8089e2.20b53392ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b168| Sezione Complicanze: l'elemento entry/observation/value DEVE essere valorizzato con l'attributo @xsi:type=CD.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento del nominativo del medico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento relativp all'esito del trattamneto</t>
+  </si>
+  <si>
+    <t>b5eab079cbcb7343</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.011c8dcb177205bd5716835e208a41647a55eb4aa0eb53d37228afa3814e6004.aadd2937b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b252|Sezione Terapia farmacologica alla dimissione: entry/substanceAdministration/effectiveTime deve avere l'elemento 'low' valorizzato ]</t>
+  </si>
+  <si>
+    <t>17ad5f564cee8689</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.6f031d44e657b6229880b3febfae5844cf23d053351d5840d9d94182bea90ce9.a180c46712^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.1, Codes: 89]</t>
+  </si>
+  <si>
+    <t>d4fdb371d82de4cb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.f6df542ee1f1c0093e62e0f6a7e3d50cc223e8736f868e47a4af8c68850612a5.1e2b5eae3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: 88]</t>
+  </si>
+  <si>
+    <t>64b72e7962dc1a00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.b32225fd8e92b4d1e71e7ebf62b21390b5a6aeb7d1dcbe0b930a4175e4cb23af.7a14afee14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 99999]</t>
+  </si>
+  <si>
+    <t>3439c8c3db61f0e5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.487d051988289d5d208d4b14a284f8a50ded6c4d49bf0554057c3a09a8a1fab4.11eef58097^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b136| Sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
+  </si>
+  <si>
+    <t>alcune delle infromazioni dei campi opzionali non sono presenti sull' applicativo</t>
   </si>
 </sst>
 </file>
@@ -811,7 +1205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -943,6 +1337,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -997,7 +1397,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="2">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
@@ -1236,13 +1636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T646"/>
+  <dimension ref="A1:U678"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1686,7 @@
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="41"/>
       <c r="F2" s="3"/>
@@ -1311,7 +1711,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="50"/>
       <c r="F3" s="3"/>
@@ -1334,7 +1734,7 @@
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="2"/>
@@ -1358,7 +1758,7 @@
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
       <c r="C5" s="49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="3"/>
@@ -1519,10 +1919,10 @@
         <v>45058.617442129631</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>39</v>
@@ -1567,10 +1967,10 @@
         <v>45076.753506944442</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>39</v>
@@ -1612,13 +2012,13 @@
         <v>45077</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>39</v>
@@ -1678,225 +2078,171 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="F14" s="13">
-        <v>45062</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>90</v>
+        <v>45082</v>
+      </c>
+      <c r="G14" s="14">
+        <v>45082.606840277775</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="16"/>
-      <c r="S14" s="22"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="13">
-        <v>45062</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>74</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="22" t="s">
-        <v>69</v>
-      </c>
+      <c r="S15" s="17"/>
       <c r="T15" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="13">
-        <v>45062</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>93</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="K16" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
       <c r="S16" s="17"/>
       <c r="T16" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="13">
-        <v>45062</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>96</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K17" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="16"/>
       <c r="S17" s="17"/>
       <c r="T17" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>25</v>
@@ -1904,61 +2250,77 @@
       <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>43</v>
+      <c r="D18" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45062</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="17"/>
+      <c r="S18" s="22"/>
       <c r="T18" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="F19" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>98</v>
+        <v>45082</v>
+      </c>
+      <c r="G19" s="14">
+        <v>45082.732939814814</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>39</v>
@@ -1971,100 +2333,136 @@
         <v>39</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="16"/>
-      <c r="S19" s="17"/>
+      <c r="S19" s="22"/>
       <c r="T19" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>66</v>
-      </c>
-      <c r="B20" s="24" t="s">
+    <row r="20" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>37</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="32" t="s">
+      <c r="D20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45062</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45082</v>
+      </c>
+      <c r="G21" s="14">
+        <v>45082.739374999997</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="J21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="Q21" s="15"/>
       <c r="R21" s="16"/>
-      <c r="S21" s="17"/>
+      <c r="S21" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="T21" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>25</v>
@@ -2073,74 +2471,97 @@
         <v>24</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+        <v>38</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45062</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
+      <c r="M22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
       <c r="S22" s="17"/>
       <c r="T22" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+        <v>38</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45082</v>
+      </c>
+      <c r="G23" s="14">
+        <v>45082.739374999997</v>
+      </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="17"/>
+      <c r="M23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="20"/>
+      <c r="S23" s="21"/>
       <c r="T23" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>25</v>
@@ -2149,26 +2570,42 @@
         <v>24</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45062</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="J24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="N24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="16"/>
       <c r="S24" s="17"/>
@@ -2178,7 +2615,7 @@
     </row>
     <row r="25" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>25</v>
@@ -2187,42 +2624,26 @@
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G25" s="14">
-        <v>45064.626828703702</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="O25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P25" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K25" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="16"/>
       <c r="S25" s="17"/>
@@ -2232,7 +2653,7 @@
     </row>
     <row r="26" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>25</v>
@@ -2241,22 +2662,22 @@
         <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F26" s="13">
         <v>45064</v>
       </c>
-      <c r="G26" s="14">
-        <v>45064.608437499999</v>
+      <c r="G26" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>39</v>
@@ -2269,13 +2690,13 @@
         <v>39</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="16"/>
@@ -2284,63 +2705,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
-        <v>73</v>
-      </c>
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>66</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" s="15" t="s">
+      <c r="D27" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P27" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="18" t="s">
+      <c r="K27" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>25</v>
@@ -2349,42 +2754,26 @@
         <v>24</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O28" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P28" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="16"/>
       <c r="S28" s="17"/>
@@ -2392,556 +2781,1513 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="6"/>
-    </row>
-    <row r="38" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="6"/>
-    </row>
-    <row r="40" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="6"/>
-    </row>
-    <row r="41" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="6"/>
-    </row>
-    <row r="42" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="6"/>
-    </row>
-    <row r="43" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="6"/>
-    </row>
-    <row r="44" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="6"/>
-    </row>
-    <row r="45" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="6"/>
-    </row>
-    <row r="46" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="6"/>
-    </row>
-    <row r="47" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="6"/>
-    </row>
-    <row r="48" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="6"/>
-    </row>
-    <row r="52" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="6"/>
-    </row>
-    <row r="53" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="6"/>
-    </row>
-    <row r="54" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="6"/>
-    </row>
-    <row r="56" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="6"/>
-    </row>
-    <row r="58" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="6"/>
-    </row>
-    <row r="60" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="6"/>
-    </row>
-    <row r="61" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F61" s="3"/>
+    <row r="29" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>68</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>69</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>70</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>71</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45064</v>
+      </c>
+      <c r="G32" s="14">
+        <v>45064.626828703702</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>72</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45064</v>
+      </c>
+      <c r="G33" s="14">
+        <v>45064.608437499999</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>73</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45064</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>74</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45064</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>122</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45082</v>
+      </c>
+      <c r="G36" s="14">
+        <v>45082.759108796294</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>123</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>124</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45082</v>
+      </c>
+      <c r="G38" s="14">
+        <v>45082.780578703707</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>125</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
+        <v>126</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>127</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>128</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>129</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45083</v>
+      </c>
+      <c r="G43" s="14">
+        <v>45083.621504629627</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19">
+        <v>130</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45083</v>
+      </c>
+      <c r="G44" s="14">
+        <v>45083.63318287037</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
+        <v>131</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45083</v>
+      </c>
+      <c r="G45" s="14">
+        <v>45083.690127314818</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19">
+        <v>132</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="13">
+        <v>45083</v>
+      </c>
+      <c r="G46" s="14">
+        <v>45083.710844907408</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
+        <v>133</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19">
+        <v>134</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
+        <v>135</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G49" s="14">
+        <v>45084.426354166666</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
+        <v>136</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>137</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G51" s="14">
+        <v>45084.446574074071</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
+        <v>138</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="O52" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="19">
+        <v>139</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19">
+        <v>140</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
+        <v>141</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G55" s="14">
+        <v>45084.511331018519</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I55" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19">
+        <v>142</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G56" s="14">
+        <v>45084.618067129632</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19">
+        <v>143</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G57" s="14">
+        <v>45084.637361111112</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="15"/>
+      <c r="L57" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19">
+        <v>144</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G58" s="14">
+        <v>45084.650671296295</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="O58" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19">
+        <v>145</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19">
+        <v>146</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G60" s="14">
+        <v>45084.668726851851</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="4"/>
+      <c r="J61" s="3"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -2949,11 +4295,12 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="6"/>
-    </row>
-    <row r="62" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="4"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="6"/>
+    </row>
+    <row r="62" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2970,7 +4317,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="6"/>
     </row>
-    <row r="63" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2987,7 +4334,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="6"/>
     </row>
-    <row r="64" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -11794,132 +13141,580 @@
       <c r="T581" s="6"/>
     </row>
     <row r="582" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T582" s="4"/>
+      <c r="F582" s="3"/>
+      <c r="G582" s="3"/>
+      <c r="H582" s="3"/>
+      <c r="I582" s="3"/>
+      <c r="J582" s="4"/>
+      <c r="K582" s="4"/>
+      <c r="L582" s="4"/>
+      <c r="M582" s="4"/>
+      <c r="N582" s="4"/>
+      <c r="O582" s="4"/>
+      <c r="P582" s="4"/>
+      <c r="Q582" s="4"/>
+      <c r="R582" s="5"/>
+      <c r="S582" s="1"/>
+      <c r="T582" s="6"/>
     </row>
     <row r="583" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T583" s="4"/>
+      <c r="F583" s="3"/>
+      <c r="G583" s="3"/>
+      <c r="H583" s="3"/>
+      <c r="I583" s="3"/>
+      <c r="J583" s="4"/>
+      <c r="K583" s="4"/>
+      <c r="L583" s="4"/>
+      <c r="M583" s="4"/>
+      <c r="N583" s="4"/>
+      <c r="O583" s="4"/>
+      <c r="P583" s="4"/>
+      <c r="Q583" s="4"/>
+      <c r="R583" s="5"/>
+      <c r="S583" s="1"/>
+      <c r="T583" s="6"/>
     </row>
     <row r="584" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T584" s="4"/>
+      <c r="F584" s="3"/>
+      <c r="G584" s="3"/>
+      <c r="H584" s="3"/>
+      <c r="I584" s="3"/>
+      <c r="J584" s="4"/>
+      <c r="K584" s="4"/>
+      <c r="L584" s="4"/>
+      <c r="M584" s="4"/>
+      <c r="N584" s="4"/>
+      <c r="O584" s="4"/>
+      <c r="P584" s="4"/>
+      <c r="Q584" s="4"/>
+      <c r="R584" s="5"/>
+      <c r="S584" s="1"/>
+      <c r="T584" s="6"/>
     </row>
     <row r="585" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T585" s="4"/>
+      <c r="F585" s="3"/>
+      <c r="G585" s="3"/>
+      <c r="H585" s="3"/>
+      <c r="I585" s="3"/>
+      <c r="J585" s="4"/>
+      <c r="K585" s="4"/>
+      <c r="L585" s="4"/>
+      <c r="M585" s="4"/>
+      <c r="N585" s="4"/>
+      <c r="O585" s="4"/>
+      <c r="P585" s="4"/>
+      <c r="Q585" s="4"/>
+      <c r="R585" s="5"/>
+      <c r="S585" s="1"/>
+      <c r="T585" s="6"/>
     </row>
     <row r="586" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T586" s="4"/>
+      <c r="F586" s="3"/>
+      <c r="G586" s="3"/>
+      <c r="H586" s="3"/>
+      <c r="I586" s="3"/>
+      <c r="J586" s="4"/>
+      <c r="K586" s="4"/>
+      <c r="L586" s="4"/>
+      <c r="M586" s="4"/>
+      <c r="N586" s="4"/>
+      <c r="O586" s="4"/>
+      <c r="P586" s="4"/>
+      <c r="Q586" s="4"/>
+      <c r="R586" s="5"/>
+      <c r="S586" s="1"/>
+      <c r="T586" s="6"/>
     </row>
     <row r="587" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T587" s="4"/>
+      <c r="F587" s="3"/>
+      <c r="G587" s="3"/>
+      <c r="H587" s="3"/>
+      <c r="I587" s="3"/>
+      <c r="J587" s="4"/>
+      <c r="K587" s="4"/>
+      <c r="L587" s="4"/>
+      <c r="M587" s="4"/>
+      <c r="N587" s="4"/>
+      <c r="O587" s="4"/>
+      <c r="P587" s="4"/>
+      <c r="Q587" s="4"/>
+      <c r="R587" s="5"/>
+      <c r="S587" s="1"/>
+      <c r="T587" s="6"/>
     </row>
     <row r="588" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T588" s="4"/>
+      <c r="F588" s="3"/>
+      <c r="G588" s="3"/>
+      <c r="H588" s="3"/>
+      <c r="I588" s="3"/>
+      <c r="J588" s="4"/>
+      <c r="K588" s="4"/>
+      <c r="L588" s="4"/>
+      <c r="M588" s="4"/>
+      <c r="N588" s="4"/>
+      <c r="O588" s="4"/>
+      <c r="P588" s="4"/>
+      <c r="Q588" s="4"/>
+      <c r="R588" s="5"/>
+      <c r="S588" s="1"/>
+      <c r="T588" s="6"/>
     </row>
     <row r="589" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T589" s="4"/>
+      <c r="F589" s="3"/>
+      <c r="G589" s="3"/>
+      <c r="H589" s="3"/>
+      <c r="I589" s="3"/>
+      <c r="J589" s="4"/>
+      <c r="K589" s="4"/>
+      <c r="L589" s="4"/>
+      <c r="M589" s="4"/>
+      <c r="N589" s="4"/>
+      <c r="O589" s="4"/>
+      <c r="P589" s="4"/>
+      <c r="Q589" s="4"/>
+      <c r="R589" s="5"/>
+      <c r="S589" s="1"/>
+      <c r="T589" s="6"/>
     </row>
     <row r="590" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T590" s="4"/>
+      <c r="F590" s="3"/>
+      <c r="G590" s="3"/>
+      <c r="H590" s="3"/>
+      <c r="I590" s="3"/>
+      <c r="J590" s="4"/>
+      <c r="K590" s="4"/>
+      <c r="L590" s="4"/>
+      <c r="M590" s="4"/>
+      <c r="N590" s="4"/>
+      <c r="O590" s="4"/>
+      <c r="P590" s="4"/>
+      <c r="Q590" s="4"/>
+      <c r="R590" s="5"/>
+      <c r="S590" s="1"/>
+      <c r="T590" s="6"/>
     </row>
     <row r="591" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T591" s="4"/>
+      <c r="F591" s="3"/>
+      <c r="G591" s="3"/>
+      <c r="H591" s="3"/>
+      <c r="I591" s="3"/>
+      <c r="J591" s="4"/>
+      <c r="K591" s="4"/>
+      <c r="L591" s="4"/>
+      <c r="M591" s="4"/>
+      <c r="N591" s="4"/>
+      <c r="O591" s="4"/>
+      <c r="P591" s="4"/>
+      <c r="Q591" s="4"/>
+      <c r="R591" s="5"/>
+      <c r="S591" s="1"/>
+      <c r="T591" s="6"/>
     </row>
     <row r="592" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T592" s="4"/>
-    </row>
-    <row r="593" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T593" s="4"/>
-    </row>
-    <row r="594" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T594" s="4"/>
-    </row>
-    <row r="595" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T595" s="4"/>
-    </row>
-    <row r="596" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T596" s="4"/>
-    </row>
-    <row r="597" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T597" s="4"/>
-    </row>
-    <row r="598" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T598" s="4"/>
-    </row>
-    <row r="599" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T599" s="4"/>
-    </row>
-    <row r="600" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T600" s="4"/>
-    </row>
-    <row r="601" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T601" s="4"/>
-    </row>
-    <row r="602" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T602" s="4"/>
-    </row>
-    <row r="603" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T603" s="4"/>
-    </row>
-    <row r="604" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T604" s="4"/>
-    </row>
-    <row r="605" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T605" s="4"/>
-    </row>
-    <row r="606" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T606" s="4"/>
-    </row>
-    <row r="607" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T607" s="4"/>
-    </row>
-    <row r="608" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T608" s="4"/>
-    </row>
-    <row r="609" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T609" s="4"/>
-    </row>
-    <row r="610" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T610" s="4"/>
-    </row>
-    <row r="611" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T611" s="4"/>
-    </row>
-    <row r="612" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T612" s="4"/>
-    </row>
-    <row r="613" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T613" s="4"/>
-    </row>
-    <row r="614" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F592" s="3"/>
+      <c r="G592" s="3"/>
+      <c r="H592" s="3"/>
+      <c r="I592" s="3"/>
+      <c r="J592" s="4"/>
+      <c r="K592" s="4"/>
+      <c r="L592" s="4"/>
+      <c r="M592" s="4"/>
+      <c r="N592" s="4"/>
+      <c r="O592" s="4"/>
+      <c r="P592" s="4"/>
+      <c r="Q592" s="4"/>
+      <c r="R592" s="5"/>
+      <c r="S592" s="1"/>
+      <c r="T592" s="6"/>
+    </row>
+    <row r="593" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F593" s="3"/>
+      <c r="G593" s="3"/>
+      <c r="H593" s="3"/>
+      <c r="I593" s="3"/>
+      <c r="J593" s="4"/>
+      <c r="K593" s="4"/>
+      <c r="L593" s="4"/>
+      <c r="M593" s="4"/>
+      <c r="N593" s="4"/>
+      <c r="O593" s="4"/>
+      <c r="P593" s="4"/>
+      <c r="Q593" s="4"/>
+      <c r="R593" s="5"/>
+      <c r="S593" s="1"/>
+      <c r="T593" s="6"/>
+    </row>
+    <row r="594" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F594" s="3"/>
+      <c r="G594" s="3"/>
+      <c r="H594" s="3"/>
+      <c r="I594" s="3"/>
+      <c r="J594" s="4"/>
+      <c r="K594" s="4"/>
+      <c r="L594" s="4"/>
+      <c r="M594" s="4"/>
+      <c r="N594" s="4"/>
+      <c r="O594" s="4"/>
+      <c r="P594" s="4"/>
+      <c r="Q594" s="4"/>
+      <c r="R594" s="5"/>
+      <c r="S594" s="1"/>
+      <c r="T594" s="6"/>
+    </row>
+    <row r="595" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F595" s="3"/>
+      <c r="G595" s="3"/>
+      <c r="H595" s="3"/>
+      <c r="I595" s="3"/>
+      <c r="J595" s="4"/>
+      <c r="K595" s="4"/>
+      <c r="L595" s="4"/>
+      <c r="M595" s="4"/>
+      <c r="N595" s="4"/>
+      <c r="O595" s="4"/>
+      <c r="P595" s="4"/>
+      <c r="Q595" s="4"/>
+      <c r="R595" s="5"/>
+      <c r="S595" s="1"/>
+      <c r="T595" s="6"/>
+    </row>
+    <row r="596" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F596" s="3"/>
+      <c r="G596" s="3"/>
+      <c r="H596" s="3"/>
+      <c r="I596" s="3"/>
+      <c r="J596" s="4"/>
+      <c r="K596" s="4"/>
+      <c r="L596" s="4"/>
+      <c r="M596" s="4"/>
+      <c r="N596" s="4"/>
+      <c r="O596" s="4"/>
+      <c r="P596" s="4"/>
+      <c r="Q596" s="4"/>
+      <c r="R596" s="5"/>
+      <c r="S596" s="1"/>
+      <c r="T596" s="6"/>
+    </row>
+    <row r="597" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F597" s="3"/>
+      <c r="G597" s="3"/>
+      <c r="H597" s="3"/>
+      <c r="I597" s="3"/>
+      <c r="J597" s="4"/>
+      <c r="K597" s="4"/>
+      <c r="L597" s="4"/>
+      <c r="M597" s="4"/>
+      <c r="N597" s="4"/>
+      <c r="O597" s="4"/>
+      <c r="P597" s="4"/>
+      <c r="Q597" s="4"/>
+      <c r="R597" s="5"/>
+      <c r="S597" s="1"/>
+      <c r="T597" s="6"/>
+    </row>
+    <row r="598" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F598" s="3"/>
+      <c r="G598" s="3"/>
+      <c r="H598" s="3"/>
+      <c r="I598" s="3"/>
+      <c r="J598" s="4"/>
+      <c r="K598" s="4"/>
+      <c r="L598" s="4"/>
+      <c r="M598" s="4"/>
+      <c r="N598" s="4"/>
+      <c r="O598" s="4"/>
+      <c r="P598" s="4"/>
+      <c r="Q598" s="4"/>
+      <c r="R598" s="5"/>
+      <c r="S598" s="1"/>
+      <c r="T598" s="6"/>
+    </row>
+    <row r="599" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F599" s="3"/>
+      <c r="G599" s="3"/>
+      <c r="H599" s="3"/>
+      <c r="I599" s="3"/>
+      <c r="J599" s="4"/>
+      <c r="K599" s="4"/>
+      <c r="L599" s="4"/>
+      <c r="M599" s="4"/>
+      <c r="N599" s="4"/>
+      <c r="O599" s="4"/>
+      <c r="P599" s="4"/>
+      <c r="Q599" s="4"/>
+      <c r="R599" s="5"/>
+      <c r="S599" s="1"/>
+      <c r="T599" s="6"/>
+    </row>
+    <row r="600" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F600" s="3"/>
+      <c r="G600" s="3"/>
+      <c r="H600" s="3"/>
+      <c r="I600" s="3"/>
+      <c r="J600" s="4"/>
+      <c r="K600" s="4"/>
+      <c r="L600" s="4"/>
+      <c r="M600" s="4"/>
+      <c r="N600" s="4"/>
+      <c r="O600" s="4"/>
+      <c r="P600" s="4"/>
+      <c r="Q600" s="4"/>
+      <c r="R600" s="5"/>
+      <c r="S600" s="1"/>
+      <c r="T600" s="6"/>
+    </row>
+    <row r="601" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F601" s="3"/>
+      <c r="G601" s="3"/>
+      <c r="H601" s="3"/>
+      <c r="I601" s="3"/>
+      <c r="J601" s="4"/>
+      <c r="K601" s="4"/>
+      <c r="L601" s="4"/>
+      <c r="M601" s="4"/>
+      <c r="N601" s="4"/>
+      <c r="O601" s="4"/>
+      <c r="P601" s="4"/>
+      <c r="Q601" s="4"/>
+      <c r="R601" s="5"/>
+      <c r="S601" s="1"/>
+      <c r="T601" s="6"/>
+    </row>
+    <row r="602" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F602" s="3"/>
+      <c r="G602" s="3"/>
+      <c r="H602" s="3"/>
+      <c r="I602" s="3"/>
+      <c r="J602" s="4"/>
+      <c r="K602" s="4"/>
+      <c r="L602" s="4"/>
+      <c r="M602" s="4"/>
+      <c r="N602" s="4"/>
+      <c r="O602" s="4"/>
+      <c r="P602" s="4"/>
+      <c r="Q602" s="4"/>
+      <c r="R602" s="5"/>
+      <c r="S602" s="1"/>
+      <c r="T602" s="6"/>
+    </row>
+    <row r="603" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F603" s="3"/>
+      <c r="G603" s="3"/>
+      <c r="H603" s="3"/>
+      <c r="I603" s="3"/>
+      <c r="J603" s="4"/>
+      <c r="K603" s="4"/>
+      <c r="L603" s="4"/>
+      <c r="M603" s="4"/>
+      <c r="N603" s="4"/>
+      <c r="O603" s="4"/>
+      <c r="P603" s="4"/>
+      <c r="Q603" s="4"/>
+      <c r="R603" s="5"/>
+      <c r="S603" s="1"/>
+      <c r="T603" s="6"/>
+    </row>
+    <row r="604" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F604" s="3"/>
+      <c r="G604" s="3"/>
+      <c r="H604" s="3"/>
+      <c r="I604" s="3"/>
+      <c r="J604" s="4"/>
+      <c r="K604" s="4"/>
+      <c r="L604" s="4"/>
+      <c r="M604" s="4"/>
+      <c r="N604" s="4"/>
+      <c r="O604" s="4"/>
+      <c r="P604" s="4"/>
+      <c r="Q604" s="4"/>
+      <c r="R604" s="5"/>
+      <c r="S604" s="1"/>
+      <c r="T604" s="6"/>
+    </row>
+    <row r="605" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F605" s="3"/>
+      <c r="G605" s="3"/>
+      <c r="H605" s="3"/>
+      <c r="I605" s="3"/>
+      <c r="J605" s="4"/>
+      <c r="K605" s="4"/>
+      <c r="L605" s="4"/>
+      <c r="M605" s="4"/>
+      <c r="N605" s="4"/>
+      <c r="O605" s="4"/>
+      <c r="P605" s="4"/>
+      <c r="Q605" s="4"/>
+      <c r="R605" s="5"/>
+      <c r="S605" s="1"/>
+      <c r="T605" s="6"/>
+    </row>
+    <row r="606" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F606" s="3"/>
+      <c r="G606" s="3"/>
+      <c r="H606" s="3"/>
+      <c r="I606" s="3"/>
+      <c r="J606" s="4"/>
+      <c r="K606" s="4"/>
+      <c r="L606" s="4"/>
+      <c r="M606" s="4"/>
+      <c r="N606" s="4"/>
+      <c r="O606" s="4"/>
+      <c r="P606" s="4"/>
+      <c r="Q606" s="4"/>
+      <c r="R606" s="5"/>
+      <c r="S606" s="1"/>
+      <c r="T606" s="6"/>
+    </row>
+    <row r="607" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F607" s="3"/>
+      <c r="G607" s="3"/>
+      <c r="H607" s="3"/>
+      <c r="I607" s="3"/>
+      <c r="J607" s="4"/>
+      <c r="K607" s="4"/>
+      <c r="L607" s="4"/>
+      <c r="M607" s="4"/>
+      <c r="N607" s="4"/>
+      <c r="O607" s="4"/>
+      <c r="P607" s="4"/>
+      <c r="Q607" s="4"/>
+      <c r="R607" s="5"/>
+      <c r="S607" s="1"/>
+      <c r="T607" s="6"/>
+    </row>
+    <row r="608" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F608" s="3"/>
+      <c r="G608" s="3"/>
+      <c r="H608" s="3"/>
+      <c r="I608" s="3"/>
+      <c r="J608" s="4"/>
+      <c r="K608" s="4"/>
+      <c r="L608" s="4"/>
+      <c r="M608" s="4"/>
+      <c r="N608" s="4"/>
+      <c r="O608" s="4"/>
+      <c r="P608" s="4"/>
+      <c r="Q608" s="4"/>
+      <c r="R608" s="5"/>
+      <c r="S608" s="1"/>
+      <c r="T608" s="6"/>
+    </row>
+    <row r="609" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F609" s="3"/>
+      <c r="G609" s="3"/>
+      <c r="H609" s="3"/>
+      <c r="I609" s="3"/>
+      <c r="J609" s="4"/>
+      <c r="K609" s="4"/>
+      <c r="L609" s="4"/>
+      <c r="M609" s="4"/>
+      <c r="N609" s="4"/>
+      <c r="O609" s="4"/>
+      <c r="P609" s="4"/>
+      <c r="Q609" s="4"/>
+      <c r="R609" s="5"/>
+      <c r="S609" s="1"/>
+      <c r="T609" s="6"/>
+    </row>
+    <row r="610" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F610" s="3"/>
+      <c r="G610" s="3"/>
+      <c r="H610" s="3"/>
+      <c r="I610" s="3"/>
+      <c r="J610" s="4"/>
+      <c r="K610" s="4"/>
+      <c r="L610" s="4"/>
+      <c r="M610" s="4"/>
+      <c r="N610" s="4"/>
+      <c r="O610" s="4"/>
+      <c r="P610" s="4"/>
+      <c r="Q610" s="4"/>
+      <c r="R610" s="5"/>
+      <c r="S610" s="1"/>
+      <c r="T610" s="6"/>
+    </row>
+    <row r="611" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F611" s="3"/>
+      <c r="G611" s="3"/>
+      <c r="H611" s="3"/>
+      <c r="I611" s="3"/>
+      <c r="J611" s="4"/>
+      <c r="K611" s="4"/>
+      <c r="L611" s="4"/>
+      <c r="M611" s="4"/>
+      <c r="N611" s="4"/>
+      <c r="O611" s="4"/>
+      <c r="P611" s="4"/>
+      <c r="Q611" s="4"/>
+      <c r="R611" s="5"/>
+      <c r="S611" s="1"/>
+      <c r="T611" s="6"/>
+    </row>
+    <row r="612" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F612" s="3"/>
+      <c r="G612" s="3"/>
+      <c r="H612" s="3"/>
+      <c r="I612" s="3"/>
+      <c r="J612" s="4"/>
+      <c r="K612" s="4"/>
+      <c r="L612" s="4"/>
+      <c r="M612" s="4"/>
+      <c r="N612" s="4"/>
+      <c r="O612" s="4"/>
+      <c r="P612" s="4"/>
+      <c r="Q612" s="4"/>
+      <c r="R612" s="5"/>
+      <c r="S612" s="1"/>
+      <c r="T612" s="6"/>
+    </row>
+    <row r="613" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F613" s="3"/>
+      <c r="G613" s="3"/>
+      <c r="H613" s="3"/>
+      <c r="I613" s="3"/>
+      <c r="J613" s="4"/>
+      <c r="K613" s="4"/>
+      <c r="L613" s="4"/>
+      <c r="M613" s="4"/>
+      <c r="N613" s="4"/>
+      <c r="O613" s="4"/>
+      <c r="P613" s="4"/>
+      <c r="Q613" s="4"/>
+      <c r="R613" s="5"/>
+      <c r="S613" s="1"/>
+      <c r="T613" s="6"/>
+    </row>
+    <row r="614" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T614" s="4"/>
     </row>
-    <row r="615" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T615" s="4"/>
     </row>
-    <row r="616" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T616" s="4"/>
     </row>
-    <row r="617" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T617" s="4"/>
     </row>
-    <row r="618" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T618" s="4"/>
     </row>
-    <row r="619" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T619" s="4"/>
     </row>
-    <row r="620" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T620" s="4"/>
     </row>
-    <row r="621" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T621" s="4"/>
     </row>
-    <row r="622" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T622" s="4"/>
     </row>
-    <row r="623" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T623" s="4"/>
     </row>
-    <row r="624" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T624" s="4"/>
     </row>
     <row r="625" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11988,10 +13783,106 @@
     <row r="646" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T646" s="4"/>
     </row>
+    <row r="647" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T647" s="4"/>
+    </row>
+    <row r="648" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T648" s="4"/>
+    </row>
+    <row r="649" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T649" s="4"/>
+    </row>
+    <row r="650" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T650" s="4"/>
+    </row>
+    <row r="651" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T651" s="4"/>
+    </row>
+    <row r="652" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T652" s="4"/>
+    </row>
+    <row r="653" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T653" s="4"/>
+    </row>
+    <row r="654" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T654" s="4"/>
+    </row>
+    <row r="655" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T655" s="4"/>
+    </row>
+    <row r="656" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T656" s="4"/>
+    </row>
+    <row r="657" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T657" s="4"/>
+    </row>
+    <row r="658" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T658" s="4"/>
+    </row>
+    <row r="659" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T659" s="4"/>
+    </row>
+    <row r="660" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T660" s="4"/>
+    </row>
+    <row r="661" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T661" s="4"/>
+    </row>
+    <row r="662" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T662" s="4"/>
+    </row>
+    <row r="663" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T663" s="4"/>
+    </row>
+    <row r="664" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T664" s="4"/>
+    </row>
+    <row r="665" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T665" s="4"/>
+    </row>
+    <row r="666" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T666" s="4"/>
+    </row>
+    <row r="667" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T667" s="4"/>
+    </row>
+    <row r="668" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T668" s="4"/>
+    </row>
+    <row r="669" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T669" s="4"/>
+    </row>
+    <row r="670" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T670" s="4"/>
+    </row>
+    <row r="671" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T671" s="4"/>
+    </row>
+    <row r="672" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T672" s="4"/>
+    </row>
+    <row r="673" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T673" s="4"/>
+    </row>
+    <row r="674" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T674" s="4"/>
+    </row>
+    <row r="675" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T675" s="4"/>
+    </row>
+    <row r="676" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T676" s="4"/>
+    </row>
+    <row r="677" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T677" s="4"/>
+    </row>
+    <row r="678" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T678" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:T28" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T28">
-      <sortCondition ref="A9:A28"/>
+  <autoFilter ref="A9:T60" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T60">
+      <sortCondition ref="A9:A60"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
@@ -12014,13 +13905,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O25:O28 J25:J28 L25:M28</xm:sqref>
+          <xm:sqref>M50:M51 O32:O60 L51 L32:M49 J32:J60 L58 L52:M56 L59:M60 M57:M58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q25:Q28</xm:sqref>
+          <xm:sqref>Q32:Q60</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484E212-E792-4A4E-B189-F1B44F5E37AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D93F96-AFF3-40AF-A69B-365A7179A8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$60</definedName>
-    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$92</definedName>
+    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$90</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="349">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -262,10 +262,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -562,11 +558,6 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">Precondizioni:Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.Descrizione di Business del caso di test: 
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
- </t>
-  </si>
-  <si>
     <t>VALIDAZIONE_VPS_TIMEOUT</t>
   </si>
   <si>
@@ -834,102 +825,483 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento del codice triage </t>
+  </si>
+  <si>
+    <t>sofware non consente il mancato inserimento della data di insorgenza del problema</t>
+  </si>
+  <si>
+    <t>8fb029e5ec77b904</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.9a9c858b399b0cab493808f8849ebe43529977fa5bb5aafa3ad64bb961affecc.5ee79ac37d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b114| Sotto-sezione Anamnesi: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento della data relativa a inizio e fine in cui l' allergia è attiva</t>
+  </si>
+  <si>
+    <t>d4f54b56790f9157</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.07ea63bba06843cce173523ca92f277e4fca2ef546983c734a12d956dd5b579d.7cd539da5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b154| Sezione Encounters: L'elemento entry/encounters/effectiveTime deve essere presente e deve avere gli elementi 'low' e 'high' valorizzati.]</t>
+  </si>
+  <si>
+    <t>07/06/2023 11:03;17</t>
+  </si>
+  <si>
+    <t>e79798fc46cebdbc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.08fb39d369cde96a783d3e222e9f0526482cd55957117411cd3dd1d0ef8089e2.20b53392ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b168| Sezione Complicanze: l'elemento entry/observation/value DEVE essere valorizzato con l'attributo @xsi:type=CD.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento del nominativo del medico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento relativp all'esito del trattamneto</t>
+  </si>
+  <si>
+    <t>b5eab079cbcb7343</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.011c8dcb177205bd5716835e208a41647a55eb4aa0eb53d37228afa3814e6004.aadd2937b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b252|Sezione Terapia farmacologica alla dimissione: entry/substanceAdministration/effectiveTime deve avere l'elemento 'low' valorizzato ]</t>
+  </si>
+  <si>
+    <t>17ad5f564cee8689</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.6f031d44e657b6229880b3febfae5844cf23d053351d5840d9d94182bea90ce9.a180c46712^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.1, Codes: 89]</t>
+  </si>
+  <si>
+    <t>d4fdb371d82de4cb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.f6df542ee1f1c0093e62e0f6a7e3d50cc223e8736f868e47a4af8c68850612a5.1e2b5eae3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: 88]</t>
+  </si>
+  <si>
+    <t>64b72e7962dc1a00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.b32225fd8e92b4d1e71e7ebf62b21390b5a6aeb7d1dcbe0b930a4175e4cb23af.7a14afee14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 99999]</t>
+  </si>
+  <si>
+    <t>3439c8c3db61f0e5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.487d051988289d5d208d4b14a284f8a50ded6c4d49bf0554057c3a09a8a1fab4.11eef58097^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b136| Sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
+  </si>
+  <si>
+    <t>alcune delle infromazioni dei campi opzionali non sono presenti sull' applicativo</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
+    <t>Precondizioni:Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+  </si>
+  <si>
+    <t>e8c41cb50f3dddbf</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
+  </si>
+  <si>
+    <t>Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+  </si>
+  <si>
+    <t>recondizioni:Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+  </si>
+  <si>
+    <t>abe26248206cfa37</t>
+  </si>
+  <si>
+    <t>403-Il campo action_id non è corretto</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RSA_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT1_OK</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sofware non consente il mancato inserimento del codice triage </t>
-  </si>
-  <si>
-    <t>sofware non consente il mancato inserimento della data di insorgenza del problema</t>
-  </si>
-  <si>
-    <t>8fb029e5ec77b904</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.9a9c858b399b0cab493808f8849ebe43529977fa5bb5aafa3ad64bb961affecc.5ee79ac37d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>422-[ERRORE-b114| Sotto-sezione Anamnesi: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sofware non consente il mancato inserimento della data relativa a inizio e fine in cui l' allergia è attiva</t>
-  </si>
-  <si>
-    <t>d4f54b56790f9157</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.07ea63bba06843cce173523ca92f277e4fca2ef546983c734a12d956dd5b579d.7cd539da5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>422-[ERRORE-b154| Sezione Encounters: L'elemento entry/encounters/effectiveTime deve essere presente e deve avere gli elementi 'low' e 'high' valorizzati.]</t>
-  </si>
-  <si>
-    <t>07/06/2023 11:03;17</t>
-  </si>
-  <si>
-    <t>e79798fc46cebdbc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.08fb39d369cde96a783d3e222e9f0526482cd55957117411cd3dd1d0ef8089e2.20b53392ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>422-[ERRORE-b168| Sezione Complicanze: l'elemento entry/observation/value DEVE essere valorizzato con l'attributo @xsi:type=CD.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sofware non consente il mancato inserimento del nominativo del medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sofware non consente il mancato inserimento relativp all'esito del trattamneto</t>
-  </si>
-  <si>
-    <t>b5eab079cbcb7343</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.011c8dcb177205bd5716835e208a41647a55eb4aa0eb53d37228afa3814e6004.aadd2937b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>422-[ERRORE-b252|Sezione Terapia farmacologica alla dimissione: entry/substanceAdministration/effectiveTime deve avere l'elemento 'low' valorizzato ]</t>
-  </si>
-  <si>
-    <t>17ad5f564cee8689</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.6f031d44e657b6229880b3febfae5844cf23d053351d5840d9d94182bea90ce9.a180c46712^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.1, Codes: 89]</t>
-  </si>
-  <si>
-    <t>d4fdb371d82de4cb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.f6df542ee1f1c0093e62e0f6a7e3d50cc223e8736f868e47a4af8c68850612a5.1e2b5eae3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: 88]</t>
-  </si>
-  <si>
-    <t>64b72e7962dc1a00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.b32225fd8e92b4d1e71e7ebf62b21390b5a6aeb7d1dcbe0b930a4175e4cb23af.7a14afee14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 99999]</t>
-  </si>
-  <si>
-    <t>3439c8c3db61f0e5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.487d051988289d5d208d4b14a284f8a50ded6c4d49bf0554057c3a09a8a1fab4.11eef58097^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>422-[ERRORE-b136| Sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
-  </si>
-  <si>
-    <t>alcune delle infromazioni dei campi opzionali non sono presenti sull' applicativo</t>
+secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>411d0de5301e7ff7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.a7929d9ee32d1776405eff50c064b0b53f4d69b3f64af6ab3dea4e313b1becc1.1e8d80922b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT2_OK</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT3_OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT5_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT7_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT11_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT19_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT21_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT22_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT4_OK</t>
+  </si>
+  <si>
+    <t>dea385d333c6fb43</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.c3431fb8c4b1c1fcd5618491edfa23049698bc24afc7a64611ee0c20f9bca273.8b75965aa1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7d0a5395b84c49b6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.661ea5b6443cc4e8c8f5f00d0b5270355884c1b6ef477bd29490dd86ff9dfc8d.e38646f536^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente l' inserimento di un codice fiscale con caratteri minuscoli</t>
+  </si>
+  <si>
+    <t>cdf20a92c98de155</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.54ac44c8dbe66f656cd875078a2ed2b1cb2ae284afee165c4864f56107ffc673.4c82cd817b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento del  comune di residenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente il mancato inserimento del  nome dell'assistito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sofware non consente di inserire un valore non ammesso nel campo sesso</t>
+  </si>
+  <si>
+    <t>il software non consente l' inserimento di un codice errato per la tipologia di accesso che ha determinato la pestazione</t>
+  </si>
+  <si>
+    <t>474511ef42ef3c22</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.a0438e002701366529238c2430ad69f0431222d9c4d06d75aa8625c2717d9f00.aba71e6622^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-38| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
+  </si>
+  <si>
+    <t>d047c65b3ca0b93f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.d5e19f1211e28c5d088f9b94b231c9d61f8e24282e6fe39e15e9d553c6e77fbf.a2dfbdd0ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.</t>
+  </si>
+  <si>
+    <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'effectiveTime'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.e805d6f42b18e207ff59527374d72c834e020bf64dc6b1763d3dfb86b082a657.0c7fa99a23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>232cd6db73621a02</t>
+  </si>
+  <si>
+    <t>4f3dd87fcd16e9c7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.e5616e1f35fd0b1bfff0708b6850769a84d649c4cc4aa9af11d89158d2a7e9a4.0267601291^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']</t>
+  </si>
+  <si>
+    <t>5b0a6b2e41f43bde</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.b9e07f30eb2389c65055dd9fb195bd1da6336c32cfa24aeac56bb12a73e8eb48.e54d3fb02e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
+  </si>
+  <si>
+    <t>il software non consente il mancato inserimento delle procedure operative associabili alla singola prestazione</t>
+  </si>
+  <si>
+    <t>bc0fc64f851ad6df</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.8b6d34c9069d2f85d69786df5aeadba5913d832f7a82ab44e8be63d7c8afb736.8313cf3bab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b26| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato],[ERRORE-b27| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'high' valorizzato nel caso in cui il problema non sia più presente]</t>
+  </si>
+  <si>
+    <t>460d69a50ecabed8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.a889daba4efdef0e2fd9d2d692615caea9fee1d0585d5129b12a518316c8f641.3bfb5f0fa6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b36| Sezione Storia Clinica: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
+  </si>
+  <si>
+    <t>ace6662db947baee</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.66d2679dd0b0949b4984fb20b153a7b888f2d56334efc1de15726fce72e4985e.a3d65b792c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b53| Sotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato ]</t>
+  </si>
+  <si>
+    <t>55ba27592a2a81c0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.e6e79d787b36bd101f93a0c2819ea5a8ee85331c8f2f7a83b9e9429677c050f5.2acda17246^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-b57| Sotto-sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
+  </si>
+  <si>
+    <t>4640452d69354dea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.bd5a2f263e4d844d56c6878edaaee87b01ffd6ab86c32e4959f1830291c133db.9f474dd745^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice \"S\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT0</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT0</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT0</t>
+  </si>
+  <si>
+    <t>a2f778eff4869569</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.3ef6f06ee2145e043d78951fa763bda4494f40e89021bb5220992b438cf759d2.f842d68ad3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e2484a1fadb38678</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.ccc97c12937e3fc73a6418f78f3e901f13350ed72befb4e5d55235a88418afaf.f585945b57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f36e6be885d5b8bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.0790ca93f8b308251521d3054e27fd1cd541f3b90688f98e34e1557513d826fe.f1a22a6220^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1201,11 +1573,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1314,6 +1697,18 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1337,11 +1732,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1636,13 +2028,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U678"/>
+  <dimension ref="A1:U710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1681,14 +2073,14 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="45"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1706,14 +2098,14 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="54"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1731,12 +2123,12 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="50"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="54"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1755,12 +2147,12 @@
       <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="50"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="54"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1778,8 +2170,8 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="7"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1913,29 +2305,29 @@
         <v>27</v>
       </c>
       <c r="F10" s="13">
-        <v>45058</v>
+        <v>45093</v>
       </c>
       <c r="G10" s="14">
-        <v>45058.617442129631</v>
+        <v>45093.414282407408</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>87</v>
+        <v>343</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>39</v>
+        <v>344</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="16"/>
@@ -1967,23 +2359,23 @@
         <v>45076.753506944442</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="J11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="16"/>
@@ -2012,26 +2404,26 @@
         <v>45077</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="16"/>
@@ -2061,10 +2453,10 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -2086,38 +2478,38 @@
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>117</v>
-      </c>
       <c r="F14" s="13">
-        <v>45082</v>
+        <v>45093</v>
       </c>
       <c r="G14" s="14">
-        <v>45082.606840277775</v>
+        <v>45093.41946759259</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="16"/>
@@ -2134,23 +2526,23 @@
         <v>25</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>118</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>119</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -2172,23 +2564,23 @@
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>120</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>121</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -2210,23 +2602,23 @@
         <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>123</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -2260,32 +2652,32 @@
         <v>45062</v>
       </c>
       <c r="G18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="I18" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="16"/>
@@ -2294,52 +2686,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="F19" s="13">
-        <v>45082</v>
+        <v>45090</v>
       </c>
       <c r="G19" s="14">
-        <v>45082.732939814814</v>
+        <v>45090.697604166664</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="16"/>
@@ -2348,183 +2740,185 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>36</v>
+        <v>114</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="F20" s="13">
-        <v>45062</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>92</v>
+        <v>45082</v>
+      </c>
+      <c r="G20" s="14">
+        <v>45082.732939814814</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="16"/>
-      <c r="S20" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="S20" s="22"/>
       <c r="T20" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="F21" s="13">
-        <v>45082</v>
-      </c>
-      <c r="G21" s="14">
-        <v>45082.739374999997</v>
+        <v>45062</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="15"/>
       <c r="R21" s="16"/>
       <c r="S21" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T21" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45090</v>
+      </c>
+      <c r="G22" s="14">
+        <v>45090.707407407404</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="F22" s="13">
-        <v>45062</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="22"/>
       <c r="T22" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="F23" s="13">
         <v>45082</v>
@@ -2532,36 +2926,43 @@
       <c r="G23" s="14">
         <v>45082.739374999997</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="J23" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q23" s="20"/>
-      <c r="S23" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="T23" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>25</v>
@@ -2570,182 +2971,201 @@
         <v>24</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="F24" s="13">
         <v>45062</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>95</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="21"/>
       <c r="S24" s="17"/>
       <c r="T24" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+        <v>246</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45090</v>
+      </c>
+      <c r="G25" s="14">
+        <v>45090.712268518517</v>
+      </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="41"/>
       <c r="T25" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="F26" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>45082</v>
+      </c>
+      <c r="G26" s="14">
+        <v>45082.739374999997</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="Q26" s="20"/>
+      <c r="S26" s="21"/>
       <c r="T26" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
-        <v>66</v>
-      </c>
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>63</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="32" t="s">
+      <c r="D27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45062</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>25</v>
@@ -2754,20 +3174,20 @@
         <v>24</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -2783,7 +3203,7 @@
     </row>
     <row r="29" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>25</v>
@@ -2792,74 +3212,90 @@
         <v>24</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45064</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="J29" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="R29" s="16"/>
       <c r="S29" s="17"/>
       <c r="T29" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <v>69</v>
-      </c>
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>66</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>53</v>
+      <c r="D30" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="18" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>25</v>
@@ -2868,20 +3304,20 @@
         <v>24</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
@@ -2897,7 +3333,7 @@
     </row>
     <row r="32" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>25</v>
@@ -2906,44 +3342,28 @@
         <v>24</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G32" s="14">
-        <v>45064.626828703702</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="16"/>
+      <c r="R32" s="15"/>
       <c r="S32" s="17"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
@@ -2951,7 +3371,7 @@
     </row>
     <row r="33" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>25</v>
@@ -2960,42 +3380,26 @@
         <v>24</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G33" s="14">
-        <v>45064.608437499999</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>101</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="16"/>
       <c r="S33" s="17"/>
@@ -3005,7 +3409,7 @@
     </row>
     <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>25</v>
@@ -3014,42 +3418,26 @@
         <v>24</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>105</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P34" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="R34" s="16"/>
       <c r="S34" s="17"/>
@@ -3057,9 +3445,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>25</v>
@@ -3068,41 +3456,41 @@
         <v>24</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F35" s="13">
         <v>45064</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>109</v>
+      <c r="G35" s="14">
+        <v>45064.626828703702</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>39</v>
+        <v>102</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="15"/>
       <c r="R35" s="16"/>
@@ -3111,52 +3499,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="F36" s="13">
-        <v>45082</v>
+        <v>45064</v>
       </c>
       <c r="G36" s="14">
-        <v>45082.759108796294</v>
+        <v>45064.608437499999</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="15"/>
       <c r="R36" s="16"/>
@@ -3165,37 +3553,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45064</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="J37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q37" s="15"/>
       <c r="R37" s="16"/>
       <c r="S37" s="17"/>
@@ -3203,51 +3607,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="F38" s="13">
-        <v>45082</v>
-      </c>
-      <c r="G38" s="14">
-        <v>45082.780578703707</v>
+        <v>45064</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q38" s="15"/>
       <c r="R38" s="16"/>
@@ -3258,35 +3663,51 @@
     </row>
     <row r="39" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+        <v>129</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45082</v>
+      </c>
+      <c r="G39" s="14">
+        <v>45082.759108796294</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="J39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q39" s="15"/>
       <c r="R39" s="16"/>
       <c r="S39" s="17"/>
@@ -3296,29 +3717,29 @@
     </row>
     <row r="40" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -3334,35 +3755,50 @@
     </row>
     <row r="41" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+        <v>133</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45082</v>
+      </c>
+      <c r="G41" s="14">
+        <v>45082.780578703707</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="J41" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q41" s="15"/>
       <c r="R41" s="16"/>
       <c r="S41" s="17"/>
@@ -3372,29 +3808,29 @@
     </row>
     <row r="42" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
@@ -3410,51 +3846,35 @@
     </row>
     <row r="43" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="13">
-        <v>45083</v>
-      </c>
-      <c r="G43" s="14">
-        <v>45083.621504629627</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="O43" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="16"/>
       <c r="S43" s="17"/>
@@ -3464,51 +3884,35 @@
     </row>
     <row r="44" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="13">
-        <v>45083</v>
-      </c>
-      <c r="G44" s="14">
-        <v>45083.63318287037</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P44" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
       <c r="R44" s="16"/>
       <c r="S44" s="17"/>
@@ -3518,51 +3922,35 @@
     </row>
     <row r="45" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="13">
-        <v>45083</v>
-      </c>
-      <c r="G45" s="14">
-        <v>45083.690127314818</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>188</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P45" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="16"/>
       <c r="S45" s="17"/>
@@ -3572,50 +3960,50 @@
     </row>
     <row r="46" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F46" s="13">
         <v>45083</v>
       </c>
       <c r="G46" s="14">
-        <v>45083.710844907408</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>190</v>
+        <v>45083.621504629627</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="16"/>
@@ -3626,35 +4014,51 @@
     </row>
     <row r="47" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
+        <v>145</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45083</v>
+      </c>
+      <c r="G47" s="14">
+        <v>45083.63318287037</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="J47" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q47" s="15"/>
       <c r="R47" s="16"/>
       <c r="S47" s="17"/>
@@ -3664,35 +4068,51 @@
     </row>
     <row r="48" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45083</v>
+      </c>
+      <c r="G48" s="14">
+        <v>45083.690127314818</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="J48" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q48" s="15"/>
       <c r="R48" s="16"/>
       <c r="S48" s="17"/>
@@ -3700,52 +4120,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="F49" s="13">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="G49" s="14">
-        <v>45084.426354166666</v>
+        <v>45083.710844907408</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K49" s="15"/>
       <c r="L49" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P49" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q49" s="15"/>
       <c r="R49" s="16"/>
@@ -3754,32 +4174,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>212</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
@@ -3791,53 +4212,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G51" s="14">
-        <v>45084.446574074071</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>214</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N51" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P51" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
       <c r="S51" s="17"/>
@@ -3845,52 +4250,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F52" s="13">
         <v>45084</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>216</v>
+      <c r="G52" s="14">
+        <v>45084.426354166666</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q52" s="15"/>
       <c r="R52" s="16"/>
@@ -3899,33 +4304,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="L53" s="15"/>
+        <v>209</v>
+      </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
@@ -3937,37 +4341,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+        <v>195</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G54" s="14">
+        <v>45084.446574074071</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="J54" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q54" s="15"/>
       <c r="R54" s="16"/>
       <c r="S54" s="17"/>
@@ -3975,52 +4395,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F55" s="13">
         <v>45084</v>
       </c>
-      <c r="G55" s="14">
-        <v>45084.511331018519</v>
+      <c r="G55" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>223</v>
+        <v>214</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K55" s="15"/>
       <c r="L55" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q55" s="15"/>
       <c r="R55" s="16"/>
@@ -4029,53 +4449,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F56" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G56" s="14">
-        <v>45084.618067129632</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>226</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M56" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N56" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="O56" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P56" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="16"/>
       <c r="S56" s="17"/>
@@ -4083,53 +4487,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="F57" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G57" s="14">
-        <v>45084.637361111112</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>229</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
       <c r="J57" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" s="15"/>
-      <c r="L57" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N57" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="O57" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P57" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="16"/>
       <c r="S57" s="17"/>
@@ -4137,52 +4525,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F58" s="13">
         <v>45084</v>
       </c>
       <c r="G58" s="14">
-        <v>45084.650671296295</v>
+        <v>45084.511331018519</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>232</v>
+        <v>219</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>220</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K58" s="15"/>
       <c r="L58" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M58" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N58" s="15" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q58" s="15"/>
       <c r="R58" s="16"/>
@@ -4191,37 +4579,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
+        <v>200</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G59" s="14">
+        <v>45084.618067129632</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="J59" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q59" s="15"/>
       <c r="R59" s="16"/>
       <c r="S59" s="17"/>
@@ -4229,52 +4633,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F60" s="13">
         <v>45084</v>
       </c>
       <c r="G60" s="14">
-        <v>45084.668726851851</v>
+        <v>45084.637361111112</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K60" s="15"/>
-      <c r="L60" s="15" t="s">
-        <v>39</v>
+      <c r="L60" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P60" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q60" s="15"/>
       <c r="R60" s="16"/>
@@ -4283,556 +4687,1409 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="6"/>
-    </row>
-    <row r="62" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="6"/>
-    </row>
-    <row r="63" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="6"/>
-    </row>
-    <row r="64" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="6"/>
-    </row>
-    <row r="65" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="6"/>
-    </row>
-    <row r="66" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="6"/>
-    </row>
-    <row r="67" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="6"/>
-    </row>
-    <row r="68" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="6"/>
-    </row>
-    <row r="69" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="6"/>
-    </row>
-    <row r="70" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="6"/>
-    </row>
-    <row r="71" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="6"/>
-    </row>
-    <row r="72" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="6"/>
-    </row>
-    <row r="73" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="6"/>
-    </row>
-    <row r="74" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="6"/>
-    </row>
-    <row r="75" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="6"/>
-    </row>
-    <row r="76" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="6"/>
-    </row>
-    <row r="77" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="6"/>
-    </row>
-    <row r="78" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="6"/>
-    </row>
-    <row r="79" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="6"/>
-    </row>
-    <row r="80" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="6"/>
-    </row>
-    <row r="81" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="6"/>
-    </row>
-    <row r="83" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="6"/>
-    </row>
-    <row r="84" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="6"/>
-    </row>
-    <row r="85" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="6"/>
-    </row>
-    <row r="87" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="6"/>
-    </row>
-    <row r="88" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="6"/>
-    </row>
-    <row r="89" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="6"/>
-    </row>
-    <row r="90" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="6"/>
-    </row>
-    <row r="91" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="6"/>
-    </row>
-    <row r="92" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="6"/>
-    </row>
-    <row r="93" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F93" s="3"/>
+    <row r="61" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19">
+        <v>144</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G61" s="14">
+        <v>45084.650671296295</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
+        <v>145</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19">
+        <v>146</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F63" s="13">
+        <v>45084</v>
+      </c>
+      <c r="G63" s="14">
+        <v>45084.668726851851</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N63" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
+        <v>147</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F64" s="13">
+        <v>45093</v>
+      </c>
+      <c r="G64" s="14">
+        <v>45093.44085648148</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
+        <v>148</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G65" s="14">
+        <v>45092.440694444442</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P65" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
+        <v>149</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
+        <v>150</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
+        <v>151</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G68" s="14">
+        <v>45092.45752314815</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
+        <v>152</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
+        <v>153</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F70" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G70" s="14">
+        <v>45092.485243055555</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
+        <v>154</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19">
+        <v>155</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19">
+        <v>156</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19">
+        <v>157</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19">
+        <v>158</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G75" s="14">
+        <v>45092.527453703704</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="O75" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19">
+        <v>159</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F76" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G76" s="14">
+        <v>45092.536736111113</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N76" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="O76" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19">
+        <v>160</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G77" s="14">
+        <v>45092.622465277775</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N77" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="O77" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19">
+        <v>161</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G78" s="14">
+        <v>45092.643865740742</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N78" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="O78" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19">
+        <v>162</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F79" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G79" s="14">
+        <v>45092.6562037037</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="O79" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19">
+        <v>163</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="19">
+        <v>164</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F81" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G81" s="14">
+        <v>45092.669351851851</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="O81" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P81" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19">
+        <v>165</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F82" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G82" s="14">
+        <v>45092.677546296298</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M82" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="O82" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P82" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19">
+        <v>166</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F83" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G83" s="14">
+        <v>45092.683692129627</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N83" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="O83" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19">
+        <v>167</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F84" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G84" s="14">
+        <v>45092.694479166668</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N84" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="O84" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19">
+        <v>168</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19">
+        <v>169</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F86" s="13">
+        <v>45092</v>
+      </c>
+      <c r="G86" s="14">
+        <v>45092.703912037039</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="O86" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19">
+        <v>369</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="13">
+        <v>45058</v>
+      </c>
+      <c r="G87" s="14">
+        <v>45058.617442129631</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="19">
+        <v>373</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="13">
+        <v>45082</v>
+      </c>
+      <c r="G88" s="14">
+        <v>45082.606840277775</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P88" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="19">
+        <v>374</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="13">
+        <v>45090</v>
+      </c>
+      <c r="G89" s="14">
+        <v>45090.679467592592</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="19"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T91" s="18"/>
+    </row>
+    <row r="93" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="4"/>
+      <c r="J93" s="3"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -4840,11 +6097,12 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="6"/>
-    </row>
-    <row r="94" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R93" s="4"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="6"/>
+    </row>
+    <row r="94" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -4861,7 +6119,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="6"/>
     </row>
-    <row r="95" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -4878,7 +6136,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="6"/>
     </row>
-    <row r="96" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -13685,132 +14943,580 @@
       <c r="T613" s="6"/>
     </row>
     <row r="614" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T614" s="4"/>
+      <c r="F614" s="3"/>
+      <c r="G614" s="3"/>
+      <c r="H614" s="3"/>
+      <c r="I614" s="3"/>
+      <c r="J614" s="4"/>
+      <c r="K614" s="4"/>
+      <c r="L614" s="4"/>
+      <c r="M614" s="4"/>
+      <c r="N614" s="4"/>
+      <c r="O614" s="4"/>
+      <c r="P614" s="4"/>
+      <c r="Q614" s="4"/>
+      <c r="R614" s="5"/>
+      <c r="S614" s="1"/>
+      <c r="T614" s="6"/>
     </row>
     <row r="615" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T615" s="4"/>
+      <c r="F615" s="3"/>
+      <c r="G615" s="3"/>
+      <c r="H615" s="3"/>
+      <c r="I615" s="3"/>
+      <c r="J615" s="4"/>
+      <c r="K615" s="4"/>
+      <c r="L615" s="4"/>
+      <c r="M615" s="4"/>
+      <c r="N615" s="4"/>
+      <c r="O615" s="4"/>
+      <c r="P615" s="4"/>
+      <c r="Q615" s="4"/>
+      <c r="R615" s="5"/>
+      <c r="S615" s="1"/>
+      <c r="T615" s="6"/>
     </row>
     <row r="616" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T616" s="4"/>
+      <c r="F616" s="3"/>
+      <c r="G616" s="3"/>
+      <c r="H616" s="3"/>
+      <c r="I616" s="3"/>
+      <c r="J616" s="4"/>
+      <c r="K616" s="4"/>
+      <c r="L616" s="4"/>
+      <c r="M616" s="4"/>
+      <c r="N616" s="4"/>
+      <c r="O616" s="4"/>
+      <c r="P616" s="4"/>
+      <c r="Q616" s="4"/>
+      <c r="R616" s="5"/>
+      <c r="S616" s="1"/>
+      <c r="T616" s="6"/>
     </row>
     <row r="617" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T617" s="4"/>
+      <c r="F617" s="3"/>
+      <c r="G617" s="3"/>
+      <c r="H617" s="3"/>
+      <c r="I617" s="3"/>
+      <c r="J617" s="4"/>
+      <c r="K617" s="4"/>
+      <c r="L617" s="4"/>
+      <c r="M617" s="4"/>
+      <c r="N617" s="4"/>
+      <c r="O617" s="4"/>
+      <c r="P617" s="4"/>
+      <c r="Q617" s="4"/>
+      <c r="R617" s="5"/>
+      <c r="S617" s="1"/>
+      <c r="T617" s="6"/>
     </row>
     <row r="618" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T618" s="4"/>
+      <c r="F618" s="3"/>
+      <c r="G618" s="3"/>
+      <c r="H618" s="3"/>
+      <c r="I618" s="3"/>
+      <c r="J618" s="4"/>
+      <c r="K618" s="4"/>
+      <c r="L618" s="4"/>
+      <c r="M618" s="4"/>
+      <c r="N618" s="4"/>
+      <c r="O618" s="4"/>
+      <c r="P618" s="4"/>
+      <c r="Q618" s="4"/>
+      <c r="R618" s="5"/>
+      <c r="S618" s="1"/>
+      <c r="T618" s="6"/>
     </row>
     <row r="619" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T619" s="4"/>
+      <c r="F619" s="3"/>
+      <c r="G619" s="3"/>
+      <c r="H619" s="3"/>
+      <c r="I619" s="3"/>
+      <c r="J619" s="4"/>
+      <c r="K619" s="4"/>
+      <c r="L619" s="4"/>
+      <c r="M619" s="4"/>
+      <c r="N619" s="4"/>
+      <c r="O619" s="4"/>
+      <c r="P619" s="4"/>
+      <c r="Q619" s="4"/>
+      <c r="R619" s="5"/>
+      <c r="S619" s="1"/>
+      <c r="T619" s="6"/>
     </row>
     <row r="620" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T620" s="4"/>
+      <c r="F620" s="3"/>
+      <c r="G620" s="3"/>
+      <c r="H620" s="3"/>
+      <c r="I620" s="3"/>
+      <c r="J620" s="4"/>
+      <c r="K620" s="4"/>
+      <c r="L620" s="4"/>
+      <c r="M620" s="4"/>
+      <c r="N620" s="4"/>
+      <c r="O620" s="4"/>
+      <c r="P620" s="4"/>
+      <c r="Q620" s="4"/>
+      <c r="R620" s="5"/>
+      <c r="S620" s="1"/>
+      <c r="T620" s="6"/>
     </row>
     <row r="621" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T621" s="4"/>
+      <c r="F621" s="3"/>
+      <c r="G621" s="3"/>
+      <c r="H621" s="3"/>
+      <c r="I621" s="3"/>
+      <c r="J621" s="4"/>
+      <c r="K621" s="4"/>
+      <c r="L621" s="4"/>
+      <c r="M621" s="4"/>
+      <c r="N621" s="4"/>
+      <c r="O621" s="4"/>
+      <c r="P621" s="4"/>
+      <c r="Q621" s="4"/>
+      <c r="R621" s="5"/>
+      <c r="S621" s="1"/>
+      <c r="T621" s="6"/>
     </row>
     <row r="622" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T622" s="4"/>
+      <c r="F622" s="3"/>
+      <c r="G622" s="3"/>
+      <c r="H622" s="3"/>
+      <c r="I622" s="3"/>
+      <c r="J622" s="4"/>
+      <c r="K622" s="4"/>
+      <c r="L622" s="4"/>
+      <c r="M622" s="4"/>
+      <c r="N622" s="4"/>
+      <c r="O622" s="4"/>
+      <c r="P622" s="4"/>
+      <c r="Q622" s="4"/>
+      <c r="R622" s="5"/>
+      <c r="S622" s="1"/>
+      <c r="T622" s="6"/>
     </row>
     <row r="623" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T623" s="4"/>
+      <c r="F623" s="3"/>
+      <c r="G623" s="3"/>
+      <c r="H623" s="3"/>
+      <c r="I623" s="3"/>
+      <c r="J623" s="4"/>
+      <c r="K623" s="4"/>
+      <c r="L623" s="4"/>
+      <c r="M623" s="4"/>
+      <c r="N623" s="4"/>
+      <c r="O623" s="4"/>
+      <c r="P623" s="4"/>
+      <c r="Q623" s="4"/>
+      <c r="R623" s="5"/>
+      <c r="S623" s="1"/>
+      <c r="T623" s="6"/>
     </row>
     <row r="624" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T624" s="4"/>
-    </row>
-    <row r="625" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T625" s="4"/>
-    </row>
-    <row r="626" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T626" s="4"/>
-    </row>
-    <row r="627" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T627" s="4"/>
-    </row>
-    <row r="628" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T628" s="4"/>
-    </row>
-    <row r="629" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T629" s="4"/>
-    </row>
-    <row r="630" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T630" s="4"/>
-    </row>
-    <row r="631" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T631" s="4"/>
-    </row>
-    <row r="632" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T632" s="4"/>
-    </row>
-    <row r="633" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T633" s="4"/>
-    </row>
-    <row r="634" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T634" s="4"/>
-    </row>
-    <row r="635" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T635" s="4"/>
-    </row>
-    <row r="636" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T636" s="4"/>
-    </row>
-    <row r="637" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T637" s="4"/>
-    </row>
-    <row r="638" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T638" s="4"/>
-    </row>
-    <row r="639" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T639" s="4"/>
-    </row>
-    <row r="640" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T640" s="4"/>
-    </row>
-    <row r="641" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T641" s="4"/>
-    </row>
-    <row r="642" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T642" s="4"/>
-    </row>
-    <row r="643" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T643" s="4"/>
-    </row>
-    <row r="644" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T644" s="4"/>
-    </row>
-    <row r="645" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T645" s="4"/>
-    </row>
-    <row r="646" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F624" s="3"/>
+      <c r="G624" s="3"/>
+      <c r="H624" s="3"/>
+      <c r="I624" s="3"/>
+      <c r="J624" s="4"/>
+      <c r="K624" s="4"/>
+      <c r="L624" s="4"/>
+      <c r="M624" s="4"/>
+      <c r="N624" s="4"/>
+      <c r="O624" s="4"/>
+      <c r="P624" s="4"/>
+      <c r="Q624" s="4"/>
+      <c r="R624" s="5"/>
+      <c r="S624" s="1"/>
+      <c r="T624" s="6"/>
+    </row>
+    <row r="625" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F625" s="3"/>
+      <c r="G625" s="3"/>
+      <c r="H625" s="3"/>
+      <c r="I625" s="3"/>
+      <c r="J625" s="4"/>
+      <c r="K625" s="4"/>
+      <c r="L625" s="4"/>
+      <c r="M625" s="4"/>
+      <c r="N625" s="4"/>
+      <c r="O625" s="4"/>
+      <c r="P625" s="4"/>
+      <c r="Q625" s="4"/>
+      <c r="R625" s="5"/>
+      <c r="S625" s="1"/>
+      <c r="T625" s="6"/>
+    </row>
+    <row r="626" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F626" s="3"/>
+      <c r="G626" s="3"/>
+      <c r="H626" s="3"/>
+      <c r="I626" s="3"/>
+      <c r="J626" s="4"/>
+      <c r="K626" s="4"/>
+      <c r="L626" s="4"/>
+      <c r="M626" s="4"/>
+      <c r="N626" s="4"/>
+      <c r="O626" s="4"/>
+      <c r="P626" s="4"/>
+      <c r="Q626" s="4"/>
+      <c r="R626" s="5"/>
+      <c r="S626" s="1"/>
+      <c r="T626" s="6"/>
+    </row>
+    <row r="627" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F627" s="3"/>
+      <c r="G627" s="3"/>
+      <c r="H627" s="3"/>
+      <c r="I627" s="3"/>
+      <c r="J627" s="4"/>
+      <c r="K627" s="4"/>
+      <c r="L627" s="4"/>
+      <c r="M627" s="4"/>
+      <c r="N627" s="4"/>
+      <c r="O627" s="4"/>
+      <c r="P627" s="4"/>
+      <c r="Q627" s="4"/>
+      <c r="R627" s="5"/>
+      <c r="S627" s="1"/>
+      <c r="T627" s="6"/>
+    </row>
+    <row r="628" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F628" s="3"/>
+      <c r="G628" s="3"/>
+      <c r="H628" s="3"/>
+      <c r="I628" s="3"/>
+      <c r="J628" s="4"/>
+      <c r="K628" s="4"/>
+      <c r="L628" s="4"/>
+      <c r="M628" s="4"/>
+      <c r="N628" s="4"/>
+      <c r="O628" s="4"/>
+      <c r="P628" s="4"/>
+      <c r="Q628" s="4"/>
+      <c r="R628" s="5"/>
+      <c r="S628" s="1"/>
+      <c r="T628" s="6"/>
+    </row>
+    <row r="629" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F629" s="3"/>
+      <c r="G629" s="3"/>
+      <c r="H629" s="3"/>
+      <c r="I629" s="3"/>
+      <c r="J629" s="4"/>
+      <c r="K629" s="4"/>
+      <c r="L629" s="4"/>
+      <c r="M629" s="4"/>
+      <c r="N629" s="4"/>
+      <c r="O629" s="4"/>
+      <c r="P629" s="4"/>
+      <c r="Q629" s="4"/>
+      <c r="R629" s="5"/>
+      <c r="S629" s="1"/>
+      <c r="T629" s="6"/>
+    </row>
+    <row r="630" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F630" s="3"/>
+      <c r="G630" s="3"/>
+      <c r="H630" s="3"/>
+      <c r="I630" s="3"/>
+      <c r="J630" s="4"/>
+      <c r="K630" s="4"/>
+      <c r="L630" s="4"/>
+      <c r="M630" s="4"/>
+      <c r="N630" s="4"/>
+      <c r="O630" s="4"/>
+      <c r="P630" s="4"/>
+      <c r="Q630" s="4"/>
+      <c r="R630" s="5"/>
+      <c r="S630" s="1"/>
+      <c r="T630" s="6"/>
+    </row>
+    <row r="631" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F631" s="3"/>
+      <c r="G631" s="3"/>
+      <c r="H631" s="3"/>
+      <c r="I631" s="3"/>
+      <c r="J631" s="4"/>
+      <c r="K631" s="4"/>
+      <c r="L631" s="4"/>
+      <c r="M631" s="4"/>
+      <c r="N631" s="4"/>
+      <c r="O631" s="4"/>
+      <c r="P631" s="4"/>
+      <c r="Q631" s="4"/>
+      <c r="R631" s="5"/>
+      <c r="S631" s="1"/>
+      <c r="T631" s="6"/>
+    </row>
+    <row r="632" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F632" s="3"/>
+      <c r="G632" s="3"/>
+      <c r="H632" s="3"/>
+      <c r="I632" s="3"/>
+      <c r="J632" s="4"/>
+      <c r="K632" s="4"/>
+      <c r="L632" s="4"/>
+      <c r="M632" s="4"/>
+      <c r="N632" s="4"/>
+      <c r="O632" s="4"/>
+      <c r="P632" s="4"/>
+      <c r="Q632" s="4"/>
+      <c r="R632" s="5"/>
+      <c r="S632" s="1"/>
+      <c r="T632" s="6"/>
+    </row>
+    <row r="633" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F633" s="3"/>
+      <c r="G633" s="3"/>
+      <c r="H633" s="3"/>
+      <c r="I633" s="3"/>
+      <c r="J633" s="4"/>
+      <c r="K633" s="4"/>
+      <c r="L633" s="4"/>
+      <c r="M633" s="4"/>
+      <c r="N633" s="4"/>
+      <c r="O633" s="4"/>
+      <c r="P633" s="4"/>
+      <c r="Q633" s="4"/>
+      <c r="R633" s="5"/>
+      <c r="S633" s="1"/>
+      <c r="T633" s="6"/>
+    </row>
+    <row r="634" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F634" s="3"/>
+      <c r="G634" s="3"/>
+      <c r="H634" s="3"/>
+      <c r="I634" s="3"/>
+      <c r="J634" s="4"/>
+      <c r="K634" s="4"/>
+      <c r="L634" s="4"/>
+      <c r="M634" s="4"/>
+      <c r="N634" s="4"/>
+      <c r="O634" s="4"/>
+      <c r="P634" s="4"/>
+      <c r="Q634" s="4"/>
+      <c r="R634" s="5"/>
+      <c r="S634" s="1"/>
+      <c r="T634" s="6"/>
+    </row>
+    <row r="635" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F635" s="3"/>
+      <c r="G635" s="3"/>
+      <c r="H635" s="3"/>
+      <c r="I635" s="3"/>
+      <c r="J635" s="4"/>
+      <c r="K635" s="4"/>
+      <c r="L635" s="4"/>
+      <c r="M635" s="4"/>
+      <c r="N635" s="4"/>
+      <c r="O635" s="4"/>
+      <c r="P635" s="4"/>
+      <c r="Q635" s="4"/>
+      <c r="R635" s="5"/>
+      <c r="S635" s="1"/>
+      <c r="T635" s="6"/>
+    </row>
+    <row r="636" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F636" s="3"/>
+      <c r="G636" s="3"/>
+      <c r="H636" s="3"/>
+      <c r="I636" s="3"/>
+      <c r="J636" s="4"/>
+      <c r="K636" s="4"/>
+      <c r="L636" s="4"/>
+      <c r="M636" s="4"/>
+      <c r="N636" s="4"/>
+      <c r="O636" s="4"/>
+      <c r="P636" s="4"/>
+      <c r="Q636" s="4"/>
+      <c r="R636" s="5"/>
+      <c r="S636" s="1"/>
+      <c r="T636" s="6"/>
+    </row>
+    <row r="637" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F637" s="3"/>
+      <c r="G637" s="3"/>
+      <c r="H637" s="3"/>
+      <c r="I637" s="3"/>
+      <c r="J637" s="4"/>
+      <c r="K637" s="4"/>
+      <c r="L637" s="4"/>
+      <c r="M637" s="4"/>
+      <c r="N637" s="4"/>
+      <c r="O637" s="4"/>
+      <c r="P637" s="4"/>
+      <c r="Q637" s="4"/>
+      <c r="R637" s="5"/>
+      <c r="S637" s="1"/>
+      <c r="T637" s="6"/>
+    </row>
+    <row r="638" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F638" s="3"/>
+      <c r="G638" s="3"/>
+      <c r="H638" s="3"/>
+      <c r="I638" s="3"/>
+      <c r="J638" s="4"/>
+      <c r="K638" s="4"/>
+      <c r="L638" s="4"/>
+      <c r="M638" s="4"/>
+      <c r="N638" s="4"/>
+      <c r="O638" s="4"/>
+      <c r="P638" s="4"/>
+      <c r="Q638" s="4"/>
+      <c r="R638" s="5"/>
+      <c r="S638" s="1"/>
+      <c r="T638" s="6"/>
+    </row>
+    <row r="639" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F639" s="3"/>
+      <c r="G639" s="3"/>
+      <c r="H639" s="3"/>
+      <c r="I639" s="3"/>
+      <c r="J639" s="4"/>
+      <c r="K639" s="4"/>
+      <c r="L639" s="4"/>
+      <c r="M639" s="4"/>
+      <c r="N639" s="4"/>
+      <c r="O639" s="4"/>
+      <c r="P639" s="4"/>
+      <c r="Q639" s="4"/>
+      <c r="R639" s="5"/>
+      <c r="S639" s="1"/>
+      <c r="T639" s="6"/>
+    </row>
+    <row r="640" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F640" s="3"/>
+      <c r="G640" s="3"/>
+      <c r="H640" s="3"/>
+      <c r="I640" s="3"/>
+      <c r="J640" s="4"/>
+      <c r="K640" s="4"/>
+      <c r="L640" s="4"/>
+      <c r="M640" s="4"/>
+      <c r="N640" s="4"/>
+      <c r="O640" s="4"/>
+      <c r="P640" s="4"/>
+      <c r="Q640" s="4"/>
+      <c r="R640" s="5"/>
+      <c r="S640" s="1"/>
+      <c r="T640" s="6"/>
+    </row>
+    <row r="641" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F641" s="3"/>
+      <c r="G641" s="3"/>
+      <c r="H641" s="3"/>
+      <c r="I641" s="3"/>
+      <c r="J641" s="4"/>
+      <c r="K641" s="4"/>
+      <c r="L641" s="4"/>
+      <c r="M641" s="4"/>
+      <c r="N641" s="4"/>
+      <c r="O641" s="4"/>
+      <c r="P641" s="4"/>
+      <c r="Q641" s="4"/>
+      <c r="R641" s="5"/>
+      <c r="S641" s="1"/>
+      <c r="T641" s="6"/>
+    </row>
+    <row r="642" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F642" s="3"/>
+      <c r="G642" s="3"/>
+      <c r="H642" s="3"/>
+      <c r="I642" s="3"/>
+      <c r="J642" s="4"/>
+      <c r="K642" s="4"/>
+      <c r="L642" s="4"/>
+      <c r="M642" s="4"/>
+      <c r="N642" s="4"/>
+      <c r="O642" s="4"/>
+      <c r="P642" s="4"/>
+      <c r="Q642" s="4"/>
+      <c r="R642" s="5"/>
+      <c r="S642" s="1"/>
+      <c r="T642" s="6"/>
+    </row>
+    <row r="643" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F643" s="3"/>
+      <c r="G643" s="3"/>
+      <c r="H643" s="3"/>
+      <c r="I643" s="3"/>
+      <c r="J643" s="4"/>
+      <c r="K643" s="4"/>
+      <c r="L643" s="4"/>
+      <c r="M643" s="4"/>
+      <c r="N643" s="4"/>
+      <c r="O643" s="4"/>
+      <c r="P643" s="4"/>
+      <c r="Q643" s="4"/>
+      <c r="R643" s="5"/>
+      <c r="S643" s="1"/>
+      <c r="T643" s="6"/>
+    </row>
+    <row r="644" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F644" s="3"/>
+      <c r="G644" s="3"/>
+      <c r="H644" s="3"/>
+      <c r="I644" s="3"/>
+      <c r="J644" s="4"/>
+      <c r="K644" s="4"/>
+      <c r="L644" s="4"/>
+      <c r="M644" s="4"/>
+      <c r="N644" s="4"/>
+      <c r="O644" s="4"/>
+      <c r="P644" s="4"/>
+      <c r="Q644" s="4"/>
+      <c r="R644" s="5"/>
+      <c r="S644" s="1"/>
+      <c r="T644" s="6"/>
+    </row>
+    <row r="645" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F645" s="3"/>
+      <c r="G645" s="3"/>
+      <c r="H645" s="3"/>
+      <c r="I645" s="3"/>
+      <c r="J645" s="4"/>
+      <c r="K645" s="4"/>
+      <c r="L645" s="4"/>
+      <c r="M645" s="4"/>
+      <c r="N645" s="4"/>
+      <c r="O645" s="4"/>
+      <c r="P645" s="4"/>
+      <c r="Q645" s="4"/>
+      <c r="R645" s="5"/>
+      <c r="S645" s="1"/>
+      <c r="T645" s="6"/>
+    </row>
+    <row r="646" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T646" s="4"/>
     </row>
-    <row r="647" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T647" s="4"/>
     </row>
-    <row r="648" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T648" s="4"/>
     </row>
-    <row r="649" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T649" s="4"/>
     </row>
-    <row r="650" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T650" s="4"/>
     </row>
-    <row r="651" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T651" s="4"/>
     </row>
-    <row r="652" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T652" s="4"/>
     </row>
-    <row r="653" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T653" s="4"/>
     </row>
-    <row r="654" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T654" s="4"/>
     </row>
-    <row r="655" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T655" s="4"/>
     </row>
-    <row r="656" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T656" s="4"/>
     </row>
     <row r="657" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13879,10 +15585,106 @@
     <row r="678" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T678" s="4"/>
     </row>
+    <row r="679" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T679" s="4"/>
+    </row>
+    <row r="680" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T680" s="4"/>
+    </row>
+    <row r="681" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T681" s="4"/>
+    </row>
+    <row r="682" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T682" s="4"/>
+    </row>
+    <row r="683" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T683" s="4"/>
+    </row>
+    <row r="684" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T684" s="4"/>
+    </row>
+    <row r="685" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T685" s="4"/>
+    </row>
+    <row r="686" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T686" s="4"/>
+    </row>
+    <row r="687" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T687" s="4"/>
+    </row>
+    <row r="688" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T688" s="4"/>
+    </row>
+    <row r="689" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T689" s="4"/>
+    </row>
+    <row r="690" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T690" s="4"/>
+    </row>
+    <row r="691" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T691" s="4"/>
+    </row>
+    <row r="692" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T692" s="4"/>
+    </row>
+    <row r="693" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T693" s="4"/>
+    </row>
+    <row r="694" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T694" s="4"/>
+    </row>
+    <row r="695" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T695" s="4"/>
+    </row>
+    <row r="696" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T696" s="4"/>
+    </row>
+    <row r="697" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T697" s="4"/>
+    </row>
+    <row r="698" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T698" s="4"/>
+    </row>
+    <row r="699" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T699" s="4"/>
+    </row>
+    <row r="700" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T700" s="4"/>
+    </row>
+    <row r="701" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T701" s="4"/>
+    </row>
+    <row r="702" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T702" s="4"/>
+    </row>
+    <row r="703" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T703" s="4"/>
+    </row>
+    <row r="704" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T704" s="4"/>
+    </row>
+    <row r="705" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T705" s="4"/>
+    </row>
+    <row r="706" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T706" s="4"/>
+    </row>
+    <row r="707" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T707" s="4"/>
+    </row>
+    <row r="708" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T708" s="4"/>
+    </row>
+    <row r="709" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T709" s="4"/>
+    </row>
+    <row r="710" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T710" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:T60" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T60">
-      <sortCondition ref="A9:A60"/>
+  <autoFilter ref="A9:T92" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T92">
+      <sortCondition ref="A9:A92"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
@@ -13905,13 +15707,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M50:M51 O32:O60 L51 L32:M49 J32:J60 L58 L52:M56 L59:M60 M57:M58</xm:sqref>
+          <xm:sqref>M53:M54 L54 L35:M52 L61 L55:M59 M60:M61 O35:O90 L62:M90 J35:J89</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q32:Q60</xm:sqref>
+          <xm:sqref>Q35:Q90</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13942,18 +15744,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D93F96-AFF3-40AF-A69B-365A7179A8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6C2BF6-64C3-423E-8E26-4D0CB877F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="468" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$90</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1709,6 +1708,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1732,9 +1734,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2031,30 +2030,30 @@
   <dimension ref="A1:U710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
-    <col min="17" max="17" width="33.140625" customWidth="1"/>
-    <col min="18" max="18" width="36.42578125" customWidth="1"/>
-    <col min="19" max="20" width="31.85546875" customWidth="1"/>
-    <col min="21" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="5" max="5" width="104.88671875" customWidth="1"/>
+    <col min="6" max="9" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="11" max="15" width="36.44140625" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" customWidth="1"/>
+    <col min="17" max="17" width="33.109375" customWidth="1"/>
+    <col min="18" max="18" width="36.44140625" customWidth="1"/>
+    <col min="19" max="20" width="31.88671875" customWidth="1"/>
+    <col min="21" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2072,15 +2071,15 @@
       <c r="S1" s="1"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2097,15 +2096,15 @@
       <c r="S2" s="1"/>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2122,13 +2121,13 @@
       <c r="S3" s="1"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53" t="s">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2146,13 +2145,13 @@
       <c r="S4" s="1"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2169,9 +2168,9 @@
       <c r="S5" s="1"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="7"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2189,7 +2188,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2209,7 +2208,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2226,7 +2225,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>9</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>24</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>25</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>26</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>27</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>29</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>32</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>35</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>37</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>40</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>43</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <v>45</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>48</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19">
         <v>51</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>63</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
         <v>64</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>65</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="33" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23">
         <v>66</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19">
         <v>67</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <v>68</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <v>69</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19">
         <v>70</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <v>71</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19">
         <v>72</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19">
         <v>73</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19">
         <v>74</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="19">
         <v>122</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="19">
         <v>123</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="19">
         <v>124</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="19">
         <v>125</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <v>126</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="19">
         <v>127</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>128</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="19">
         <v>129</v>
       </c>
@@ -4012,7 +4011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19">
         <v>130</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="19">
         <v>131</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
         <v>132</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="19">
         <v>133</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="19">
         <v>134</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="19">
         <v>135</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="19">
         <v>136</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="19">
         <v>137</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="19">
         <v>138</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="19">
         <v>139</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19">
         <v>140</v>
       </c>
@@ -4525,7 +4524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19">
         <v>141</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="19">
         <v>142</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="19">
         <v>143</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="19">
         <v>144</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="19">
         <v>145</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="19">
         <v>146</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="19">
         <v>147</v>
       </c>
@@ -4881,7 +4880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19">
         <v>148</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="19">
         <v>149</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="19">
         <v>150</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="19">
         <v>151</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="19">
         <v>152</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="19">
         <v>153</v>
       </c>
@@ -5151,14 +5150,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="19">
         <v>154</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="42" t="s">
         <v>235</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -5189,7 +5188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="19">
         <v>155</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="19">
         <v>156</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="19">
         <v>157</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="19">
         <v>158</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="19">
         <v>159</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="19">
         <v>160</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="19">
         <v>161</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="19">
         <v>162</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="19">
         <v>163</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="19">
         <v>164</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="19">
         <v>165</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="19">
         <v>166</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="19">
         <v>167</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="19">
         <v>168</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="19">
         <v>169</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="19">
         <v>369</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="19">
         <v>373</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="19">
         <v>374</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="19"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -6082,10 +6081,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T91" s="18"/>
     </row>
-    <row r="93" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -6102,7 +6101,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="6"/>
     </row>
-    <row r="94" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -6119,7 +6118,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="6"/>
     </row>
-    <row r="95" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -6136,7 +6135,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="6"/>
     </row>
-    <row r="96" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -6153,7 +6152,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="6"/>
     </row>
-    <row r="97" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -6170,7 +6169,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="6"/>
     </row>
-    <row r="98" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -6187,7 +6186,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="6"/>
     </row>
-    <row r="99" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -6204,7 +6203,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="6"/>
     </row>
-    <row r="100" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -6221,7 +6220,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="6"/>
     </row>
-    <row r="101" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -6238,7 +6237,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="6"/>
     </row>
-    <row r="102" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -6255,7 +6254,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="6"/>
     </row>
-    <row r="103" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -6272,7 +6271,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="6"/>
     </row>
-    <row r="104" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -6289,7 +6288,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="6"/>
     </row>
-    <row r="105" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -6306,7 +6305,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -6323,7 +6322,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="6"/>
     </row>
-    <row r="107" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -6340,7 +6339,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="6"/>
     </row>
-    <row r="108" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -6357,7 +6356,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="6"/>
     </row>
-    <row r="109" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -6374,7 +6373,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="6"/>
     </row>
-    <row r="110" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -6391,7 +6390,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="6"/>
     </row>
-    <row r="111" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -6408,7 +6407,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="6"/>
     </row>
-    <row r="112" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -6425,7 +6424,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="6"/>
     </row>
-    <row r="113" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -6442,7 +6441,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="6"/>
     </row>
-    <row r="114" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -6459,7 +6458,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="6"/>
     </row>
-    <row r="115" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -6476,7 +6475,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="6"/>
     </row>
-    <row r="116" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -6493,7 +6492,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="6"/>
     </row>
-    <row r="117" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -6510,7 +6509,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="6"/>
     </row>
-    <row r="118" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -6527,7 +6526,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="6"/>
     </row>
-    <row r="119" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -6544,7 +6543,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="6"/>
     </row>
-    <row r="120" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6561,7 +6560,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="6"/>
     </row>
-    <row r="121" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6578,7 +6577,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="6"/>
     </row>
-    <row r="122" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -6595,7 +6594,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="6"/>
     </row>
-    <row r="123" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -6612,7 +6611,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="6"/>
     </row>
-    <row r="124" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -6629,7 +6628,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="6"/>
     </row>
-    <row r="125" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -6646,7 +6645,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="6"/>
     </row>
-    <row r="126" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -6663,7 +6662,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="6"/>
     </row>
-    <row r="127" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -6680,7 +6679,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="6"/>
     </row>
-    <row r="128" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -6697,7 +6696,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="6"/>
     </row>
-    <row r="129" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -6714,7 +6713,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="6"/>
     </row>
-    <row r="130" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -6731,7 +6730,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="6"/>
     </row>
-    <row r="131" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -6748,7 +6747,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="6"/>
     </row>
-    <row r="132" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -6765,7 +6764,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="6"/>
     </row>
-    <row r="133" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -6782,7 +6781,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="6"/>
     </row>
-    <row r="134" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -6799,7 +6798,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="6"/>
     </row>
-    <row r="135" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -6816,7 +6815,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="6"/>
     </row>
-    <row r="136" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -6833,7 +6832,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="6"/>
     </row>
-    <row r="137" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -6850,7 +6849,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="6"/>
     </row>
-    <row r="138" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -6867,7 +6866,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="6"/>
     </row>
-    <row r="139" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -6884,7 +6883,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="6"/>
     </row>
-    <row r="140" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -6901,7 +6900,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="6"/>
     </row>
-    <row r="141" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -6918,7 +6917,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="6"/>
     </row>
-    <row r="142" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -6935,7 +6934,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="6"/>
     </row>
-    <row r="143" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -6952,7 +6951,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="6"/>
     </row>
-    <row r="144" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -6969,7 +6968,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="6"/>
     </row>
-    <row r="145" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -6986,7 +6985,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="6"/>
     </row>
-    <row r="146" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -7003,7 +7002,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="6"/>
     </row>
-    <row r="147" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -7020,7 +7019,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="6"/>
     </row>
-    <row r="148" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -7037,7 +7036,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="6"/>
     </row>
-    <row r="149" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -7054,7 +7053,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="6"/>
     </row>
-    <row r="150" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -7071,7 +7070,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="6"/>
     </row>
-    <row r="151" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -7088,7 +7087,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="6"/>
     </row>
-    <row r="152" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -7105,7 +7104,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="6"/>
     </row>
-    <row r="153" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -7122,7 +7121,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="6"/>
     </row>
-    <row r="154" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -7139,7 +7138,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="6"/>
     </row>
-    <row r="155" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -7156,7 +7155,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="6"/>
     </row>
-    <row r="156" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -7173,7 +7172,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="6"/>
     </row>
-    <row r="157" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -7190,7 +7189,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="6"/>
     </row>
-    <row r="158" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -7207,7 +7206,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="6"/>
     </row>
-    <row r="159" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -7224,7 +7223,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="6"/>
     </row>
-    <row r="160" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -7241,7 +7240,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="6"/>
     </row>
-    <row r="161" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -7258,7 +7257,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="6"/>
     </row>
-    <row r="162" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -7275,7 +7274,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="6"/>
     </row>
-    <row r="163" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -7292,7 +7291,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="6"/>
     </row>
-    <row r="164" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -7309,7 +7308,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="6"/>
     </row>
-    <row r="165" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -7326,7 +7325,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="6"/>
     </row>
-    <row r="166" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -7343,7 +7342,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="6"/>
     </row>
-    <row r="167" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -7360,7 +7359,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="6"/>
     </row>
-    <row r="168" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -7377,7 +7376,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="6"/>
     </row>
-    <row r="169" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -7394,7 +7393,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="6"/>
     </row>
-    <row r="170" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -7411,7 +7410,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="6"/>
     </row>
-    <row r="171" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -7428,7 +7427,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="6"/>
     </row>
-    <row r="172" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -7445,7 +7444,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="6"/>
     </row>
-    <row r="173" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -7462,7 +7461,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="6"/>
     </row>
-    <row r="174" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -7479,7 +7478,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="6"/>
     </row>
-    <row r="175" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -7496,7 +7495,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="6"/>
     </row>
-    <row r="176" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -7513,7 +7512,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="6"/>
     </row>
-    <row r="177" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -7530,7 +7529,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="6"/>
     </row>
-    <row r="178" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -7547,7 +7546,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="6"/>
     </row>
-    <row r="179" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -7564,7 +7563,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="6"/>
     </row>
-    <row r="180" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -7581,7 +7580,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="6"/>
     </row>
-    <row r="181" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -7598,7 +7597,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="6"/>
     </row>
-    <row r="182" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -7615,7 +7614,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="6"/>
     </row>
-    <row r="183" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -7632,7 +7631,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="6"/>
     </row>
-    <row r="184" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -7649,7 +7648,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="6"/>
     </row>
-    <row r="185" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -7666,7 +7665,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="6"/>
     </row>
-    <row r="186" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -7683,7 +7682,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="6"/>
     </row>
-    <row r="187" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -7700,7 +7699,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="6"/>
     </row>
-    <row r="188" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -7717,7 +7716,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="6"/>
     </row>
-    <row r="189" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -7734,7 +7733,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="6"/>
     </row>
-    <row r="190" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -7751,7 +7750,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="6"/>
     </row>
-    <row r="191" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -7768,7 +7767,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="6"/>
     </row>
-    <row r="192" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -7785,7 +7784,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="6"/>
     </row>
-    <row r="193" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -7802,7 +7801,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="6"/>
     </row>
-    <row r="194" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -7819,7 +7818,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="6"/>
     </row>
-    <row r="195" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -7836,7 +7835,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="6"/>
     </row>
-    <row r="196" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -7853,7 +7852,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="6"/>
     </row>
-    <row r="197" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -7870,7 +7869,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="6"/>
     </row>
-    <row r="198" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
@@ -7887,7 +7886,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="6"/>
     </row>
-    <row r="199" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -7904,7 +7903,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="6"/>
     </row>
-    <row r="200" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -7921,7 +7920,7 @@
       <c r="S200" s="1"/>
       <c r="T200" s="6"/>
     </row>
-    <row r="201" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -7938,7 +7937,7 @@
       <c r="S201" s="1"/>
       <c r="T201" s="6"/>
     </row>
-    <row r="202" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -7955,7 +7954,7 @@
       <c r="S202" s="1"/>
       <c r="T202" s="6"/>
     </row>
-    <row r="203" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -7972,7 +7971,7 @@
       <c r="S203" s="1"/>
       <c r="T203" s="6"/>
     </row>
-    <row r="204" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -7989,7 +7988,7 @@
       <c r="S204" s="1"/>
       <c r="T204" s="6"/>
     </row>
-    <row r="205" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -8006,7 +8005,7 @@
       <c r="S205" s="1"/>
       <c r="T205" s="6"/>
     </row>
-    <row r="206" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -8023,7 +8022,7 @@
       <c r="S206" s="1"/>
       <c r="T206" s="6"/>
     </row>
-    <row r="207" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -8040,7 +8039,7 @@
       <c r="S207" s="1"/>
       <c r="T207" s="6"/>
     </row>
-    <row r="208" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -8057,7 +8056,7 @@
       <c r="S208" s="1"/>
       <c r="T208" s="6"/>
     </row>
-    <row r="209" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -8074,7 +8073,7 @@
       <c r="S209" s="1"/>
       <c r="T209" s="6"/>
     </row>
-    <row r="210" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -8091,7 +8090,7 @@
       <c r="S210" s="1"/>
       <c r="T210" s="6"/>
     </row>
-    <row r="211" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -8108,7 +8107,7 @@
       <c r="S211" s="1"/>
       <c r="T211" s="6"/>
     </row>
-    <row r="212" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -8125,7 +8124,7 @@
       <c r="S212" s="1"/>
       <c r="T212" s="6"/>
     </row>
-    <row r="213" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
@@ -8142,7 +8141,7 @@
       <c r="S213" s="1"/>
       <c r="T213" s="6"/>
     </row>
-    <row r="214" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -8159,7 +8158,7 @@
       <c r="S214" s="1"/>
       <c r="T214" s="6"/>
     </row>
-    <row r="215" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -8176,7 +8175,7 @@
       <c r="S215" s="1"/>
       <c r="T215" s="6"/>
     </row>
-    <row r="216" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -8193,7 +8192,7 @@
       <c r="S216" s="1"/>
       <c r="T216" s="6"/>
     </row>
-    <row r="217" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
@@ -8210,7 +8209,7 @@
       <c r="S217" s="1"/>
       <c r="T217" s="6"/>
     </row>
-    <row r="218" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
@@ -8227,7 +8226,7 @@
       <c r="S218" s="1"/>
       <c r="T218" s="6"/>
     </row>
-    <row r="219" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -8244,7 +8243,7 @@
       <c r="S219" s="1"/>
       <c r="T219" s="6"/>
     </row>
-    <row r="220" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
@@ -8261,7 +8260,7 @@
       <c r="S220" s="1"/>
       <c r="T220" s="6"/>
     </row>
-    <row r="221" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
@@ -8278,7 +8277,7 @@
       <c r="S221" s="1"/>
       <c r="T221" s="6"/>
     </row>
-    <row r="222" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -8295,7 +8294,7 @@
       <c r="S222" s="1"/>
       <c r="T222" s="6"/>
     </row>
-    <row r="223" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
@@ -8312,7 +8311,7 @@
       <c r="S223" s="1"/>
       <c r="T223" s="6"/>
     </row>
-    <row r="224" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -8329,7 +8328,7 @@
       <c r="S224" s="1"/>
       <c r="T224" s="6"/>
     </row>
-    <row r="225" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
@@ -8346,7 +8345,7 @@
       <c r="S225" s="1"/>
       <c r="T225" s="6"/>
     </row>
-    <row r="226" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -8363,7 +8362,7 @@
       <c r="S226" s="1"/>
       <c r="T226" s="6"/>
     </row>
-    <row r="227" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
@@ -8380,7 +8379,7 @@
       <c r="S227" s="1"/>
       <c r="T227" s="6"/>
     </row>
-    <row r="228" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
@@ -8397,7 +8396,7 @@
       <c r="S228" s="1"/>
       <c r="T228" s="6"/>
     </row>
-    <row r="229" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
@@ -8414,7 +8413,7 @@
       <c r="S229" s="1"/>
       <c r="T229" s="6"/>
     </row>
-    <row r="230" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
@@ -8431,7 +8430,7 @@
       <c r="S230" s="1"/>
       <c r="T230" s="6"/>
     </row>
-    <row r="231" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
@@ -8448,7 +8447,7 @@
       <c r="S231" s="1"/>
       <c r="T231" s="6"/>
     </row>
-    <row r="232" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
@@ -8465,7 +8464,7 @@
       <c r="S232" s="1"/>
       <c r="T232" s="6"/>
     </row>
-    <row r="233" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
@@ -8482,7 +8481,7 @@
       <c r="S233" s="1"/>
       <c r="T233" s="6"/>
     </row>
-    <row r="234" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
@@ -8499,7 +8498,7 @@
       <c r="S234" s="1"/>
       <c r="T234" s="6"/>
     </row>
-    <row r="235" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
@@ -8516,7 +8515,7 @@
       <c r="S235" s="1"/>
       <c r="T235" s="6"/>
     </row>
-    <row r="236" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
@@ -8533,7 +8532,7 @@
       <c r="S236" s="1"/>
       <c r="T236" s="6"/>
     </row>
-    <row r="237" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
@@ -8550,7 +8549,7 @@
       <c r="S237" s="1"/>
       <c r="T237" s="6"/>
     </row>
-    <row r="238" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
@@ -8567,7 +8566,7 @@
       <c r="S238" s="1"/>
       <c r="T238" s="6"/>
     </row>
-    <row r="239" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
@@ -8584,7 +8583,7 @@
       <c r="S239" s="1"/>
       <c r="T239" s="6"/>
     </row>
-    <row r="240" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
@@ -8601,7 +8600,7 @@
       <c r="S240" s="1"/>
       <c r="T240" s="6"/>
     </row>
-    <row r="241" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
@@ -8618,7 +8617,7 @@
       <c r="S241" s="1"/>
       <c r="T241" s="6"/>
     </row>
-    <row r="242" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
@@ -8635,7 +8634,7 @@
       <c r="S242" s="1"/>
       <c r="T242" s="6"/>
     </row>
-    <row r="243" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
@@ -8652,7 +8651,7 @@
       <c r="S243" s="1"/>
       <c r="T243" s="6"/>
     </row>
-    <row r="244" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
@@ -8669,7 +8668,7 @@
       <c r="S244" s="1"/>
       <c r="T244" s="6"/>
     </row>
-    <row r="245" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
@@ -8686,7 +8685,7 @@
       <c r="S245" s="1"/>
       <c r="T245" s="6"/>
     </row>
-    <row r="246" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
@@ -8703,7 +8702,7 @@
       <c r="S246" s="1"/>
       <c r="T246" s="6"/>
     </row>
-    <row r="247" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
@@ -8720,7 +8719,7 @@
       <c r="S247" s="1"/>
       <c r="T247" s="6"/>
     </row>
-    <row r="248" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
@@ -8737,7 +8736,7 @@
       <c r="S248" s="1"/>
       <c r="T248" s="6"/>
     </row>
-    <row r="249" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
@@ -8754,7 +8753,7 @@
       <c r="S249" s="1"/>
       <c r="T249" s="6"/>
     </row>
-    <row r="250" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
@@ -8771,7 +8770,7 @@
       <c r="S250" s="1"/>
       <c r="T250" s="6"/>
     </row>
-    <row r="251" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
@@ -8788,7 +8787,7 @@
       <c r="S251" s="1"/>
       <c r="T251" s="6"/>
     </row>
-    <row r="252" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
@@ -8805,7 +8804,7 @@
       <c r="S252" s="1"/>
       <c r="T252" s="6"/>
     </row>
-    <row r="253" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
@@ -8822,7 +8821,7 @@
       <c r="S253" s="1"/>
       <c r="T253" s="6"/>
     </row>
-    <row r="254" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
@@ -8839,7 +8838,7 @@
       <c r="S254" s="1"/>
       <c r="T254" s="6"/>
     </row>
-    <row r="255" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
@@ -8856,7 +8855,7 @@
       <c r="S255" s="1"/>
       <c r="T255" s="6"/>
     </row>
-    <row r="256" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
@@ -8873,7 +8872,7 @@
       <c r="S256" s="1"/>
       <c r="T256" s="6"/>
     </row>
-    <row r="257" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
@@ -8890,7 +8889,7 @@
       <c r="S257" s="1"/>
       <c r="T257" s="6"/>
     </row>
-    <row r="258" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
@@ -8907,7 +8906,7 @@
       <c r="S258" s="1"/>
       <c r="T258" s="6"/>
     </row>
-    <row r="259" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
@@ -8924,7 +8923,7 @@
       <c r="S259" s="1"/>
       <c r="T259" s="6"/>
     </row>
-    <row r="260" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
@@ -8941,7 +8940,7 @@
       <c r="S260" s="1"/>
       <c r="T260" s="6"/>
     </row>
-    <row r="261" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
@@ -8958,7 +8957,7 @@
       <c r="S261" s="1"/>
       <c r="T261" s="6"/>
     </row>
-    <row r="262" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
@@ -8975,7 +8974,7 @@
       <c r="S262" s="1"/>
       <c r="T262" s="6"/>
     </row>
-    <row r="263" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
@@ -8992,7 +8991,7 @@
       <c r="S263" s="1"/>
       <c r="T263" s="6"/>
     </row>
-    <row r="264" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
@@ -9009,7 +9008,7 @@
       <c r="S264" s="1"/>
       <c r="T264" s="6"/>
     </row>
-    <row r="265" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
@@ -9026,7 +9025,7 @@
       <c r="S265" s="1"/>
       <c r="T265" s="6"/>
     </row>
-    <row r="266" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -9043,7 +9042,7 @@
       <c r="S266" s="1"/>
       <c r="T266" s="6"/>
     </row>
-    <row r="267" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
@@ -9060,7 +9059,7 @@
       <c r="S267" s="1"/>
       <c r="T267" s="6"/>
     </row>
-    <row r="268" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
@@ -9077,7 +9076,7 @@
       <c r="S268" s="1"/>
       <c r="T268" s="6"/>
     </row>
-    <row r="269" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
@@ -9094,7 +9093,7 @@
       <c r="S269" s="1"/>
       <c r="T269" s="6"/>
     </row>
-    <row r="270" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
@@ -9111,7 +9110,7 @@
       <c r="S270" s="1"/>
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
@@ -9128,7 +9127,7 @@
       <c r="S271" s="1"/>
       <c r="T271" s="6"/>
     </row>
-    <row r="272" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
@@ -9145,7 +9144,7 @@
       <c r="S272" s="1"/>
       <c r="T272" s="6"/>
     </row>
-    <row r="273" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
@@ -9162,7 +9161,7 @@
       <c r="S273" s="1"/>
       <c r="T273" s="6"/>
     </row>
-    <row r="274" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
@@ -9179,7 +9178,7 @@
       <c r="S274" s="1"/>
       <c r="T274" s="6"/>
     </row>
-    <row r="275" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
@@ -9196,7 +9195,7 @@
       <c r="S275" s="1"/>
       <c r="T275" s="6"/>
     </row>
-    <row r="276" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
@@ -9213,7 +9212,7 @@
       <c r="S276" s="1"/>
       <c r="T276" s="6"/>
     </row>
-    <row r="277" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
@@ -9230,7 +9229,7 @@
       <c r="S277" s="1"/>
       <c r="T277" s="6"/>
     </row>
-    <row r="278" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
@@ -9247,7 +9246,7 @@
       <c r="S278" s="1"/>
       <c r="T278" s="6"/>
     </row>
-    <row r="279" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
@@ -9264,7 +9263,7 @@
       <c r="S279" s="1"/>
       <c r="T279" s="6"/>
     </row>
-    <row r="280" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
@@ -9281,7 +9280,7 @@
       <c r="S280" s="1"/>
       <c r="T280" s="6"/>
     </row>
-    <row r="281" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
@@ -9298,7 +9297,7 @@
       <c r="S281" s="1"/>
       <c r="T281" s="6"/>
     </row>
-    <row r="282" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
@@ -9315,7 +9314,7 @@
       <c r="S282" s="1"/>
       <c r="T282" s="6"/>
     </row>
-    <row r="283" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
@@ -9332,7 +9331,7 @@
       <c r="S283" s="1"/>
       <c r="T283" s="6"/>
     </row>
-    <row r="284" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
@@ -9349,7 +9348,7 @@
       <c r="S284" s="1"/>
       <c r="T284" s="6"/>
     </row>
-    <row r="285" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
@@ -9366,7 +9365,7 @@
       <c r="S285" s="1"/>
       <c r="T285" s="6"/>
     </row>
-    <row r="286" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
@@ -9383,7 +9382,7 @@
       <c r="S286" s="1"/>
       <c r="T286" s="6"/>
     </row>
-    <row r="287" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
@@ -9400,7 +9399,7 @@
       <c r="S287" s="1"/>
       <c r="T287" s="6"/>
     </row>
-    <row r="288" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
@@ -9417,7 +9416,7 @@
       <c r="S288" s="1"/>
       <c r="T288" s="6"/>
     </row>
-    <row r="289" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
@@ -9434,7 +9433,7 @@
       <c r="S289" s="1"/>
       <c r="T289" s="6"/>
     </row>
-    <row r="290" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
@@ -9451,7 +9450,7 @@
       <c r="S290" s="1"/>
       <c r="T290" s="6"/>
     </row>
-    <row r="291" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
@@ -9468,7 +9467,7 @@
       <c r="S291" s="1"/>
       <c r="T291" s="6"/>
     </row>
-    <row r="292" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
@@ -9485,7 +9484,7 @@
       <c r="S292" s="1"/>
       <c r="T292" s="6"/>
     </row>
-    <row r="293" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
@@ -9502,7 +9501,7 @@
       <c r="S293" s="1"/>
       <c r="T293" s="6"/>
     </row>
-    <row r="294" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
@@ -9519,7 +9518,7 @@
       <c r="S294" s="1"/>
       <c r="T294" s="6"/>
     </row>
-    <row r="295" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
@@ -9536,7 +9535,7 @@
       <c r="S295" s="1"/>
       <c r="T295" s="6"/>
     </row>
-    <row r="296" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
@@ -9553,7 +9552,7 @@
       <c r="S296" s="1"/>
       <c r="T296" s="6"/>
     </row>
-    <row r="297" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
@@ -9570,7 +9569,7 @@
       <c r="S297" s="1"/>
       <c r="T297" s="6"/>
     </row>
-    <row r="298" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
@@ -9587,7 +9586,7 @@
       <c r="S298" s="1"/>
       <c r="T298" s="6"/>
     </row>
-    <row r="299" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
@@ -9604,7 +9603,7 @@
       <c r="S299" s="1"/>
       <c r="T299" s="6"/>
     </row>
-    <row r="300" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
@@ -9621,7 +9620,7 @@
       <c r="S300" s="1"/>
       <c r="T300" s="6"/>
     </row>
-    <row r="301" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
@@ -9638,7 +9637,7 @@
       <c r="S301" s="1"/>
       <c r="T301" s="6"/>
     </row>
-    <row r="302" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
@@ -9655,7 +9654,7 @@
       <c r="S302" s="1"/>
       <c r="T302" s="6"/>
     </row>
-    <row r="303" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
@@ -9672,7 +9671,7 @@
       <c r="S303" s="1"/>
       <c r="T303" s="6"/>
     </row>
-    <row r="304" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
@@ -9689,7 +9688,7 @@
       <c r="S304" s="1"/>
       <c r="T304" s="6"/>
     </row>
-    <row r="305" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
@@ -9706,7 +9705,7 @@
       <c r="S305" s="1"/>
       <c r="T305" s="6"/>
     </row>
-    <row r="306" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
@@ -9723,7 +9722,7 @@
       <c r="S306" s="1"/>
       <c r="T306" s="6"/>
     </row>
-    <row r="307" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
@@ -9740,7 +9739,7 @@
       <c r="S307" s="1"/>
       <c r="T307" s="6"/>
     </row>
-    <row r="308" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
@@ -9757,7 +9756,7 @@
       <c r="S308" s="1"/>
       <c r="T308" s="6"/>
     </row>
-    <row r="309" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
@@ -9774,7 +9773,7 @@
       <c r="S309" s="1"/>
       <c r="T309" s="6"/>
     </row>
-    <row r="310" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
@@ -9791,7 +9790,7 @@
       <c r="S310" s="1"/>
       <c r="T310" s="6"/>
     </row>
-    <row r="311" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
@@ -9808,7 +9807,7 @@
       <c r="S311" s="1"/>
       <c r="T311" s="6"/>
     </row>
-    <row r="312" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
@@ -9825,7 +9824,7 @@
       <c r="S312" s="1"/>
       <c r="T312" s="6"/>
     </row>
-    <row r="313" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
@@ -9842,7 +9841,7 @@
       <c r="S313" s="1"/>
       <c r="T313" s="6"/>
     </row>
-    <row r="314" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
@@ -9859,7 +9858,7 @@
       <c r="S314" s="1"/>
       <c r="T314" s="6"/>
     </row>
-    <row r="315" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
@@ -9876,7 +9875,7 @@
       <c r="S315" s="1"/>
       <c r="T315" s="6"/>
     </row>
-    <row r="316" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
@@ -9893,7 +9892,7 @@
       <c r="S316" s="1"/>
       <c r="T316" s="6"/>
     </row>
-    <row r="317" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
@@ -9910,7 +9909,7 @@
       <c r="S317" s="1"/>
       <c r="T317" s="6"/>
     </row>
-    <row r="318" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
@@ -9927,7 +9926,7 @@
       <c r="S318" s="1"/>
       <c r="T318" s="6"/>
     </row>
-    <row r="319" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
@@ -9944,7 +9943,7 @@
       <c r="S319" s="1"/>
       <c r="T319" s="6"/>
     </row>
-    <row r="320" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
@@ -9961,7 +9960,7 @@
       <c r="S320" s="1"/>
       <c r="T320" s="6"/>
     </row>
-    <row r="321" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
@@ -9978,7 +9977,7 @@
       <c r="S321" s="1"/>
       <c r="T321" s="6"/>
     </row>
-    <row r="322" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
@@ -9995,7 +9994,7 @@
       <c r="S322" s="1"/>
       <c r="T322" s="6"/>
     </row>
-    <row r="323" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
@@ -10012,7 +10011,7 @@
       <c r="S323" s="1"/>
       <c r="T323" s="6"/>
     </row>
-    <row r="324" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
@@ -10029,7 +10028,7 @@
       <c r="S324" s="1"/>
       <c r="T324" s="6"/>
     </row>
-    <row r="325" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
@@ -10046,7 +10045,7 @@
       <c r="S325" s="1"/>
       <c r="T325" s="6"/>
     </row>
-    <row r="326" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
@@ -10063,7 +10062,7 @@
       <c r="S326" s="1"/>
       <c r="T326" s="6"/>
     </row>
-    <row r="327" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
@@ -10080,7 +10079,7 @@
       <c r="S327" s="1"/>
       <c r="T327" s="6"/>
     </row>
-    <row r="328" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
@@ -10097,7 +10096,7 @@
       <c r="S328" s="1"/>
       <c r="T328" s="6"/>
     </row>
-    <row r="329" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
@@ -10114,7 +10113,7 @@
       <c r="S329" s="1"/>
       <c r="T329" s="6"/>
     </row>
-    <row r="330" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
@@ -10131,7 +10130,7 @@
       <c r="S330" s="1"/>
       <c r="T330" s="6"/>
     </row>
-    <row r="331" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
@@ -10148,7 +10147,7 @@
       <c r="S331" s="1"/>
       <c r="T331" s="6"/>
     </row>
-    <row r="332" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
@@ -10165,7 +10164,7 @@
       <c r="S332" s="1"/>
       <c r="T332" s="6"/>
     </row>
-    <row r="333" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
@@ -10182,7 +10181,7 @@
       <c r="S333" s="1"/>
       <c r="T333" s="6"/>
     </row>
-    <row r="334" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
@@ -10199,7 +10198,7 @@
       <c r="S334" s="1"/>
       <c r="T334" s="6"/>
     </row>
-    <row r="335" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
@@ -10216,7 +10215,7 @@
       <c r="S335" s="1"/>
       <c r="T335" s="6"/>
     </row>
-    <row r="336" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
@@ -10233,7 +10232,7 @@
       <c r="S336" s="1"/>
       <c r="T336" s="6"/>
     </row>
-    <row r="337" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
@@ -10250,7 +10249,7 @@
       <c r="S337" s="1"/>
       <c r="T337" s="6"/>
     </row>
-    <row r="338" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
@@ -10267,7 +10266,7 @@
       <c r="S338" s="1"/>
       <c r="T338" s="6"/>
     </row>
-    <row r="339" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
@@ -10284,7 +10283,7 @@
       <c r="S339" s="1"/>
       <c r="T339" s="6"/>
     </row>
-    <row r="340" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
@@ -10301,7 +10300,7 @@
       <c r="S340" s="1"/>
       <c r="T340" s="6"/>
     </row>
-    <row r="341" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
@@ -10318,7 +10317,7 @@
       <c r="S341" s="1"/>
       <c r="T341" s="6"/>
     </row>
-    <row r="342" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
@@ -10335,7 +10334,7 @@
       <c r="S342" s="1"/>
       <c r="T342" s="6"/>
     </row>
-    <row r="343" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
@@ -10352,7 +10351,7 @@
       <c r="S343" s="1"/>
       <c r="T343" s="6"/>
     </row>
-    <row r="344" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
@@ -10369,7 +10368,7 @@
       <c r="S344" s="1"/>
       <c r="T344" s="6"/>
     </row>
-    <row r="345" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
@@ -10386,7 +10385,7 @@
       <c r="S345" s="1"/>
       <c r="T345" s="6"/>
     </row>
-    <row r="346" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
@@ -10403,7 +10402,7 @@
       <c r="S346" s="1"/>
       <c r="T346" s="6"/>
     </row>
-    <row r="347" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
@@ -10420,7 +10419,7 @@
       <c r="S347" s="1"/>
       <c r="T347" s="6"/>
     </row>
-    <row r="348" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
@@ -10437,7 +10436,7 @@
       <c r="S348" s="1"/>
       <c r="T348" s="6"/>
     </row>
-    <row r="349" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
@@ -10454,7 +10453,7 @@
       <c r="S349" s="1"/>
       <c r="T349" s="6"/>
     </row>
-    <row r="350" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
@@ -10471,7 +10470,7 @@
       <c r="S350" s="1"/>
       <c r="T350" s="6"/>
     </row>
-    <row r="351" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
@@ -10488,7 +10487,7 @@
       <c r="S351" s="1"/>
       <c r="T351" s="6"/>
     </row>
-    <row r="352" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
@@ -10505,7 +10504,7 @@
       <c r="S352" s="1"/>
       <c r="T352" s="6"/>
     </row>
-    <row r="353" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
@@ -10522,7 +10521,7 @@
       <c r="S353" s="1"/>
       <c r="T353" s="6"/>
     </row>
-    <row r="354" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
@@ -10539,7 +10538,7 @@
       <c r="S354" s="1"/>
       <c r="T354" s="6"/>
     </row>
-    <row r="355" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
@@ -10556,7 +10555,7 @@
       <c r="S355" s="1"/>
       <c r="T355" s="6"/>
     </row>
-    <row r="356" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
@@ -10573,7 +10572,7 @@
       <c r="S356" s="1"/>
       <c r="T356" s="6"/>
     </row>
-    <row r="357" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
@@ -10590,7 +10589,7 @@
       <c r="S357" s="1"/>
       <c r="T357" s="6"/>
     </row>
-    <row r="358" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
@@ -10607,7 +10606,7 @@
       <c r="S358" s="1"/>
       <c r="T358" s="6"/>
     </row>
-    <row r="359" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
@@ -10624,7 +10623,7 @@
       <c r="S359" s="1"/>
       <c r="T359" s="6"/>
     </row>
-    <row r="360" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
@@ -10641,7 +10640,7 @@
       <c r="S360" s="1"/>
       <c r="T360" s="6"/>
     </row>
-    <row r="361" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
@@ -10658,7 +10657,7 @@
       <c r="S361" s="1"/>
       <c r="T361" s="6"/>
     </row>
-    <row r="362" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
@@ -10675,7 +10674,7 @@
       <c r="S362" s="1"/>
       <c r="T362" s="6"/>
     </row>
-    <row r="363" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
@@ -10692,7 +10691,7 @@
       <c r="S363" s="1"/>
       <c r="T363" s="6"/>
     </row>
-    <row r="364" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
@@ -10709,7 +10708,7 @@
       <c r="S364" s="1"/>
       <c r="T364" s="6"/>
     </row>
-    <row r="365" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
@@ -10726,7 +10725,7 @@
       <c r="S365" s="1"/>
       <c r="T365" s="6"/>
     </row>
-    <row r="366" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
@@ -10743,7 +10742,7 @@
       <c r="S366" s="1"/>
       <c r="T366" s="6"/>
     </row>
-    <row r="367" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
@@ -10760,7 +10759,7 @@
       <c r="S367" s="1"/>
       <c r="T367" s="6"/>
     </row>
-    <row r="368" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
@@ -10777,7 +10776,7 @@
       <c r="S368" s="1"/>
       <c r="T368" s="6"/>
     </row>
-    <row r="369" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
@@ -10794,7 +10793,7 @@
       <c r="S369" s="1"/>
       <c r="T369" s="6"/>
     </row>
-    <row r="370" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
@@ -10811,7 +10810,7 @@
       <c r="S370" s="1"/>
       <c r="T370" s="6"/>
     </row>
-    <row r="371" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
@@ -10828,7 +10827,7 @@
       <c r="S371" s="1"/>
       <c r="T371" s="6"/>
     </row>
-    <row r="372" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
@@ -10845,7 +10844,7 @@
       <c r="S372" s="1"/>
       <c r="T372" s="6"/>
     </row>
-    <row r="373" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
@@ -10862,7 +10861,7 @@
       <c r="S373" s="1"/>
       <c r="T373" s="6"/>
     </row>
-    <row r="374" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
@@ -10879,7 +10878,7 @@
       <c r="S374" s="1"/>
       <c r="T374" s="6"/>
     </row>
-    <row r="375" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
@@ -10896,7 +10895,7 @@
       <c r="S375" s="1"/>
       <c r="T375" s="6"/>
     </row>
-    <row r="376" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
@@ -10913,7 +10912,7 @@
       <c r="S376" s="1"/>
       <c r="T376" s="6"/>
     </row>
-    <row r="377" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
@@ -10930,7 +10929,7 @@
       <c r="S377" s="1"/>
       <c r="T377" s="6"/>
     </row>
-    <row r="378" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
@@ -10947,7 +10946,7 @@
       <c r="S378" s="1"/>
       <c r="T378" s="6"/>
     </row>
-    <row r="379" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
@@ -10964,7 +10963,7 @@
       <c r="S379" s="1"/>
       <c r="T379" s="6"/>
     </row>
-    <row r="380" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
@@ -10981,7 +10980,7 @@
       <c r="S380" s="1"/>
       <c r="T380" s="6"/>
     </row>
-    <row r="381" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
@@ -10998,7 +10997,7 @@
       <c r="S381" s="1"/>
       <c r="T381" s="6"/>
     </row>
-    <row r="382" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
@@ -11015,7 +11014,7 @@
       <c r="S382" s="1"/>
       <c r="T382" s="6"/>
     </row>
-    <row r="383" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
@@ -11032,7 +11031,7 @@
       <c r="S383" s="1"/>
       <c r="T383" s="6"/>
     </row>
-    <row r="384" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
@@ -11049,7 +11048,7 @@
       <c r="S384" s="1"/>
       <c r="T384" s="6"/>
     </row>
-    <row r="385" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
@@ -11066,7 +11065,7 @@
       <c r="S385" s="1"/>
       <c r="T385" s="6"/>
     </row>
-    <row r="386" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
@@ -11083,7 +11082,7 @@
       <c r="S386" s="1"/>
       <c r="T386" s="6"/>
     </row>
-    <row r="387" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
@@ -11100,7 +11099,7 @@
       <c r="S387" s="1"/>
       <c r="T387" s="6"/>
     </row>
-    <row r="388" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
@@ -11117,7 +11116,7 @@
       <c r="S388" s="1"/>
       <c r="T388" s="6"/>
     </row>
-    <row r="389" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
@@ -11134,7 +11133,7 @@
       <c r="S389" s="1"/>
       <c r="T389" s="6"/>
     </row>
-    <row r="390" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
@@ -11151,7 +11150,7 @@
       <c r="S390" s="1"/>
       <c r="T390" s="6"/>
     </row>
-    <row r="391" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
@@ -11168,7 +11167,7 @@
       <c r="S391" s="1"/>
       <c r="T391" s="6"/>
     </row>
-    <row r="392" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
@@ -11185,7 +11184,7 @@
       <c r="S392" s="1"/>
       <c r="T392" s="6"/>
     </row>
-    <row r="393" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
@@ -11202,7 +11201,7 @@
       <c r="S393" s="1"/>
       <c r="T393" s="6"/>
     </row>
-    <row r="394" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
@@ -11219,7 +11218,7 @@
       <c r="S394" s="1"/>
       <c r="T394" s="6"/>
     </row>
-    <row r="395" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
@@ -11236,7 +11235,7 @@
       <c r="S395" s="1"/>
       <c r="T395" s="6"/>
     </row>
-    <row r="396" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
@@ -11253,7 +11252,7 @@
       <c r="S396" s="1"/>
       <c r="T396" s="6"/>
     </row>
-    <row r="397" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
@@ -11270,7 +11269,7 @@
       <c r="S397" s="1"/>
       <c r="T397" s="6"/>
     </row>
-    <row r="398" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
@@ -11287,7 +11286,7 @@
       <c r="S398" s="1"/>
       <c r="T398" s="6"/>
     </row>
-    <row r="399" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
@@ -11304,7 +11303,7 @@
       <c r="S399" s="1"/>
       <c r="T399" s="6"/>
     </row>
-    <row r="400" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
@@ -11321,7 +11320,7 @@
       <c r="S400" s="1"/>
       <c r="T400" s="6"/>
     </row>
-    <row r="401" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
@@ -11338,7 +11337,7 @@
       <c r="S401" s="1"/>
       <c r="T401" s="6"/>
     </row>
-    <row r="402" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
@@ -11355,7 +11354,7 @@
       <c r="S402" s="1"/>
       <c r="T402" s="6"/>
     </row>
-    <row r="403" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
@@ -11372,7 +11371,7 @@
       <c r="S403" s="1"/>
       <c r="T403" s="6"/>
     </row>
-    <row r="404" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
@@ -11389,7 +11388,7 @@
       <c r="S404" s="1"/>
       <c r="T404" s="6"/>
     </row>
-    <row r="405" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
@@ -11406,7 +11405,7 @@
       <c r="S405" s="1"/>
       <c r="T405" s="6"/>
     </row>
-    <row r="406" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
@@ -11423,7 +11422,7 @@
       <c r="S406" s="1"/>
       <c r="T406" s="6"/>
     </row>
-    <row r="407" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
@@ -11440,7 +11439,7 @@
       <c r="S407" s="1"/>
       <c r="T407" s="6"/>
     </row>
-    <row r="408" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
@@ -11457,7 +11456,7 @@
       <c r="S408" s="1"/>
       <c r="T408" s="6"/>
     </row>
-    <row r="409" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
@@ -11474,7 +11473,7 @@
       <c r="S409" s="1"/>
       <c r="T409" s="6"/>
     </row>
-    <row r="410" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
@@ -11491,7 +11490,7 @@
       <c r="S410" s="1"/>
       <c r="T410" s="6"/>
     </row>
-    <row r="411" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
@@ -11508,7 +11507,7 @@
       <c r="S411" s="1"/>
       <c r="T411" s="6"/>
     </row>
-    <row r="412" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
@@ -11525,7 +11524,7 @@
       <c r="S412" s="1"/>
       <c r="T412" s="6"/>
     </row>
-    <row r="413" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
@@ -11542,7 +11541,7 @@
       <c r="S413" s="1"/>
       <c r="T413" s="6"/>
     </row>
-    <row r="414" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
@@ -11559,7 +11558,7 @@
       <c r="S414" s="1"/>
       <c r="T414" s="6"/>
     </row>
-    <row r="415" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
@@ -11576,7 +11575,7 @@
       <c r="S415" s="1"/>
       <c r="T415" s="6"/>
     </row>
-    <row r="416" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
@@ -11593,7 +11592,7 @@
       <c r="S416" s="1"/>
       <c r="T416" s="6"/>
     </row>
-    <row r="417" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
@@ -11610,7 +11609,7 @@
       <c r="S417" s="1"/>
       <c r="T417" s="6"/>
     </row>
-    <row r="418" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
@@ -11627,7 +11626,7 @@
       <c r="S418" s="1"/>
       <c r="T418" s="6"/>
     </row>
-    <row r="419" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
@@ -11644,7 +11643,7 @@
       <c r="S419" s="1"/>
       <c r="T419" s="6"/>
     </row>
-    <row r="420" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
@@ -11661,7 +11660,7 @@
       <c r="S420" s="1"/>
       <c r="T420" s="6"/>
     </row>
-    <row r="421" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
@@ -11678,7 +11677,7 @@
       <c r="S421" s="1"/>
       <c r="T421" s="6"/>
     </row>
-    <row r="422" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
@@ -11695,7 +11694,7 @@
       <c r="S422" s="1"/>
       <c r="T422" s="6"/>
     </row>
-    <row r="423" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
@@ -11712,7 +11711,7 @@
       <c r="S423" s="1"/>
       <c r="T423" s="6"/>
     </row>
-    <row r="424" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
@@ -11729,7 +11728,7 @@
       <c r="S424" s="1"/>
       <c r="T424" s="6"/>
     </row>
-    <row r="425" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
@@ -11746,7 +11745,7 @@
       <c r="S425" s="1"/>
       <c r="T425" s="6"/>
     </row>
-    <row r="426" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
@@ -11763,7 +11762,7 @@
       <c r="S426" s="1"/>
       <c r="T426" s="6"/>
     </row>
-    <row r="427" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
@@ -11780,7 +11779,7 @@
       <c r="S427" s="1"/>
       <c r="T427" s="6"/>
     </row>
-    <row r="428" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
@@ -11797,7 +11796,7 @@
       <c r="S428" s="1"/>
       <c r="T428" s="6"/>
     </row>
-    <row r="429" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
@@ -11814,7 +11813,7 @@
       <c r="S429" s="1"/>
       <c r="T429" s="6"/>
     </row>
-    <row r="430" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
@@ -11831,7 +11830,7 @@
       <c r="S430" s="1"/>
       <c r="T430" s="6"/>
     </row>
-    <row r="431" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
@@ -11848,7 +11847,7 @@
       <c r="S431" s="1"/>
       <c r="T431" s="6"/>
     </row>
-    <row r="432" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
@@ -11865,7 +11864,7 @@
       <c r="S432" s="1"/>
       <c r="T432" s="6"/>
     </row>
-    <row r="433" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
@@ -11882,7 +11881,7 @@
       <c r="S433" s="1"/>
       <c r="T433" s="6"/>
     </row>
-    <row r="434" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
@@ -11899,7 +11898,7 @@
       <c r="S434" s="1"/>
       <c r="T434" s="6"/>
     </row>
-    <row r="435" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
@@ -11916,7 +11915,7 @@
       <c r="S435" s="1"/>
       <c r="T435" s="6"/>
     </row>
-    <row r="436" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
@@ -11933,7 +11932,7 @@
       <c r="S436" s="1"/>
       <c r="T436" s="6"/>
     </row>
-    <row r="437" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
@@ -11950,7 +11949,7 @@
       <c r="S437" s="1"/>
       <c r="T437" s="6"/>
     </row>
-    <row r="438" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
@@ -11967,7 +11966,7 @@
       <c r="S438" s="1"/>
       <c r="T438" s="6"/>
     </row>
-    <row r="439" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
@@ -11984,7 +11983,7 @@
       <c r="S439" s="1"/>
       <c r="T439" s="6"/>
     </row>
-    <row r="440" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
@@ -12001,7 +12000,7 @@
       <c r="S440" s="1"/>
       <c r="T440" s="6"/>
     </row>
-    <row r="441" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
@@ -12018,7 +12017,7 @@
       <c r="S441" s="1"/>
       <c r="T441" s="6"/>
     </row>
-    <row r="442" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
@@ -12035,7 +12034,7 @@
       <c r="S442" s="1"/>
       <c r="T442" s="6"/>
     </row>
-    <row r="443" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
@@ -12052,7 +12051,7 @@
       <c r="S443" s="1"/>
       <c r="T443" s="6"/>
     </row>
-    <row r="444" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
@@ -12069,7 +12068,7 @@
       <c r="S444" s="1"/>
       <c r="T444" s="6"/>
     </row>
-    <row r="445" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
@@ -12086,7 +12085,7 @@
       <c r="S445" s="1"/>
       <c r="T445" s="6"/>
     </row>
-    <row r="446" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
@@ -12103,7 +12102,7 @@
       <c r="S446" s="1"/>
       <c r="T446" s="6"/>
     </row>
-    <row r="447" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
@@ -12120,7 +12119,7 @@
       <c r="S447" s="1"/>
       <c r="T447" s="6"/>
     </row>
-    <row r="448" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
@@ -12137,7 +12136,7 @@
       <c r="S448" s="1"/>
       <c r="T448" s="6"/>
     </row>
-    <row r="449" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
@@ -12154,7 +12153,7 @@
       <c r="S449" s="1"/>
       <c r="T449" s="6"/>
     </row>
-    <row r="450" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
@@ -12171,7 +12170,7 @@
       <c r="S450" s="1"/>
       <c r="T450" s="6"/>
     </row>
-    <row r="451" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
@@ -12188,7 +12187,7 @@
       <c r="S451" s="1"/>
       <c r="T451" s="6"/>
     </row>
-    <row r="452" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
@@ -12205,7 +12204,7 @@
       <c r="S452" s="1"/>
       <c r="T452" s="6"/>
     </row>
-    <row r="453" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
@@ -12222,7 +12221,7 @@
       <c r="S453" s="1"/>
       <c r="T453" s="6"/>
     </row>
-    <row r="454" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
@@ -12239,7 +12238,7 @@
       <c r="S454" s="1"/>
       <c r="T454" s="6"/>
     </row>
-    <row r="455" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
@@ -12256,7 +12255,7 @@
       <c r="S455" s="1"/>
       <c r="T455" s="6"/>
     </row>
-    <row r="456" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
@@ -12273,7 +12272,7 @@
       <c r="S456" s="1"/>
       <c r="T456" s="6"/>
     </row>
-    <row r="457" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
@@ -12290,7 +12289,7 @@
       <c r="S457" s="1"/>
       <c r="T457" s="6"/>
     </row>
-    <row r="458" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
@@ -12307,7 +12306,7 @@
       <c r="S458" s="1"/>
       <c r="T458" s="6"/>
     </row>
-    <row r="459" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
@@ -12324,7 +12323,7 @@
       <c r="S459" s="1"/>
       <c r="T459" s="6"/>
     </row>
-    <row r="460" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
@@ -12341,7 +12340,7 @@
       <c r="S460" s="1"/>
       <c r="T460" s="6"/>
     </row>
-    <row r="461" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
@@ -12358,7 +12357,7 @@
       <c r="S461" s="1"/>
       <c r="T461" s="6"/>
     </row>
-    <row r="462" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
@@ -12375,7 +12374,7 @@
       <c r="S462" s="1"/>
       <c r="T462" s="6"/>
     </row>
-    <row r="463" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
@@ -12392,7 +12391,7 @@
       <c r="S463" s="1"/>
       <c r="T463" s="6"/>
     </row>
-    <row r="464" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
@@ -12409,7 +12408,7 @@
       <c r="S464" s="1"/>
       <c r="T464" s="6"/>
     </row>
-    <row r="465" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
@@ -12426,7 +12425,7 @@
       <c r="S465" s="1"/>
       <c r="T465" s="6"/>
     </row>
-    <row r="466" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
@@ -12443,7 +12442,7 @@
       <c r="S466" s="1"/>
       <c r="T466" s="6"/>
     </row>
-    <row r="467" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
@@ -12460,7 +12459,7 @@
       <c r="S467" s="1"/>
       <c r="T467" s="6"/>
     </row>
-    <row r="468" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
@@ -12477,7 +12476,7 @@
       <c r="S468" s="1"/>
       <c r="T468" s="6"/>
     </row>
-    <row r="469" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
@@ -12494,7 +12493,7 @@
       <c r="S469" s="1"/>
       <c r="T469" s="6"/>
     </row>
-    <row r="470" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
@@ -12511,7 +12510,7 @@
       <c r="S470" s="1"/>
       <c r="T470" s="6"/>
     </row>
-    <row r="471" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
@@ -12528,7 +12527,7 @@
       <c r="S471" s="1"/>
       <c r="T471" s="6"/>
     </row>
-    <row r="472" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
@@ -12545,7 +12544,7 @@
       <c r="S472" s="1"/>
       <c r="T472" s="6"/>
     </row>
-    <row r="473" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
@@ -12562,7 +12561,7 @@
       <c r="S473" s="1"/>
       <c r="T473" s="6"/>
     </row>
-    <row r="474" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
@@ -12579,7 +12578,7 @@
       <c r="S474" s="1"/>
       <c r="T474" s="6"/>
     </row>
-    <row r="475" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
@@ -12596,7 +12595,7 @@
       <c r="S475" s="1"/>
       <c r="T475" s="6"/>
     </row>
-    <row r="476" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
@@ -12613,7 +12612,7 @@
       <c r="S476" s="1"/>
       <c r="T476" s="6"/>
     </row>
-    <row r="477" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
@@ -12630,7 +12629,7 @@
       <c r="S477" s="1"/>
       <c r="T477" s="6"/>
     </row>
-    <row r="478" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
@@ -12647,7 +12646,7 @@
       <c r="S478" s="1"/>
       <c r="T478" s="6"/>
     </row>
-    <row r="479" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
@@ -12664,7 +12663,7 @@
       <c r="S479" s="1"/>
       <c r="T479" s="6"/>
     </row>
-    <row r="480" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
@@ -12681,7 +12680,7 @@
       <c r="S480" s="1"/>
       <c r="T480" s="6"/>
     </row>
-    <row r="481" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
@@ -12698,7 +12697,7 @@
       <c r="S481" s="1"/>
       <c r="T481" s="6"/>
     </row>
-    <row r="482" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
@@ -12715,7 +12714,7 @@
       <c r="S482" s="1"/>
       <c r="T482" s="6"/>
     </row>
-    <row r="483" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
@@ -12732,7 +12731,7 @@
       <c r="S483" s="1"/>
       <c r="T483" s="6"/>
     </row>
-    <row r="484" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
@@ -12749,7 +12748,7 @@
       <c r="S484" s="1"/>
       <c r="T484" s="6"/>
     </row>
-    <row r="485" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
@@ -12766,7 +12765,7 @@
       <c r="S485" s="1"/>
       <c r="T485" s="6"/>
     </row>
-    <row r="486" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
@@ -12783,7 +12782,7 @@
       <c r="S486" s="1"/>
       <c r="T486" s="6"/>
     </row>
-    <row r="487" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
@@ -12800,7 +12799,7 @@
       <c r="S487" s="1"/>
       <c r="T487" s="6"/>
     </row>
-    <row r="488" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
@@ -12817,7 +12816,7 @@
       <c r="S488" s="1"/>
       <c r="T488" s="6"/>
     </row>
-    <row r="489" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
@@ -12834,7 +12833,7 @@
       <c r="S489" s="1"/>
       <c r="T489" s="6"/>
     </row>
-    <row r="490" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
@@ -12851,7 +12850,7 @@
       <c r="S490" s="1"/>
       <c r="T490" s="6"/>
     </row>
-    <row r="491" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
@@ -12868,7 +12867,7 @@
       <c r="S491" s="1"/>
       <c r="T491" s="6"/>
     </row>
-    <row r="492" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
@@ -12885,7 +12884,7 @@
       <c r="S492" s="1"/>
       <c r="T492" s="6"/>
     </row>
-    <row r="493" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
@@ -12902,7 +12901,7 @@
       <c r="S493" s="1"/>
       <c r="T493" s="6"/>
     </row>
-    <row r="494" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
@@ -12919,7 +12918,7 @@
       <c r="S494" s="1"/>
       <c r="T494" s="6"/>
     </row>
-    <row r="495" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
@@ -12936,7 +12935,7 @@
       <c r="S495" s="1"/>
       <c r="T495" s="6"/>
     </row>
-    <row r="496" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
@@ -12953,7 +12952,7 @@
       <c r="S496" s="1"/>
       <c r="T496" s="6"/>
     </row>
-    <row r="497" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
@@ -12970,7 +12969,7 @@
       <c r="S497" s="1"/>
       <c r="T497" s="6"/>
     </row>
-    <row r="498" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
@@ -12987,7 +12986,7 @@
       <c r="S498" s="1"/>
       <c r="T498" s="6"/>
     </row>
-    <row r="499" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
@@ -13004,7 +13003,7 @@
       <c r="S499" s="1"/>
       <c r="T499" s="6"/>
     </row>
-    <row r="500" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
@@ -13021,7 +13020,7 @@
       <c r="S500" s="1"/>
       <c r="T500" s="6"/>
     </row>
-    <row r="501" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
@@ -13038,7 +13037,7 @@
       <c r="S501" s="1"/>
       <c r="T501" s="6"/>
     </row>
-    <row r="502" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
@@ -13055,7 +13054,7 @@
       <c r="S502" s="1"/>
       <c r="T502" s="6"/>
     </row>
-    <row r="503" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
@@ -13072,7 +13071,7 @@
       <c r="S503" s="1"/>
       <c r="T503" s="6"/>
     </row>
-    <row r="504" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
@@ -13089,7 +13088,7 @@
       <c r="S504" s="1"/>
       <c r="T504" s="6"/>
     </row>
-    <row r="505" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
@@ -13106,7 +13105,7 @@
       <c r="S505" s="1"/>
       <c r="T505" s="6"/>
     </row>
-    <row r="506" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
@@ -13123,7 +13122,7 @@
       <c r="S506" s="1"/>
       <c r="T506" s="6"/>
     </row>
-    <row r="507" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
@@ -13140,7 +13139,7 @@
       <c r="S507" s="1"/>
       <c r="T507" s="6"/>
     </row>
-    <row r="508" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
@@ -13157,7 +13156,7 @@
       <c r="S508" s="1"/>
       <c r="T508" s="6"/>
     </row>
-    <row r="509" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
@@ -13174,7 +13173,7 @@
       <c r="S509" s="1"/>
       <c r="T509" s="6"/>
     </row>
-    <row r="510" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
@@ -13191,7 +13190,7 @@
       <c r="S510" s="1"/>
       <c r="T510" s="6"/>
     </row>
-    <row r="511" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
@@ -13208,7 +13207,7 @@
       <c r="S511" s="1"/>
       <c r="T511" s="6"/>
     </row>
-    <row r="512" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
@@ -13225,7 +13224,7 @@
       <c r="S512" s="1"/>
       <c r="T512" s="6"/>
     </row>
-    <row r="513" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
@@ -13242,7 +13241,7 @@
       <c r="S513" s="1"/>
       <c r="T513" s="6"/>
     </row>
-    <row r="514" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
@@ -13259,7 +13258,7 @@
       <c r="S514" s="1"/>
       <c r="T514" s="6"/>
     </row>
-    <row r="515" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
@@ -13276,7 +13275,7 @@
       <c r="S515" s="1"/>
       <c r="T515" s="6"/>
     </row>
-    <row r="516" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
@@ -13293,7 +13292,7 @@
       <c r="S516" s="1"/>
       <c r="T516" s="6"/>
     </row>
-    <row r="517" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
@@ -13310,7 +13309,7 @@
       <c r="S517" s="1"/>
       <c r="T517" s="6"/>
     </row>
-    <row r="518" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
@@ -13327,7 +13326,7 @@
       <c r="S518" s="1"/>
       <c r="T518" s="6"/>
     </row>
-    <row r="519" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
@@ -13344,7 +13343,7 @@
       <c r="S519" s="1"/>
       <c r="T519" s="6"/>
     </row>
-    <row r="520" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
@@ -13361,7 +13360,7 @@
       <c r="S520" s="1"/>
       <c r="T520" s="6"/>
     </row>
-    <row r="521" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
@@ -13378,7 +13377,7 @@
       <c r="S521" s="1"/>
       <c r="T521" s="6"/>
     </row>
-    <row r="522" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
@@ -13395,7 +13394,7 @@
       <c r="S522" s="1"/>
       <c r="T522" s="6"/>
     </row>
-    <row r="523" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
@@ -13412,7 +13411,7 @@
       <c r="S523" s="1"/>
       <c r="T523" s="6"/>
     </row>
-    <row r="524" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
@@ -13429,7 +13428,7 @@
       <c r="S524" s="1"/>
       <c r="T524" s="6"/>
     </row>
-    <row r="525" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
@@ -13446,7 +13445,7 @@
       <c r="S525" s="1"/>
       <c r="T525" s="6"/>
     </row>
-    <row r="526" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
@@ -13463,7 +13462,7 @@
       <c r="S526" s="1"/>
       <c r="T526" s="6"/>
     </row>
-    <row r="527" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
@@ -13480,7 +13479,7 @@
       <c r="S527" s="1"/>
       <c r="T527" s="6"/>
     </row>
-    <row r="528" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
@@ -13497,7 +13496,7 @@
       <c r="S528" s="1"/>
       <c r="T528" s="6"/>
     </row>
-    <row r="529" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
@@ -13514,7 +13513,7 @@
       <c r="S529" s="1"/>
       <c r="T529" s="6"/>
     </row>
-    <row r="530" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
@@ -13531,7 +13530,7 @@
       <c r="S530" s="1"/>
       <c r="T530" s="6"/>
     </row>
-    <row r="531" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
@@ -13548,7 +13547,7 @@
       <c r="S531" s="1"/>
       <c r="T531" s="6"/>
     </row>
-    <row r="532" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
@@ -13565,7 +13564,7 @@
       <c r="S532" s="1"/>
       <c r="T532" s="6"/>
     </row>
-    <row r="533" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
@@ -13582,7 +13581,7 @@
       <c r="S533" s="1"/>
       <c r="T533" s="6"/>
     </row>
-    <row r="534" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
@@ -13599,7 +13598,7 @@
       <c r="S534" s="1"/>
       <c r="T534" s="6"/>
     </row>
-    <row r="535" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
@@ -13616,7 +13615,7 @@
       <c r="S535" s="1"/>
       <c r="T535" s="6"/>
     </row>
-    <row r="536" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
@@ -13633,7 +13632,7 @@
       <c r="S536" s="1"/>
       <c r="T536" s="6"/>
     </row>
-    <row r="537" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
@@ -13650,7 +13649,7 @@
       <c r="S537" s="1"/>
       <c r="T537" s="6"/>
     </row>
-    <row r="538" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
@@ -13667,7 +13666,7 @@
       <c r="S538" s="1"/>
       <c r="T538" s="6"/>
     </row>
-    <row r="539" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
@@ -13684,7 +13683,7 @@
       <c r="S539" s="1"/>
       <c r="T539" s="6"/>
     </row>
-    <row r="540" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
@@ -13701,7 +13700,7 @@
       <c r="S540" s="1"/>
       <c r="T540" s="6"/>
     </row>
-    <row r="541" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
@@ -13718,7 +13717,7 @@
       <c r="S541" s="1"/>
       <c r="T541" s="6"/>
     </row>
-    <row r="542" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
@@ -13735,7 +13734,7 @@
       <c r="S542" s="1"/>
       <c r="T542" s="6"/>
     </row>
-    <row r="543" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
@@ -13752,7 +13751,7 @@
       <c r="S543" s="1"/>
       <c r="T543" s="6"/>
     </row>
-    <row r="544" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
@@ -13769,7 +13768,7 @@
       <c r="S544" s="1"/>
       <c r="T544" s="6"/>
     </row>
-    <row r="545" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
@@ -13786,7 +13785,7 @@
       <c r="S545" s="1"/>
       <c r="T545" s="6"/>
     </row>
-    <row r="546" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
@@ -13803,7 +13802,7 @@
       <c r="S546" s="1"/>
       <c r="T546" s="6"/>
     </row>
-    <row r="547" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
@@ -13820,7 +13819,7 @@
       <c r="S547" s="1"/>
       <c r="T547" s="6"/>
     </row>
-    <row r="548" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
@@ -13837,7 +13836,7 @@
       <c r="S548" s="1"/>
       <c r="T548" s="6"/>
     </row>
-    <row r="549" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
@@ -13854,7 +13853,7 @@
       <c r="S549" s="1"/>
       <c r="T549" s="6"/>
     </row>
-    <row r="550" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
@@ -13871,7 +13870,7 @@
       <c r="S550" s="1"/>
       <c r="T550" s="6"/>
     </row>
-    <row r="551" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
@@ -13888,7 +13887,7 @@
       <c r="S551" s="1"/>
       <c r="T551" s="6"/>
     </row>
-    <row r="552" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
@@ -13905,7 +13904,7 @@
       <c r="S552" s="1"/>
       <c r="T552" s="6"/>
     </row>
-    <row r="553" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
@@ -13922,7 +13921,7 @@
       <c r="S553" s="1"/>
       <c r="T553" s="6"/>
     </row>
-    <row r="554" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
@@ -13939,7 +13938,7 @@
       <c r="S554" s="1"/>
       <c r="T554" s="6"/>
     </row>
-    <row r="555" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
@@ -13956,7 +13955,7 @@
       <c r="S555" s="1"/>
       <c r="T555" s="6"/>
     </row>
-    <row r="556" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
@@ -13973,7 +13972,7 @@
       <c r="S556" s="1"/>
       <c r="T556" s="6"/>
     </row>
-    <row r="557" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
@@ -13990,7 +13989,7 @@
       <c r="S557" s="1"/>
       <c r="T557" s="6"/>
     </row>
-    <row r="558" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
@@ -14007,7 +14006,7 @@
       <c r="S558" s="1"/>
       <c r="T558" s="6"/>
     </row>
-    <row r="559" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
@@ -14024,7 +14023,7 @@
       <c r="S559" s="1"/>
       <c r="T559" s="6"/>
     </row>
-    <row r="560" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
@@ -14041,7 +14040,7 @@
       <c r="S560" s="1"/>
       <c r="T560" s="6"/>
     </row>
-    <row r="561" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
@@ -14058,7 +14057,7 @@
       <c r="S561" s="1"/>
       <c r="T561" s="6"/>
     </row>
-    <row r="562" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
@@ -14075,7 +14074,7 @@
       <c r="S562" s="1"/>
       <c r="T562" s="6"/>
     </row>
-    <row r="563" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
@@ -14092,7 +14091,7 @@
       <c r="S563" s="1"/>
       <c r="T563" s="6"/>
     </row>
-    <row r="564" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
@@ -14109,7 +14108,7 @@
       <c r="S564" s="1"/>
       <c r="T564" s="6"/>
     </row>
-    <row r="565" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
@@ -14126,7 +14125,7 @@
       <c r="S565" s="1"/>
       <c r="T565" s="6"/>
     </row>
-    <row r="566" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
       <c r="H566" s="3"/>
@@ -14143,7 +14142,7 @@
       <c r="S566" s="1"/>
       <c r="T566" s="6"/>
     </row>
-    <row r="567" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
@@ -14160,7 +14159,7 @@
       <c r="S567" s="1"/>
       <c r="T567" s="6"/>
     </row>
-    <row r="568" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
@@ -14177,7 +14176,7 @@
       <c r="S568" s="1"/>
       <c r="T568" s="6"/>
     </row>
-    <row r="569" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
@@ -14194,7 +14193,7 @@
       <c r="S569" s="1"/>
       <c r="T569" s="6"/>
     </row>
-    <row r="570" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
@@ -14211,7 +14210,7 @@
       <c r="S570" s="1"/>
       <c r="T570" s="6"/>
     </row>
-    <row r="571" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
@@ -14228,7 +14227,7 @@
       <c r="S571" s="1"/>
       <c r="T571" s="6"/>
     </row>
-    <row r="572" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
@@ -14245,7 +14244,7 @@
       <c r="S572" s="1"/>
       <c r="T572" s="6"/>
     </row>
-    <row r="573" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
       <c r="H573" s="3"/>
@@ -14262,7 +14261,7 @@
       <c r="S573" s="1"/>
       <c r="T573" s="6"/>
     </row>
-    <row r="574" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
@@ -14279,7 +14278,7 @@
       <c r="S574" s="1"/>
       <c r="T574" s="6"/>
     </row>
-    <row r="575" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
       <c r="H575" s="3"/>
@@ -14296,7 +14295,7 @@
       <c r="S575" s="1"/>
       <c r="T575" s="6"/>
     </row>
-    <row r="576" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
       <c r="H576" s="3"/>
@@ -14313,7 +14312,7 @@
       <c r="S576" s="1"/>
       <c r="T576" s="6"/>
     </row>
-    <row r="577" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
       <c r="H577" s="3"/>
@@ -14330,7 +14329,7 @@
       <c r="S577" s="1"/>
       <c r="T577" s="6"/>
     </row>
-    <row r="578" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
@@ -14347,7 +14346,7 @@
       <c r="S578" s="1"/>
       <c r="T578" s="6"/>
     </row>
-    <row r="579" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
       <c r="H579" s="3"/>
@@ -14364,7 +14363,7 @@
       <c r="S579" s="1"/>
       <c r="T579" s="6"/>
     </row>
-    <row r="580" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
       <c r="H580" s="3"/>
@@ -14381,7 +14380,7 @@
       <c r="S580" s="1"/>
       <c r="T580" s="6"/>
     </row>
-    <row r="581" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
       <c r="H581" s="3"/>
@@ -14398,7 +14397,7 @@
       <c r="S581" s="1"/>
       <c r="T581" s="6"/>
     </row>
-    <row r="582" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
       <c r="H582" s="3"/>
@@ -14415,7 +14414,7 @@
       <c r="S582" s="1"/>
       <c r="T582" s="6"/>
     </row>
-    <row r="583" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
       <c r="H583" s="3"/>
@@ -14432,7 +14431,7 @@
       <c r="S583" s="1"/>
       <c r="T583" s="6"/>
     </row>
-    <row r="584" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
       <c r="H584" s="3"/>
@@ -14449,7 +14448,7 @@
       <c r="S584" s="1"/>
       <c r="T584" s="6"/>
     </row>
-    <row r="585" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
       <c r="H585" s="3"/>
@@ -14466,7 +14465,7 @@
       <c r="S585" s="1"/>
       <c r="T585" s="6"/>
     </row>
-    <row r="586" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
       <c r="H586" s="3"/>
@@ -14483,7 +14482,7 @@
       <c r="S586" s="1"/>
       <c r="T586" s="6"/>
     </row>
-    <row r="587" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
       <c r="H587" s="3"/>
@@ -14500,7 +14499,7 @@
       <c r="S587" s="1"/>
       <c r="T587" s="6"/>
     </row>
-    <row r="588" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
       <c r="H588" s="3"/>
@@ -14517,7 +14516,7 @@
       <c r="S588" s="1"/>
       <c r="T588" s="6"/>
     </row>
-    <row r="589" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
       <c r="H589" s="3"/>
@@ -14534,7 +14533,7 @@
       <c r="S589" s="1"/>
       <c r="T589" s="6"/>
     </row>
-    <row r="590" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
       <c r="H590" s="3"/>
@@ -14551,7 +14550,7 @@
       <c r="S590" s="1"/>
       <c r="T590" s="6"/>
     </row>
-    <row r="591" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
       <c r="H591" s="3"/>
@@ -14568,7 +14567,7 @@
       <c r="S591" s="1"/>
       <c r="T591" s="6"/>
     </row>
-    <row r="592" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
       <c r="H592" s="3"/>
@@ -14585,7 +14584,7 @@
       <c r="S592" s="1"/>
       <c r="T592" s="6"/>
     </row>
-    <row r="593" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
       <c r="H593" s="3"/>
@@ -14602,7 +14601,7 @@
       <c r="S593" s="1"/>
       <c r="T593" s="6"/>
     </row>
-    <row r="594" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
       <c r="H594" s="3"/>
@@ -14619,7 +14618,7 @@
       <c r="S594" s="1"/>
       <c r="T594" s="6"/>
     </row>
-    <row r="595" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
@@ -14636,7 +14635,7 @@
       <c r="S595" s="1"/>
       <c r="T595" s="6"/>
     </row>
-    <row r="596" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
       <c r="H596" s="3"/>
@@ -14653,7 +14652,7 @@
       <c r="S596" s="1"/>
       <c r="T596" s="6"/>
     </row>
-    <row r="597" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
       <c r="H597" s="3"/>
@@ -14670,7 +14669,7 @@
       <c r="S597" s="1"/>
       <c r="T597" s="6"/>
     </row>
-    <row r="598" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
       <c r="H598" s="3"/>
@@ -14687,7 +14686,7 @@
       <c r="S598" s="1"/>
       <c r="T598" s="6"/>
     </row>
-    <row r="599" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
       <c r="H599" s="3"/>
@@ -14704,7 +14703,7 @@
       <c r="S599" s="1"/>
       <c r="T599" s="6"/>
     </row>
-    <row r="600" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
       <c r="H600" s="3"/>
@@ -14721,7 +14720,7 @@
       <c r="S600" s="1"/>
       <c r="T600" s="6"/>
     </row>
-    <row r="601" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
       <c r="H601" s="3"/>
@@ -14738,7 +14737,7 @@
       <c r="S601" s="1"/>
       <c r="T601" s="6"/>
     </row>
-    <row r="602" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
       <c r="H602" s="3"/>
@@ -14755,7 +14754,7 @@
       <c r="S602" s="1"/>
       <c r="T602" s="6"/>
     </row>
-    <row r="603" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
       <c r="H603" s="3"/>
@@ -14772,7 +14771,7 @@
       <c r="S603" s="1"/>
       <c r="T603" s="6"/>
     </row>
-    <row r="604" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
       <c r="H604" s="3"/>
@@ -14789,7 +14788,7 @@
       <c r="S604" s="1"/>
       <c r="T604" s="6"/>
     </row>
-    <row r="605" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
       <c r="H605" s="3"/>
@@ -14806,7 +14805,7 @@
       <c r="S605" s="1"/>
       <c r="T605" s="6"/>
     </row>
-    <row r="606" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
@@ -14823,7 +14822,7 @@
       <c r="S606" s="1"/>
       <c r="T606" s="6"/>
     </row>
-    <row r="607" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
@@ -14840,7 +14839,7 @@
       <c r="S607" s="1"/>
       <c r="T607" s="6"/>
     </row>
-    <row r="608" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
       <c r="H608" s="3"/>
@@ -14857,7 +14856,7 @@
       <c r="S608" s="1"/>
       <c r="T608" s="6"/>
     </row>
-    <row r="609" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
       <c r="H609" s="3"/>
@@ -14874,7 +14873,7 @@
       <c r="S609" s="1"/>
       <c r="T609" s="6"/>
     </row>
-    <row r="610" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
       <c r="H610" s="3"/>
@@ -14891,7 +14890,7 @@
       <c r="S610" s="1"/>
       <c r="T610" s="6"/>
     </row>
-    <row r="611" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
       <c r="H611" s="3"/>
@@ -14908,7 +14907,7 @@
       <c r="S611" s="1"/>
       <c r="T611" s="6"/>
     </row>
-    <row r="612" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
       <c r="H612" s="3"/>
@@ -14925,7 +14924,7 @@
       <c r="S612" s="1"/>
       <c r="T612" s="6"/>
     </row>
-    <row r="613" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
       <c r="H613" s="3"/>
@@ -14942,7 +14941,7 @@
       <c r="S613" s="1"/>
       <c r="T613" s="6"/>
     </row>
-    <row r="614" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
       <c r="H614" s="3"/>
@@ -14959,7 +14958,7 @@
       <c r="S614" s="1"/>
       <c r="T614" s="6"/>
     </row>
-    <row r="615" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
       <c r="H615" s="3"/>
@@ -14976,7 +14975,7 @@
       <c r="S615" s="1"/>
       <c r="T615" s="6"/>
     </row>
-    <row r="616" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
       <c r="H616" s="3"/>
@@ -14993,7 +14992,7 @@
       <c r="S616" s="1"/>
       <c r="T616" s="6"/>
     </row>
-    <row r="617" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
       <c r="H617" s="3"/>
@@ -15010,7 +15009,7 @@
       <c r="S617" s="1"/>
       <c r="T617" s="6"/>
     </row>
-    <row r="618" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
       <c r="H618" s="3"/>
@@ -15027,7 +15026,7 @@
       <c r="S618" s="1"/>
       <c r="T618" s="6"/>
     </row>
-    <row r="619" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
       <c r="H619" s="3"/>
@@ -15044,7 +15043,7 @@
       <c r="S619" s="1"/>
       <c r="T619" s="6"/>
     </row>
-    <row r="620" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
       <c r="H620" s="3"/>
@@ -15061,7 +15060,7 @@
       <c r="S620" s="1"/>
       <c r="T620" s="6"/>
     </row>
-    <row r="621" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
       <c r="H621" s="3"/>
@@ -15078,7 +15077,7 @@
       <c r="S621" s="1"/>
       <c r="T621" s="6"/>
     </row>
-    <row r="622" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
       <c r="H622" s="3"/>
@@ -15095,7 +15094,7 @@
       <c r="S622" s="1"/>
       <c r="T622" s="6"/>
     </row>
-    <row r="623" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
       <c r="H623" s="3"/>
@@ -15112,7 +15111,7 @@
       <c r="S623" s="1"/>
       <c r="T623" s="6"/>
     </row>
-    <row r="624" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
       <c r="H624" s="3"/>
@@ -15129,7 +15128,7 @@
       <c r="S624" s="1"/>
       <c r="T624" s="6"/>
     </row>
-    <row r="625" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
       <c r="H625" s="3"/>
@@ -15146,7 +15145,7 @@
       <c r="S625" s="1"/>
       <c r="T625" s="6"/>
     </row>
-    <row r="626" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
@@ -15163,7 +15162,7 @@
       <c r="S626" s="1"/>
       <c r="T626" s="6"/>
     </row>
-    <row r="627" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
@@ -15180,7 +15179,7 @@
       <c r="S627" s="1"/>
       <c r="T627" s="6"/>
     </row>
-    <row r="628" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
       <c r="H628" s="3"/>
@@ -15197,7 +15196,7 @@
       <c r="S628" s="1"/>
       <c r="T628" s="6"/>
     </row>
-    <row r="629" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
       <c r="H629" s="3"/>
@@ -15214,7 +15213,7 @@
       <c r="S629" s="1"/>
       <c r="T629" s="6"/>
     </row>
-    <row r="630" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
       <c r="H630" s="3"/>
@@ -15231,7 +15230,7 @@
       <c r="S630" s="1"/>
       <c r="T630" s="6"/>
     </row>
-    <row r="631" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
       <c r="H631" s="3"/>
@@ -15248,7 +15247,7 @@
       <c r="S631" s="1"/>
       <c r="T631" s="6"/>
     </row>
-    <row r="632" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
       <c r="H632" s="3"/>
@@ -15265,7 +15264,7 @@
       <c r="S632" s="1"/>
       <c r="T632" s="6"/>
     </row>
-    <row r="633" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
       <c r="H633" s="3"/>
@@ -15282,7 +15281,7 @@
       <c r="S633" s="1"/>
       <c r="T633" s="6"/>
     </row>
-    <row r="634" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
       <c r="H634" s="3"/>
@@ -15299,7 +15298,7 @@
       <c r="S634" s="1"/>
       <c r="T634" s="6"/>
     </row>
-    <row r="635" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
       <c r="H635" s="3"/>
@@ -15316,7 +15315,7 @@
       <c r="S635" s="1"/>
       <c r="T635" s="6"/>
     </row>
-    <row r="636" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
@@ -15333,7 +15332,7 @@
       <c r="S636" s="1"/>
       <c r="T636" s="6"/>
     </row>
-    <row r="637" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
       <c r="H637" s="3"/>
@@ -15350,7 +15349,7 @@
       <c r="S637" s="1"/>
       <c r="T637" s="6"/>
     </row>
-    <row r="638" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
       <c r="H638" s="3"/>
@@ -15367,7 +15366,7 @@
       <c r="S638" s="1"/>
       <c r="T638" s="6"/>
     </row>
-    <row r="639" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
       <c r="H639" s="3"/>
@@ -15384,7 +15383,7 @@
       <c r="S639" s="1"/>
       <c r="T639" s="6"/>
     </row>
-    <row r="640" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
@@ -15401,7 +15400,7 @@
       <c r="S640" s="1"/>
       <c r="T640" s="6"/>
     </row>
-    <row r="641" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
@@ -15418,7 +15417,7 @@
       <c r="S641" s="1"/>
       <c r="T641" s="6"/>
     </row>
-    <row r="642" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
@@ -15435,7 +15434,7 @@
       <c r="S642" s="1"/>
       <c r="T642" s="6"/>
     </row>
-    <row r="643" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
       <c r="H643" s="3"/>
@@ -15452,7 +15451,7 @@
       <c r="S643" s="1"/>
       <c r="T643" s="6"/>
     </row>
-    <row r="644" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
@@ -15469,7 +15468,7 @@
       <c r="S644" s="1"/>
       <c r="T644" s="6"/>
     </row>
-    <row r="645" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F645" s="3"/>
       <c r="G645" s="3"/>
       <c r="H645" s="3"/>
@@ -15486,199 +15485,199 @@
       <c r="S645" s="1"/>
       <c r="T645" s="6"/>
     </row>
-    <row r="646" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T646" s="4"/>
     </row>
-    <row r="647" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T647" s="4"/>
     </row>
-    <row r="648" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T648" s="4"/>
     </row>
-    <row r="649" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T649" s="4"/>
     </row>
-    <row r="650" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T650" s="4"/>
     </row>
-    <row r="651" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T651" s="4"/>
     </row>
-    <row r="652" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T652" s="4"/>
     </row>
-    <row r="653" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T653" s="4"/>
     </row>
-    <row r="654" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T654" s="4"/>
     </row>
-    <row r="655" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T655" s="4"/>
     </row>
-    <row r="656" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T656" s="4"/>
     </row>
-    <row r="657" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T657" s="4"/>
     </row>
-    <row r="658" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T658" s="4"/>
     </row>
-    <row r="659" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T659" s="4"/>
     </row>
-    <row r="660" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T660" s="4"/>
     </row>
-    <row r="661" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T661" s="4"/>
     </row>
-    <row r="662" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T662" s="4"/>
     </row>
-    <row r="663" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T663" s="4"/>
     </row>
-    <row r="664" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T664" s="4"/>
     </row>
-    <row r="665" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T665" s="4"/>
     </row>
-    <row r="666" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T666" s="4"/>
     </row>
-    <row r="667" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T667" s="4"/>
     </row>
-    <row r="668" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T668" s="4"/>
     </row>
-    <row r="669" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T669" s="4"/>
     </row>
-    <row r="670" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T670" s="4"/>
     </row>
-    <row r="671" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T671" s="4"/>
     </row>
-    <row r="672" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T672" s="4"/>
     </row>
-    <row r="673" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T673" s="4"/>
     </row>
-    <row r="674" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T674" s="4"/>
     </row>
-    <row r="675" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T675" s="4"/>
     </row>
-    <row r="676" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T676" s="4"/>
     </row>
-    <row r="677" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T677" s="4"/>
     </row>
-    <row r="678" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T678" s="4"/>
     </row>
-    <row r="679" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T679" s="4"/>
     </row>
-    <row r="680" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T680" s="4"/>
     </row>
-    <row r="681" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T681" s="4"/>
     </row>
-    <row r="682" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T682" s="4"/>
     </row>
-    <row r="683" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T683" s="4"/>
     </row>
-    <row r="684" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T684" s="4"/>
     </row>
-    <row r="685" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T685" s="4"/>
     </row>
-    <row r="686" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T686" s="4"/>
     </row>
-    <row r="687" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T687" s="4"/>
     </row>
-    <row r="688" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T688" s="4"/>
     </row>
-    <row r="689" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T689" s="4"/>
     </row>
-    <row r="690" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T690" s="4"/>
     </row>
-    <row r="691" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T691" s="4"/>
     </row>
-    <row r="692" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T692" s="4"/>
     </row>
-    <row r="693" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T693" s="4"/>
     </row>
-    <row r="694" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T694" s="4"/>
     </row>
-    <row r="695" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T695" s="4"/>
     </row>
-    <row r="696" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T696" s="4"/>
     </row>
-    <row r="697" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T697" s="4"/>
     </row>
-    <row r="698" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T698" s="4"/>
     </row>
-    <row r="699" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T699" s="4"/>
     </row>
-    <row r="700" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T700" s="4"/>
     </row>
-    <row r="701" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T701" s="4"/>
     </row>
-    <row r="702" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T702" s="4"/>
     </row>
-    <row r="703" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T703" s="4"/>
     </row>
-    <row r="704" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T704" s="4"/>
     </row>
-    <row r="705" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T705" s="4"/>
     </row>
-    <row r="706" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T706" s="4"/>
     </row>
-    <row r="707" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T707" s="4"/>
     </row>
-    <row r="708" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T708" s="4"/>
     </row>
-    <row r="709" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T709" s="4"/>
     </row>
-    <row r="710" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T710" s="4"/>
     </row>
   </sheetData>
@@ -15727,14 +15726,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="26" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -15742,7 +15741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -15750,7 +15749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -15758,1006 +15757,1006 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6C2BF6-64C3-423E-8E26-4D0CB877F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00954F-755A-4786-AD1E-4AC5F9DDF475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="468" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2030,10 +2030,10 @@
   <dimension ref="A1:U710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="N63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
+      <selection pane="bottomRight" activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4925,7 +4925,7 @@
       <c r="R65" s="16"/>
       <c r="S65" s="17"/>
       <c r="T65" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4963,7 +4963,7 @@
       <c r="R66" s="16"/>
       <c r="S66" s="17"/>
       <c r="T66" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5001,7 +5001,7 @@
       <c r="R67" s="16"/>
       <c r="S67" s="17"/>
       <c r="T67" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00954F-755A-4786-AD1E-4AC5F9DDF475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A372EB39-9062-49BD-BAFF-8B3F2208C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="468" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="3315" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$92</definedName>
-    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$91</definedName>
+    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$89</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="348">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -1266,10 +1266,6 @@
   </si>
   <si>
     <t>422-[ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice \"S\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
@@ -2027,33 +2023,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U710"/>
+  <dimension ref="A1:U709"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="N63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="N84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T65" sqref="T65"/>
+      <selection pane="bottomRight" activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
-    <col min="5" max="5" width="104.88671875" customWidth="1"/>
-    <col min="6" max="9" width="33.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
-    <col min="11" max="15" width="36.44140625" customWidth="1"/>
-    <col min="16" max="16" width="27.109375" customWidth="1"/>
-    <col min="17" max="17" width="33.109375" customWidth="1"/>
-    <col min="18" max="18" width="36.44140625" customWidth="1"/>
-    <col min="19" max="20" width="31.88671875" customWidth="1"/>
-    <col min="21" max="26" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="6" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="11" max="15" width="36.42578125" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
+    <col min="19" max="20" width="31.85546875" customWidth="1"/>
+    <col min="21" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2071,7 +2067,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2092,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
@@ -2121,7 +2117,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
       <c r="C4" s="54" t="s">
@@ -2145,7 +2141,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="54" t="s">
@@ -2168,7 +2164,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
       <c r="C6" s="7"/>
@@ -2188,7 +2184,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2208,7 +2204,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2225,7 +2221,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
@@ -2287,7 +2283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -2310,10 +2306,10 @@
         <v>45093.414282407408</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>344</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>38</v>
@@ -2335,7 +2331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -2383,7 +2379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -2431,7 +2427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>9</v>
       </c>
@@ -2469,7 +2465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>24</v>
       </c>
@@ -2492,10 +2488,10 @@
         <v>45093.41946759259</v>
       </c>
       <c r="H14" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>346</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>38</v>
@@ -2517,7 +2513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>25</v>
       </c>
@@ -2555,7 +2551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>26</v>
       </c>
@@ -2593,7 +2589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>27</v>
       </c>
@@ -2631,7 +2627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>29</v>
       </c>
@@ -2685,7 +2681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>32</v>
       </c>
@@ -2739,7 +2735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>35</v>
       </c>
@@ -2793,7 +2789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>37</v>
       </c>
@@ -2849,7 +2845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>40</v>
       </c>
@@ -2903,7 +2899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>43</v>
       </c>
@@ -2959,7 +2955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>45</v>
       </c>
@@ -3009,7 +3005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>48</v>
       </c>
@@ -3059,7 +3055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>51</v>
       </c>
@@ -3108,7 +3104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>63</v>
       </c>
@@ -3162,7 +3158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>64</v>
       </c>
@@ -3200,7 +3196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>65</v>
       </c>
@@ -3254,7 +3250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="33" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>66</v>
       </c>
@@ -3292,7 +3288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>67</v>
       </c>
@@ -3330,7 +3326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>68</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>69</v>
       </c>
@@ -3406,7 +3402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>70</v>
       </c>
@@ -3444,7 +3440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>71</v>
       </c>
@@ -3498,7 +3494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>72</v>
       </c>
@@ -3552,7 +3548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>73</v>
       </c>
@@ -3606,7 +3602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>74</v>
       </c>
@@ -3660,7 +3656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>122</v>
       </c>
@@ -3714,7 +3710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>123</v>
       </c>
@@ -3752,7 +3748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>124</v>
       </c>
@@ -3805,7 +3801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>125</v>
       </c>
@@ -3843,7 +3839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>126</v>
       </c>
@@ -3881,7 +3877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>127</v>
       </c>
@@ -3919,7 +3915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>128</v>
       </c>
@@ -3957,7 +3953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>129</v>
       </c>
@@ -4011,7 +4007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <v>130</v>
       </c>
@@ -4065,7 +4061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <v>131</v>
       </c>
@@ -4119,7 +4115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <v>132</v>
       </c>
@@ -4173,7 +4169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <v>133</v>
       </c>
@@ -4211,7 +4207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <v>134</v>
       </c>
@@ -4249,7 +4245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <v>135</v>
       </c>
@@ -4303,7 +4299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <v>136</v>
       </c>
@@ -4340,7 +4336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <v>137</v>
       </c>
@@ -4394,7 +4390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <v>138</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <v>139</v>
       </c>
@@ -4486,7 +4482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>140</v>
       </c>
@@ -4524,7 +4520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <v>141</v>
       </c>
@@ -4578,7 +4574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <v>142</v>
       </c>
@@ -4632,7 +4628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <v>143</v>
       </c>
@@ -4686,7 +4682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <v>144</v>
       </c>
@@ -4740,7 +4736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <v>145</v>
       </c>
@@ -4778,7 +4774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <v>146</v>
       </c>
@@ -4832,7 +4828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <v>147</v>
       </c>
@@ -4855,10 +4851,10 @@
         <v>45093.44085648148</v>
       </c>
       <c r="H64" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="I64" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>348</v>
       </c>
       <c r="J64" s="15" t="s">
         <v>38</v>
@@ -4880,7 +4876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>148</v>
       </c>
@@ -4928,7 +4924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>149</v>
       </c>
@@ -4966,7 +4962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>150</v>
       </c>
@@ -5004,7 +5000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>151</v>
       </c>
@@ -5058,7 +5054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>152</v>
       </c>
@@ -5096,7 +5092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>153</v>
       </c>
@@ -5150,7 +5146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>154</v>
       </c>
@@ -5188,7 +5184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>155</v>
       </c>
@@ -5226,7 +5222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>156</v>
       </c>
@@ -5264,7 +5260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>157</v>
       </c>
@@ -5302,7 +5298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <v>158</v>
       </c>
@@ -5356,7 +5352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <v>159</v>
       </c>
@@ -5410,7 +5406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>160</v>
       </c>
@@ -5464,7 +5460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>161</v>
       </c>
@@ -5518,7 +5514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>162</v>
       </c>
@@ -5572,7 +5568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>163</v>
       </c>
@@ -5610,7 +5606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>164</v>
       </c>
@@ -5664,7 +5660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>165</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>166</v>
       </c>
@@ -5772,7 +5768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>167</v>
       </c>
@@ -5826,7 +5822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>168</v>
       </c>
@@ -5864,7 +5860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <v>169</v>
       </c>
@@ -5878,7 +5874,7 @@
         <v>275</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F86" s="13">
         <v>45092</v>
@@ -5918,7 +5914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <v>369</v>
       </c>
@@ -5929,7 +5925,7 @@
         <v>24</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="13">
@@ -5964,7 +5960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <v>373</v>
       </c>
@@ -5975,7 +5971,7 @@
         <v>114</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="13">
@@ -6010,7 +6006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <v>374</v>
       </c>
@@ -6021,7 +6017,7 @@
         <v>235</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="13">
@@ -6056,39 +6052,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="19"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="16"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="T91" s="18"/>
-    </row>
-    <row r="93" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T90" s="18"/>
+    </row>
+    <row r="92" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="6"/>
+    </row>
+    <row r="93" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -6096,12 +6085,11 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="6"/>
-    </row>
-    <row r="94" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R93" s="5"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -6118,7 +6106,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="6"/>
     </row>
-    <row r="95" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -6135,7 +6123,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="6"/>
     </row>
-    <row r="96" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -6152,7 +6140,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="6"/>
     </row>
-    <row r="97" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -6169,7 +6157,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="6"/>
     </row>
-    <row r="98" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -6186,7 +6174,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="6"/>
     </row>
-    <row r="99" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -6203,7 +6191,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="6"/>
     </row>
-    <row r="100" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -6220,7 +6208,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="6"/>
     </row>
-    <row r="101" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -6237,7 +6225,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="6"/>
     </row>
-    <row r="102" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -6254,7 +6242,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="6"/>
     </row>
-    <row r="103" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -6271,7 +6259,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="6"/>
     </row>
-    <row r="104" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -6288,7 +6276,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="6"/>
     </row>
-    <row r="105" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -6305,7 +6293,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -6322,7 +6310,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="6"/>
     </row>
-    <row r="107" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -6339,7 +6327,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="6"/>
     </row>
-    <row r="108" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -6356,7 +6344,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="6"/>
     </row>
-    <row r="109" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -6373,7 +6361,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="6"/>
     </row>
-    <row r="110" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -6390,7 +6378,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="6"/>
     </row>
-    <row r="111" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -6407,7 +6395,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="6"/>
     </row>
-    <row r="112" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -6424,7 +6412,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="6"/>
     </row>
-    <row r="113" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -6441,7 +6429,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="6"/>
     </row>
-    <row r="114" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -6458,7 +6446,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="6"/>
     </row>
-    <row r="115" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -6475,7 +6463,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="6"/>
     </row>
-    <row r="116" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -6492,7 +6480,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="6"/>
     </row>
-    <row r="117" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -6509,7 +6497,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="6"/>
     </row>
-    <row r="118" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -6526,7 +6514,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="6"/>
     </row>
-    <row r="119" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -6543,7 +6531,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="6"/>
     </row>
-    <row r="120" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6560,7 +6548,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="6"/>
     </row>
-    <row r="121" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6577,7 +6565,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="6"/>
     </row>
-    <row r="122" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -6594,7 +6582,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="6"/>
     </row>
-    <row r="123" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -6611,7 +6599,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="6"/>
     </row>
-    <row r="124" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -6628,7 +6616,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="6"/>
     </row>
-    <row r="125" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -6645,7 +6633,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="6"/>
     </row>
-    <row r="126" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -6662,7 +6650,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="6"/>
     </row>
-    <row r="127" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -6679,7 +6667,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="6"/>
     </row>
-    <row r="128" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -6696,7 +6684,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="6"/>
     </row>
-    <row r="129" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -6713,7 +6701,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="6"/>
     </row>
-    <row r="130" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -6730,7 +6718,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="6"/>
     </row>
-    <row r="131" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -6747,7 +6735,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="6"/>
     </row>
-    <row r="132" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -6764,7 +6752,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="6"/>
     </row>
-    <row r="133" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -6781,7 +6769,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="6"/>
     </row>
-    <row r="134" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -6798,7 +6786,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="6"/>
     </row>
-    <row r="135" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -6815,7 +6803,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="6"/>
     </row>
-    <row r="136" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -6832,7 +6820,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="6"/>
     </row>
-    <row r="137" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -6849,7 +6837,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="6"/>
     </row>
-    <row r="138" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -6866,7 +6854,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="6"/>
     </row>
-    <row r="139" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -6883,7 +6871,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="6"/>
     </row>
-    <row r="140" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -6900,7 +6888,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="6"/>
     </row>
-    <row r="141" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -6917,7 +6905,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="6"/>
     </row>
-    <row r="142" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -6934,7 +6922,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="6"/>
     </row>
-    <row r="143" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -6951,7 +6939,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="6"/>
     </row>
-    <row r="144" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -6968,7 +6956,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="6"/>
     </row>
-    <row r="145" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -6985,7 +6973,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="6"/>
     </row>
-    <row r="146" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -7002,7 +6990,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="6"/>
     </row>
-    <row r="147" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -7019,7 +7007,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="6"/>
     </row>
-    <row r="148" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -7036,7 +7024,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="6"/>
     </row>
-    <row r="149" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -7053,7 +7041,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="6"/>
     </row>
-    <row r="150" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -7070,7 +7058,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="6"/>
     </row>
-    <row r="151" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -7087,7 +7075,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="6"/>
     </row>
-    <row r="152" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -7104,7 +7092,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="6"/>
     </row>
-    <row r="153" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -7121,7 +7109,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="6"/>
     </row>
-    <row r="154" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -7138,7 +7126,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="6"/>
     </row>
-    <row r="155" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -7155,7 +7143,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="6"/>
     </row>
-    <row r="156" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -7172,7 +7160,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="6"/>
     </row>
-    <row r="157" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -7189,7 +7177,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="6"/>
     </row>
-    <row r="158" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -7206,7 +7194,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="6"/>
     </row>
-    <row r="159" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -7223,7 +7211,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="6"/>
     </row>
-    <row r="160" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -7240,7 +7228,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="6"/>
     </row>
-    <row r="161" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -7257,7 +7245,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="6"/>
     </row>
-    <row r="162" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -7274,7 +7262,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="6"/>
     </row>
-    <row r="163" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -7291,7 +7279,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="6"/>
     </row>
-    <row r="164" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -7308,7 +7296,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="6"/>
     </row>
-    <row r="165" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -7325,7 +7313,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="6"/>
     </row>
-    <row r="166" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -7342,7 +7330,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="6"/>
     </row>
-    <row r="167" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -7359,7 +7347,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="6"/>
     </row>
-    <row r="168" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -7376,7 +7364,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="6"/>
     </row>
-    <row r="169" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -7393,7 +7381,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="6"/>
     </row>
-    <row r="170" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -7410,7 +7398,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="6"/>
     </row>
-    <row r="171" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -7427,7 +7415,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="6"/>
     </row>
-    <row r="172" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -7444,7 +7432,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="6"/>
     </row>
-    <row r="173" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -7461,7 +7449,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="6"/>
     </row>
-    <row r="174" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -7478,7 +7466,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="6"/>
     </row>
-    <row r="175" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -7495,7 +7483,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="6"/>
     </row>
-    <row r="176" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -7512,7 +7500,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="6"/>
     </row>
-    <row r="177" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -7529,7 +7517,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="6"/>
     </row>
-    <row r="178" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -7546,7 +7534,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="6"/>
     </row>
-    <row r="179" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -7563,7 +7551,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="6"/>
     </row>
-    <row r="180" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -7580,7 +7568,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="6"/>
     </row>
-    <row r="181" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -7597,7 +7585,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="6"/>
     </row>
-    <row r="182" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -7614,7 +7602,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="6"/>
     </row>
-    <row r="183" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -7631,7 +7619,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="6"/>
     </row>
-    <row r="184" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -7648,7 +7636,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="6"/>
     </row>
-    <row r="185" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -7665,7 +7653,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="6"/>
     </row>
-    <row r="186" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -7682,7 +7670,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="6"/>
     </row>
-    <row r="187" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -7699,7 +7687,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="6"/>
     </row>
-    <row r="188" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -7716,7 +7704,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="6"/>
     </row>
-    <row r="189" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -7733,7 +7721,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="6"/>
     </row>
-    <row r="190" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -7750,7 +7738,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="6"/>
     </row>
-    <row r="191" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -7767,7 +7755,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="6"/>
     </row>
-    <row r="192" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -7784,7 +7772,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="6"/>
     </row>
-    <row r="193" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -7801,7 +7789,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="6"/>
     </row>
-    <row r="194" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -7818,7 +7806,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="6"/>
     </row>
-    <row r="195" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -7835,7 +7823,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="6"/>
     </row>
-    <row r="196" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -7852,7 +7840,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="6"/>
     </row>
-    <row r="197" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -7869,7 +7857,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="6"/>
     </row>
-    <row r="198" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
@@ -7886,7 +7874,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="6"/>
     </row>
-    <row r="199" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -7903,7 +7891,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="6"/>
     </row>
-    <row r="200" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -7920,7 +7908,7 @@
       <c r="S200" s="1"/>
       <c r="T200" s="6"/>
     </row>
-    <row r="201" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -7937,7 +7925,7 @@
       <c r="S201" s="1"/>
       <c r="T201" s="6"/>
     </row>
-    <row r="202" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -7954,7 +7942,7 @@
       <c r="S202" s="1"/>
       <c r="T202" s="6"/>
     </row>
-    <row r="203" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -7971,7 +7959,7 @@
       <c r="S203" s="1"/>
       <c r="T203" s="6"/>
     </row>
-    <row r="204" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -7988,7 +7976,7 @@
       <c r="S204" s="1"/>
       <c r="T204" s="6"/>
     </row>
-    <row r="205" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -8005,7 +7993,7 @@
       <c r="S205" s="1"/>
       <c r="T205" s="6"/>
     </row>
-    <row r="206" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -8022,7 +8010,7 @@
       <c r="S206" s="1"/>
       <c r="T206" s="6"/>
     </row>
-    <row r="207" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -8039,7 +8027,7 @@
       <c r="S207" s="1"/>
       <c r="T207" s="6"/>
     </row>
-    <row r="208" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -8056,7 +8044,7 @@
       <c r="S208" s="1"/>
       <c r="T208" s="6"/>
     </row>
-    <row r="209" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -8073,7 +8061,7 @@
       <c r="S209" s="1"/>
       <c r="T209" s="6"/>
     </row>
-    <row r="210" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -8090,7 +8078,7 @@
       <c r="S210" s="1"/>
       <c r="T210" s="6"/>
     </row>
-    <row r="211" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -8107,7 +8095,7 @@
       <c r="S211" s="1"/>
       <c r="T211" s="6"/>
     </row>
-    <row r="212" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -8124,7 +8112,7 @@
       <c r="S212" s="1"/>
       <c r="T212" s="6"/>
     </row>
-    <row r="213" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
@@ -8141,7 +8129,7 @@
       <c r="S213" s="1"/>
       <c r="T213" s="6"/>
     </row>
-    <row r="214" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -8158,7 +8146,7 @@
       <c r="S214" s="1"/>
       <c r="T214" s="6"/>
     </row>
-    <row r="215" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -8175,7 +8163,7 @@
       <c r="S215" s="1"/>
       <c r="T215" s="6"/>
     </row>
-    <row r="216" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -8192,7 +8180,7 @@
       <c r="S216" s="1"/>
       <c r="T216" s="6"/>
     </row>
-    <row r="217" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
@@ -8209,7 +8197,7 @@
       <c r="S217" s="1"/>
       <c r="T217" s="6"/>
     </row>
-    <row r="218" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
@@ -8226,7 +8214,7 @@
       <c r="S218" s="1"/>
       <c r="T218" s="6"/>
     </row>
-    <row r="219" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -8243,7 +8231,7 @@
       <c r="S219" s="1"/>
       <c r="T219" s="6"/>
     </row>
-    <row r="220" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
@@ -8260,7 +8248,7 @@
       <c r="S220" s="1"/>
       <c r="T220" s="6"/>
     </row>
-    <row r="221" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
@@ -8277,7 +8265,7 @@
       <c r="S221" s="1"/>
       <c r="T221" s="6"/>
     </row>
-    <row r="222" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -8294,7 +8282,7 @@
       <c r="S222" s="1"/>
       <c r="T222" s="6"/>
     </row>
-    <row r="223" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
@@ -8311,7 +8299,7 @@
       <c r="S223" s="1"/>
       <c r="T223" s="6"/>
     </row>
-    <row r="224" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -8328,7 +8316,7 @@
       <c r="S224" s="1"/>
       <c r="T224" s="6"/>
     </row>
-    <row r="225" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
@@ -8345,7 +8333,7 @@
       <c r="S225" s="1"/>
       <c r="T225" s="6"/>
     </row>
-    <row r="226" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -8362,7 +8350,7 @@
       <c r="S226" s="1"/>
       <c r="T226" s="6"/>
     </row>
-    <row r="227" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
@@ -8379,7 +8367,7 @@
       <c r="S227" s="1"/>
       <c r="T227" s="6"/>
     </row>
-    <row r="228" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
@@ -8396,7 +8384,7 @@
       <c r="S228" s="1"/>
       <c r="T228" s="6"/>
     </row>
-    <row r="229" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
@@ -8413,7 +8401,7 @@
       <c r="S229" s="1"/>
       <c r="T229" s="6"/>
     </row>
-    <row r="230" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
@@ -8430,7 +8418,7 @@
       <c r="S230" s="1"/>
       <c r="T230" s="6"/>
     </row>
-    <row r="231" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
@@ -8447,7 +8435,7 @@
       <c r="S231" s="1"/>
       <c r="T231" s="6"/>
     </row>
-    <row r="232" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
@@ -8464,7 +8452,7 @@
       <c r="S232" s="1"/>
       <c r="T232" s="6"/>
     </row>
-    <row r="233" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
@@ -8481,7 +8469,7 @@
       <c r="S233" s="1"/>
       <c r="T233" s="6"/>
     </row>
-    <row r="234" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
@@ -8498,7 +8486,7 @@
       <c r="S234" s="1"/>
       <c r="T234" s="6"/>
     </row>
-    <row r="235" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
@@ -8515,7 +8503,7 @@
       <c r="S235" s="1"/>
       <c r="T235" s="6"/>
     </row>
-    <row r="236" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
@@ -8532,7 +8520,7 @@
       <c r="S236" s="1"/>
       <c r="T236" s="6"/>
     </row>
-    <row r="237" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
@@ -8549,7 +8537,7 @@
       <c r="S237" s="1"/>
       <c r="T237" s="6"/>
     </row>
-    <row r="238" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
@@ -8566,7 +8554,7 @@
       <c r="S238" s="1"/>
       <c r="T238" s="6"/>
     </row>
-    <row r="239" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
@@ -8583,7 +8571,7 @@
       <c r="S239" s="1"/>
       <c r="T239" s="6"/>
     </row>
-    <row r="240" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
@@ -8600,7 +8588,7 @@
       <c r="S240" s="1"/>
       <c r="T240" s="6"/>
     </row>
-    <row r="241" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
@@ -8617,7 +8605,7 @@
       <c r="S241" s="1"/>
       <c r="T241" s="6"/>
     </row>
-    <row r="242" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
@@ -8634,7 +8622,7 @@
       <c r="S242" s="1"/>
       <c r="T242" s="6"/>
     </row>
-    <row r="243" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
@@ -8651,7 +8639,7 @@
       <c r="S243" s="1"/>
       <c r="T243" s="6"/>
     </row>
-    <row r="244" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
@@ -8668,7 +8656,7 @@
       <c r="S244" s="1"/>
       <c r="T244" s="6"/>
     </row>
-    <row r="245" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
@@ -8685,7 +8673,7 @@
       <c r="S245" s="1"/>
       <c r="T245" s="6"/>
     </row>
-    <row r="246" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
@@ -8702,7 +8690,7 @@
       <c r="S246" s="1"/>
       <c r="T246" s="6"/>
     </row>
-    <row r="247" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
@@ -8719,7 +8707,7 @@
       <c r="S247" s="1"/>
       <c r="T247" s="6"/>
     </row>
-    <row r="248" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
@@ -8736,7 +8724,7 @@
       <c r="S248" s="1"/>
       <c r="T248" s="6"/>
     </row>
-    <row r="249" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
@@ -8753,7 +8741,7 @@
       <c r="S249" s="1"/>
       <c r="T249" s="6"/>
     </row>
-    <row r="250" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
@@ -8770,7 +8758,7 @@
       <c r="S250" s="1"/>
       <c r="T250" s="6"/>
     </row>
-    <row r="251" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
@@ -8787,7 +8775,7 @@
       <c r="S251" s="1"/>
       <c r="T251" s="6"/>
     </row>
-    <row r="252" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
@@ -8804,7 +8792,7 @@
       <c r="S252" s="1"/>
       <c r="T252" s="6"/>
     </row>
-    <row r="253" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
@@ -8821,7 +8809,7 @@
       <c r="S253" s="1"/>
       <c r="T253" s="6"/>
     </row>
-    <row r="254" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
@@ -8838,7 +8826,7 @@
       <c r="S254" s="1"/>
       <c r="T254" s="6"/>
     </row>
-    <row r="255" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
@@ -8855,7 +8843,7 @@
       <c r="S255" s="1"/>
       <c r="T255" s="6"/>
     </row>
-    <row r="256" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
@@ -8872,7 +8860,7 @@
       <c r="S256" s="1"/>
       <c r="T256" s="6"/>
     </row>
-    <row r="257" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
@@ -8889,7 +8877,7 @@
       <c r="S257" s="1"/>
       <c r="T257" s="6"/>
     </row>
-    <row r="258" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
@@ -8906,7 +8894,7 @@
       <c r="S258" s="1"/>
       <c r="T258" s="6"/>
     </row>
-    <row r="259" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
@@ -8923,7 +8911,7 @@
       <c r="S259" s="1"/>
       <c r="T259" s="6"/>
     </row>
-    <row r="260" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
@@ -8940,7 +8928,7 @@
       <c r="S260" s="1"/>
       <c r="T260" s="6"/>
     </row>
-    <row r="261" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
@@ -8957,7 +8945,7 @@
       <c r="S261" s="1"/>
       <c r="T261" s="6"/>
     </row>
-    <row r="262" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
@@ -8974,7 +8962,7 @@
       <c r="S262" s="1"/>
       <c r="T262" s="6"/>
     </row>
-    <row r="263" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
@@ -8991,7 +8979,7 @@
       <c r="S263" s="1"/>
       <c r="T263" s="6"/>
     </row>
-    <row r="264" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
@@ -9008,7 +8996,7 @@
       <c r="S264" s="1"/>
       <c r="T264" s="6"/>
     </row>
-    <row r="265" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
@@ -9025,7 +9013,7 @@
       <c r="S265" s="1"/>
       <c r="T265" s="6"/>
     </row>
-    <row r="266" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -9042,7 +9030,7 @@
       <c r="S266" s="1"/>
       <c r="T266" s="6"/>
     </row>
-    <row r="267" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
@@ -9059,7 +9047,7 @@
       <c r="S267" s="1"/>
       <c r="T267" s="6"/>
     </row>
-    <row r="268" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
@@ -9076,7 +9064,7 @@
       <c r="S268" s="1"/>
       <c r="T268" s="6"/>
     </row>
-    <row r="269" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
@@ -9093,7 +9081,7 @@
       <c r="S269" s="1"/>
       <c r="T269" s="6"/>
     </row>
-    <row r="270" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
@@ -9110,7 +9098,7 @@
       <c r="S270" s="1"/>
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
@@ -9127,7 +9115,7 @@
       <c r="S271" s="1"/>
       <c r="T271" s="6"/>
     </row>
-    <row r="272" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
@@ -9144,7 +9132,7 @@
       <c r="S272" s="1"/>
       <c r="T272" s="6"/>
     </row>
-    <row r="273" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
@@ -9161,7 +9149,7 @@
       <c r="S273" s="1"/>
       <c r="T273" s="6"/>
     </row>
-    <row r="274" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
@@ -9178,7 +9166,7 @@
       <c r="S274" s="1"/>
       <c r="T274" s="6"/>
     </row>
-    <row r="275" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
@@ -9195,7 +9183,7 @@
       <c r="S275" s="1"/>
       <c r="T275" s="6"/>
     </row>
-    <row r="276" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
@@ -9212,7 +9200,7 @@
       <c r="S276" s="1"/>
       <c r="T276" s="6"/>
     </row>
-    <row r="277" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
@@ -9229,7 +9217,7 @@
       <c r="S277" s="1"/>
       <c r="T277" s="6"/>
     </row>
-    <row r="278" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
@@ -9246,7 +9234,7 @@
       <c r="S278" s="1"/>
       <c r="T278" s="6"/>
     </row>
-    <row r="279" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
@@ -9263,7 +9251,7 @@
       <c r="S279" s="1"/>
       <c r="T279" s="6"/>
     </row>
-    <row r="280" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
@@ -9280,7 +9268,7 @@
       <c r="S280" s="1"/>
       <c r="T280" s="6"/>
     </row>
-    <row r="281" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
@@ -9297,7 +9285,7 @@
       <c r="S281" s="1"/>
       <c r="T281" s="6"/>
     </row>
-    <row r="282" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
@@ -9314,7 +9302,7 @@
       <c r="S282" s="1"/>
       <c r="T282" s="6"/>
     </row>
-    <row r="283" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
@@ -9331,7 +9319,7 @@
       <c r="S283" s="1"/>
       <c r="T283" s="6"/>
     </row>
-    <row r="284" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
@@ -9348,7 +9336,7 @@
       <c r="S284" s="1"/>
       <c r="T284" s="6"/>
     </row>
-    <row r="285" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
@@ -9365,7 +9353,7 @@
       <c r="S285" s="1"/>
       <c r="T285" s="6"/>
     </row>
-    <row r="286" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
@@ -9382,7 +9370,7 @@
       <c r="S286" s="1"/>
       <c r="T286" s="6"/>
     </row>
-    <row r="287" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
@@ -9399,7 +9387,7 @@
       <c r="S287" s="1"/>
       <c r="T287" s="6"/>
     </row>
-    <row r="288" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
@@ -9416,7 +9404,7 @@
       <c r="S288" s="1"/>
       <c r="T288" s="6"/>
     </row>
-    <row r="289" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
@@ -9433,7 +9421,7 @@
       <c r="S289" s="1"/>
       <c r="T289" s="6"/>
     </row>
-    <row r="290" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
@@ -9450,7 +9438,7 @@
       <c r="S290" s="1"/>
       <c r="T290" s="6"/>
     </row>
-    <row r="291" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
@@ -9467,7 +9455,7 @@
       <c r="S291" s="1"/>
       <c r="T291" s="6"/>
     </row>
-    <row r="292" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
@@ -9484,7 +9472,7 @@
       <c r="S292" s="1"/>
       <c r="T292" s="6"/>
     </row>
-    <row r="293" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
@@ -9501,7 +9489,7 @@
       <c r="S293" s="1"/>
       <c r="T293" s="6"/>
     </row>
-    <row r="294" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
@@ -9518,7 +9506,7 @@
       <c r="S294" s="1"/>
       <c r="T294" s="6"/>
     </row>
-    <row r="295" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
@@ -9535,7 +9523,7 @@
       <c r="S295" s="1"/>
       <c r="T295" s="6"/>
     </row>
-    <row r="296" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
@@ -9552,7 +9540,7 @@
       <c r="S296" s="1"/>
       <c r="T296" s="6"/>
     </row>
-    <row r="297" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
@@ -9569,7 +9557,7 @@
       <c r="S297" s="1"/>
       <c r="T297" s="6"/>
     </row>
-    <row r="298" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
@@ -9586,7 +9574,7 @@
       <c r="S298" s="1"/>
       <c r="T298" s="6"/>
     </row>
-    <row r="299" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
@@ -9603,7 +9591,7 @@
       <c r="S299" s="1"/>
       <c r="T299" s="6"/>
     </row>
-    <row r="300" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
@@ -9620,7 +9608,7 @@
       <c r="S300" s="1"/>
       <c r="T300" s="6"/>
     </row>
-    <row r="301" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
@@ -9637,7 +9625,7 @@
       <c r="S301" s="1"/>
       <c r="T301" s="6"/>
     </row>
-    <row r="302" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
@@ -9654,7 +9642,7 @@
       <c r="S302" s="1"/>
       <c r="T302" s="6"/>
     </row>
-    <row r="303" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
@@ -9671,7 +9659,7 @@
       <c r="S303" s="1"/>
       <c r="T303" s="6"/>
     </row>
-    <row r="304" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
@@ -9688,7 +9676,7 @@
       <c r="S304" s="1"/>
       <c r="T304" s="6"/>
     </row>
-    <row r="305" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
@@ -9705,7 +9693,7 @@
       <c r="S305" s="1"/>
       <c r="T305" s="6"/>
     </row>
-    <row r="306" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
@@ -9722,7 +9710,7 @@
       <c r="S306" s="1"/>
       <c r="T306" s="6"/>
     </row>
-    <row r="307" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
@@ -9739,7 +9727,7 @@
       <c r="S307" s="1"/>
       <c r="T307" s="6"/>
     </row>
-    <row r="308" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
@@ -9756,7 +9744,7 @@
       <c r="S308" s="1"/>
       <c r="T308" s="6"/>
     </row>
-    <row r="309" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
@@ -9773,7 +9761,7 @@
       <c r="S309" s="1"/>
       <c r="T309" s="6"/>
     </row>
-    <row r="310" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
@@ -9790,7 +9778,7 @@
       <c r="S310" s="1"/>
       <c r="T310" s="6"/>
     </row>
-    <row r="311" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
@@ -9807,7 +9795,7 @@
       <c r="S311" s="1"/>
       <c r="T311" s="6"/>
     </row>
-    <row r="312" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
@@ -9824,7 +9812,7 @@
       <c r="S312" s="1"/>
       <c r="T312" s="6"/>
     </row>
-    <row r="313" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
@@ -9841,7 +9829,7 @@
       <c r="S313" s="1"/>
       <c r="T313" s="6"/>
     </row>
-    <row r="314" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
@@ -9858,7 +9846,7 @@
       <c r="S314" s="1"/>
       <c r="T314" s="6"/>
     </row>
-    <row r="315" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
@@ -9875,7 +9863,7 @@
       <c r="S315" s="1"/>
       <c r="T315" s="6"/>
     </row>
-    <row r="316" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
@@ -9892,7 +9880,7 @@
       <c r="S316" s="1"/>
       <c r="T316" s="6"/>
     </row>
-    <row r="317" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
@@ -9909,7 +9897,7 @@
       <c r="S317" s="1"/>
       <c r="T317" s="6"/>
     </row>
-    <row r="318" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
@@ -9926,7 +9914,7 @@
       <c r="S318" s="1"/>
       <c r="T318" s="6"/>
     </row>
-    <row r="319" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
@@ -9943,7 +9931,7 @@
       <c r="S319" s="1"/>
       <c r="T319" s="6"/>
     </row>
-    <row r="320" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
@@ -9960,7 +9948,7 @@
       <c r="S320" s="1"/>
       <c r="T320" s="6"/>
     </row>
-    <row r="321" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
@@ -9977,7 +9965,7 @@
       <c r="S321" s="1"/>
       <c r="T321" s="6"/>
     </row>
-    <row r="322" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
@@ -9994,7 +9982,7 @@
       <c r="S322" s="1"/>
       <c r="T322" s="6"/>
     </row>
-    <row r="323" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
@@ -10011,7 +9999,7 @@
       <c r="S323" s="1"/>
       <c r="T323" s="6"/>
     </row>
-    <row r="324" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
@@ -10028,7 +10016,7 @@
       <c r="S324" s="1"/>
       <c r="T324" s="6"/>
     </row>
-    <row r="325" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
@@ -10045,7 +10033,7 @@
       <c r="S325" s="1"/>
       <c r="T325" s="6"/>
     </row>
-    <row r="326" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
@@ -10062,7 +10050,7 @@
       <c r="S326" s="1"/>
       <c r="T326" s="6"/>
     </row>
-    <row r="327" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
@@ -10079,7 +10067,7 @@
       <c r="S327" s="1"/>
       <c r="T327" s="6"/>
     </row>
-    <row r="328" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
@@ -10096,7 +10084,7 @@
       <c r="S328" s="1"/>
       <c r="T328" s="6"/>
     </row>
-    <row r="329" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
@@ -10113,7 +10101,7 @@
       <c r="S329" s="1"/>
       <c r="T329" s="6"/>
     </row>
-    <row r="330" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
@@ -10130,7 +10118,7 @@
       <c r="S330" s="1"/>
       <c r="T330" s="6"/>
     </row>
-    <row r="331" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
@@ -10147,7 +10135,7 @@
       <c r="S331" s="1"/>
       <c r="T331" s="6"/>
     </row>
-    <row r="332" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
@@ -10164,7 +10152,7 @@
       <c r="S332" s="1"/>
       <c r="T332" s="6"/>
     </row>
-    <row r="333" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
@@ -10181,7 +10169,7 @@
       <c r="S333" s="1"/>
       <c r="T333" s="6"/>
     </row>
-    <row r="334" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
@@ -10198,7 +10186,7 @@
       <c r="S334" s="1"/>
       <c r="T334" s="6"/>
     </row>
-    <row r="335" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
@@ -10215,7 +10203,7 @@
       <c r="S335" s="1"/>
       <c r="T335" s="6"/>
     </row>
-    <row r="336" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
@@ -10232,7 +10220,7 @@
       <c r="S336" s="1"/>
       <c r="T336" s="6"/>
     </row>
-    <row r="337" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
@@ -10249,7 +10237,7 @@
       <c r="S337" s="1"/>
       <c r="T337" s="6"/>
     </row>
-    <row r="338" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
@@ -10266,7 +10254,7 @@
       <c r="S338" s="1"/>
       <c r="T338" s="6"/>
     </row>
-    <row r="339" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
@@ -10283,7 +10271,7 @@
       <c r="S339" s="1"/>
       <c r="T339" s="6"/>
     </row>
-    <row r="340" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
@@ -10300,7 +10288,7 @@
       <c r="S340" s="1"/>
       <c r="T340" s="6"/>
     </row>
-    <row r="341" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
@@ -10317,7 +10305,7 @@
       <c r="S341" s="1"/>
       <c r="T341" s="6"/>
     </row>
-    <row r="342" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
@@ -10334,7 +10322,7 @@
       <c r="S342" s="1"/>
       <c r="T342" s="6"/>
     </row>
-    <row r="343" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
@@ -10351,7 +10339,7 @@
       <c r="S343" s="1"/>
       <c r="T343" s="6"/>
     </row>
-    <row r="344" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
@@ -10368,7 +10356,7 @@
       <c r="S344" s="1"/>
       <c r="T344" s="6"/>
     </row>
-    <row r="345" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
@@ -10385,7 +10373,7 @@
       <c r="S345" s="1"/>
       <c r="T345" s="6"/>
     </row>
-    <row r="346" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
@@ -10402,7 +10390,7 @@
       <c r="S346" s="1"/>
       <c r="T346" s="6"/>
     </row>
-    <row r="347" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
@@ -10419,7 +10407,7 @@
       <c r="S347" s="1"/>
       <c r="T347" s="6"/>
     </row>
-    <row r="348" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
@@ -10436,7 +10424,7 @@
       <c r="S348" s="1"/>
       <c r="T348" s="6"/>
     </row>
-    <row r="349" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
@@ -10453,7 +10441,7 @@
       <c r="S349" s="1"/>
       <c r="T349" s="6"/>
     </row>
-    <row r="350" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
@@ -10470,7 +10458,7 @@
       <c r="S350" s="1"/>
       <c r="T350" s="6"/>
     </row>
-    <row r="351" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
@@ -10487,7 +10475,7 @@
       <c r="S351" s="1"/>
       <c r="T351" s="6"/>
     </row>
-    <row r="352" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
@@ -10504,7 +10492,7 @@
       <c r="S352" s="1"/>
       <c r="T352" s="6"/>
     </row>
-    <row r="353" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
@@ -10521,7 +10509,7 @@
       <c r="S353" s="1"/>
       <c r="T353" s="6"/>
     </row>
-    <row r="354" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
@@ -10538,7 +10526,7 @@
       <c r="S354" s="1"/>
       <c r="T354" s="6"/>
     </row>
-    <row r="355" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
@@ -10555,7 +10543,7 @@
       <c r="S355" s="1"/>
       <c r="T355" s="6"/>
     </row>
-    <row r="356" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
@@ -10572,7 +10560,7 @@
       <c r="S356" s="1"/>
       <c r="T356" s="6"/>
     </row>
-    <row r="357" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
@@ -10589,7 +10577,7 @@
       <c r="S357" s="1"/>
       <c r="T357" s="6"/>
     </row>
-    <row r="358" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
@@ -10606,7 +10594,7 @@
       <c r="S358" s="1"/>
       <c r="T358" s="6"/>
     </row>
-    <row r="359" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
@@ -10623,7 +10611,7 @@
       <c r="S359" s="1"/>
       <c r="T359" s="6"/>
     </row>
-    <row r="360" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
@@ -10640,7 +10628,7 @@
       <c r="S360" s="1"/>
       <c r="T360" s="6"/>
     </row>
-    <row r="361" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
@@ -10657,7 +10645,7 @@
       <c r="S361" s="1"/>
       <c r="T361" s="6"/>
     </row>
-    <row r="362" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
@@ -10674,7 +10662,7 @@
       <c r="S362" s="1"/>
       <c r="T362" s="6"/>
     </row>
-    <row r="363" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
@@ -10691,7 +10679,7 @@
       <c r="S363" s="1"/>
       <c r="T363" s="6"/>
     </row>
-    <row r="364" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
@@ -10708,7 +10696,7 @@
       <c r="S364" s="1"/>
       <c r="T364" s="6"/>
     </row>
-    <row r="365" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
@@ -10725,7 +10713,7 @@
       <c r="S365" s="1"/>
       <c r="T365" s="6"/>
     </row>
-    <row r="366" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
@@ -10742,7 +10730,7 @@
       <c r="S366" s="1"/>
       <c r="T366" s="6"/>
     </row>
-    <row r="367" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
@@ -10759,7 +10747,7 @@
       <c r="S367" s="1"/>
       <c r="T367" s="6"/>
     </row>
-    <row r="368" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
@@ -10776,7 +10764,7 @@
       <c r="S368" s="1"/>
       <c r="T368" s="6"/>
     </row>
-    <row r="369" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
@@ -10793,7 +10781,7 @@
       <c r="S369" s="1"/>
       <c r="T369" s="6"/>
     </row>
-    <row r="370" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
@@ -10810,7 +10798,7 @@
       <c r="S370" s="1"/>
       <c r="T370" s="6"/>
     </row>
-    <row r="371" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
@@ -10827,7 +10815,7 @@
       <c r="S371" s="1"/>
       <c r="T371" s="6"/>
     </row>
-    <row r="372" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
@@ -10844,7 +10832,7 @@
       <c r="S372" s="1"/>
       <c r="T372" s="6"/>
     </row>
-    <row r="373" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
@@ -10861,7 +10849,7 @@
       <c r="S373" s="1"/>
       <c r="T373" s="6"/>
     </row>
-    <row r="374" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
@@ -10878,7 +10866,7 @@
       <c r="S374" s="1"/>
       <c r="T374" s="6"/>
     </row>
-    <row r="375" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
@@ -10895,7 +10883,7 @@
       <c r="S375" s="1"/>
       <c r="T375" s="6"/>
     </row>
-    <row r="376" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
@@ -10912,7 +10900,7 @@
       <c r="S376" s="1"/>
       <c r="T376" s="6"/>
     </row>
-    <row r="377" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
@@ -10929,7 +10917,7 @@
       <c r="S377" s="1"/>
       <c r="T377" s="6"/>
     </row>
-    <row r="378" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
@@ -10946,7 +10934,7 @@
       <c r="S378" s="1"/>
       <c r="T378" s="6"/>
     </row>
-    <row r="379" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
@@ -10963,7 +10951,7 @@
       <c r="S379" s="1"/>
       <c r="T379" s="6"/>
     </row>
-    <row r="380" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
@@ -10980,7 +10968,7 @@
       <c r="S380" s="1"/>
       <c r="T380" s="6"/>
     </row>
-    <row r="381" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
@@ -10997,7 +10985,7 @@
       <c r="S381" s="1"/>
       <c r="T381" s="6"/>
     </row>
-    <row r="382" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
@@ -11014,7 +11002,7 @@
       <c r="S382" s="1"/>
       <c r="T382" s="6"/>
     </row>
-    <row r="383" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
@@ -11031,7 +11019,7 @@
       <c r="S383" s="1"/>
       <c r="T383" s="6"/>
     </row>
-    <row r="384" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
@@ -11048,7 +11036,7 @@
       <c r="S384" s="1"/>
       <c r="T384" s="6"/>
     </row>
-    <row r="385" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
@@ -11065,7 +11053,7 @@
       <c r="S385" s="1"/>
       <c r="T385" s="6"/>
     </row>
-    <row r="386" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
@@ -11082,7 +11070,7 @@
       <c r="S386" s="1"/>
       <c r="T386" s="6"/>
     </row>
-    <row r="387" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
@@ -11099,7 +11087,7 @@
       <c r="S387" s="1"/>
       <c r="T387" s="6"/>
     </row>
-    <row r="388" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
@@ -11116,7 +11104,7 @@
       <c r="S388" s="1"/>
       <c r="T388" s="6"/>
     </row>
-    <row r="389" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
@@ -11133,7 +11121,7 @@
       <c r="S389" s="1"/>
       <c r="T389" s="6"/>
     </row>
-    <row r="390" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
@@ -11150,7 +11138,7 @@
       <c r="S390" s="1"/>
       <c r="T390" s="6"/>
     </row>
-    <row r="391" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
@@ -11167,7 +11155,7 @@
       <c r="S391" s="1"/>
       <c r="T391" s="6"/>
     </row>
-    <row r="392" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
@@ -11184,7 +11172,7 @@
       <c r="S392" s="1"/>
       <c r="T392" s="6"/>
     </row>
-    <row r="393" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
@@ -11201,7 +11189,7 @@
       <c r="S393" s="1"/>
       <c r="T393" s="6"/>
     </row>
-    <row r="394" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
@@ -11218,7 +11206,7 @@
       <c r="S394" s="1"/>
       <c r="T394" s="6"/>
     </row>
-    <row r="395" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
@@ -11235,7 +11223,7 @@
       <c r="S395" s="1"/>
       <c r="T395" s="6"/>
     </row>
-    <row r="396" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
@@ -11252,7 +11240,7 @@
       <c r="S396" s="1"/>
       <c r="T396" s="6"/>
     </row>
-    <row r="397" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
@@ -11269,7 +11257,7 @@
       <c r="S397" s="1"/>
       <c r="T397" s="6"/>
     </row>
-    <row r="398" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
@@ -11286,7 +11274,7 @@
       <c r="S398" s="1"/>
       <c r="T398" s="6"/>
     </row>
-    <row r="399" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
@@ -11303,7 +11291,7 @@
       <c r="S399" s="1"/>
       <c r="T399" s="6"/>
     </row>
-    <row r="400" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
@@ -11320,7 +11308,7 @@
       <c r="S400" s="1"/>
       <c r="T400" s="6"/>
     </row>
-    <row r="401" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
@@ -11337,7 +11325,7 @@
       <c r="S401" s="1"/>
       <c r="T401" s="6"/>
     </row>
-    <row r="402" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
@@ -11354,7 +11342,7 @@
       <c r="S402" s="1"/>
       <c r="T402" s="6"/>
     </row>
-    <row r="403" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
@@ -11371,7 +11359,7 @@
       <c r="S403" s="1"/>
       <c r="T403" s="6"/>
     </row>
-    <row r="404" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
@@ -11388,7 +11376,7 @@
       <c r="S404" s="1"/>
       <c r="T404" s="6"/>
     </row>
-    <row r="405" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
@@ -11405,7 +11393,7 @@
       <c r="S405" s="1"/>
       <c r="T405" s="6"/>
     </row>
-    <row r="406" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
@@ -11422,7 +11410,7 @@
       <c r="S406" s="1"/>
       <c r="T406" s="6"/>
     </row>
-    <row r="407" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
@@ -11439,7 +11427,7 @@
       <c r="S407" s="1"/>
       <c r="T407" s="6"/>
     </row>
-    <row r="408" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
@@ -11456,7 +11444,7 @@
       <c r="S408" s="1"/>
       <c r="T408" s="6"/>
     </row>
-    <row r="409" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
@@ -11473,7 +11461,7 @@
       <c r="S409" s="1"/>
       <c r="T409" s="6"/>
     </row>
-    <row r="410" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
@@ -11490,7 +11478,7 @@
       <c r="S410" s="1"/>
       <c r="T410" s="6"/>
     </row>
-    <row r="411" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
@@ -11507,7 +11495,7 @@
       <c r="S411" s="1"/>
       <c r="T411" s="6"/>
     </row>
-    <row r="412" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
@@ -11524,7 +11512,7 @@
       <c r="S412" s="1"/>
       <c r="T412" s="6"/>
     </row>
-    <row r="413" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
@@ -11541,7 +11529,7 @@
       <c r="S413" s="1"/>
       <c r="T413" s="6"/>
     </row>
-    <row r="414" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
@@ -11558,7 +11546,7 @@
       <c r="S414" s="1"/>
       <c r="T414" s="6"/>
     </row>
-    <row r="415" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
@@ -11575,7 +11563,7 @@
       <c r="S415" s="1"/>
       <c r="T415" s="6"/>
     </row>
-    <row r="416" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
@@ -11592,7 +11580,7 @@
       <c r="S416" s="1"/>
       <c r="T416" s="6"/>
     </row>
-    <row r="417" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
@@ -11609,7 +11597,7 @@
       <c r="S417" s="1"/>
       <c r="T417" s="6"/>
     </row>
-    <row r="418" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
@@ -11626,7 +11614,7 @@
       <c r="S418" s="1"/>
       <c r="T418" s="6"/>
     </row>
-    <row r="419" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
@@ -11643,7 +11631,7 @@
       <c r="S419" s="1"/>
       <c r="T419" s="6"/>
     </row>
-    <row r="420" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
@@ -11660,7 +11648,7 @@
       <c r="S420" s="1"/>
       <c r="T420" s="6"/>
     </row>
-    <row r="421" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
@@ -11677,7 +11665,7 @@
       <c r="S421" s="1"/>
       <c r="T421" s="6"/>
     </row>
-    <row r="422" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
@@ -11694,7 +11682,7 @@
       <c r="S422" s="1"/>
       <c r="T422" s="6"/>
     </row>
-    <row r="423" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
@@ -11711,7 +11699,7 @@
       <c r="S423" s="1"/>
       <c r="T423" s="6"/>
     </row>
-    <row r="424" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
@@ -11728,7 +11716,7 @@
       <c r="S424" s="1"/>
       <c r="T424" s="6"/>
     </row>
-    <row r="425" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
@@ -11745,7 +11733,7 @@
       <c r="S425" s="1"/>
       <c r="T425" s="6"/>
     </row>
-    <row r="426" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
@@ -11762,7 +11750,7 @@
       <c r="S426" s="1"/>
       <c r="T426" s="6"/>
     </row>
-    <row r="427" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
@@ -11779,7 +11767,7 @@
       <c r="S427" s="1"/>
       <c r="T427" s="6"/>
     </row>
-    <row r="428" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
@@ -11796,7 +11784,7 @@
       <c r="S428" s="1"/>
       <c r="T428" s="6"/>
     </row>
-    <row r="429" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
@@ -11813,7 +11801,7 @@
       <c r="S429" s="1"/>
       <c r="T429" s="6"/>
     </row>
-    <row r="430" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
@@ -11830,7 +11818,7 @@
       <c r="S430" s="1"/>
       <c r="T430" s="6"/>
     </row>
-    <row r="431" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
@@ -11847,7 +11835,7 @@
       <c r="S431" s="1"/>
       <c r="T431" s="6"/>
     </row>
-    <row r="432" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
@@ -11864,7 +11852,7 @@
       <c r="S432" s="1"/>
       <c r="T432" s="6"/>
     </row>
-    <row r="433" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
@@ -11881,7 +11869,7 @@
       <c r="S433" s="1"/>
       <c r="T433" s="6"/>
     </row>
-    <row r="434" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
@@ -11898,7 +11886,7 @@
       <c r="S434" s="1"/>
       <c r="T434" s="6"/>
     </row>
-    <row r="435" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
@@ -11915,7 +11903,7 @@
       <c r="S435" s="1"/>
       <c r="T435" s="6"/>
     </row>
-    <row r="436" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
@@ -11932,7 +11920,7 @@
       <c r="S436" s="1"/>
       <c r="T436" s="6"/>
     </row>
-    <row r="437" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
@@ -11949,7 +11937,7 @@
       <c r="S437" s="1"/>
       <c r="T437" s="6"/>
     </row>
-    <row r="438" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
@@ -11966,7 +11954,7 @@
       <c r="S438" s="1"/>
       <c r="T438" s="6"/>
     </row>
-    <row r="439" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
@@ -11983,7 +11971,7 @@
       <c r="S439" s="1"/>
       <c r="T439" s="6"/>
     </row>
-    <row r="440" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
@@ -12000,7 +11988,7 @@
       <c r="S440" s="1"/>
       <c r="T440" s="6"/>
     </row>
-    <row r="441" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
@@ -12017,7 +12005,7 @@
       <c r="S441" s="1"/>
       <c r="T441" s="6"/>
     </row>
-    <row r="442" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
@@ -12034,7 +12022,7 @@
       <c r="S442" s="1"/>
       <c r="T442" s="6"/>
     </row>
-    <row r="443" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
@@ -12051,7 +12039,7 @@
       <c r="S443" s="1"/>
       <c r="T443" s="6"/>
     </row>
-    <row r="444" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
@@ -12068,7 +12056,7 @@
       <c r="S444" s="1"/>
       <c r="T444" s="6"/>
     </row>
-    <row r="445" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
@@ -12085,7 +12073,7 @@
       <c r="S445" s="1"/>
       <c r="T445" s="6"/>
     </row>
-    <row r="446" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
@@ -12102,7 +12090,7 @@
       <c r="S446" s="1"/>
       <c r="T446" s="6"/>
     </row>
-    <row r="447" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
@@ -12119,7 +12107,7 @@
       <c r="S447" s="1"/>
       <c r="T447" s="6"/>
     </row>
-    <row r="448" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
@@ -12136,7 +12124,7 @@
       <c r="S448" s="1"/>
       <c r="T448" s="6"/>
     </row>
-    <row r="449" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
@@ -12153,7 +12141,7 @@
       <c r="S449" s="1"/>
       <c r="T449" s="6"/>
     </row>
-    <row r="450" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
@@ -12170,7 +12158,7 @@
       <c r="S450" s="1"/>
       <c r="T450" s="6"/>
     </row>
-    <row r="451" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
@@ -12187,7 +12175,7 @@
       <c r="S451" s="1"/>
       <c r="T451" s="6"/>
     </row>
-    <row r="452" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
@@ -12204,7 +12192,7 @@
       <c r="S452" s="1"/>
       <c r="T452" s="6"/>
     </row>
-    <row r="453" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
@@ -12221,7 +12209,7 @@
       <c r="S453" s="1"/>
       <c r="T453" s="6"/>
     </row>
-    <row r="454" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
@@ -12238,7 +12226,7 @@
       <c r="S454" s="1"/>
       <c r="T454" s="6"/>
     </row>
-    <row r="455" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
@@ -12255,7 +12243,7 @@
       <c r="S455" s="1"/>
       <c r="T455" s="6"/>
     </row>
-    <row r="456" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
@@ -12272,7 +12260,7 @@
       <c r="S456" s="1"/>
       <c r="T456" s="6"/>
     </row>
-    <row r="457" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
@@ -12289,7 +12277,7 @@
       <c r="S457" s="1"/>
       <c r="T457" s="6"/>
     </row>
-    <row r="458" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
@@ -12306,7 +12294,7 @@
       <c r="S458" s="1"/>
       <c r="T458" s="6"/>
     </row>
-    <row r="459" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
@@ -12323,7 +12311,7 @@
       <c r="S459" s="1"/>
       <c r="T459" s="6"/>
     </row>
-    <row r="460" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
@@ -12340,7 +12328,7 @@
       <c r="S460" s="1"/>
       <c r="T460" s="6"/>
     </row>
-    <row r="461" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
@@ -12357,7 +12345,7 @@
       <c r="S461" s="1"/>
       <c r="T461" s="6"/>
     </row>
-    <row r="462" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
@@ -12374,7 +12362,7 @@
       <c r="S462" s="1"/>
       <c r="T462" s="6"/>
     </row>
-    <row r="463" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
@@ -12391,7 +12379,7 @@
       <c r="S463" s="1"/>
       <c r="T463" s="6"/>
     </row>
-    <row r="464" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
@@ -12408,7 +12396,7 @@
       <c r="S464" s="1"/>
       <c r="T464" s="6"/>
     </row>
-    <row r="465" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
@@ -12425,7 +12413,7 @@
       <c r="S465" s="1"/>
       <c r="T465" s="6"/>
     </row>
-    <row r="466" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
@@ -12442,7 +12430,7 @@
       <c r="S466" s="1"/>
       <c r="T466" s="6"/>
     </row>
-    <row r="467" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
@@ -12459,7 +12447,7 @@
       <c r="S467" s="1"/>
       <c r="T467" s="6"/>
     </row>
-    <row r="468" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
@@ -12476,7 +12464,7 @@
       <c r="S468" s="1"/>
       <c r="T468" s="6"/>
     </row>
-    <row r="469" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
@@ -12493,7 +12481,7 @@
       <c r="S469" s="1"/>
       <c r="T469" s="6"/>
     </row>
-    <row r="470" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
@@ -12510,7 +12498,7 @@
       <c r="S470" s="1"/>
       <c r="T470" s="6"/>
     </row>
-    <row r="471" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
@@ -12527,7 +12515,7 @@
       <c r="S471" s="1"/>
       <c r="T471" s="6"/>
     </row>
-    <row r="472" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
@@ -12544,7 +12532,7 @@
       <c r="S472" s="1"/>
       <c r="T472" s="6"/>
     </row>
-    <row r="473" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
@@ -12561,7 +12549,7 @@
       <c r="S473" s="1"/>
       <c r="T473" s="6"/>
     </row>
-    <row r="474" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
@@ -12578,7 +12566,7 @@
       <c r="S474" s="1"/>
       <c r="T474" s="6"/>
     </row>
-    <row r="475" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
@@ -12595,7 +12583,7 @@
       <c r="S475" s="1"/>
       <c r="T475" s="6"/>
     </row>
-    <row r="476" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
@@ -12612,7 +12600,7 @@
       <c r="S476" s="1"/>
       <c r="T476" s="6"/>
     </row>
-    <row r="477" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
@@ -12629,7 +12617,7 @@
       <c r="S477" s="1"/>
       <c r="T477" s="6"/>
     </row>
-    <row r="478" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
@@ -12646,7 +12634,7 @@
       <c r="S478" s="1"/>
       <c r="T478" s="6"/>
     </row>
-    <row r="479" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
@@ -12663,7 +12651,7 @@
       <c r="S479" s="1"/>
       <c r="T479" s="6"/>
     </row>
-    <row r="480" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
@@ -12680,7 +12668,7 @@
       <c r="S480" s="1"/>
       <c r="T480" s="6"/>
     </row>
-    <row r="481" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
@@ -12697,7 +12685,7 @@
       <c r="S481" s="1"/>
       <c r="T481" s="6"/>
     </row>
-    <row r="482" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
@@ -12714,7 +12702,7 @@
       <c r="S482" s="1"/>
       <c r="T482" s="6"/>
     </row>
-    <row r="483" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
@@ -12731,7 +12719,7 @@
       <c r="S483" s="1"/>
       <c r="T483" s="6"/>
     </row>
-    <row r="484" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
@@ -12748,7 +12736,7 @@
       <c r="S484" s="1"/>
       <c r="T484" s="6"/>
     </row>
-    <row r="485" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
@@ -12765,7 +12753,7 @@
       <c r="S485" s="1"/>
       <c r="T485" s="6"/>
     </row>
-    <row r="486" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
@@ -12782,7 +12770,7 @@
       <c r="S486" s="1"/>
       <c r="T486" s="6"/>
     </row>
-    <row r="487" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
@@ -12799,7 +12787,7 @@
       <c r="S487" s="1"/>
       <c r="T487" s="6"/>
     </row>
-    <row r="488" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
@@ -12816,7 +12804,7 @@
       <c r="S488" s="1"/>
       <c r="T488" s="6"/>
     </row>
-    <row r="489" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
@@ -12833,7 +12821,7 @@
       <c r="S489" s="1"/>
       <c r="T489" s="6"/>
     </row>
-    <row r="490" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
@@ -12850,7 +12838,7 @@
       <c r="S490" s="1"/>
       <c r="T490" s="6"/>
     </row>
-    <row r="491" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
@@ -12867,7 +12855,7 @@
       <c r="S491" s="1"/>
       <c r="T491" s="6"/>
     </row>
-    <row r="492" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
@@ -12884,7 +12872,7 @@
       <c r="S492" s="1"/>
       <c r="T492" s="6"/>
     </row>
-    <row r="493" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
@@ -12901,7 +12889,7 @@
       <c r="S493" s="1"/>
       <c r="T493" s="6"/>
     </row>
-    <row r="494" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
@@ -12918,7 +12906,7 @@
       <c r="S494" s="1"/>
       <c r="T494" s="6"/>
     </row>
-    <row r="495" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
@@ -12935,7 +12923,7 @@
       <c r="S495" s="1"/>
       <c r="T495" s="6"/>
     </row>
-    <row r="496" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
@@ -12952,7 +12940,7 @@
       <c r="S496" s="1"/>
       <c r="T496" s="6"/>
     </row>
-    <row r="497" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
@@ -12969,7 +12957,7 @@
       <c r="S497" s="1"/>
       <c r="T497" s="6"/>
     </row>
-    <row r="498" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
@@ -12986,7 +12974,7 @@
       <c r="S498" s="1"/>
       <c r="T498" s="6"/>
     </row>
-    <row r="499" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
@@ -13003,7 +12991,7 @@
       <c r="S499" s="1"/>
       <c r="T499" s="6"/>
     </row>
-    <row r="500" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
@@ -13020,7 +13008,7 @@
       <c r="S500" s="1"/>
       <c r="T500" s="6"/>
     </row>
-    <row r="501" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
@@ -13037,7 +13025,7 @@
       <c r="S501" s="1"/>
       <c r="T501" s="6"/>
     </row>
-    <row r="502" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
@@ -13054,7 +13042,7 @@
       <c r="S502" s="1"/>
       <c r="T502" s="6"/>
     </row>
-    <row r="503" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
@@ -13071,7 +13059,7 @@
       <c r="S503" s="1"/>
       <c r="T503" s="6"/>
     </row>
-    <row r="504" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
@@ -13088,7 +13076,7 @@
       <c r="S504" s="1"/>
       <c r="T504" s="6"/>
     </row>
-    <row r="505" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
@@ -13105,7 +13093,7 @@
       <c r="S505" s="1"/>
       <c r="T505" s="6"/>
     </row>
-    <row r="506" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
@@ -13122,7 +13110,7 @@
       <c r="S506" s="1"/>
       <c r="T506" s="6"/>
     </row>
-    <row r="507" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
@@ -13139,7 +13127,7 @@
       <c r="S507" s="1"/>
       <c r="T507" s="6"/>
     </row>
-    <row r="508" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
@@ -13156,7 +13144,7 @@
       <c r="S508" s="1"/>
       <c r="T508" s="6"/>
     </row>
-    <row r="509" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
@@ -13173,7 +13161,7 @@
       <c r="S509" s="1"/>
       <c r="T509" s="6"/>
     </row>
-    <row r="510" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
@@ -13190,7 +13178,7 @@
       <c r="S510" s="1"/>
       <c r="T510" s="6"/>
     </row>
-    <row r="511" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
@@ -13207,7 +13195,7 @@
       <c r="S511" s="1"/>
       <c r="T511" s="6"/>
     </row>
-    <row r="512" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
@@ -13224,7 +13212,7 @@
       <c r="S512" s="1"/>
       <c r="T512" s="6"/>
     </row>
-    <row r="513" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
@@ -13241,7 +13229,7 @@
       <c r="S513" s="1"/>
       <c r="T513" s="6"/>
     </row>
-    <row r="514" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
@@ -13258,7 +13246,7 @@
       <c r="S514" s="1"/>
       <c r="T514" s="6"/>
     </row>
-    <row r="515" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
@@ -13275,7 +13263,7 @@
       <c r="S515" s="1"/>
       <c r="T515" s="6"/>
     </row>
-    <row r="516" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
@@ -13292,7 +13280,7 @@
       <c r="S516" s="1"/>
       <c r="T516" s="6"/>
     </row>
-    <row r="517" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
@@ -13309,7 +13297,7 @@
       <c r="S517" s="1"/>
       <c r="T517" s="6"/>
     </row>
-    <row r="518" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
@@ -13326,7 +13314,7 @@
       <c r="S518" s="1"/>
       <c r="T518" s="6"/>
     </row>
-    <row r="519" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
@@ -13343,7 +13331,7 @@
       <c r="S519" s="1"/>
       <c r="T519" s="6"/>
     </row>
-    <row r="520" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
@@ -13360,7 +13348,7 @@
       <c r="S520" s="1"/>
       <c r="T520" s="6"/>
     </row>
-    <row r="521" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
@@ -13377,7 +13365,7 @@
       <c r="S521" s="1"/>
       <c r="T521" s="6"/>
     </row>
-    <row r="522" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
@@ -13394,7 +13382,7 @@
       <c r="S522" s="1"/>
       <c r="T522" s="6"/>
     </row>
-    <row r="523" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
@@ -13411,7 +13399,7 @@
       <c r="S523" s="1"/>
       <c r="T523" s="6"/>
     </row>
-    <row r="524" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
@@ -13428,7 +13416,7 @@
       <c r="S524" s="1"/>
       <c r="T524" s="6"/>
     </row>
-    <row r="525" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
@@ -13445,7 +13433,7 @@
       <c r="S525" s="1"/>
       <c r="T525" s="6"/>
     </row>
-    <row r="526" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
@@ -13462,7 +13450,7 @@
       <c r="S526" s="1"/>
       <c r="T526" s="6"/>
     </row>
-    <row r="527" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
@@ -13479,7 +13467,7 @@
       <c r="S527" s="1"/>
       <c r="T527" s="6"/>
     </row>
-    <row r="528" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
@@ -13496,7 +13484,7 @@
       <c r="S528" s="1"/>
       <c r="T528" s="6"/>
     </row>
-    <row r="529" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
@@ -13513,7 +13501,7 @@
       <c r="S529" s="1"/>
       <c r="T529" s="6"/>
     </row>
-    <row r="530" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
@@ -13530,7 +13518,7 @@
       <c r="S530" s="1"/>
       <c r="T530" s="6"/>
     </row>
-    <row r="531" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
@@ -13547,7 +13535,7 @@
       <c r="S531" s="1"/>
       <c r="T531" s="6"/>
     </row>
-    <row r="532" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
@@ -13564,7 +13552,7 @@
       <c r="S532" s="1"/>
       <c r="T532" s="6"/>
     </row>
-    <row r="533" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
@@ -13581,7 +13569,7 @@
       <c r="S533" s="1"/>
       <c r="T533" s="6"/>
     </row>
-    <row r="534" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
@@ -13598,7 +13586,7 @@
       <c r="S534" s="1"/>
       <c r="T534" s="6"/>
     </row>
-    <row r="535" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
@@ -13615,7 +13603,7 @@
       <c r="S535" s="1"/>
       <c r="T535" s="6"/>
     </row>
-    <row r="536" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
@@ -13632,7 +13620,7 @@
       <c r="S536" s="1"/>
       <c r="T536" s="6"/>
     </row>
-    <row r="537" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
@@ -13649,7 +13637,7 @@
       <c r="S537" s="1"/>
       <c r="T537" s="6"/>
     </row>
-    <row r="538" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
@@ -13666,7 +13654,7 @@
       <c r="S538" s="1"/>
       <c r="T538" s="6"/>
     </row>
-    <row r="539" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
@@ -13683,7 +13671,7 @@
       <c r="S539" s="1"/>
       <c r="T539" s="6"/>
     </row>
-    <row r="540" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
@@ -13700,7 +13688,7 @@
       <c r="S540" s="1"/>
       <c r="T540" s="6"/>
     </row>
-    <row r="541" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
@@ -13717,7 +13705,7 @@
       <c r="S541" s="1"/>
       <c r="T541" s="6"/>
     </row>
-    <row r="542" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
@@ -13734,7 +13722,7 @@
       <c r="S542" s="1"/>
       <c r="T542" s="6"/>
     </row>
-    <row r="543" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
@@ -13751,7 +13739,7 @@
       <c r="S543" s="1"/>
       <c r="T543" s="6"/>
     </row>
-    <row r="544" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
@@ -13768,7 +13756,7 @@
       <c r="S544" s="1"/>
       <c r="T544" s="6"/>
     </row>
-    <row r="545" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
@@ -13785,7 +13773,7 @@
       <c r="S545" s="1"/>
       <c r="T545" s="6"/>
     </row>
-    <row r="546" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
@@ -13802,7 +13790,7 @@
       <c r="S546" s="1"/>
       <c r="T546" s="6"/>
     </row>
-    <row r="547" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
@@ -13819,7 +13807,7 @@
       <c r="S547" s="1"/>
       <c r="T547" s="6"/>
     </row>
-    <row r="548" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
@@ -13836,7 +13824,7 @@
       <c r="S548" s="1"/>
       <c r="T548" s="6"/>
     </row>
-    <row r="549" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
@@ -13853,7 +13841,7 @@
       <c r="S549" s="1"/>
       <c r="T549" s="6"/>
     </row>
-    <row r="550" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
@@ -13870,7 +13858,7 @@
       <c r="S550" s="1"/>
       <c r="T550" s="6"/>
     </row>
-    <row r="551" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
@@ -13887,7 +13875,7 @@
       <c r="S551" s="1"/>
       <c r="T551" s="6"/>
     </row>
-    <row r="552" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
@@ -13904,7 +13892,7 @@
       <c r="S552" s="1"/>
       <c r="T552" s="6"/>
     </row>
-    <row r="553" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
@@ -13921,7 +13909,7 @@
       <c r="S553" s="1"/>
       <c r="T553" s="6"/>
     </row>
-    <row r="554" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
@@ -13938,7 +13926,7 @@
       <c r="S554" s="1"/>
       <c r="T554" s="6"/>
     </row>
-    <row r="555" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
@@ -13955,7 +13943,7 @@
       <c r="S555" s="1"/>
       <c r="T555" s="6"/>
     </row>
-    <row r="556" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
@@ -13972,7 +13960,7 @@
       <c r="S556" s="1"/>
       <c r="T556" s="6"/>
     </row>
-    <row r="557" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
@@ -13989,7 +13977,7 @@
       <c r="S557" s="1"/>
       <c r="T557" s="6"/>
     </row>
-    <row r="558" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
@@ -14006,7 +13994,7 @@
       <c r="S558" s="1"/>
       <c r="T558" s="6"/>
     </row>
-    <row r="559" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
@@ -14023,7 +14011,7 @@
       <c r="S559" s="1"/>
       <c r="T559" s="6"/>
     </row>
-    <row r="560" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
@@ -14040,7 +14028,7 @@
       <c r="S560" s="1"/>
       <c r="T560" s="6"/>
     </row>
-    <row r="561" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
@@ -14057,7 +14045,7 @@
       <c r="S561" s="1"/>
       <c r="T561" s="6"/>
     </row>
-    <row r="562" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
@@ -14074,7 +14062,7 @@
       <c r="S562" s="1"/>
       <c r="T562" s="6"/>
     </row>
-    <row r="563" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
@@ -14091,7 +14079,7 @@
       <c r="S563" s="1"/>
       <c r="T563" s="6"/>
     </row>
-    <row r="564" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
@@ -14108,7 +14096,7 @@
       <c r="S564" s="1"/>
       <c r="T564" s="6"/>
     </row>
-    <row r="565" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
@@ -14125,7 +14113,7 @@
       <c r="S565" s="1"/>
       <c r="T565" s="6"/>
     </row>
-    <row r="566" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
       <c r="H566" s="3"/>
@@ -14142,7 +14130,7 @@
       <c r="S566" s="1"/>
       <c r="T566" s="6"/>
     </row>
-    <row r="567" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
@@ -14159,7 +14147,7 @@
       <c r="S567" s="1"/>
       <c r="T567" s="6"/>
     </row>
-    <row r="568" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
@@ -14176,7 +14164,7 @@
       <c r="S568" s="1"/>
       <c r="T568" s="6"/>
     </row>
-    <row r="569" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
@@ -14193,7 +14181,7 @@
       <c r="S569" s="1"/>
       <c r="T569" s="6"/>
     </row>
-    <row r="570" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
@@ -14210,7 +14198,7 @@
       <c r="S570" s="1"/>
       <c r="T570" s="6"/>
     </row>
-    <row r="571" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
@@ -14227,7 +14215,7 @@
       <c r="S571" s="1"/>
       <c r="T571" s="6"/>
     </row>
-    <row r="572" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
@@ -14244,7 +14232,7 @@
       <c r="S572" s="1"/>
       <c r="T572" s="6"/>
     </row>
-    <row r="573" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
       <c r="H573" s="3"/>
@@ -14261,7 +14249,7 @@
       <c r="S573" s="1"/>
       <c r="T573" s="6"/>
     </row>
-    <row r="574" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
@@ -14278,7 +14266,7 @@
       <c r="S574" s="1"/>
       <c r="T574" s="6"/>
     </row>
-    <row r="575" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
       <c r="H575" s="3"/>
@@ -14295,7 +14283,7 @@
       <c r="S575" s="1"/>
       <c r="T575" s="6"/>
     </row>
-    <row r="576" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
       <c r="H576" s="3"/>
@@ -14312,7 +14300,7 @@
       <c r="S576" s="1"/>
       <c r="T576" s="6"/>
     </row>
-    <row r="577" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
       <c r="H577" s="3"/>
@@ -14329,7 +14317,7 @@
       <c r="S577" s="1"/>
       <c r="T577" s="6"/>
     </row>
-    <row r="578" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
@@ -14346,7 +14334,7 @@
       <c r="S578" s="1"/>
       <c r="T578" s="6"/>
     </row>
-    <row r="579" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
       <c r="H579" s="3"/>
@@ -14363,7 +14351,7 @@
       <c r="S579" s="1"/>
       <c r="T579" s="6"/>
     </row>
-    <row r="580" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
       <c r="H580" s="3"/>
@@ -14380,7 +14368,7 @@
       <c r="S580" s="1"/>
       <c r="T580" s="6"/>
     </row>
-    <row r="581" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
       <c r="H581" s="3"/>
@@ -14397,7 +14385,7 @@
       <c r="S581" s="1"/>
       <c r="T581" s="6"/>
     </row>
-    <row r="582" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
       <c r="H582" s="3"/>
@@ -14414,7 +14402,7 @@
       <c r="S582" s="1"/>
       <c r="T582" s="6"/>
     </row>
-    <row r="583" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
       <c r="H583" s="3"/>
@@ -14431,7 +14419,7 @@
       <c r="S583" s="1"/>
       <c r="T583" s="6"/>
     </row>
-    <row r="584" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
       <c r="H584" s="3"/>
@@ -14448,7 +14436,7 @@
       <c r="S584" s="1"/>
       <c r="T584" s="6"/>
     </row>
-    <row r="585" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
       <c r="H585" s="3"/>
@@ -14465,7 +14453,7 @@
       <c r="S585" s="1"/>
       <c r="T585" s="6"/>
     </row>
-    <row r="586" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
       <c r="H586" s="3"/>
@@ -14482,7 +14470,7 @@
       <c r="S586" s="1"/>
       <c r="T586" s="6"/>
     </row>
-    <row r="587" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
       <c r="H587" s="3"/>
@@ -14499,7 +14487,7 @@
       <c r="S587" s="1"/>
       <c r="T587" s="6"/>
     </row>
-    <row r="588" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
       <c r="H588" s="3"/>
@@ -14516,7 +14504,7 @@
       <c r="S588" s="1"/>
       <c r="T588" s="6"/>
     </row>
-    <row r="589" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
       <c r="H589" s="3"/>
@@ -14533,7 +14521,7 @@
       <c r="S589" s="1"/>
       <c r="T589" s="6"/>
     </row>
-    <row r="590" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
       <c r="H590" s="3"/>
@@ -14550,7 +14538,7 @@
       <c r="S590" s="1"/>
       <c r="T590" s="6"/>
     </row>
-    <row r="591" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
       <c r="H591" s="3"/>
@@ -14567,7 +14555,7 @@
       <c r="S591" s="1"/>
       <c r="T591" s="6"/>
     </row>
-    <row r="592" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
       <c r="H592" s="3"/>
@@ -14584,7 +14572,7 @@
       <c r="S592" s="1"/>
       <c r="T592" s="6"/>
     </row>
-    <row r="593" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
       <c r="H593" s="3"/>
@@ -14601,7 +14589,7 @@
       <c r="S593" s="1"/>
       <c r="T593" s="6"/>
     </row>
-    <row r="594" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
       <c r="H594" s="3"/>
@@ -14618,7 +14606,7 @@
       <c r="S594" s="1"/>
       <c r="T594" s="6"/>
     </row>
-    <row r="595" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
@@ -14635,7 +14623,7 @@
       <c r="S595" s="1"/>
       <c r="T595" s="6"/>
     </row>
-    <row r="596" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
       <c r="H596" s="3"/>
@@ -14652,7 +14640,7 @@
       <c r="S596" s="1"/>
       <c r="T596" s="6"/>
     </row>
-    <row r="597" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
       <c r="H597" s="3"/>
@@ -14669,7 +14657,7 @@
       <c r="S597" s="1"/>
       <c r="T597" s="6"/>
     </row>
-    <row r="598" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
       <c r="H598" s="3"/>
@@ -14686,7 +14674,7 @@
       <c r="S598" s="1"/>
       <c r="T598" s="6"/>
     </row>
-    <row r="599" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
       <c r="H599" s="3"/>
@@ -14703,7 +14691,7 @@
       <c r="S599" s="1"/>
       <c r="T599" s="6"/>
     </row>
-    <row r="600" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
       <c r="H600" s="3"/>
@@ -14720,7 +14708,7 @@
       <c r="S600" s="1"/>
       <c r="T600" s="6"/>
     </row>
-    <row r="601" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
       <c r="H601" s="3"/>
@@ -14737,7 +14725,7 @@
       <c r="S601" s="1"/>
       <c r="T601" s="6"/>
     </row>
-    <row r="602" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
       <c r="H602" s="3"/>
@@ -14754,7 +14742,7 @@
       <c r="S602" s="1"/>
       <c r="T602" s="6"/>
     </row>
-    <row r="603" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
       <c r="H603" s="3"/>
@@ -14771,7 +14759,7 @@
       <c r="S603" s="1"/>
       <c r="T603" s="6"/>
     </row>
-    <row r="604" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
       <c r="H604" s="3"/>
@@ -14788,7 +14776,7 @@
       <c r="S604" s="1"/>
       <c r="T604" s="6"/>
     </row>
-    <row r="605" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
       <c r="H605" s="3"/>
@@ -14805,7 +14793,7 @@
       <c r="S605" s="1"/>
       <c r="T605" s="6"/>
     </row>
-    <row r="606" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
@@ -14822,7 +14810,7 @@
       <c r="S606" s="1"/>
       <c r="T606" s="6"/>
     </row>
-    <row r="607" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
@@ -14839,7 +14827,7 @@
       <c r="S607" s="1"/>
       <c r="T607" s="6"/>
     </row>
-    <row r="608" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
       <c r="H608" s="3"/>
@@ -14856,7 +14844,7 @@
       <c r="S608" s="1"/>
       <c r="T608" s="6"/>
     </row>
-    <row r="609" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
       <c r="H609" s="3"/>
@@ -14873,7 +14861,7 @@
       <c r="S609" s="1"/>
       <c r="T609" s="6"/>
     </row>
-    <row r="610" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
       <c r="H610" s="3"/>
@@ -14890,7 +14878,7 @@
       <c r="S610" s="1"/>
       <c r="T610" s="6"/>
     </row>
-    <row r="611" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
       <c r="H611" s="3"/>
@@ -14907,7 +14895,7 @@
       <c r="S611" s="1"/>
       <c r="T611" s="6"/>
     </row>
-    <row r="612" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
       <c r="H612" s="3"/>
@@ -14924,7 +14912,7 @@
       <c r="S612" s="1"/>
       <c r="T612" s="6"/>
     </row>
-    <row r="613" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
       <c r="H613" s="3"/>
@@ -14941,7 +14929,7 @@
       <c r="S613" s="1"/>
       <c r="T613" s="6"/>
     </row>
-    <row r="614" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
       <c r="H614" s="3"/>
@@ -14958,7 +14946,7 @@
       <c r="S614" s="1"/>
       <c r="T614" s="6"/>
     </row>
-    <row r="615" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
       <c r="H615" s="3"/>
@@ -14975,7 +14963,7 @@
       <c r="S615" s="1"/>
       <c r="T615" s="6"/>
     </row>
-    <row r="616" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
       <c r="H616" s="3"/>
@@ -14992,7 +14980,7 @@
       <c r="S616" s="1"/>
       <c r="T616" s="6"/>
     </row>
-    <row r="617" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
       <c r="H617" s="3"/>
@@ -15009,7 +14997,7 @@
       <c r="S617" s="1"/>
       <c r="T617" s="6"/>
     </row>
-    <row r="618" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
       <c r="H618" s="3"/>
@@ -15026,7 +15014,7 @@
       <c r="S618" s="1"/>
       <c r="T618" s="6"/>
     </row>
-    <row r="619" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
       <c r="H619" s="3"/>
@@ -15043,7 +15031,7 @@
       <c r="S619" s="1"/>
       <c r="T619" s="6"/>
     </row>
-    <row r="620" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
       <c r="H620" s="3"/>
@@ -15060,7 +15048,7 @@
       <c r="S620" s="1"/>
       <c r="T620" s="6"/>
     </row>
-    <row r="621" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
       <c r="H621" s="3"/>
@@ -15077,7 +15065,7 @@
       <c r="S621" s="1"/>
       <c r="T621" s="6"/>
     </row>
-    <row r="622" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
       <c r="H622" s="3"/>
@@ -15094,7 +15082,7 @@
       <c r="S622" s="1"/>
       <c r="T622" s="6"/>
     </row>
-    <row r="623" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
       <c r="H623" s="3"/>
@@ -15111,7 +15099,7 @@
       <c r="S623" s="1"/>
       <c r="T623" s="6"/>
     </row>
-    <row r="624" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
       <c r="H624" s="3"/>
@@ -15128,7 +15116,7 @@
       <c r="S624" s="1"/>
       <c r="T624" s="6"/>
     </row>
-    <row r="625" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
       <c r="H625" s="3"/>
@@ -15145,7 +15133,7 @@
       <c r="S625" s="1"/>
       <c r="T625" s="6"/>
     </row>
-    <row r="626" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
@@ -15162,7 +15150,7 @@
       <c r="S626" s="1"/>
       <c r="T626" s="6"/>
     </row>
-    <row r="627" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
@@ -15179,7 +15167,7 @@
       <c r="S627" s="1"/>
       <c r="T627" s="6"/>
     </row>
-    <row r="628" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
       <c r="H628" s="3"/>
@@ -15196,7 +15184,7 @@
       <c r="S628" s="1"/>
       <c r="T628" s="6"/>
     </row>
-    <row r="629" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
       <c r="H629" s="3"/>
@@ -15213,7 +15201,7 @@
       <c r="S629" s="1"/>
       <c r="T629" s="6"/>
     </row>
-    <row r="630" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
       <c r="H630" s="3"/>
@@ -15230,7 +15218,7 @@
       <c r="S630" s="1"/>
       <c r="T630" s="6"/>
     </row>
-    <row r="631" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
       <c r="H631" s="3"/>
@@ -15247,7 +15235,7 @@
       <c r="S631" s="1"/>
       <c r="T631" s="6"/>
     </row>
-    <row r="632" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
       <c r="H632" s="3"/>
@@ -15264,7 +15252,7 @@
       <c r="S632" s="1"/>
       <c r="T632" s="6"/>
     </row>
-    <row r="633" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
       <c r="H633" s="3"/>
@@ -15281,7 +15269,7 @@
       <c r="S633" s="1"/>
       <c r="T633" s="6"/>
     </row>
-    <row r="634" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
       <c r="H634" s="3"/>
@@ -15298,7 +15286,7 @@
       <c r="S634" s="1"/>
       <c r="T634" s="6"/>
     </row>
-    <row r="635" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
       <c r="H635" s="3"/>
@@ -15315,7 +15303,7 @@
       <c r="S635" s="1"/>
       <c r="T635" s="6"/>
     </row>
-    <row r="636" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
@@ -15332,7 +15320,7 @@
       <c r="S636" s="1"/>
       <c r="T636" s="6"/>
     </row>
-    <row r="637" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
       <c r="H637" s="3"/>
@@ -15349,7 +15337,7 @@
       <c r="S637" s="1"/>
       <c r="T637" s="6"/>
     </row>
-    <row r="638" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
       <c r="H638" s="3"/>
@@ -15366,7 +15354,7 @@
       <c r="S638" s="1"/>
       <c r="T638" s="6"/>
     </row>
-    <row r="639" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
       <c r="H639" s="3"/>
@@ -15383,7 +15371,7 @@
       <c r="S639" s="1"/>
       <c r="T639" s="6"/>
     </row>
-    <row r="640" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
@@ -15400,7 +15388,7 @@
       <c r="S640" s="1"/>
       <c r="T640" s="6"/>
     </row>
-    <row r="641" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
@@ -15417,7 +15405,7 @@
       <c r="S641" s="1"/>
       <c r="T641" s="6"/>
     </row>
-    <row r="642" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
@@ -15434,7 +15422,7 @@
       <c r="S642" s="1"/>
       <c r="T642" s="6"/>
     </row>
-    <row r="643" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
       <c r="H643" s="3"/>
@@ -15451,7 +15439,7 @@
       <c r="S643" s="1"/>
       <c r="T643" s="6"/>
     </row>
-    <row r="644" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
@@ -15468,222 +15456,205 @@
       <c r="S644" s="1"/>
       <c r="T644" s="6"/>
     </row>
-    <row r="645" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F645" s="3"/>
-      <c r="G645" s="3"/>
-      <c r="H645" s="3"/>
-      <c r="I645" s="3"/>
-      <c r="J645" s="4"/>
-      <c r="K645" s="4"/>
-      <c r="L645" s="4"/>
-      <c r="M645" s="4"/>
-      <c r="N645" s="4"/>
-      <c r="O645" s="4"/>
-      <c r="P645" s="4"/>
-      <c r="Q645" s="4"/>
-      <c r="R645" s="5"/>
-      <c r="S645" s="1"/>
-      <c r="T645" s="6"/>
-    </row>
-    <row r="646" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T645" s="4"/>
+    </row>
+    <row r="646" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T646" s="4"/>
     </row>
-    <row r="647" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T647" s="4"/>
     </row>
-    <row r="648" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T648" s="4"/>
     </row>
-    <row r="649" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T649" s="4"/>
     </row>
-    <row r="650" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T650" s="4"/>
     </row>
-    <row r="651" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T651" s="4"/>
     </row>
-    <row r="652" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T652" s="4"/>
     </row>
-    <row r="653" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T653" s="4"/>
     </row>
-    <row r="654" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T654" s="4"/>
     </row>
-    <row r="655" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T655" s="4"/>
     </row>
-    <row r="656" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T656" s="4"/>
     </row>
-    <row r="657" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T657" s="4"/>
     </row>
-    <row r="658" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T658" s="4"/>
     </row>
-    <row r="659" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T659" s="4"/>
     </row>
-    <row r="660" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T660" s="4"/>
     </row>
-    <row r="661" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T661" s="4"/>
     </row>
-    <row r="662" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T662" s="4"/>
     </row>
-    <row r="663" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T663" s="4"/>
     </row>
-    <row r="664" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T664" s="4"/>
     </row>
-    <row r="665" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T665" s="4"/>
     </row>
-    <row r="666" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T666" s="4"/>
     </row>
-    <row r="667" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T667" s="4"/>
     </row>
-    <row r="668" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T668" s="4"/>
     </row>
-    <row r="669" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T669" s="4"/>
     </row>
-    <row r="670" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T670" s="4"/>
     </row>
-    <row r="671" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T671" s="4"/>
     </row>
-    <row r="672" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T672" s="4"/>
     </row>
-    <row r="673" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T673" s="4"/>
     </row>
-    <row r="674" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T674" s="4"/>
     </row>
-    <row r="675" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T675" s="4"/>
     </row>
-    <row r="676" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T676" s="4"/>
     </row>
-    <row r="677" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T677" s="4"/>
     </row>
-    <row r="678" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T678" s="4"/>
     </row>
-    <row r="679" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T679" s="4"/>
     </row>
-    <row r="680" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T680" s="4"/>
     </row>
-    <row r="681" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T681" s="4"/>
     </row>
-    <row r="682" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T682" s="4"/>
     </row>
-    <row r="683" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T683" s="4"/>
     </row>
-    <row r="684" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T684" s="4"/>
     </row>
-    <row r="685" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T685" s="4"/>
     </row>
-    <row r="686" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T686" s="4"/>
     </row>
-    <row r="687" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T687" s="4"/>
     </row>
-    <row r="688" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T688" s="4"/>
     </row>
-    <row r="689" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T689" s="4"/>
     </row>
-    <row r="690" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T690" s="4"/>
     </row>
-    <row r="691" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T691" s="4"/>
     </row>
-    <row r="692" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T692" s="4"/>
     </row>
-    <row r="693" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T693" s="4"/>
     </row>
-    <row r="694" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T694" s="4"/>
     </row>
-    <row r="695" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T695" s="4"/>
     </row>
-    <row r="696" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T696" s="4"/>
     </row>
-    <row r="697" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T697" s="4"/>
     </row>
-    <row r="698" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T698" s="4"/>
     </row>
-    <row r="699" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T699" s="4"/>
     </row>
-    <row r="700" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T700" s="4"/>
     </row>
-    <row r="701" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T701" s="4"/>
     </row>
-    <row r="702" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T702" s="4"/>
     </row>
-    <row r="703" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T703" s="4"/>
     </row>
-    <row r="704" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T704" s="4"/>
     </row>
-    <row r="705" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T705" s="4"/>
     </row>
-    <row r="706" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T706" s="4"/>
     </row>
-    <row r="707" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T707" s="4"/>
     </row>
-    <row r="708" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T708" s="4"/>
     </row>
-    <row r="709" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T709" s="4"/>
     </row>
-    <row r="710" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="T710" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:T92" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T92">
-      <sortCondition ref="A9:A92"/>
+  <autoFilter ref="A9:T91" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T91">
+      <sortCondition ref="A9:A91"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
@@ -15706,13 +15677,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M53:M54 L54 L35:M52 L61 L55:M59 M60:M61 O35:O90 L62:M90 J35:J89</xm:sqref>
+          <xm:sqref>M53:M54 L54 L35:M52 L61 L55:M59 M60:M61 O35:O89 L62:M89 J35:J89</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q35:Q90</xm:sqref>
+          <xm:sqref>Q35:Q89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15726,14 +15697,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="26" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -15741,7 +15712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -15749,7 +15720,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -15757,1006 +15728,1006 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A372EB39-9062-49BD-BAFF-8B3F2208C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE3ECEF-1DAC-465D-A938-97F1F4CBD71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3315" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -2026,10 +2026,10 @@
   <dimension ref="A1:U709"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="N84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A90" sqref="A90:XFD90"/>
+      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE3ECEF-1DAC-465D-A938-97F1F4CBD71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB217609-4A2B-4048-AFF0-26B41C392B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="335">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -429,88 +429,7 @@
     <t>403-Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
-    <t>8c8f43cc9de24318</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.df1d0559856200310bac03497c5ba7f1483d77451c9bf611f9ad2a4c5328191c.217cf41ece^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16/05/202316:24:51</t>
-  </si>
-  <si>
-    <t>b18ded85b1263f88</t>
-  </si>
-  <si>
-    <t>088b2b1c91236091</t>
-  </si>
-  <si>
-    <t>16/05/202316:29:15</t>
-  </si>
-  <si>
-    <t>400ERROREERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
-  </si>
-  <si>
-    <t>2b2cbddba6144bb1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.8145bff7ccd5b67a1a7eb1bc60ee039287b299ffa8622e1a5b0994a5d84fc3f1.348fb46450^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16/05/202316:57:11</t>
-  </si>
-  <si>
-    <t>18/05/202311:41:06</t>
-  </si>
-  <si>
-    <t>881ac63d8298b761</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.222c9daa15cc42a5a7f858ec1474769c4d08586a8f6e3dea7e06b5b7695748f5.cc10824e73^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7e2c490e2a41d975</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.7cfe9ca95a7a43d48ae106b386ceead8b65d08670d4e8cdd4a11ac5608322dcf.ec1bf74de7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e633e0f281971e9b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.f056229fb4493079f283df927f79b6e6f066dfaa09ffba9a007f26cb1348aaab.edd45473ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[ERRORE-b26| Sotto-sezione Anamnesi: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.e121c21e8a7eaa29b5d72cc45b785a32859b7e1ac715932b01fe79b23ca815eb.2f0690af08^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f22fc4fafd2c425d</t>
-  </si>
-  <si>
-    <t>18/05/2023 15:28:19Z</t>
-  </si>
-  <si>
-    <t>0c6f8db22fd89cca</t>
-  </si>
-  <si>
-    <t>18/05/202315:49:37Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.da0d043f0024341bda9f3364781f94ed39aa7f588cffd80d41b5de35ab7f193f.36737e40f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c48d69dd71c32516</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.21b45100b08a16f3ff689d3f1941ab85602f6f1bc2ca8baba71fcd7d75694d71.4603109b06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7401e2608bcd608b</t>
-  </si>
-  <si>
-    <t>31/05/202310:25:09</t>
   </si>
   <si>
     <t>VPS</t>
@@ -560,9 +479,6 @@
     <t>VALIDAZIONE_VPS_TIMEOUT</t>
   </si>
   <si>
-    <t>00-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: Z16]</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT5_KO</t>
   </si>
   <si>
@@ -684,19 +600,7 @@
     <t>VALIDAZIONE_CDA2_VPS_CT29_KO</t>
   </si>
   <si>
-    <t>da4278baecfda4a7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.ccc97c12937e3fc73a6418f78f3e901f13350ed72befb4e5d55235a88418afaf.80bf49624b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8342563512c878ca</t>
-  </si>
-  <si>
     <t>403-Campo token JWT non valido,Il campo purpose_of_use non è valorizzato</t>
-  </si>
-  <si>
-    <t>9fd189afccaf2260</t>
   </si>
   <si>
     <t>Attenzione!
@@ -704,15 +608,6 @@
 Tentare di nuovo il processo di validazione?</t>
   </si>
   <si>
-    <t>5dee594ca16b3830</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.4b8ebc26a9b85b640342a8b48894aa8de24b2cc27b07c6bc064ddce61bc06a12.96a810d08d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected</t>
-  </si>
-  <si>
     <t>Il software esegue controlli di congruneza del  CF e correttezza impostandolo in maiuscolo</t>
   </si>
   <si>
@@ -1136,12 +1031,6 @@
     <t>VALIDAZIONE_CDA2_RSA_CT4_OK</t>
   </si>
   <si>
-    <t>dea385d333c6fb43</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.c3431fb8c4b1c1fcd5618491edfa23049698bc24afc7a64611ee0c20f9bca273.8b75965aa1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>7d0a5395b84c49b6</t>
   </si>
   <si>
@@ -1287,16 +1176,88 @@
     <t>2.16.840.1.113883.2.9.2.110.4.4.3ef6f06ee2145e043d78951fa763bda4494f40e89021bb5220992b438cf759d2.f842d68ad3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>e2484a1fadb38678</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.ccc97c12937e3fc73a6418f78f3e901f13350ed72befb4e5d55235a88418afaf.f585945b57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>f36e6be885d5b8bb</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.110.4.4.0790ca93f8b308251521d3054e27fd1cd541f3b90688f98e34e1557513d826fe.f1a22a6220^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>10dbf1af082444ba</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.21b45100b08a16f3ff689d3f1941ab85602f6f1bc2ca8baba71fcd7d75694d71.e777996eb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>46191492ee9ac323</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.ad22097059252407bdab5833e17c82202b26a969c562d739294be80dac4c026e.75b978f7fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e1144768a6ee995c</t>
+  </si>
+  <si>
+    <t>61acf4a3adb47615</t>
+  </si>
+  <si>
+    <t>0fac3d264a0bb9aa</t>
+  </si>
+  <si>
+    <t>3bf0645249db3233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il software esegue controlli sul mancato inserimento del confidentialy code </t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.222c9daa15cc42a5a7f858ec1474769c4d08586a8f6e3dea7e06b5b7695748f5.2efa68cf77^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9763a19262b32946</t>
+  </si>
+  <si>
+    <t>9d796021f8705deb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.f056229fb4493079f283df927f79b6e6f066dfaa09ffba9a007f26cb1348aaab.2d45f2023d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9b486eee5e52ee66</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.7cfe9ca95a7a43d48ae106b386ceead8b65d08670d4e8cdd4a11ac5608322dcf.4eebe4bed9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.e121c21e8a7eaa29b5d72cc45b785a32859b7e1ac715932b01fe79b23ca815eb.e4bb7ac10c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>945ac74ccca0fd74</t>
+  </si>
+  <si>
+    <t>21/06/202312:09:35</t>
+  </si>
+  <si>
+    <t>0c4604a7218d0b31</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.da0d043f0024341bda9f3364781f94ed39aa7f588cffd80d41b5de35ab7f193f.f0befbe2cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: Z16]</t>
+  </si>
+  <si>
+    <t>760b4aad219d153f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.3ef6f06ee2145e043d78951fa763bda4494f40e89021bb5220992b438cf759d2.6ae9b446b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a499eba6c659a277</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.0790ca93f8b308251521d3054e27fd1cd541f3b90688f98e34e1557513d826fe.022ca9bbe1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -2026,10 +1987,10 @@
   <dimension ref="A1:U709"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2306,10 +2267,10 @@
         <v>45093.414282407408</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>38</v>
@@ -2348,16 +2309,16 @@
         <v>29</v>
       </c>
       <c r="F11" s="13">
-        <v>45076</v>
+        <v>45097</v>
       </c>
       <c r="G11" s="14">
-        <v>45076.753506944442</v>
+        <v>45097.962847222225</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>38</v>
@@ -2396,16 +2357,16 @@
         <v>31</v>
       </c>
       <c r="F12" s="13">
-        <v>45077</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>113</v>
+        <v>45097</v>
+      </c>
+      <c r="G12" s="14">
+        <v>45097.967002314814</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>38</v>
@@ -2455,7 +2416,9 @@
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="N13" s="15" t="s">
+        <v>334</v>
+      </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -2473,39 +2436,29 @@
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="13">
-        <v>45093</v>
-      </c>
-      <c r="G14" s="14">
-        <v>45093.41946759259</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>345</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="16"/>
       <c r="S14" s="17"/>
@@ -2521,13 +2474,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
@@ -2537,7 +2490,7 @@
         <v>65</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -2559,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
@@ -2575,7 +2528,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -2597,13 +2550,13 @@
         <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -2613,7 +2566,7 @@
         <v>65</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -2644,13 +2597,13 @@
         <v>35</v>
       </c>
       <c r="F18" s="13">
-        <v>45062</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>88</v>
+        <v>45098</v>
+      </c>
+      <c r="G18" s="14">
+        <v>45098.452708333331</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>66</v>
@@ -2689,13 +2642,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="F19" s="13">
         <v>45090</v>
@@ -2704,7 +2657,7 @@
         <v>45090.697604166664</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>66</v>
@@ -2743,22 +2696,22 @@
         <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F20" s="13">
-        <v>45082</v>
+        <v>45098</v>
       </c>
       <c r="G20" s="14">
-        <v>45082.732939814814</v>
+        <v>45098.455891203703</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>66</v>
@@ -2774,7 +2727,7 @@
         <v>38</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="O20" s="15" t="s">
         <v>38</v>
@@ -2806,13 +2759,13 @@
         <v>37</v>
       </c>
       <c r="F21" s="13">
-        <v>45062</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>91</v>
+        <v>45098</v>
+      </c>
+      <c r="G21" s="14">
+        <v>45098.461597222224</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>66</v>
@@ -2853,13 +2806,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="F22" s="13">
         <v>45090</v>
@@ -2868,7 +2821,7 @@
         <v>45090.707407407404</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>66</v>
@@ -2884,7 +2837,7 @@
         <v>38</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>38</v>
@@ -2907,22 +2860,22 @@
         <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="F23" s="13">
-        <v>45082</v>
+        <v>45098</v>
       </c>
       <c r="G23" s="14">
-        <v>45082.739374999997</v>
+        <v>45098.459108796298</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>66</v>
@@ -2969,13 +2922,13 @@
         <v>39</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="F24" s="13">
         <v>45062</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>91</v>
+      <c r="G24" s="14">
+        <v>45062.686979166669</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -2990,7 +2943,7 @@
         <v>38</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>38</v>
@@ -3013,13 +2966,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="F25" s="13">
         <v>45090</v>
@@ -3040,7 +2993,7 @@
         <v>38</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>38</v>
@@ -3063,13 +3016,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="F26" s="13">
         <v>45082</v>
@@ -3090,7 +3043,7 @@
         <v>38</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>38</v>
@@ -3120,37 +3073,21 @@
       <c r="E27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="13">
-        <v>45062</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K27" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
       <c r="S27" s="17"/>
@@ -3182,7 +3119,7 @@
         <v>65</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -3213,16 +3150,16 @@
         <v>44</v>
       </c>
       <c r="F29" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>96</v>
+        <v>45098</v>
+      </c>
+      <c r="G29" s="14">
+        <v>45098.499155092592</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>38</v>
@@ -3457,16 +3394,16 @@
         <v>56</v>
       </c>
       <c r="F35" s="13">
-        <v>45064</v>
+        <v>45098</v>
       </c>
       <c r="G35" s="14">
-        <v>45064.626828703702</v>
+        <v>45098.500625000001</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="J35" s="36" t="s">
         <v>38</v>
@@ -3479,7 +3416,7 @@
         <v>38</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O35" s="15" t="s">
         <v>65</v>
@@ -3511,16 +3448,16 @@
         <v>58</v>
       </c>
       <c r="F36" s="13">
-        <v>45064</v>
+        <v>45098</v>
       </c>
       <c r="G36" s="14">
-        <v>45064.608437499999</v>
+        <v>45098.502395833333</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>99</v>
+        <v>322</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>38</v>
@@ -3565,16 +3502,16 @@
         <v>60</v>
       </c>
       <c r="F37" s="13">
-        <v>45064</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>106</v>
+        <v>45098</v>
+      </c>
+      <c r="G37" s="14">
+        <v>45067.504247685189</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>105</v>
+        <v>325</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>38</v>
@@ -3619,16 +3556,16 @@
         <v>62</v>
       </c>
       <c r="F38" s="13">
-        <v>45064</v>
+        <v>45098</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>38</v>
@@ -3641,7 +3578,7 @@
         <v>38</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
       <c r="O38" s="15" t="s">
         <v>65</v>
@@ -3664,45 +3601,29 @@
         <v>25</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="13">
-        <v>45082</v>
-      </c>
-      <c r="G39" s="14">
-        <v>45082.759108796294</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="O39" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P39" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K39" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="16"/>
       <c r="S39" s="17"/>
@@ -3718,13 +3639,13 @@
         <v>25</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
@@ -3734,7 +3655,7 @@
         <v>65</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -3756,13 +3677,13 @@
         <v>25</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F41" s="13">
         <v>45082</v>
@@ -3771,10 +3692,10 @@
         <v>45082.780578703707</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>38</v>
@@ -3809,13 +3730,13 @@
         <v>25</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
@@ -3825,7 +3746,7 @@
         <v>65</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
@@ -3847,13 +3768,13 @@
         <v>25</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="14"/>
@@ -3863,7 +3784,7 @@
         <v>65</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
@@ -3885,13 +3806,13 @@
         <v>25</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
@@ -3923,13 +3844,13 @@
         <v>25</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="14"/>
@@ -3939,7 +3860,7 @@
         <v>65</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -3961,13 +3882,13 @@
         <v>25</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="F46" s="13">
         <v>45083</v>
@@ -3976,10 +3897,10 @@
         <v>45083.621504629627</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>38</v>
@@ -3992,7 +3913,7 @@
         <v>38</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="O46" s="15" t="s">
         <v>65</v>
@@ -4015,13 +3936,13 @@
         <v>25</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="F47" s="13">
         <v>45083</v>
@@ -4030,10 +3951,10 @@
         <v>45083.63318287037</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>38</v>
@@ -4046,7 +3967,7 @@
         <v>38</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="O47" s="15" t="s">
         <v>65</v>
@@ -4069,13 +3990,13 @@
         <v>25</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="F48" s="13">
         <v>45083</v>
@@ -4084,10 +4005,10 @@
         <v>45083.690127314818</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>38</v>
@@ -4100,7 +4021,7 @@
         <v>38</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="O48" s="15" t="s">
         <v>65</v>
@@ -4123,13 +4044,13 @@
         <v>25</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="F49" s="13">
         <v>45083</v>
@@ -4138,10 +4059,10 @@
         <v>45083.710844907408</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>38</v>
@@ -4154,7 +4075,7 @@
         <v>38</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="O49" s="15" t="s">
         <v>65</v>
@@ -4177,13 +4098,13 @@
         <v>25</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
@@ -4193,7 +4114,7 @@
         <v>65</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -4215,13 +4136,13 @@
         <v>25</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="14"/>
@@ -4231,7 +4152,7 @@
         <v>65</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
@@ -4253,13 +4174,13 @@
         <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="F52" s="13">
         <v>45084</v>
@@ -4268,10 +4189,10 @@
         <v>45084.426354166666</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>38</v>
@@ -4284,7 +4205,7 @@
         <v>38</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="O52" s="15" t="s">
         <v>65</v>
@@ -4307,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="14"/>
@@ -4323,7 +4244,7 @@
         <v>65</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
@@ -4344,13 +4265,13 @@
         <v>25</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="F54" s="13">
         <v>45084</v>
@@ -4359,10 +4280,10 @@
         <v>45084.446574074071</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>38</v>
@@ -4375,7 +4296,7 @@
         <v>38</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="O54" s="15" t="s">
         <v>65</v>
@@ -4398,25 +4319,25 @@
         <v>25</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="F55" s="13">
         <v>45084</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>38</v>
@@ -4429,7 +4350,7 @@
         <v>38</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="O55" s="15" t="s">
         <v>65</v>
@@ -4452,13 +4373,13 @@
         <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
@@ -4468,7 +4389,7 @@
         <v>65</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4490,13 +4411,13 @@
         <v>25</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="14"/>
@@ -4506,7 +4427,7 @@
         <v>65</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4528,13 +4449,13 @@
         <v>25</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="F58" s="13">
         <v>45084</v>
@@ -4543,10 +4464,10 @@
         <v>45084.511331018519</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="J58" s="15" t="s">
         <v>38</v>
@@ -4559,7 +4480,7 @@
         <v>38</v>
       </c>
       <c r="N58" s="15" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="O58" s="15" t="s">
         <v>65</v>
@@ -4582,13 +4503,13 @@
         <v>25</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="F59" s="13">
         <v>45084</v>
@@ -4597,10 +4518,10 @@
         <v>45084.618067129632</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>38</v>
@@ -4613,7 +4534,7 @@
         <v>38</v>
       </c>
       <c r="N59" s="15" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="O59" s="15" t="s">
         <v>65</v>
@@ -4636,13 +4557,13 @@
         <v>25</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="F60" s="13">
         <v>45084</v>
@@ -4651,10 +4572,10 @@
         <v>45084.637361111112</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="J60" s="15" t="s">
         <v>38</v>
@@ -4667,7 +4588,7 @@
         <v>38</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="O60" s="15" t="s">
         <v>65</v>
@@ -4690,13 +4611,13 @@
         <v>25</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="F61" s="13">
         <v>45084</v>
@@ -4705,10 +4626,10 @@
         <v>45084.650671296295</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>38</v>
@@ -4721,7 +4642,7 @@
         <v>38</v>
       </c>
       <c r="N61" s="15" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="O61" s="15" t="s">
         <v>65</v>
@@ -4744,13 +4665,13 @@
         <v>25</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
@@ -4760,7 +4681,7 @@
         <v>65</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
@@ -4782,13 +4703,13 @@
         <v>25</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="F63" s="13">
         <v>45084</v>
@@ -4797,10 +4718,10 @@
         <v>45084.668726851851</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="J63" s="15" t="s">
         <v>38</v>
@@ -4813,7 +4734,7 @@
         <v>38</v>
       </c>
       <c r="N63" s="15" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="O63" s="15" t="s">
         <v>65</v>
@@ -4836,13 +4757,13 @@
         <v>25</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="F64" s="13">
         <v>45093</v>
@@ -4851,10 +4772,10 @@
         <v>45093.44085648148</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="J64" s="15" t="s">
         <v>38</v>
@@ -4884,39 +4805,29 @@
         <v>25</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="F65" s="13">
-        <v>45092</v>
-      </c>
-      <c r="G65" s="14">
-        <v>45092.440694444442</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>295</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
       <c r="J65" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K65" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
-      <c r="O65" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P65" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
       <c r="R65" s="16"/>
       <c r="S65" s="17"/>
@@ -4932,13 +4843,13 @@
         <v>25</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
@@ -4948,7 +4859,7 @@
         <v>65</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
@@ -4970,13 +4881,13 @@
         <v>25</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="14"/>
@@ -4986,7 +4897,7 @@
         <v>65</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
@@ -5008,13 +4919,13 @@
         <v>25</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="F68" s="13">
         <v>45092</v>
@@ -5023,10 +4934,10 @@
         <v>45092.45752314815</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="J68" s="15" t="s">
         <v>38</v>
@@ -5039,7 +4950,7 @@
         <v>38</v>
       </c>
       <c r="N68" s="15" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="O68" s="15" t="s">
         <v>65</v>
@@ -5062,13 +4973,13 @@
         <v>25</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
@@ -5078,7 +4989,7 @@
         <v>65</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
@@ -5100,13 +5011,13 @@
         <v>25</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="F70" s="13">
         <v>45092</v>
@@ -5115,10 +5026,10 @@
         <v>45092.485243055555</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="J70" s="15" t="s">
         <v>38</v>
@@ -5131,7 +5042,7 @@
         <v>38</v>
       </c>
       <c r="N70" s="15" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="O70" s="15" t="s">
         <v>65</v>
@@ -5154,13 +5065,13 @@
         <v>25</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="14"/>
@@ -5170,7 +5081,7 @@
         <v>65</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
@@ -5192,13 +5103,13 @@
         <v>25</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="14"/>
@@ -5208,7 +5119,7 @@
         <v>65</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
@@ -5230,13 +5141,13 @@
         <v>25</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="14"/>
@@ -5246,7 +5157,7 @@
         <v>65</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
@@ -5268,13 +5179,13 @@
         <v>25</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="14"/>
@@ -5284,7 +5195,7 @@
         <v>65</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
@@ -5306,13 +5217,13 @@
         <v>25</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F75" s="13">
         <v>45092</v>
@@ -5321,10 +5232,10 @@
         <v>45092.527453703704</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="J75" s="15" t="s">
         <v>38</v>
@@ -5337,7 +5248,7 @@
         <v>38</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="O75" s="15" t="s">
         <v>65</v>
@@ -5360,13 +5271,13 @@
         <v>25</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="F76" s="13">
         <v>45092</v>
@@ -5375,10 +5286,10 @@
         <v>45092.536736111113</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="J76" s="15" t="s">
         <v>38</v>
@@ -5391,7 +5302,7 @@
         <v>38</v>
       </c>
       <c r="N76" s="15" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="O76" s="15" t="s">
         <v>65</v>
@@ -5414,13 +5325,13 @@
         <v>25</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="F77" s="13">
         <v>45092</v>
@@ -5429,10 +5340,10 @@
         <v>45092.622465277775</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="J77" s="15" t="s">
         <v>38</v>
@@ -5445,7 +5356,7 @@
         <v>38</v>
       </c>
       <c r="N77" s="15" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="O77" s="15" t="s">
         <v>65</v>
@@ -5468,13 +5379,13 @@
         <v>25</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="F78" s="13">
         <v>45092</v>
@@ -5483,10 +5394,10 @@
         <v>45092.643865740742</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="J78" s="15" t="s">
         <v>38</v>
@@ -5499,7 +5410,7 @@
         <v>38</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="O78" s="15" t="s">
         <v>65</v>
@@ -5522,13 +5433,13 @@
         <v>25</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="F79" s="13">
         <v>45092</v>
@@ -5537,10 +5448,10 @@
         <v>45092.6562037037</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="J79" s="15" t="s">
         <v>38</v>
@@ -5553,7 +5464,7 @@
         <v>38</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="O79" s="15" t="s">
         <v>65</v>
@@ -5576,13 +5487,13 @@
         <v>25</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="14"/>
@@ -5592,7 +5503,7 @@
         <v>65</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
@@ -5614,13 +5525,13 @@
         <v>25</v>
       </c>
       <c r="C81" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="E81" s="12" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="F81" s="13">
         <v>45092</v>
@@ -5629,10 +5540,10 @@
         <v>45092.669351851851</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="J81" s="15" t="s">
         <v>38</v>
@@ -5645,7 +5556,7 @@
         <v>38</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="O81" s="15" t="s">
         <v>65</v>
@@ -5668,13 +5579,13 @@
         <v>25</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="F82" s="13">
         <v>45092</v>
@@ -5683,10 +5594,10 @@
         <v>45092.677546296298</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="J82" s="15" t="s">
         <v>38</v>
@@ -5699,7 +5610,7 @@
         <v>38</v>
       </c>
       <c r="N82" s="15" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="O82" s="15" t="s">
         <v>65</v>
@@ -5722,13 +5633,13 @@
         <v>25</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="F83" s="13">
         <v>45092</v>
@@ -5737,10 +5648,10 @@
         <v>45092.683692129627</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="J83" s="15" t="s">
         <v>38</v>
@@ -5753,7 +5664,7 @@
         <v>38</v>
       </c>
       <c r="N83" s="15" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="O83" s="15" t="s">
         <v>65</v>
@@ -5776,13 +5687,13 @@
         <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="F84" s="13">
         <v>45092</v>
@@ -5791,10 +5702,10 @@
         <v>45092.694479166668</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="J84" s="15" t="s">
         <v>38</v>
@@ -5807,7 +5718,7 @@
         <v>38</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="O84" s="15" t="s">
         <v>65</v>
@@ -5830,13 +5741,13 @@
         <v>25</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="14"/>
@@ -5846,7 +5757,7 @@
         <v>65</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
@@ -5868,13 +5779,13 @@
         <v>25</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="F86" s="13">
         <v>45092</v>
@@ -5883,10 +5794,10 @@
         <v>45092.703912037039</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="J86" s="15" t="s">
         <v>38</v>
@@ -5899,7 +5810,7 @@
         <v>38</v>
       </c>
       <c r="N86" s="15" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="O86" s="15" t="s">
         <v>65</v>
@@ -5925,20 +5836,20 @@
         <v>24</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="13">
-        <v>45058</v>
+        <v>45098</v>
       </c>
       <c r="G87" s="14">
-        <v>45058.617442129631</v>
+        <v>45098.52034722222</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>87</v>
+        <v>331</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>38</v>
@@ -5968,23 +5879,23 @@
         <v>25</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="13">
-        <v>45082</v>
+        <v>45098</v>
       </c>
       <c r="G88" s="14">
-        <v>45082.606840277775</v>
+        <v>45098.524108796293</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="J88" s="15" t="s">
         <v>38</v>
@@ -6014,23 +5925,23 @@
         <v>25</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="13">
         <v>45090</v>
       </c>
       <c r="G89" s="14">
-        <v>45090.679467592592</v>
+        <v>45090.523912037039</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="J89" s="15" t="s">
         <v>38</v>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB217609-4A2B-4048-AFF0-26B41C392B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0826C7F-57F2-4CD5-84CA-2120D9DE9288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$89</definedName>
     <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$89</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -1251,13 +1251,13 @@
     <t>2.16.840.1.113883.2.9.2.110.4.4.3ef6f06ee2145e043d78951fa763bda4494f40e89021bb5220992b438cf759d2.6ae9b446b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>a499eba6c659a277</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.0790ca93f8b308251521d3054e27fd1cd541f3b90688f98e34e1557513d826fe.022ca9bbe1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>3f0e55f26a15964e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.ccc97c12937e3fc73a6418f78f3e901f13350ed72befb4e5d55235a88418afaf.97bbc59afe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1990,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2417,7 +2417,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -5886,16 +5886,16 @@
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="13">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="G88" s="14">
-        <v>45098.524108796293</v>
+        <v>45097.975266203706</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J88" s="15" t="s">
         <v>38</v>
@@ -15563,11 +15563,7 @@
       <c r="T709" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T91" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:T91">
-      <sortCondition ref="A9:A91"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A9:T89" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0826C7F-57F2-4CD5-84CA-2120D9DE9288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43487D16-06DD-4924-B5C7-A2036F633C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$89</definedName>
-    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$116</definedName>
+    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$116</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="404">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -611,12 +611,6 @@
     <t>Il software esegue controlli di congruneza del  CF e correttezza impostandolo in maiuscolo</t>
   </si>
   <si>
-    <t>ddbab7f924200386</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.21b58269ff1d3eff565e6ae5f3d93b933669dce354b62f341b6974d30ce8739f.673f0ff6aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Il software esegue controlli sul comune di residenza e blocca l'esecuzione in caso di mancato inserimento</t>
   </si>
   <si>
@@ -633,31 +627,10 @@
   "status" : 422,</t>
   </si>
   <si>
-    <t>9e04106d51980769</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.1e22b077ada35de0e4f88576b1f7abc5bde358f78f8496029f7717f3278b7811.5aad7043cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5b97319d0a66442d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.b105ecc8f8875a16b1f73513f00cc1f8641d22144d18dcc08ca29ce1ae03f06c.76c565d44d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c291107ae88d2e71</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.1732961a48b4e3e740bb3148e361e5f0cd9b9233c55773d7e7ebfc4b8a85c3c8.a9fef30f43^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve"> 422-[ERRORE-b3| Sezione Modalità di Trasporto: la sezione DEVE contenere un elemento 'text' e un solo elemento 'entry']</t>
-  </si>
-  <si>
-    <t>13a892cefc94555e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.2d2721b0005c12e8715d65f4791bcb494fe037a5202dc946a398c50a81c530fd.3113f6d74f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>422-[ERRORE-b11| Sezione Motivo della visita: l'elemento entry/observation/value relativo al \"Problema Principale\" DEVE essere valorizzato col value set ProblemaPrincipale_VPS]</t>
@@ -725,36 +698,15 @@
     <t>sofware non consente il mancato inserimento della data di insorgenza del problema</t>
   </si>
   <si>
-    <t>8fb029e5ec77b904</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.9a9c858b399b0cab493808f8849ebe43529977fa5bb5aafa3ad64bb961affecc.5ee79ac37d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-b114| Sotto-sezione Anamnesi: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
   </si>
   <si>
     <t xml:space="preserve"> sofware non consente il mancato inserimento della data relativa a inizio e fine in cui l' allergia è attiva</t>
   </si>
   <si>
-    <t>d4f54b56790f9157</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.07ea63bba06843cce173523ca92f277e4fca2ef546983c734a12d956dd5b579d.7cd539da5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-b154| Sezione Encounters: L'elemento entry/encounters/effectiveTime deve essere presente e deve avere gli elementi 'low' e 'high' valorizzati.]</t>
   </si>
   <si>
-    <t>07/06/2023 11:03;17</t>
-  </si>
-  <si>
-    <t>e79798fc46cebdbc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.08fb39d369cde96a783d3e222e9f0526482cd55957117411cd3dd1d0ef8089e2.20b53392ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-b168| Sezione Complicanze: l'elemento entry/observation/value DEVE essere valorizzato con l'attributo @xsi:type=CD.]</t>
   </si>
   <si>
@@ -764,46 +716,16 @@
     <t xml:space="preserve"> sofware non consente il mancato inserimento relativp all'esito del trattamneto</t>
   </si>
   <si>
-    <t>b5eab079cbcb7343</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.011c8dcb177205bd5716835e208a41647a55eb4aa0eb53d37228afa3814e6004.aadd2937b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-b252|Sezione Terapia farmacologica alla dimissione: entry/substanceAdministration/effectiveTime deve avere l'elemento 'low' valorizzato ]</t>
   </si>
   <si>
-    <t>17ad5f564cee8689</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.6f031d44e657b6229880b3febfae5844cf23d053351d5840d9d94182bea90ce9.a180c46712^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.1, Codes: 89]</t>
   </si>
   <si>
-    <t>d4fdb371d82de4cb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.f6df542ee1f1c0093e62e0f6a7e3d50cc223e8736f868e47a4af8c68850612a5.1e2b5eae3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.1.54.4, Codes: 88]</t>
   </si>
   <si>
-    <t>64b72e7962dc1a00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.b32225fd8e92b4d1e71e7ebf62b21390b5a6aeb7d1dcbe0b930a4175e4cb23af.7a14afee14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 99999]</t>
-  </si>
-  <si>
-    <t>3439c8c3db61f0e5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.487d051988289d5d208d4b14a284f8a50ded6c4d49bf0554057c3a09a8a1fab4.11eef58097^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>422-[ERRORE-b136| Sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
@@ -823,9 +745,6 @@
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
   </si>
   <si>
-    <t>e8c41cb50f3dddbf</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
@@ -840,9 +759,6 @@
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
   </si>
   <si>
-    <t>abe26248206cfa37</t>
-  </si>
-  <si>
     <t>403-Il campo action_id non è corretto</t>
   </si>
   <si>
@@ -867,12 +783,6 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>411d0de5301e7ff7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.a7929d9ee32d1776405eff50c064b0b53f4d69b3f64af6ab3dea4e313b1becc1.1e8d80922b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
@@ -1031,24 +941,12 @@
     <t>VALIDAZIONE_CDA2_RSA_CT4_OK</t>
   </si>
   <si>
-    <t>7d0a5395b84c49b6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.661ea5b6443cc4e8c8f5f00d0b5270355884c1b6ef477bd29490dd86ff9dfc8d.e38646f536^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
   </si>
   <si>
     <t xml:space="preserve"> sofware non consente l' inserimento di un codice fiscale con caratteri minuscoli</t>
   </si>
   <si>
-    <t>cdf20a92c98de155</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.54ac44c8dbe66f656cd875078a2ed2b1cb2ae284afee165c4864f56107ffc673.4c82cd817b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
   </si>
   <si>
@@ -1064,85 +962,31 @@
     <t>il software non consente l' inserimento di un codice errato per la tipologia di accesso che ha determinato la pestazione</t>
   </si>
   <si>
-    <t>474511ef42ef3c22</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.a0438e002701366529238c2430ad69f0431222d9c4d06d75aa8625c2717d9f00.aba71e6622^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-38| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
   </si>
   <si>
-    <t>d047c65b3ca0b93f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.d5e19f1211e28c5d088f9b94b231c9d61f8e24282e6fe39e15e9d553c6e77fbf.a2dfbdd0ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.</t>
   </si>
   <si>
     <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'effectiveTime'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.e805d6f42b18e207ff59527374d72c834e020bf64dc6b1763d3dfb86b082a657.0c7fa99a23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>232cd6db73621a02</t>
-  </si>
-  <si>
-    <t>4f3dd87fcd16e9c7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.e5616e1f35fd0b1bfff0708b6850769a84d649c4cc4aa9af11d89158d2a7e9a4.0267601291^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']</t>
   </si>
   <si>
-    <t>5b0a6b2e41f43bde</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.b9e07f30eb2389c65055dd9fb195bd1da6336c32cfa24aeac56bb12a73e8eb48.e54d3fb02e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
   </si>
   <si>
     <t>il software non consente il mancato inserimento delle procedure operative associabili alla singola prestazione</t>
   </si>
   <si>
-    <t>bc0fc64f851ad6df</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.8b6d34c9069d2f85d69786df5aeadba5913d832f7a82ab44e8be63d7c8afb736.8313cf3bab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-b26| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato],[ERRORE-b27| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'high' valorizzato nel caso in cui il problema non sia più presente]</t>
   </si>
   <si>
-    <t>460d69a50ecabed8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.a889daba4efdef0e2fd9d2d692615caea9fee1d0585d5129b12a518316c8f641.3bfb5f0fa6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-b36| Sezione Storia Clinica: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
   </si>
   <si>
-    <t>ace6662db947baee</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.66d2679dd0b0949b4984fb20b153a7b888f2d56334efc1de15726fce72e4985e.a3d65b792c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-b53| Sotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato ]</t>
-  </si>
-  <si>
-    <t>55ba27592a2a81c0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.e6e79d787b36bd101f93a0c2819ea5a8ee85331c8f2f7a83b9e9429677c050f5.2acda17246^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>422-[ERRORE-b57| Sotto-sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
@@ -1170,94 +1014,489 @@
     <t>VALIDAZIONE_CDA2_RSA_CT0</t>
   </si>
   <si>
-    <t>a2f778eff4869569</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.3ef6f06ee2145e043d78951fa763bda4494f40e89021bb5220992b438cf759d2.f842d68ad3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f36e6be885d5b8bb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.0790ca93f8b308251521d3054e27fd1cd541f3b90688f98e34e1557513d826fe.f1a22a6220^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>10dbf1af082444ba</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.21b45100b08a16f3ff689d3f1941ab85602f6f1bc2ca8baba71fcd7d75694d71.e777996eb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>46191492ee9ac323</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.ad22097059252407bdab5833e17c82202b26a969c562d739294be80dac4c026e.75b978f7fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e1144768a6ee995c</t>
-  </si>
-  <si>
-    <t>61acf4a3adb47615</t>
-  </si>
-  <si>
-    <t>0fac3d264a0bb9aa</t>
-  </si>
-  <si>
-    <t>3bf0645249db3233</t>
-  </si>
-  <si>
     <t xml:space="preserve">Il software esegue controlli sul mancato inserimento del confidentialy code </t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.222c9daa15cc42a5a7f858ec1474769c4d08586a8f6e3dea7e06b5b7695748f5.2efa68cf77^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9763a19262b32946</t>
-  </si>
-  <si>
-    <t>9d796021f8705deb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.f056229fb4493079f283df927f79b6e6f066dfaa09ffba9a007f26cb1348aaab.2d45f2023d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9b486eee5e52ee66</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.7cfe9ca95a7a43d48ae106b386ceead8b65d08670d4e8cdd4a11ac5608322dcf.4eebe4bed9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.110.4.4.e121c21e8a7eaa29b5d72cc45b785a32859b7e1ac715932b01fe79b23ca815eb.e4bb7ac10c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>945ac74ccca0fd74</t>
-  </si>
-  <si>
-    <t>21/06/202312:09:35</t>
-  </si>
-  <si>
-    <t>0c4604a7218d0b31</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.da0d043f0024341bda9f3364781f94ed39aa7f588cffd80d41b5de35ab7f193f.f0befbe2cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.112 v2.1.0, Codes: Z16]</t>
   </si>
   <si>
-    <t>760b4aad219d153f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.3ef6f06ee2145e043d78951fa763bda4494f40e89021bb5220992b438cf759d2.6ae9b446b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>3f0e55f26a15964e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.ccc97c12937e3fc73a6418f78f3e901f13350ed72befb4e5d55235a88418afaf.97bbc59afe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>e772451d9b25cd65</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.3ef6f06ee2145e043d78951fa763bda4494f40e89021bb5220992b438cf759d2.4ef851750a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>19edcc8643966444</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.21b45100b08a16f3ff689d3f1941ab85602f6f1bc2ca8baba71fcd7d75694d71.ffa8e407ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4dd597709b31a180</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.ad22097059252407bdab5833e17c82202b26a969c562d739294be80dac4c026e.b9590c188d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>41b88286474131bb</t>
+  </si>
+  <si>
+    <t>8ddc4288ced65317</t>
+  </si>
+  <si>
+    <t>fe0554d434211414</t>
+  </si>
+  <si>
+    <t>223e3488d1ad3043</t>
+  </si>
+  <si>
+    <t>e10f8208e6e30a0a</t>
+  </si>
+  <si>
+    <t>618d4192665c54e1</t>
+  </si>
+  <si>
+    <t>c8da5eb5d479cdb0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.222c9daa15cc42a5a7f858ec1474769c4d08586a8f6e3dea7e06b5b7695748f5.bcece92767^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8d0306fa761c5090</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.f056229fb4493079f283df927f79b6e6f066dfaa09ffba9a007f26cb1348aaab.e7b15a3777^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4ed3289205712bc4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.7cfe9ca95a7a43d48ae106b386ceead8b65d08670d4e8cdd4a11ac5608322dcf.8a97ad255b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a65b71e4861afc72</t>
+  </si>
+  <si>
+    <t>745f1ea069a998a6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.da0d043f0024341bda9f3364781f94ed39aa7f588cffd80d41b5de35ab7f193f.1af76dfa06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>951ce2c68ba9928c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.21b58269ff1d3eff565e6ae5f3d93b933669dce354b62f341b6974d30ce8739f.20f4bda68a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f4a951111a1bb218</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.1e22b077ada35de0e4f88576b1f7abc5bde358f78f8496029f7717f3278b7811.2abf990308^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ee32aa83407b81da</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.b105ecc8f8875a16b1f73513f00cc1f8641d22144d18dcc08ca29ce1ae03f06c.a0054daa6f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>59b89da9838c34db</t>
+  </si>
+  <si>
+    <t>5e91c37255e98523</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.2d2721b0005c12e8715d65f4791bcb494fe037a5202dc946a398c50a81c530fd.4568c4d676^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9f2c9bc23bd8349c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.9a9c858b399b0cab493808f8849ebe43529977fa5bb5aafa3ad64bb961affecc.aa503eacec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3b8c03f5496f2d4a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.07ea63bba06843cce173523ca92f277e4fca2ef546983c734a12d956dd5b579d.2b885008aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f432143d0dc65d0a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.08fb39d369cde96a783d3e222e9f0526482cd55957117411cd3dd1d0ef8089e2.8fa158a111^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b908d1be98918bab</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.011c8dcb177205bd5716835e208a41647a55eb4aa0eb53d37228afa3814e6004.874892037d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9cda2adaeb917f85</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.6f031d44e657b6229880b3febfae5844cf23d053351d5840d9d94182bea90ce9.4002b72545^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>664a9337921380db</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.f6df542ee1f1c0093e62e0f6a7e3d50cc223e8736f868e47a4af8c68850612a5.4b47c20515^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7a638e006417590f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.b32225fd8e92b4d1e71e7ebf62b21390b5a6aeb7d1dcbe0b930a4175e4cb23af.efee7d37bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>467d43c60c1dbb11</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.487d051988289d5d208d4b14a284f8a50ded6c4d49bf0554057c3a09a8a1fab4.50eb1021ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>73113ab8bd364d56</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.0790ca93f8b308251521d3054e27fd1cd541f3b90688f98e34e1557513d826fe.63ba776978^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c92148e60627735e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.661ea5b6443cc4e8c8f5f00d0b5270355884c1b6ef477bd29490dd86ff9dfc8d.c48e548770^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>64ab638451f38559</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.a0438e002701366529238c2430ad69f0431222d9c4d06d75aa8625c2717d9f00.098409b679^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>728e3e7f05c1dc8e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.d5e19f1211e28c5d088f9b94b231c9d61f8e24282e6fe39e15e9d553c6e77fbf.b8727ef0f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8216c92f57fa6ea6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.e805d6f42b18e207ff59527374d72c834e020bf64dc6b1763d3dfb86b082a657.711b92503b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1a8742414ea76b35</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.e5616e1f35fd0b1bfff0708b6850769a84d649c4cc4aa9af11d89158d2a7e9a4.3cb534736f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5a717427df3d9dda</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.b9e07f30eb2389c65055dd9fb195bd1da6336c32cfa24aeac56bb12a73e8eb48.98e9c9a136^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c9403b812b4a9536</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.8b6d34c9069d2f85d69786df5aeadba5913d832f7a82ab44e8be63d7c8afb736.d747f4fe9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>350da9a3c3522ed1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.a889daba4efdef0e2fd9d2d692615caea9fee1d0585d5129b12a518316c8f641.1db2ac9c8d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7d8ed87547af6222</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.66d2679dd0b0949b4984fb20b153a7b888f2d56334efc1de15726fce72e4985e.7b6cc45625^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>239dccbca20cb55d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.e6e79d787b36bd101f93a0c2819ea5a8ee85331c8f2f7a83b9e9429677c050f5.b392faf354^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4300df894e372d39</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.bd5a2f263e4d844d56c6878edaaee87b01ffd6ab86c32e4959f1830291c133db.11e7fef63d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3ae3dfb9cbc8ffec</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.3ef6f06ee2145e043d78951fa763bda4494f40e89021bb5220992b438cf759d2.7429a04ce1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.3.1.4.4.ccc97c12937e3fc73a6418f78f3e901f13350ed72befb4e5d55235a88418afaf.a22579b8c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9aaf83f358204cbe</t>
+  </si>
+  <si>
+    <t>5535c426b665aa8e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.a7929d9ee32d1776405eff50c064b0b53f4d69b3f64af6ab3dea4e313b1becc1.f2a3fbf86b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>RAD</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT1</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT2</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT3</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+  </si>
+  <si>
+    <t>Precondizioni:
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
+  </si>
+  <si>
+    <t>Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a1f91f2f4beb6bf12cb41f0df46c501aa5078fe9791c8395294a8e5440019d5e.df822295aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5540af19836e6fac</t>
+  </si>
+  <si>
+    <t>ac3d87cc1065c942</t>
+  </si>
+  <si>
+    <t>7caaf28c8d1ff31e</t>
+  </si>
+  <si>
+    <t>cc1e102734691cd9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a1f91f2f4beb6bf12cb41f0df46c501aa5078fe9791c8395294a8e5440019d5e.4557ba47f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected</t>
+  </si>
+  <si>
+    <t>b66e02b75fb6f7c5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a1f91f2f4beb6bf12cb41f0df46c501aa5078fe9791c8395294a8e5440019d5e.0e31e62511^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>400-Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: C]</t>
+  </si>
+  <si>
+    <t>ddd8f3b8bbc9aeb4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.e26ae1ef855d1a17087cd17b682ed6e932cff5d3dac28db235038885d766c28d.4434e21325^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422-[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
+  </si>
+  <si>
+    <t>400-ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type</t>
+  </si>
+  <si>
+    <t>il software non consente il mancato inserimento del codice univoco della prestazione</t>
+  </si>
+  <si>
+    <t>il software non consente il mancato inserimento dei dati relativi al referto</t>
+  </si>
+  <si>
+    <t>il software non consente il mancato inserimento del dei riferoimenti alle immagini</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.ea8bb1101a26b96e8e4ddcc7563556243c103b50426ae3e3cff28c1bebb0d832.bf163219d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5e238a96510524ed</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1691,6 +1930,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1984,13 +2229,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U709"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -2261,16 +2507,16 @@
         <v>27</v>
       </c>
       <c r="F10" s="13">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G10" s="14">
-        <v>45093.414282407408</v>
+        <v>45104.40084490741</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>38</v>
@@ -2292,7 +2538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -2309,16 +2555,16 @@
         <v>29</v>
       </c>
       <c r="F11" s="13">
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="G11" s="14">
-        <v>45097.962847222225</v>
+        <v>45104.402025462965</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>38</v>
@@ -2340,7 +2586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -2357,16 +2603,16 @@
         <v>31</v>
       </c>
       <c r="F12" s="13">
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="G12" s="14">
-        <v>45097.967002314814</v>
+        <v>45104.403078703705</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>38</v>
@@ -2388,7 +2634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>9</v>
       </c>
@@ -2417,7 +2663,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -2428,21 +2674,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
@@ -2466,21 +2712,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
@@ -2490,7 +2736,7 @@
         <v>65</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -2504,21 +2750,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>92</v>
+        <v>338</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
@@ -2528,7 +2774,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -2542,21 +2788,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>95</v>
+        <v>341</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -2566,7 +2812,7 @@
         <v>65</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -2580,117 +2826,85 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="13">
-        <v>45098</v>
-      </c>
-      <c r="G18" s="14">
-        <v>45098.452708333331</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>74</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="22"/>
+      <c r="S18" s="17"/>
       <c r="T18" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="13">
-        <v>45090</v>
-      </c>
-      <c r="G19" s="14">
-        <v>45090.697604166664</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>66</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="16"/>
-      <c r="S19" s="22"/>
+      <c r="S19" s="17"/>
       <c r="T19" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>25</v>
@@ -2698,135 +2912,101 @@
       <c r="C20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="13">
-        <v>45098</v>
-      </c>
-      <c r="G20" s="14">
-        <v>45098.455891203703</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="D20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="16"/>
-      <c r="S20" s="22"/>
+      <c r="S20" s="17"/>
       <c r="T20" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="13">
-        <v>45098</v>
-      </c>
-      <c r="G21" s="14">
-        <v>45098.461597222224</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>74</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="16"/>
-      <c r="S21" s="22" t="s">
-        <v>69</v>
-      </c>
+      <c r="S21" s="17"/>
       <c r="T21" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>204</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="F22" s="13">
-        <v>45090</v>
+        <v>45104</v>
       </c>
       <c r="G22" s="14">
-        <v>45090.707407407404</v>
+        <v>45104.406759259262</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="20" t="s">
         <v>38</v>
       </c>
       <c r="K22" s="15"/>
@@ -2837,7 +3017,7 @@
         <v>38</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>38</v>
@@ -2852,30 +3032,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>98</v>
+        <v>333</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>342</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>205</v>
+        <v>343</v>
       </c>
       <c r="F23" s="13">
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="G23" s="14">
-        <v>45098.459108796298</v>
+        <v>45105.520231481481</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>66</v>
@@ -2891,7 +3071,7 @@
         <v>38</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="O23" s="15" t="s">
         <v>38</v>
@@ -2901,265 +3081,310 @@
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="16"/>
-      <c r="S23" s="22" t="s">
-        <v>69</v>
-      </c>
+      <c r="S23" s="22"/>
       <c r="T23" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="156" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>39</v>
+        <v>174</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>175</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="F24" s="13">
-        <v>45062</v>
+        <v>45104</v>
       </c>
       <c r="G24" s="14">
-        <v>45062.686979166669</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+        <v>45104.407858796294</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="J24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="22"/>
       <c r="T24" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>210</v>
+        <v>87</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="F25" s="13">
-        <v>45090</v>
+        <v>45104</v>
       </c>
       <c r="G25" s="14">
-        <v>45090.712268518517</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15" t="s">
+        <v>45104.410115740742</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="57" t="s">
         <v>38</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>38</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="41"/>
+        <v>74</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="22"/>
       <c r="T25" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="F26" s="13">
-        <v>45082</v>
+        <v>45104</v>
       </c>
       <c r="G26" s="14">
-        <v>45082.739374999997</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15" t="s">
+        <v>45104.412164351852</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="20" t="s">
         <v>38</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M26" s="15" t="s">
         <v>38</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" s="20"/>
-      <c r="S26" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="T26" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+        <v>345</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45105</v>
+      </c>
+      <c r="G27" s="14">
+        <v>45105.52375</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="J27" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
+      <c r="S27" s="22"/>
       <c r="T27" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="110.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G28" s="14">
+        <v>45104.412905092591</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="J28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="16"/>
-      <c r="S28" s="17"/>
+      <c r="S28" s="22"/>
       <c r="T28" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="F29" s="13">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="G29" s="14">
-        <v>45098.499155092592</v>
+        <v>45104.413842592592</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>318</v>
+        <v>66</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>38</v>
@@ -3172,176 +3397,213 @@
         <v>38</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>74</v>
       </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="16"/>
-      <c r="S29" s="17"/>
+      <c r="S29" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="T29" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <v>66</v>
-      </c>
-      <c r="B30" s="24" t="s">
+    <row r="30" spans="1:20" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>45</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
+      <c r="D30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G30" s="14">
+        <v>45104.415925925925</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="32" t="s">
+      <c r="M30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
+        <v>183</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45105</v>
+      </c>
+      <c r="G31" s="14">
+        <v>45105</v>
+      </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="17"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="41"/>
       <c r="T31" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="91.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
+        <v>183</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G32" s="14">
+        <v>45104.416620370372</v>
+      </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="17"/>
+      <c r="M32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="41"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
+        <v>179</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G33" s="14">
+        <v>45104.416643518518</v>
+      </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="17"/>
+      <c r="M33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q33" s="20"/>
+      <c r="S33" s="21"/>
       <c r="T33" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>25</v>
@@ -3350,20 +3612,20 @@
         <v>24</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
+        <v>41</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15" t="s">
         <v>65</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -3377,9 +3639,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>25</v>
@@ -3388,42 +3650,26 @@
         <v>24</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="13">
-        <v>45098</v>
-      </c>
-      <c r="G35" s="14">
-        <v>45098.500625000001</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="J35" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O35" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P35" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K35" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="R35" s="16"/>
       <c r="S35" s="17"/>
@@ -3431,9 +3677,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>25</v>
@@ -3442,22 +3688,22 @@
         <v>24</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F36" s="13">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="G36" s="14">
-        <v>45098.502395833333</v>
+        <v>45104.416215277779</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>38</v>
@@ -3470,7 +3716,7 @@
         <v>38</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O36" s="15" t="s">
         <v>65</v>
@@ -3485,63 +3731,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
-        <v>73</v>
-      </c>
-      <c r="B37" s="11" t="s">
+    <row r="37" spans="1:20" s="33" customFormat="1" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
+        <v>66</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="13">
-        <v>45098</v>
-      </c>
-      <c r="G37" s="14">
-        <v>45067.504247685189</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O37" s="15" t="s">
+      <c r="D37" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="P37" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="18" t="s">
+      <c r="K37" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>25</v>
@@ -3550,42 +3780,26 @@
         <v>24</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="13">
-        <v>45098</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>328</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N38" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="O38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P38" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K38" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="16"/>
       <c r="S38" s="17"/>
@@ -3593,31 +3807,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="15" t="s">
         <v>65</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -3625,37 +3839,37 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="R39" s="16"/>
+      <c r="R39" s="15"/>
       <c r="S39" s="17"/>
       <c r="T39" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15" t="s">
         <v>65</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -3669,52 +3883,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="13">
-        <v>45082</v>
-      </c>
-      <c r="G41" s="14">
-        <v>45082.780578703707</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>140</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="O41" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K41" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="16"/>
       <c r="S41" s="17"/>
@@ -3722,37 +3921,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G42" s="14">
+        <v>45104.426342592589</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O42" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
+      <c r="P42" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="16"/>
       <c r="S42" s="17"/>
@@ -3760,37 +3975,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G43" s="14">
+        <v>45104.427581018521</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>274</v>
+      </c>
       <c r="J43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O43" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K43" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
+      <c r="P43" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="16"/>
       <c r="S43" s="17"/>
@@ -3798,37 +4029,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G44" s="14">
+        <v>45104.428587962961</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="J44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O44" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K44" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
+      <c r="P44" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="16"/>
       <c r="S44" s="17"/>
@@ -3836,37 +4083,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G45" s="14">
+        <v>45104.429884259262</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="J45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="O45" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K45" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
+      <c r="P45" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="16"/>
       <c r="S45" s="17"/>
@@ -3874,33 +4137,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>115</v>
+        <v>347</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>114</v>
+        <v>348</v>
       </c>
       <c r="F46" s="13">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="G46" s="14">
-        <v>45083.621504629627</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>146</v>
+        <v>45105.604085648149</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>389</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>38</v>
@@ -3913,7 +4176,7 @@
         <v>38</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>144</v>
+        <v>391</v>
       </c>
       <c r="O46" s="15" t="s">
         <v>65</v>
@@ -3928,53 +4191,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="13">
-        <v>45083</v>
-      </c>
-      <c r="G47" s="14">
-        <v>45083.63318287037</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>149</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
       <c r="J47" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N47" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="O47" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P47" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K47" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
       <c r="R47" s="16"/>
       <c r="S47" s="17"/>
@@ -3982,53 +4229,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="13">
-        <v>45083</v>
-      </c>
-      <c r="G48" s="14">
-        <v>45083.690127314818</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>151</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
       <c r="J48" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="O48" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P48" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K48" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="16"/>
       <c r="S48" s="17"/>
@@ -4036,53 +4267,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>121</v>
+        <v>353</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="13">
-        <v>45083</v>
-      </c>
-      <c r="G49" s="14">
-        <v>45083.710844907408</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>154</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N49" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="O49" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P49" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K49" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
       <c r="R49" s="16"/>
       <c r="S49" s="17"/>
@@ -4090,21 +4305,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
@@ -4114,7 +4329,7 @@
         <v>65</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -4128,37 +4343,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>123</v>
+        <v>357</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+        <v>358</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45105</v>
+      </c>
+      <c r="G51" s="14">
+        <v>45105.675555555557</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>393</v>
+      </c>
       <c r="J51" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="O51" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K51" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
+      <c r="P51" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
       <c r="S51" s="17"/>
@@ -4166,53 +4397,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G52" s="14">
-        <v>45084.426354166666</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
       <c r="J52" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N52" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="O52" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P52" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
       <c r="R52" s="16"/>
       <c r="S52" s="17"/>
@@ -4220,36 +4435,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+        <v>362</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45105</v>
+      </c>
+      <c r="G53" s="14">
+        <v>45105.691793981481</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="J53" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="O53" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K53" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
+      <c r="P53" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q53" s="15"/>
       <c r="R53" s="16"/>
       <c r="S53" s="17"/>
@@ -4257,53 +4489,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>126</v>
+        <v>363</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G54" s="14">
-        <v>45084.446574074071</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N54" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="O54" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P54" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K54" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="16"/>
       <c r="S54" s="17"/>
@@ -4311,33 +4527,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>161</v>
+        <v>365</v>
       </c>
       <c r="F55" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>178</v>
+        <v>45105</v>
+      </c>
+      <c r="G55" s="14">
+        <v>45105.717881944445</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>179</v>
+        <v>403</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>180</v>
+        <v>402</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>38</v>
@@ -4350,7 +4566,7 @@
         <v>38</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>181</v>
+        <v>398</v>
       </c>
       <c r="O55" s="15" t="s">
         <v>65</v>
@@ -4365,21 +4581,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
@@ -4389,7 +4605,7 @@
         <v>65</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4403,21 +4619,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>163</v>
+        <v>369</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="14"/>
@@ -4427,7 +4643,7 @@
         <v>65</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4441,53 +4657,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F58" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G58" s="14">
-        <v>45084.511331018519</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="I58" s="38" t="s">
-        <v>185</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M58" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N58" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="O58" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P58" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K58" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
       <c r="R58" s="16"/>
       <c r="S58" s="17"/>
@@ -4495,53 +4695,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G59" s="14">
-        <v>45084.618067129632</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>188</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
       <c r="J59" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M59" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N59" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="O59" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P59" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K59" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
       <c r="R59" s="16"/>
       <c r="S59" s="17"/>
@@ -4549,53 +4733,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F60" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G60" s="14">
-        <v>45084.637361111112</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>191</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
       <c r="J60" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" s="15"/>
-      <c r="L60" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="O60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P60" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K60" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
       <c r="R60" s="16"/>
       <c r="S60" s="17"/>
@@ -4603,53 +4771,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F61" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G61" s="14">
-        <v>45084.650671296295</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>194</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
       <c r="J61" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M61" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N61" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="O61" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P61" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K61" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="16"/>
       <c r="S61" s="17"/>
@@ -4657,21 +4809,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>134</v>
+        <v>377</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>168</v>
+        <v>379</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
@@ -4681,7 +4833,7 @@
         <v>65</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
@@ -4695,53 +4847,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>135</v>
+        <v>380</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F63" s="13">
-        <v>45084</v>
-      </c>
-      <c r="G63" s="14">
-        <v>45084.668726851851</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>197</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N63" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="O63" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P63" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K63" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="16"/>
       <c r="S63" s="17"/>
@@ -4749,69 +4885,59 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F64" s="13">
-        <v>45093</v>
-      </c>
-      <c r="G64" s="14">
-        <v>45093.44085648148</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>308</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="F64" s="13"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
       <c r="J64" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K64" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
-      <c r="O64" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P64" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="16"/>
       <c r="S64" s="17"/>
       <c r="T64" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
@@ -4821,7 +4947,7 @@
         <v>65</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
@@ -4832,24 +4958,24 @@
       <c r="R65" s="16"/>
       <c r="S65" s="17"/>
       <c r="T65" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
@@ -4859,7 +4985,7 @@
         <v>65</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
@@ -4870,94 +4996,93 @@
       <c r="R66" s="16"/>
       <c r="S66" s="17"/>
       <c r="T66" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="F67" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G67" s="14">
+        <v>45104.434178240743</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>279</v>
+      </c>
       <c r="J67" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O67" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K67" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
+      <c r="P67" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
       <c r="S67" s="17"/>
       <c r="T67" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F68" s="13">
-        <v>45092</v>
-      </c>
-      <c r="G68" s="14">
-        <v>45092.45752314815</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>260</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
       <c r="J68" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M68" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N68" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="O68" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P68" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K68" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="16"/>
       <c r="S68" s="17"/>
@@ -4967,19 +5092,19 @@
     </row>
     <row r="69" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
@@ -4989,7 +5114,7 @@
         <v>65</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
@@ -5005,51 +5130,35 @@
     </row>
     <row r="70" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="F70" s="13">
-        <v>45092</v>
-      </c>
-      <c r="G70" s="14">
-        <v>45092.485243055555</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="I70" s="14" t="s">
-        <v>264</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M70" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N70" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="O70" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P70" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K70" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
       <c r="R70" s="16"/>
       <c r="S70" s="17"/>
@@ -5059,19 +5168,19 @@
     </row>
     <row r="71" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>200</v>
+      <c r="C71" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="14"/>
@@ -5081,7 +5190,7 @@
         <v>65</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
@@ -5097,35 +5206,51 @@
     </row>
     <row r="72" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="F72" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G72" s="14">
+        <v>45104.435486111113</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>281</v>
+      </c>
       <c r="J72" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N72" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O72" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K72" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
+      <c r="P72" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q72" s="15"/>
       <c r="R72" s="16"/>
       <c r="S72" s="17"/>
@@ -5135,35 +5260,51 @@
     </row>
     <row r="73" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+        <v>117</v>
+      </c>
+      <c r="F73" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G73" s="14">
+        <v>45104.436909722222</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="J73" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N73" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O73" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K73" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
+      <c r="P73" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q73" s="15"/>
       <c r="R73" s="16"/>
       <c r="S73" s="17"/>
@@ -5173,35 +5314,51 @@
     </row>
     <row r="74" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="F74" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G74" s="14">
+        <v>45104.438668981478</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="J74" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O74" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K74" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
+      <c r="P74" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="16"/>
       <c r="S74" s="17"/>
@@ -5211,31 +5368,31 @@
     </row>
     <row r="75" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="F75" s="13">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G75" s="14">
-        <v>45092.527453703704</v>
+        <v>45104.439479166664</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="J75" s="15" t="s">
         <v>38</v>
@@ -5248,7 +5405,7 @@
         <v>38</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="O75" s="15" t="s">
         <v>65</v>
@@ -5265,51 +5422,35 @@
     </row>
     <row r="76" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F76" s="13">
-        <v>45092</v>
-      </c>
-      <c r="G76" s="14">
-        <v>45092.536736111113</v>
-      </c>
-      <c r="H76" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I76" s="14" t="s">
-        <v>274</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
       <c r="J76" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M76" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N76" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="O76" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P76" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K76" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
       <c r="R76" s="16"/>
       <c r="S76" s="17"/>
@@ -5319,51 +5460,35 @@
     </row>
     <row r="77" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="F77" s="13">
-        <v>45092</v>
-      </c>
-      <c r="G77" s="14">
-        <v>45092.622465277775</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>277</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
       <c r="J77" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M77" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N77" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="O77" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P77" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K77" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
       <c r="R77" s="16"/>
       <c r="S77" s="17"/>
@@ -5373,31 +5498,31 @@
     </row>
     <row r="78" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="F78" s="13">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G78" s="14">
-        <v>45092.643865740742</v>
+        <v>45104.442962962959</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="J78" s="15" t="s">
         <v>38</v>
@@ -5410,7 +5535,7 @@
         <v>38</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>281</v>
+        <v>162</v>
       </c>
       <c r="O78" s="15" t="s">
         <v>65</v>
@@ -5427,51 +5552,34 @@
     </row>
     <row r="79" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F79" s="13">
-        <v>45092</v>
-      </c>
-      <c r="G79" s="14">
-        <v>45092.6562037037</v>
-      </c>
-      <c r="H79" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>283</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
       <c r="J79" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M79" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N79" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="O79" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P79" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K79" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="16"/>
       <c r="S79" s="17"/>
@@ -5481,35 +5589,51 @@
     </row>
     <row r="80" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="F80" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G80" s="14">
+        <v>45104.443761574075</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>290</v>
+      </c>
       <c r="J80" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O80" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K80" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
+      <c r="P80" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q80" s="15"/>
       <c r="R80" s="16"/>
       <c r="S80" s="17"/>
@@ -5517,33 +5641,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="F81" s="13">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G81" s="14">
-        <v>45092.669351851851</v>
+        <v>45104.444768518515</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J81" s="15" t="s">
         <v>38</v>
@@ -5556,7 +5680,7 @@
         <v>38</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="O81" s="15" t="s">
         <v>65</v>
@@ -5571,53 +5695,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F82" s="13">
-        <v>45092</v>
-      </c>
-      <c r="G82" s="14">
-        <v>45092.677546296298</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>290</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
       <c r="J82" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M82" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N82" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="O82" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P82" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K82" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="16"/>
       <c r="S82" s="17"/>
@@ -5625,53 +5733,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="F83" s="13">
-        <v>45092</v>
-      </c>
-      <c r="G83" s="14">
-        <v>45092.683692129627</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>293</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
       <c r="J83" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M83" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N83" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="O83" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P83" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="K83" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="16"/>
       <c r="S83" s="17"/>
@@ -5679,33 +5771,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="F84" s="13">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G84" s="14">
-        <v>45092.694479166668</v>
+        <v>45104.445601851854</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="I84" s="38" t="s">
+        <v>294</v>
       </c>
       <c r="J84" s="15" t="s">
         <v>38</v>
@@ -5718,7 +5810,7 @@
         <v>38</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="O84" s="15" t="s">
         <v>65</v>
@@ -5733,37 +5825,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="F85" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G85" s="14">
+        <v>45104.446585648147</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>296</v>
+      </c>
       <c r="J85" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O85" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K85" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
+      <c r="P85" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="16"/>
       <c r="S85" s="17"/>
@@ -5771,46 +5879,46 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="F86" s="13">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G86" s="14">
-        <v>45092.703912037039</v>
+        <v>45104.447384259256</v>
       </c>
       <c r="H86" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="I86" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>299</v>
       </c>
       <c r="J86" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K86" s="15"/>
-      <c r="L86" s="15" t="s">
+      <c r="L86" s="39" t="s">
         <v>38</v>
       </c>
       <c r="M86" s="15" t="s">
         <v>38</v>
       </c>
       <c r="N86" s="15" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="O86" s="15" t="s">
         <v>65</v>
@@ -5825,55 +5933,63 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
-        <v>369</v>
+        <v>144</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E87" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="F87" s="13">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="G87" s="14">
-        <v>45098.52034722222</v>
+        <v>45104.449189814812</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="L87" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="O87" s="15" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="Q87" s="15"/>
       <c r="R87" s="16"/>
       <c r="S87" s="17"/>
       <c r="T87" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>25</v>
@@ -5882,555 +5998,1355 @@
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="13">
-        <v>45097</v>
-      </c>
-      <c r="G88" s="14">
-        <v>45097.975266203706</v>
-      </c>
-      <c r="H88" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>334</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
       <c r="J88" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K88" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>166</v>
+      </c>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P88" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="16"/>
       <c r="S88" s="17"/>
       <c r="T88" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
-        <v>374</v>
+        <v>146</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E89" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="F89" s="13">
-        <v>45090</v>
+        <v>45104</v>
       </c>
       <c r="G89" s="14">
-        <v>45090.523912037039</v>
+        <v>45104.450011574074</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="J89" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
+      <c r="L89" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M89" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N89" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="O89" s="15" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="Q89" s="15"/>
       <c r="R89" s="16"/>
       <c r="S89" s="17"/>
       <c r="T89" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="19">
+        <v>147</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G90" s="14">
+        <v>45104.450856481482</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T90" s="18"/>
-    </row>
-    <row r="92" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="6"/>
-    </row>
-    <row r="93" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="6"/>
-    </row>
-    <row r="94" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="6"/>
-    </row>
-    <row r="95" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="6"/>
-    </row>
-    <row r="96" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="6"/>
-    </row>
-    <row r="97" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="6"/>
-    </row>
-    <row r="98" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="6"/>
-    </row>
-    <row r="99" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="6"/>
-    </row>
-    <row r="100" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="6"/>
-    </row>
-    <row r="101" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="6"/>
-    </row>
-    <row r="102" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="6"/>
-    </row>
-    <row r="103" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="6"/>
-    </row>
-    <row r="104" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="6"/>
-    </row>
-    <row r="105" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="6"/>
-    </row>
-    <row r="106" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="6"/>
-    </row>
-    <row r="107" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="6"/>
-    </row>
-    <row r="108" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="6"/>
-    </row>
-    <row r="109" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="6"/>
-    </row>
-    <row r="110" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="6"/>
-    </row>
-    <row r="111" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="6"/>
-    </row>
-    <row r="112" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="5"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="6"/>
-    </row>
-    <row r="113" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="6"/>
-    </row>
-    <row r="114" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="1"/>
-      <c r="T114" s="6"/>
-    </row>
-    <row r="115" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="1"/>
-      <c r="T115" s="6"/>
-    </row>
-    <row r="116" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="1"/>
-      <c r="T116" s="6"/>
-    </row>
-    <row r="117" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="6"/>
-    </row>
-    <row r="118" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="6"/>
-    </row>
-    <row r="119" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F119" s="3"/>
+    <row r="91" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="19">
+        <v>148</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="19">
+        <v>149</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K92" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19">
+        <v>150</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19">
+        <v>151</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F94" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G94" s="14">
+        <v>45104.451840277776</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="J94" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M94" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N94" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="O94" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P94" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19">
+        <v>152</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K95" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19">
+        <v>153</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G96" s="14">
+        <v>45104.703912037039</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="O96" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P96" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19">
+        <v>154</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" s="13"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="19">
+        <v>155</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="19">
+        <v>156</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K99" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="19">
+        <v>157</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K100" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19">
+        <v>158</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F101" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G101" s="14">
+        <v>45104.454525462963</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N101" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="O101" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P101" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="19">
+        <v>159</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F102" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G102" s="14">
+        <v>45104.455439814818</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="J102" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M102" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N102" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O102" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P102" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19">
+        <v>160</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F103" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G103" s="14">
+        <v>45104.456284722219</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M103" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="O103" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="19">
+        <v>161</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F104" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G104" s="14">
+        <v>45104.457465277781</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M104" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N104" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="O104" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P104" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="19">
+        <v>162</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F105" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G105" s="14">
+        <v>45104.463773148149</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="J105" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M105" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N105" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="O105" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P105" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19">
+        <v>163</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K106" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="19">
+        <v>164</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F107" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G107" s="14">
+        <v>45104.464988425927</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J107" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N107" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="O107" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P107" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="16"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="19">
+        <v>165</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F108" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G108" s="14">
+        <v>45104.773680555554</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="J108" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M108" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N108" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="O108" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P108" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="19">
+        <v>166</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F109" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G109" s="14">
+        <v>45104.774641203701</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="J109" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M109" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N109" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="O109" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P109" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="19">
+        <v>167</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F110" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G110" s="14">
+        <v>45104.775740740741</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="J110" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M110" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N110" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="O110" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P110" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="16"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="19">
+        <v>168</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F111" s="13"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K111" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="16"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19">
+        <v>169</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F112" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G112" s="14">
+        <v>45104.776620370372</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="J112" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M112" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N112" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="O112" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P112" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="16"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="19">
+        <v>369</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G113" s="14">
+        <v>45104.777511574073</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="J113" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P113" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="16"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="19">
+        <v>370</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="13">
+        <v>45105</v>
+      </c>
+      <c r="G114" s="14">
+        <v>45105.511412037034</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="J114" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P114" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19">
+        <v>373</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G115" s="14">
+        <v>45104.778263888889</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J115" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P115" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="19">
+        <v>374</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="13">
+        <v>45104</v>
+      </c>
+      <c r="G116" s="14">
+        <v>45104.779027777775</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J116" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P116" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="16"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T117" s="18"/>
+    </row>
+    <row r="119" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
-      <c r="J119" s="4"/>
+      <c r="J119" s="3"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
@@ -6438,11 +7354,12 @@
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="6"/>
-    </row>
-    <row r="120" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R119" s="4"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="6"/>
+    </row>
+    <row r="120" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6459,7 +7376,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="6"/>
     </row>
-    <row r="121" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6476,7 +7393,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="6"/>
     </row>
-    <row r="122" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -6493,7 +7410,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="6"/>
     </row>
-    <row r="123" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -6510,7 +7427,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="6"/>
     </row>
-    <row r="124" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -6527,7 +7444,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="6"/>
     </row>
-    <row r="125" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -6544,7 +7461,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="6"/>
     </row>
-    <row r="126" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -6561,7 +7478,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="6"/>
     </row>
-    <row r="127" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -6578,7 +7495,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="6"/>
     </row>
-    <row r="128" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -15368,87 +16285,465 @@
       <c r="T644" s="6"/>
     </row>
     <row r="645" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T645" s="4"/>
+      <c r="F645" s="3"/>
+      <c r="G645" s="3"/>
+      <c r="H645" s="3"/>
+      <c r="I645" s="3"/>
+      <c r="J645" s="4"/>
+      <c r="K645" s="4"/>
+      <c r="L645" s="4"/>
+      <c r="M645" s="4"/>
+      <c r="N645" s="4"/>
+      <c r="O645" s="4"/>
+      <c r="P645" s="4"/>
+      <c r="Q645" s="4"/>
+      <c r="R645" s="5"/>
+      <c r="S645" s="1"/>
+      <c r="T645" s="6"/>
     </row>
     <row r="646" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T646" s="4"/>
+      <c r="F646" s="3"/>
+      <c r="G646" s="3"/>
+      <c r="H646" s="3"/>
+      <c r="I646" s="3"/>
+      <c r="J646" s="4"/>
+      <c r="K646" s="4"/>
+      <c r="L646" s="4"/>
+      <c r="M646" s="4"/>
+      <c r="N646" s="4"/>
+      <c r="O646" s="4"/>
+      <c r="P646" s="4"/>
+      <c r="Q646" s="4"/>
+      <c r="R646" s="5"/>
+      <c r="S646" s="1"/>
+      <c r="T646" s="6"/>
     </row>
     <row r="647" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T647" s="4"/>
+      <c r="F647" s="3"/>
+      <c r="G647" s="3"/>
+      <c r="H647" s="3"/>
+      <c r="I647" s="3"/>
+      <c r="J647" s="4"/>
+      <c r="K647" s="4"/>
+      <c r="L647" s="4"/>
+      <c r="M647" s="4"/>
+      <c r="N647" s="4"/>
+      <c r="O647" s="4"/>
+      <c r="P647" s="4"/>
+      <c r="Q647" s="4"/>
+      <c r="R647" s="5"/>
+      <c r="S647" s="1"/>
+      <c r="T647" s="6"/>
     </row>
     <row r="648" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T648" s="4"/>
+      <c r="F648" s="3"/>
+      <c r="G648" s="3"/>
+      <c r="H648" s="3"/>
+      <c r="I648" s="3"/>
+      <c r="J648" s="4"/>
+      <c r="K648" s="4"/>
+      <c r="L648" s="4"/>
+      <c r="M648" s="4"/>
+      <c r="N648" s="4"/>
+      <c r="O648" s="4"/>
+      <c r="P648" s="4"/>
+      <c r="Q648" s="4"/>
+      <c r="R648" s="5"/>
+      <c r="S648" s="1"/>
+      <c r="T648" s="6"/>
     </row>
     <row r="649" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T649" s="4"/>
+      <c r="F649" s="3"/>
+      <c r="G649" s="3"/>
+      <c r="H649" s="3"/>
+      <c r="I649" s="3"/>
+      <c r="J649" s="4"/>
+      <c r="K649" s="4"/>
+      <c r="L649" s="4"/>
+      <c r="M649" s="4"/>
+      <c r="N649" s="4"/>
+      <c r="O649" s="4"/>
+      <c r="P649" s="4"/>
+      <c r="Q649" s="4"/>
+      <c r="R649" s="5"/>
+      <c r="S649" s="1"/>
+      <c r="T649" s="6"/>
     </row>
     <row r="650" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T650" s="4"/>
+      <c r="F650" s="3"/>
+      <c r="G650" s="3"/>
+      <c r="H650" s="3"/>
+      <c r="I650" s="3"/>
+      <c r="J650" s="4"/>
+      <c r="K650" s="4"/>
+      <c r="L650" s="4"/>
+      <c r="M650" s="4"/>
+      <c r="N650" s="4"/>
+      <c r="O650" s="4"/>
+      <c r="P650" s="4"/>
+      <c r="Q650" s="4"/>
+      <c r="R650" s="5"/>
+      <c r="S650" s="1"/>
+      <c r="T650" s="6"/>
     </row>
     <row r="651" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T651" s="4"/>
+      <c r="F651" s="3"/>
+      <c r="G651" s="3"/>
+      <c r="H651" s="3"/>
+      <c r="I651" s="3"/>
+      <c r="J651" s="4"/>
+      <c r="K651" s="4"/>
+      <c r="L651" s="4"/>
+      <c r="M651" s="4"/>
+      <c r="N651" s="4"/>
+      <c r="O651" s="4"/>
+      <c r="P651" s="4"/>
+      <c r="Q651" s="4"/>
+      <c r="R651" s="5"/>
+      <c r="S651" s="1"/>
+      <c r="T651" s="6"/>
     </row>
     <row r="652" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T652" s="4"/>
+      <c r="F652" s="3"/>
+      <c r="G652" s="3"/>
+      <c r="H652" s="3"/>
+      <c r="I652" s="3"/>
+      <c r="J652" s="4"/>
+      <c r="K652" s="4"/>
+      <c r="L652" s="4"/>
+      <c r="M652" s="4"/>
+      <c r="N652" s="4"/>
+      <c r="O652" s="4"/>
+      <c r="P652" s="4"/>
+      <c r="Q652" s="4"/>
+      <c r="R652" s="5"/>
+      <c r="S652" s="1"/>
+      <c r="T652" s="6"/>
     </row>
     <row r="653" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T653" s="4"/>
+      <c r="F653" s="3"/>
+      <c r="G653" s="3"/>
+      <c r="H653" s="3"/>
+      <c r="I653" s="3"/>
+      <c r="J653" s="4"/>
+      <c r="K653" s="4"/>
+      <c r="L653" s="4"/>
+      <c r="M653" s="4"/>
+      <c r="N653" s="4"/>
+      <c r="O653" s="4"/>
+      <c r="P653" s="4"/>
+      <c r="Q653" s="4"/>
+      <c r="R653" s="5"/>
+      <c r="S653" s="1"/>
+      <c r="T653" s="6"/>
     </row>
     <row r="654" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T654" s="4"/>
+      <c r="F654" s="3"/>
+      <c r="G654" s="3"/>
+      <c r="H654" s="3"/>
+      <c r="I654" s="3"/>
+      <c r="J654" s="4"/>
+      <c r="K654" s="4"/>
+      <c r="L654" s="4"/>
+      <c r="M654" s="4"/>
+      <c r="N654" s="4"/>
+      <c r="O654" s="4"/>
+      <c r="P654" s="4"/>
+      <c r="Q654" s="4"/>
+      <c r="R654" s="5"/>
+      <c r="S654" s="1"/>
+      <c r="T654" s="6"/>
     </row>
     <row r="655" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T655" s="4"/>
+      <c r="F655" s="3"/>
+      <c r="G655" s="3"/>
+      <c r="H655" s="3"/>
+      <c r="I655" s="3"/>
+      <c r="J655" s="4"/>
+      <c r="K655" s="4"/>
+      <c r="L655" s="4"/>
+      <c r="M655" s="4"/>
+      <c r="N655" s="4"/>
+      <c r="O655" s="4"/>
+      <c r="P655" s="4"/>
+      <c r="Q655" s="4"/>
+      <c r="R655" s="5"/>
+      <c r="S655" s="1"/>
+      <c r="T655" s="6"/>
     </row>
     <row r="656" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T656" s="4"/>
-    </row>
-    <row r="657" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T657" s="4"/>
-    </row>
-    <row r="658" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T658" s="4"/>
-    </row>
-    <row r="659" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T659" s="4"/>
-    </row>
-    <row r="660" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T660" s="4"/>
-    </row>
-    <row r="661" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T661" s="4"/>
-    </row>
-    <row r="662" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T662" s="4"/>
-    </row>
-    <row r="663" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T663" s="4"/>
-    </row>
-    <row r="664" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T664" s="4"/>
-    </row>
-    <row r="665" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T665" s="4"/>
-    </row>
-    <row r="666" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T666" s="4"/>
-    </row>
-    <row r="667" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T667" s="4"/>
-    </row>
-    <row r="668" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T668" s="4"/>
-    </row>
-    <row r="669" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T669" s="4"/>
-    </row>
-    <row r="670" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T670" s="4"/>
-    </row>
-    <row r="671" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T671" s="4"/>
-    </row>
-    <row r="672" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F656" s="3"/>
+      <c r="G656" s="3"/>
+      <c r="H656" s="3"/>
+      <c r="I656" s="3"/>
+      <c r="J656" s="4"/>
+      <c r="K656" s="4"/>
+      <c r="L656" s="4"/>
+      <c r="M656" s="4"/>
+      <c r="N656" s="4"/>
+      <c r="O656" s="4"/>
+      <c r="P656" s="4"/>
+      <c r="Q656" s="4"/>
+      <c r="R656" s="5"/>
+      <c r="S656" s="1"/>
+      <c r="T656" s="6"/>
+    </row>
+    <row r="657" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F657" s="3"/>
+      <c r="G657" s="3"/>
+      <c r="H657" s="3"/>
+      <c r="I657" s="3"/>
+      <c r="J657" s="4"/>
+      <c r="K657" s="4"/>
+      <c r="L657" s="4"/>
+      <c r="M657" s="4"/>
+      <c r="N657" s="4"/>
+      <c r="O657" s="4"/>
+      <c r="P657" s="4"/>
+      <c r="Q657" s="4"/>
+      <c r="R657" s="5"/>
+      <c r="S657" s="1"/>
+      <c r="T657" s="6"/>
+    </row>
+    <row r="658" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F658" s="3"/>
+      <c r="G658" s="3"/>
+      <c r="H658" s="3"/>
+      <c r="I658" s="3"/>
+      <c r="J658" s="4"/>
+      <c r="K658" s="4"/>
+      <c r="L658" s="4"/>
+      <c r="M658" s="4"/>
+      <c r="N658" s="4"/>
+      <c r="O658" s="4"/>
+      <c r="P658" s="4"/>
+      <c r="Q658" s="4"/>
+      <c r="R658" s="5"/>
+      <c r="S658" s="1"/>
+      <c r="T658" s="6"/>
+    </row>
+    <row r="659" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F659" s="3"/>
+      <c r="G659" s="3"/>
+      <c r="H659" s="3"/>
+      <c r="I659" s="3"/>
+      <c r="J659" s="4"/>
+      <c r="K659" s="4"/>
+      <c r="L659" s="4"/>
+      <c r="M659" s="4"/>
+      <c r="N659" s="4"/>
+      <c r="O659" s="4"/>
+      <c r="P659" s="4"/>
+      <c r="Q659" s="4"/>
+      <c r="R659" s="5"/>
+      <c r="S659" s="1"/>
+      <c r="T659" s="6"/>
+    </row>
+    <row r="660" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F660" s="3"/>
+      <c r="G660" s="3"/>
+      <c r="H660" s="3"/>
+      <c r="I660" s="3"/>
+      <c r="J660" s="4"/>
+      <c r="K660" s="4"/>
+      <c r="L660" s="4"/>
+      <c r="M660" s="4"/>
+      <c r="N660" s="4"/>
+      <c r="O660" s="4"/>
+      <c r="P660" s="4"/>
+      <c r="Q660" s="4"/>
+      <c r="R660" s="5"/>
+      <c r="S660" s="1"/>
+      <c r="T660" s="6"/>
+    </row>
+    <row r="661" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F661" s="3"/>
+      <c r="G661" s="3"/>
+      <c r="H661" s="3"/>
+      <c r="I661" s="3"/>
+      <c r="J661" s="4"/>
+      <c r="K661" s="4"/>
+      <c r="L661" s="4"/>
+      <c r="M661" s="4"/>
+      <c r="N661" s="4"/>
+      <c r="O661" s="4"/>
+      <c r="P661" s="4"/>
+      <c r="Q661" s="4"/>
+      <c r="R661" s="5"/>
+      <c r="S661" s="1"/>
+      <c r="T661" s="6"/>
+    </row>
+    <row r="662" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F662" s="3"/>
+      <c r="G662" s="3"/>
+      <c r="H662" s="3"/>
+      <c r="I662" s="3"/>
+      <c r="J662" s="4"/>
+      <c r="K662" s="4"/>
+      <c r="L662" s="4"/>
+      <c r="M662" s="4"/>
+      <c r="N662" s="4"/>
+      <c r="O662" s="4"/>
+      <c r="P662" s="4"/>
+      <c r="Q662" s="4"/>
+      <c r="R662" s="5"/>
+      <c r="S662" s="1"/>
+      <c r="T662" s="6"/>
+    </row>
+    <row r="663" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F663" s="3"/>
+      <c r="G663" s="3"/>
+      <c r="H663" s="3"/>
+      <c r="I663" s="3"/>
+      <c r="J663" s="4"/>
+      <c r="K663" s="4"/>
+      <c r="L663" s="4"/>
+      <c r="M663" s="4"/>
+      <c r="N663" s="4"/>
+      <c r="O663" s="4"/>
+      <c r="P663" s="4"/>
+      <c r="Q663" s="4"/>
+      <c r="R663" s="5"/>
+      <c r="S663" s="1"/>
+      <c r="T663" s="6"/>
+    </row>
+    <row r="664" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F664" s="3"/>
+      <c r="G664" s="3"/>
+      <c r="H664" s="3"/>
+      <c r="I664" s="3"/>
+      <c r="J664" s="4"/>
+      <c r="K664" s="4"/>
+      <c r="L664" s="4"/>
+      <c r="M664" s="4"/>
+      <c r="N664" s="4"/>
+      <c r="O664" s="4"/>
+      <c r="P664" s="4"/>
+      <c r="Q664" s="4"/>
+      <c r="R664" s="5"/>
+      <c r="S664" s="1"/>
+      <c r="T664" s="6"/>
+    </row>
+    <row r="665" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F665" s="3"/>
+      <c r="G665" s="3"/>
+      <c r="H665" s="3"/>
+      <c r="I665" s="3"/>
+      <c r="J665" s="4"/>
+      <c r="K665" s="4"/>
+      <c r="L665" s="4"/>
+      <c r="M665" s="4"/>
+      <c r="N665" s="4"/>
+      <c r="O665" s="4"/>
+      <c r="P665" s="4"/>
+      <c r="Q665" s="4"/>
+      <c r="R665" s="5"/>
+      <c r="S665" s="1"/>
+      <c r="T665" s="6"/>
+    </row>
+    <row r="666" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F666" s="3"/>
+      <c r="G666" s="3"/>
+      <c r="H666" s="3"/>
+      <c r="I666" s="3"/>
+      <c r="J666" s="4"/>
+      <c r="K666" s="4"/>
+      <c r="L666" s="4"/>
+      <c r="M666" s="4"/>
+      <c r="N666" s="4"/>
+      <c r="O666" s="4"/>
+      <c r="P666" s="4"/>
+      <c r="Q666" s="4"/>
+      <c r="R666" s="5"/>
+      <c r="S666" s="1"/>
+      <c r="T666" s="6"/>
+    </row>
+    <row r="667" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F667" s="3"/>
+      <c r="G667" s="3"/>
+      <c r="H667" s="3"/>
+      <c r="I667" s="3"/>
+      <c r="J667" s="4"/>
+      <c r="K667" s="4"/>
+      <c r="L667" s="4"/>
+      <c r="M667" s="4"/>
+      <c r="N667" s="4"/>
+      <c r="O667" s="4"/>
+      <c r="P667" s="4"/>
+      <c r="Q667" s="4"/>
+      <c r="R667" s="5"/>
+      <c r="S667" s="1"/>
+      <c r="T667" s="6"/>
+    </row>
+    <row r="668" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F668" s="3"/>
+      <c r="G668" s="3"/>
+      <c r="H668" s="3"/>
+      <c r="I668" s="3"/>
+      <c r="J668" s="4"/>
+      <c r="K668" s="4"/>
+      <c r="L668" s="4"/>
+      <c r="M668" s="4"/>
+      <c r="N668" s="4"/>
+      <c r="O668" s="4"/>
+      <c r="P668" s="4"/>
+      <c r="Q668" s="4"/>
+      <c r="R668" s="5"/>
+      <c r="S668" s="1"/>
+      <c r="T668" s="6"/>
+    </row>
+    <row r="669" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F669" s="3"/>
+      <c r="G669" s="3"/>
+      <c r="H669" s="3"/>
+      <c r="I669" s="3"/>
+      <c r="J669" s="4"/>
+      <c r="K669" s="4"/>
+      <c r="L669" s="4"/>
+      <c r="M669" s="4"/>
+      <c r="N669" s="4"/>
+      <c r="O669" s="4"/>
+      <c r="P669" s="4"/>
+      <c r="Q669" s="4"/>
+      <c r="R669" s="5"/>
+      <c r="S669" s="1"/>
+      <c r="T669" s="6"/>
+    </row>
+    <row r="670" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F670" s="3"/>
+      <c r="G670" s="3"/>
+      <c r="H670" s="3"/>
+      <c r="I670" s="3"/>
+      <c r="J670" s="4"/>
+      <c r="K670" s="4"/>
+      <c r="L670" s="4"/>
+      <c r="M670" s="4"/>
+      <c r="N670" s="4"/>
+      <c r="O670" s="4"/>
+      <c r="P670" s="4"/>
+      <c r="Q670" s="4"/>
+      <c r="R670" s="5"/>
+      <c r="S670" s="1"/>
+      <c r="T670" s="6"/>
+    </row>
+    <row r="671" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F671" s="3"/>
+      <c r="G671" s="3"/>
+      <c r="H671" s="3"/>
+      <c r="I671" s="3"/>
+      <c r="J671" s="4"/>
+      <c r="K671" s="4"/>
+      <c r="L671" s="4"/>
+      <c r="M671" s="4"/>
+      <c r="N671" s="4"/>
+      <c r="O671" s="4"/>
+      <c r="P671" s="4"/>
+      <c r="Q671" s="4"/>
+      <c r="R671" s="5"/>
+      <c r="S671" s="1"/>
+      <c r="T671" s="6"/>
+    </row>
+    <row r="672" spans="6:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T672" s="4"/>
     </row>
     <row r="673" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15562,8 +16857,96 @@
     <row r="709" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T709" s="4"/>
     </row>
+    <row r="710" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T710" s="4"/>
+    </row>
+    <row r="711" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T711" s="4"/>
+    </row>
+    <row r="712" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T712" s="4"/>
+    </row>
+    <row r="713" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T713" s="4"/>
+    </row>
+    <row r="714" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T714" s="4"/>
+    </row>
+    <row r="715" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T715" s="4"/>
+    </row>
+    <row r="716" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T716" s="4"/>
+    </row>
+    <row r="717" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T717" s="4"/>
+    </row>
+    <row r="718" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T718" s="4"/>
+    </row>
+    <row r="719" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T719" s="4"/>
+    </row>
+    <row r="720" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T720" s="4"/>
+    </row>
+    <row r="721" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T721" s="4"/>
+    </row>
+    <row r="722" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T722" s="4"/>
+    </row>
+    <row r="723" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T723" s="4"/>
+    </row>
+    <row r="724" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T724" s="4"/>
+    </row>
+    <row r="725" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T725" s="4"/>
+    </row>
+    <row r="726" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T726" s="4"/>
+    </row>
+    <row r="727" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T727" s="4"/>
+    </row>
+    <row r="728" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T728" s="4"/>
+    </row>
+    <row r="729" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T729" s="4"/>
+    </row>
+    <row r="730" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T730" s="4"/>
+    </row>
+    <row r="731" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T731" s="4"/>
+    </row>
+    <row r="732" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T732" s="4"/>
+    </row>
+    <row r="733" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T733" s="4"/>
+    </row>
+    <row r="734" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T734" s="4"/>
+    </row>
+    <row r="735" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T735" s="4"/>
+    </row>
+    <row r="736" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T736" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:T89" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A9:T116" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="RAD"/>
+        <filter val="VPS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -15584,13 +16967,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M53:M54 L54 L35:M52 L61 L55:M59 M60:M61 O35:O89 L62:M89 J35:J89</xm:sqref>
+          <xm:sqref>M79:M80 L80 L42:M78 L87 L81:M85 M86:M87 O42:O116 L88:M116 J42:J116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q35:Q89</xm:sqref>
+          <xm:sqref>Q42:Q116</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43487D16-06DD-4924-B5C7-A2036F633C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6D1CA-620E-41A0-A0CC-B9735894049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="406">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -1497,6 +1497,14 @@
   </si>
   <si>
     <t>5e238a96510524ed</t>
+  </si>
+  <si>
+    <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
+Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.</t>
+  </si>
+  <si>
+    <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
+Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio..</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1930,12 +1938,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2229,14 +2231,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2490,7 +2491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>9</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>29</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>38</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="16"/>
@@ -3077,7 +3078,7 @@
         <v>38</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="16"/>
@@ -3086,7 +3087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="156" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>32</v>
       </c>
@@ -3168,7 +3169,7 @@
       <c r="I25" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="57" t="s">
+      <c r="J25" s="39" t="s">
         <v>38</v>
       </c>
       <c r="K25" s="15"/>
@@ -3194,7 +3195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>37</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
@@ -3304,7 +3305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="110.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>40</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>45</v>
       </c>
@@ -3496,13 +3497,13 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="20"/>
-      <c r="R31" s="56"/>
+      <c r="R31" s="40"/>
       <c r="S31" s="41"/>
       <c r="T31" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="91.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>48</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>63</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>64</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>65</v>
       </c>
@@ -3719,10 +3720,10 @@
         <v>76</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q36" s="15"/>
       <c r="R36" s="16"/>
@@ -3731,7 +3732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="33" customFormat="1" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>66</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>67</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>68</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>69</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>70</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>71</v>
       </c>
@@ -3963,10 +3964,10 @@
         <v>86</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="16"/>
@@ -3975,7 +3976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>72</v>
       </c>
@@ -4017,10 +4018,10 @@
         <v>82</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="16"/>
@@ -4029,7 +4030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>73</v>
       </c>
@@ -4071,10 +4072,10 @@
         <v>83</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="16"/>
@@ -4083,7 +4084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>74</v>
       </c>
@@ -4125,10 +4126,10 @@
         <v>255</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="16"/>
@@ -4179,10 +4180,10 @@
         <v>391</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="16"/>
@@ -4385,10 +4386,10 @@
         <v>394</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
@@ -4477,10 +4478,10 @@
         <v>397</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q53" s="15"/>
       <c r="R53" s="16"/>
@@ -4569,10 +4570,10 @@
         <v>398</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q55" s="15"/>
       <c r="R55" s="16"/>
@@ -5040,10 +5041,10 @@
         <v>76</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
@@ -5246,10 +5247,10 @@
         <v>142</v>
       </c>
       <c r="O72" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q72" s="15"/>
       <c r="R72" s="16"/>
@@ -5300,10 +5301,10 @@
         <v>143</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P73" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q73" s="15"/>
       <c r="R73" s="16"/>
@@ -5354,10 +5355,10 @@
         <v>145</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="16"/>
@@ -5408,10 +5409,10 @@
         <v>146</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="16"/>
@@ -5538,10 +5539,10 @@
         <v>162</v>
       </c>
       <c r="O78" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q78" s="15"/>
       <c r="R78" s="16"/>
@@ -5629,10 +5630,10 @@
         <v>164</v>
       </c>
       <c r="O80" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P80" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q80" s="15"/>
       <c r="R80" s="16"/>
@@ -5683,10 +5684,10 @@
         <v>165</v>
       </c>
       <c r="O81" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P81" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q81" s="15"/>
       <c r="R81" s="16"/>
@@ -5813,10 +5814,10 @@
         <v>168</v>
       </c>
       <c r="O84" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P84" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q84" s="15"/>
       <c r="R84" s="16"/>
@@ -5867,10 +5868,10 @@
         <v>169</v>
       </c>
       <c r="O85" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="16"/>
@@ -5921,10 +5922,10 @@
         <v>170</v>
       </c>
       <c r="O86" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q86" s="15"/>
       <c r="R86" s="16"/>
@@ -5975,10 +5976,10 @@
         <v>171</v>
       </c>
       <c r="O87" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q87" s="15"/>
       <c r="R87" s="16"/>
@@ -6067,10 +6068,10 @@
         <v>172</v>
       </c>
       <c r="O89" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q89" s="15"/>
       <c r="R89" s="16"/>
@@ -6079,7 +6080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <v>147</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <v>148</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <v>149</v>
       </c>
@@ -6203,7 +6204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <v>150</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <v>151</v>
       </c>
@@ -6283,10 +6284,10 @@
         <v>229</v>
       </c>
       <c r="O94" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q94" s="15"/>
       <c r="R94" s="16"/>
@@ -6295,7 +6296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>152</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>153</v>
       </c>
@@ -6375,10 +6376,10 @@
         <v>231</v>
       </c>
       <c r="O96" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q96" s="15"/>
       <c r="R96" s="16"/>
@@ -6387,7 +6388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>154</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>155</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>156</v>
       </c>
@@ -6501,7 +6502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>157</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>158</v>
       </c>
@@ -6581,10 +6582,10 @@
         <v>236</v>
       </c>
       <c r="O101" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q101" s="15"/>
       <c r="R101" s="16"/>
@@ -6593,7 +6594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>159</v>
       </c>
@@ -6635,10 +6636,10 @@
         <v>237</v>
       </c>
       <c r="O102" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q102" s="15"/>
       <c r="R102" s="16"/>
@@ -6647,7 +6648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>160</v>
       </c>
@@ -6689,10 +6690,10 @@
         <v>238</v>
       </c>
       <c r="O103" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q103" s="15"/>
       <c r="R103" s="16"/>
@@ -6701,7 +6702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <v>161</v>
       </c>
@@ -6743,10 +6744,10 @@
         <v>239</v>
       </c>
       <c r="O104" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q104" s="15"/>
       <c r="R104" s="16"/>
@@ -6755,7 +6756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <v>162</v>
       </c>
@@ -6797,10 +6798,10 @@
         <v>240</v>
       </c>
       <c r="O105" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P105" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q105" s="15"/>
       <c r="R105" s="16"/>
@@ -6809,7 +6810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <v>163</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>164</v>
       </c>
@@ -6889,10 +6890,10 @@
         <v>242</v>
       </c>
       <c r="O107" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q107" s="15"/>
       <c r="R107" s="16"/>
@@ -6901,7 +6902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <v>165</v>
       </c>
@@ -6943,10 +6944,10 @@
         <v>243</v>
       </c>
       <c r="O108" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P108" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q108" s="15"/>
       <c r="R108" s="16"/>
@@ -6955,7 +6956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <v>166</v>
       </c>
@@ -6997,10 +6998,10 @@
         <v>244</v>
       </c>
       <c r="O109" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P109" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q109" s="15"/>
       <c r="R109" s="16"/>
@@ -7009,7 +7010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <v>167</v>
       </c>
@@ -7051,10 +7052,10 @@
         <v>245</v>
       </c>
       <c r="O110" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P110" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q110" s="15"/>
       <c r="R110" s="16"/>
@@ -7063,7 +7064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <v>168</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
         <v>169</v>
       </c>
@@ -7143,10 +7144,10 @@
         <v>248</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Q112" s="15"/>
       <c r="R112" s="16"/>
@@ -7155,7 +7156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <v>369</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>38</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>38</v>
+        <v>404</v>
       </c>
       <c r="Q114" s="15"/>
       <c r="R114" s="16"/>
@@ -7293,7 +7294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
         <v>374</v>
       </c>
@@ -16939,14 +16940,7 @@
       <c r="T736" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T116" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RAD"/>
-        <filter val="VPS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T116" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -16967,7 +16961,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M79:M80 L80 L42:M78 L87 L81:M85 M86:M87 O42:O116 L88:M116 J42:J116</xm:sqref>
+          <xm:sqref>M79:M80 L80 L42:M78 L87 L81:M85 M86:M87 J42:J116 L88:M116 O42:O116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6D1CA-620E-41A0-A0CC-B9735894049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1003AB3-E90D-4B00-9C3E-A2AD4A5BE4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="465" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -1442,12 +1442,6 @@
     <t>VALIDAZIONE_CDA2_RAD_CT0</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a1f91f2f4beb6bf12cb41f0df46c501aa5078fe9791c8395294a8e5440019d5e.df822295aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5540af19836e6fac</t>
-  </si>
-  <si>
     <t>ac3d87cc1065c942</t>
   </si>
   <si>
@@ -1505,6 +1499,12 @@
   <si>
     <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
 Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio..</t>
+  </si>
+  <si>
+    <t>53ec8f7204459202</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a1f91f2f4beb6bf12cb41f0df46c501aa5078fe9791c8395294a8e5440019d5e.f4ba1c7a16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2234,10 +2234,10 @@
   <dimension ref="A1:U736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
+      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3024,7 +3024,7 @@
         <v>38</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="16"/>
@@ -3056,7 +3056,7 @@
         <v>45105.520231481481</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>66</v>
@@ -3078,7 +3078,7 @@
         <v>38</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="16"/>
@@ -3274,7 +3274,7 @@
         <v>45105.52375</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>66</v>
@@ -3296,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
@@ -3723,7 +3723,7 @@
         <v>38</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q36" s="15"/>
       <c r="R36" s="16"/>
@@ -3967,7 +3967,7 @@
         <v>38</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="16"/>
@@ -4021,7 +4021,7 @@
         <v>38</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="16"/>
@@ -4075,7 +4075,7 @@
         <v>38</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="16"/>
@@ -4129,7 +4129,7 @@
         <v>38</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="16"/>
@@ -4161,10 +4161,10 @@
         <v>45105.604085648149</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>38</v>
@@ -4177,13 +4177,13 @@
         <v>38</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O46" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="16"/>
@@ -4367,10 +4367,10 @@
         <v>45105.675555555557</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>38</v>
@@ -4383,13 +4383,13 @@
         <v>38</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O51" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
@@ -4459,10 +4459,10 @@
         <v>45105.691793981481</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>38</v>
@@ -4475,13 +4475,13 @@
         <v>38</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O53" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q53" s="15"/>
       <c r="R53" s="16"/>
@@ -4514,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -4551,10 +4551,10 @@
         <v>45105.717881944445</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>38</v>
@@ -4567,13 +4567,13 @@
         <v>38</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O55" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q55" s="15"/>
       <c r="R55" s="16"/>
@@ -4606,7 +4606,7 @@
         <v>65</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4682,7 +4682,7 @@
         <v>65</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
@@ -5044,7 +5044,7 @@
         <v>38</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
@@ -5250,7 +5250,7 @@
         <v>38</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q72" s="15"/>
       <c r="R72" s="16"/>
@@ -5304,7 +5304,7 @@
         <v>38</v>
       </c>
       <c r="P73" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q73" s="15"/>
       <c r="R73" s="16"/>
@@ -5358,7 +5358,7 @@
         <v>38</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="16"/>
@@ -5412,7 +5412,7 @@
         <v>38</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="16"/>
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q78" s="15"/>
       <c r="R78" s="16"/>
@@ -5633,7 +5633,7 @@
         <v>38</v>
       </c>
       <c r="P80" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q80" s="15"/>
       <c r="R80" s="16"/>
@@ -5687,7 +5687,7 @@
         <v>38</v>
       </c>
       <c r="P81" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q81" s="15"/>
       <c r="R81" s="16"/>
@@ -5817,7 +5817,7 @@
         <v>38</v>
       </c>
       <c r="P84" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q84" s="15"/>
       <c r="R84" s="16"/>
@@ -5871,7 +5871,7 @@
         <v>38</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="16"/>
@@ -5925,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q86" s="15"/>
       <c r="R86" s="16"/>
@@ -5979,7 +5979,7 @@
         <v>38</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q87" s="15"/>
       <c r="R87" s="16"/>
@@ -6071,7 +6071,7 @@
         <v>38</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q89" s="15"/>
       <c r="R89" s="16"/>
@@ -6287,7 +6287,7 @@
         <v>38</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q94" s="15"/>
       <c r="R94" s="16"/>
@@ -6379,7 +6379,7 @@
         <v>38</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q96" s="15"/>
       <c r="R96" s="16"/>
@@ -6585,7 +6585,7 @@
         <v>38</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q101" s="15"/>
       <c r="R101" s="16"/>
@@ -6639,7 +6639,7 @@
         <v>38</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q102" s="15"/>
       <c r="R102" s="16"/>
@@ -6693,7 +6693,7 @@
         <v>38</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q103" s="15"/>
       <c r="R103" s="16"/>
@@ -6747,7 +6747,7 @@
         <v>38</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q104" s="15"/>
       <c r="R104" s="16"/>
@@ -6801,7 +6801,7 @@
         <v>38</v>
       </c>
       <c r="P105" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q105" s="15"/>
       <c r="R105" s="16"/>
@@ -6893,7 +6893,7 @@
         <v>38</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q107" s="15"/>
       <c r="R107" s="16"/>
@@ -6947,7 +6947,7 @@
         <v>38</v>
       </c>
       <c r="P108" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q108" s="15"/>
       <c r="R108" s="16"/>
@@ -7001,7 +7001,7 @@
         <v>38</v>
       </c>
       <c r="P109" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q109" s="15"/>
       <c r="R109" s="16"/>
@@ -7055,7 +7055,7 @@
         <v>38</v>
       </c>
       <c r="P110" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q110" s="15"/>
       <c r="R110" s="16"/>
@@ -7147,7 +7147,7 @@
         <v>38</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q112" s="15"/>
       <c r="R112" s="16"/>
@@ -7220,13 +7220,13 @@
         <v>45105</v>
       </c>
       <c r="G114" s="14">
-        <v>45105.511412037034</v>
+        <v>45105.704733796294</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="J114" s="15" t="s">
         <v>38</v>
@@ -7239,7 +7239,7 @@
         <v>38</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q114" s="15"/>
       <c r="R114" s="16"/>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.daversa\Desktop\patch_in_lavorazione\fes20\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1003AB3-E90D-4B00-9C3E-A2AD4A5BE4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA47F4C9-9902-4042-AFF7-D993E3263DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -992,12 +992,6 @@
     <t>422-[ERRORE-b57| Sotto-sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
   </si>
   <si>
-    <t>4640452d69354dea</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.bd5a2f263e4d844d56c6878edaaee87b01ffd6ab86c32e4959f1830291c133db.9f474dd745^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>422-[ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice \"S\</t>
   </si>
   <si>
@@ -1198,12 +1192,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.110.4.4.e5616e1f35fd0b1bfff0708b6850769a84d649c4cc4aa9af11d89158d2a7e9a4.3cb534736f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5a717427df3d9dda</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4.b9e07f30eb2389c65055dd9fb195bd1da6336c32cfa24aeac56bb12a73e8eb48.98e9c9a136^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>c9403b812b4a9536</t>
@@ -1505,6 +1493,18 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a1f91f2f4beb6bf12cb41f0df46c501aa5078fe9791c8395294a8e5440019d5e.f4ba1c7a16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.bd5a2f263e4d844d56c6878edaaee87b01ffd6ab86c32e4959f1830291c133db.344ea3cd45^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9ebe8a49a78e80ef</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4.b9e07f30eb2389c65055dd9fb195bd1da6336c32cfa24aeac56bb12a73e8eb48.093d4228fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ae6aa4deccc52eba</t>
   </si>
 </sst>
 </file>
@@ -2234,10 +2234,10 @@
   <dimension ref="A1:U736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
+      <selection pane="bottomRight" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2514,10 +2514,10 @@
         <v>45104.40084490741</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>38</v>
@@ -2562,10 +2562,10 @@
         <v>45104.402025462965</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>38</v>
@@ -2610,10 +2610,10 @@
         <v>45104.403078703705</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>38</v>
@@ -2664,7 +2664,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -2683,13 +2683,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
@@ -2721,13 +2721,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>333</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>337</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
@@ -2759,13 +2759,13 @@
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
@@ -2797,13 +2797,13 @@
         <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -3002,7 +3002,7 @@
         <v>45104.406759259262</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>66</v>
@@ -3024,7 +3024,7 @@
         <v>38</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="16"/>
@@ -3041,13 +3041,13 @@
         <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F23" s="13">
         <v>45105</v>
@@ -3056,7 +3056,7 @@
         <v>45105.520231481481</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>66</v>
@@ -3078,7 +3078,7 @@
         <v>38</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="16"/>
@@ -3110,7 +3110,7 @@
         <v>45104.407858796294</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>66</v>
@@ -3164,7 +3164,7 @@
         <v>45104.410115740742</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>66</v>
@@ -3218,7 +3218,7 @@
         <v>45104.412164351852</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>66</v>
@@ -3259,13 +3259,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F27" s="13">
         <v>45105</v>
@@ -3274,7 +3274,7 @@
         <v>45105.52375</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>66</v>
@@ -3296,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
@@ -3328,7 +3328,7 @@
         <v>45104.412905092591</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>66</v>
@@ -3382,7 +3382,7 @@
         <v>45104.413842592592</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>66</v>
@@ -3473,10 +3473,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>183</v>
@@ -3626,7 +3626,7 @@
         <v>65</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -3701,10 +3701,10 @@
         <v>45104.416215277779</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>38</v>
@@ -3723,7 +3723,7 @@
         <v>38</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q36" s="15"/>
       <c r="R36" s="16"/>
@@ -3945,10 +3945,10 @@
         <v>45104.426342592589</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J42" s="36" t="s">
         <v>38</v>
@@ -3967,7 +3967,7 @@
         <v>38</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="16"/>
@@ -3999,10 +3999,10 @@
         <v>45104.427581018521</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>38</v>
@@ -4021,7 +4021,7 @@
         <v>38</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="16"/>
@@ -4053,10 +4053,10 @@
         <v>45104.428587962961</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>38</v>
@@ -4075,7 +4075,7 @@
         <v>38</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="16"/>
@@ -4107,10 +4107,10 @@
         <v>45104.429884259262</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>38</v>
@@ -4123,13 +4123,13 @@
         <v>38</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O45" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="16"/>
@@ -4146,13 +4146,13 @@
         <v>25</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F46" s="13">
         <v>45105</v>
@@ -4161,10 +4161,10 @@
         <v>45105.604085648149</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>38</v>
@@ -4177,13 +4177,13 @@
         <v>38</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O46" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="16"/>
@@ -4200,13 +4200,13 @@
         <v>25</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="14"/>
@@ -4238,13 +4238,13 @@
         <v>25</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="14"/>
@@ -4276,13 +4276,13 @@
         <v>25</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="14"/>
@@ -4314,13 +4314,13 @@
         <v>25</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
@@ -4352,13 +4352,13 @@
         <v>25</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F51" s="13">
         <v>45105</v>
@@ -4367,10 +4367,10 @@
         <v>45105.675555555557</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>38</v>
@@ -4383,13 +4383,13 @@
         <v>38</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O51" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
@@ -4406,13 +4406,13 @@
         <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="14"/>
@@ -4444,13 +4444,13 @@
         <v>25</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F53" s="13">
         <v>45105</v>
@@ -4459,10 +4459,10 @@
         <v>45105.691793981481</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>38</v>
@@ -4475,13 +4475,13 @@
         <v>38</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O53" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q53" s="15"/>
       <c r="R53" s="16"/>
@@ -4498,13 +4498,13 @@
         <v>25</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
@@ -4514,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -4536,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F55" s="13">
         <v>45105</v>
@@ -4551,10 +4551,10 @@
         <v>45105.717881944445</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>38</v>
@@ -4567,13 +4567,13 @@
         <v>38</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O55" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q55" s="15"/>
       <c r="R55" s="16"/>
@@ -4590,13 +4590,13 @@
         <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
@@ -4606,7 +4606,7 @@
         <v>65</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4628,13 +4628,13 @@
         <v>25</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="14"/>
@@ -4666,13 +4666,13 @@
         <v>25</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
@@ -4682,7 +4682,7 @@
         <v>65</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
@@ -4704,13 +4704,13 @@
         <v>25</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="14"/>
@@ -4742,13 +4742,13 @@
         <v>25</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="14"/>
@@ -4780,13 +4780,13 @@
         <v>25</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
@@ -4818,13 +4818,13 @@
         <v>25</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
@@ -4856,13 +4856,13 @@
         <v>25</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
@@ -4894,13 +4894,13 @@
         <v>25</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
@@ -4948,7 +4948,7 @@
         <v>65</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
@@ -5023,10 +5023,10 @@
         <v>45104.434178240743</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J67" s="15" t="s">
         <v>38</v>
@@ -5044,7 +5044,7 @@
         <v>38</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
@@ -5228,10 +5228,10 @@
         <v>45104.435486111113</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J72" s="15" t="s">
         <v>38</v>
@@ -5250,7 +5250,7 @@
         <v>38</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q72" s="15"/>
       <c r="R72" s="16"/>
@@ -5282,10 +5282,10 @@
         <v>45104.436909722222</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J73" s="15" t="s">
         <v>38</v>
@@ -5304,7 +5304,7 @@
         <v>38</v>
       </c>
       <c r="P73" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q73" s="15"/>
       <c r="R73" s="16"/>
@@ -5336,7 +5336,7 @@
         <v>45104.438668981478</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I74" s="14" t="s">
         <v>144</v>
@@ -5358,7 +5358,7 @@
         <v>38</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="16"/>
@@ -5390,10 +5390,10 @@
         <v>45104.439479166664</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J75" s="15" t="s">
         <v>38</v>
@@ -5412,7 +5412,7 @@
         <v>38</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="16"/>
@@ -5520,10 +5520,10 @@
         <v>45104.442962962959</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J78" s="15" t="s">
         <v>38</v>
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q78" s="15"/>
       <c r="R78" s="16"/>
@@ -5611,10 +5611,10 @@
         <v>45104.443761574075</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J80" s="15" t="s">
         <v>38</v>
@@ -5633,7 +5633,7 @@
         <v>38</v>
       </c>
       <c r="P80" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q80" s="15"/>
       <c r="R80" s="16"/>
@@ -5665,10 +5665,10 @@
         <v>45104.444768518515</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J81" s="15" t="s">
         <v>38</v>
@@ -5687,7 +5687,7 @@
         <v>38</v>
       </c>
       <c r="P81" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q81" s="15"/>
       <c r="R81" s="16"/>
@@ -5795,10 +5795,10 @@
         <v>45104.445601851854</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J84" s="15" t="s">
         <v>38</v>
@@ -5817,7 +5817,7 @@
         <v>38</v>
       </c>
       <c r="P84" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q84" s="15"/>
       <c r="R84" s="16"/>
@@ -5849,10 +5849,10 @@
         <v>45104.446585648147</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J85" s="15" t="s">
         <v>38</v>
@@ -5871,7 +5871,7 @@
         <v>38</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="16"/>
@@ -5903,10 +5903,10 @@
         <v>45104.447384259256</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J86" s="15" t="s">
         <v>38</v>
@@ -5925,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q86" s="15"/>
       <c r="R86" s="16"/>
@@ -5957,10 +5957,10 @@
         <v>45104.449189814812</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>38</v>
@@ -5979,7 +5979,7 @@
         <v>38</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q87" s="15"/>
       <c r="R87" s="16"/>
@@ -6049,10 +6049,10 @@
         <v>45104.450011574074</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J89" s="15" t="s">
         <v>38</v>
@@ -6071,7 +6071,7 @@
         <v>38</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q89" s="15"/>
       <c r="R89" s="16"/>
@@ -6103,10 +6103,10 @@
         <v>45104.450856481482</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J90" s="15" t="s">
         <v>38</v>
@@ -6265,10 +6265,10 @@
         <v>45104.451840277776</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J94" s="15" t="s">
         <v>38</v>
@@ -6287,7 +6287,7 @@
         <v>38</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q94" s="15"/>
       <c r="R94" s="16"/>
@@ -6351,16 +6351,16 @@
         <v>213</v>
       </c>
       <c r="F96" s="13">
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="G96" s="14">
-        <v>45104.703912037039</v>
+        <v>45111.63380787037</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>246</v>
+        <v>403</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>247</v>
+        <v>402</v>
       </c>
       <c r="J96" s="15" t="s">
         <v>38</v>
@@ -6379,7 +6379,7 @@
         <v>38</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q96" s="15"/>
       <c r="R96" s="16"/>
@@ -6563,10 +6563,10 @@
         <v>45104.454525462963</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J101" s="15" t="s">
         <v>38</v>
@@ -6585,7 +6585,7 @@
         <v>38</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q101" s="15"/>
       <c r="R101" s="16"/>
@@ -6617,10 +6617,10 @@
         <v>45104.455439814818</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J102" s="15" t="s">
         <v>38</v>
@@ -6639,7 +6639,7 @@
         <v>38</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q102" s="15"/>
       <c r="R102" s="16"/>
@@ -6671,10 +6671,10 @@
         <v>45104.456284722219</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J103" s="15" t="s">
         <v>38</v>
@@ -6693,7 +6693,7 @@
         <v>38</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q103" s="15"/>
       <c r="R103" s="16"/>
@@ -6725,10 +6725,10 @@
         <v>45104.457465277781</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J104" s="15" t="s">
         <v>38</v>
@@ -6747,7 +6747,7 @@
         <v>38</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q104" s="15"/>
       <c r="R104" s="16"/>
@@ -6756,57 +6756,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19">
+    <row r="105" spans="1:20" s="33" customFormat="1" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="23">
         <v>162</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F105" s="13">
+      <c r="F105" s="26">
         <v>45104</v>
       </c>
-      <c r="G105" s="14">
-        <v>45104.463773148149</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="J105" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M105" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N105" s="15" t="s">
+      <c r="G105" s="27">
+        <v>45104.772928240738</v>
+      </c>
+      <c r="H105" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="I105" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="J105" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M105" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N105" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="O105" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P105" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="16"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="18" t="s">
+      <c r="O105" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P105" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="30"/>
+      <c r="S105" s="31"/>
+      <c r="T105" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6871,10 +6871,10 @@
         <v>45104.464988425927</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J107" s="15" t="s">
         <v>38</v>
@@ -6893,7 +6893,7 @@
         <v>38</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q107" s="15"/>
       <c r="R107" s="16"/>
@@ -6925,10 +6925,10 @@
         <v>45104.773680555554</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J108" s="15" t="s">
         <v>38</v>
@@ -6947,7 +6947,7 @@
         <v>38</v>
       </c>
       <c r="P108" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q108" s="15"/>
       <c r="R108" s="16"/>
@@ -6979,10 +6979,10 @@
         <v>45104.774641203701</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J109" s="15" t="s">
         <v>38</v>
@@ -7001,7 +7001,7 @@
         <v>38</v>
       </c>
       <c r="P109" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q109" s="15"/>
       <c r="R109" s="16"/>
@@ -7033,10 +7033,10 @@
         <v>45104.775740740741</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J110" s="15" t="s">
         <v>38</v>
@@ -7055,7 +7055,7 @@
         <v>38</v>
       </c>
       <c r="P110" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q110" s="15"/>
       <c r="R110" s="16"/>
@@ -7116,7 +7116,7 @@
         <v>210</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F112" s="13">
         <v>45104</v>
@@ -7125,10 +7125,10 @@
         <v>45104.776620370372</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J112" s="15" t="s">
         <v>38</v>
@@ -7141,13 +7141,13 @@
         <v>38</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O112" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q112" s="15"/>
       <c r="R112" s="16"/>
@@ -7167,7 +7167,7 @@
         <v>24</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="13">
@@ -7177,10 +7177,10 @@
         <v>45104.777511574073</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J113" s="15" t="s">
         <v>38</v>
@@ -7210,10 +7210,10 @@
         <v>25</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="13">
@@ -7223,10 +7223,10 @@
         <v>45105.704733796294</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J114" s="15" t="s">
         <v>38</v>
@@ -7239,7 +7239,7 @@
         <v>38</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q114" s="15"/>
       <c r="R114" s="16"/>
@@ -7259,7 +7259,7 @@
         <v>87</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="13">
@@ -7269,10 +7269,10 @@
         <v>45104.778263888889</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J115" s="15" t="s">
         <v>38</v>
@@ -7305,7 +7305,7 @@
         <v>174</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="13">
@@ -7315,10 +7315,10 @@
         <v>45104.779027777775</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J116" s="15" t="s">
         <v>38</v>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.daversa\Desktop\patch_in_lavorazione\fes20\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA47F4C9-9902-4042-AFF7-D993E3263DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E1DA6B-293F-4058-92FE-2E56117CC7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="406">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -372,9 +372,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>IL SERVIZIO MOSTRA UN MESSAGGIO DI ERRORE INTERNO E TENTA IL REINVIO</t>
-  </si>
-  <si>
     <t>403:Il campo action_id non è corretto</t>
   </si>
   <si>
@@ -601,11 +598,6 @@
   </si>
   <si>
     <t>403-Campo token JWT non valido,Il campo purpose_of_use non è valorizzato</t>
-  </si>
-  <si>
-    <t>Attenzione!
-Il servizio di validazione ha impiegato troppo tempo a rispondere. 
-Tentare di nuovo il processo di validazione?</t>
   </si>
   <si>
     <t>Il software esegue controlli di congruneza del  CF e correttezza impostandolo in maiuscolo</t>
@@ -1505,6 +1497,15 @@
   </si>
   <si>
     <t>ae6aa4deccc52eba</t>
+  </si>
+  <si>
+    <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
+Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.?</t>
+  </si>
+  <si>
+    <t>Attenzione!
+Il servizio di validazione ha impiegato troppo tempo a rispondere. 
+Procedere alla firma?</t>
   </si>
 </sst>
 </file>
@@ -2231,13 +2232,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B106" sqref="B106"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2283,7 @@
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="46"/>
       <c r="F2" s="3"/>
@@ -2306,7 +2308,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="55"/>
       <c r="F3" s="3"/>
@@ -2329,7 +2331,7 @@
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
       <c r="C4" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="2"/>
@@ -2353,7 +2355,7 @@
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="55"/>
       <c r="F5" s="3"/>
@@ -2491,7 +2493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -2514,10 +2516,10 @@
         <v>45104.40084490741</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>38</v>
@@ -2539,7 +2541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -2562,10 +2564,10 @@
         <v>45104.402025462965</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>38</v>
@@ -2587,7 +2589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -2610,10 +2612,10 @@
         <v>45104.403078703705</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>38</v>
@@ -2635,7 +2637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>9</v>
       </c>
@@ -2659,12 +2661,12 @@
         <v>65</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -2675,7 +2677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="76.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>11</v>
       </c>
@@ -2683,13 +2685,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>329</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>331</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
@@ -2699,7 +2701,7 @@
         <v>65</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -2713,7 +2715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="76.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>12</v>
       </c>
@@ -2721,13 +2723,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
@@ -2737,7 +2739,7 @@
         <v>65</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -2751,7 +2753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="76.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>13</v>
       </c>
@@ -2759,13 +2761,13 @@
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>334</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>336</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
@@ -2775,7 +2777,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -2789,7 +2791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="76.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>14</v>
       </c>
@@ -2797,13 +2799,13 @@
         <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>335</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>337</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -2813,7 +2815,7 @@
         <v>65</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -2827,7 +2829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>24</v>
       </c>
@@ -2835,13 +2837,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>89</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
@@ -2851,7 +2853,7 @@
         <v>65</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -2865,7 +2867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>25</v>
       </c>
@@ -2873,13 +2875,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>91</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
@@ -2889,7 +2891,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
@@ -2903,7 +2905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>26</v>
       </c>
@@ -2911,13 +2913,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>92</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>93</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
@@ -2927,7 +2929,7 @@
         <v>65</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
@@ -2941,7 +2943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>27</v>
       </c>
@@ -2949,13 +2951,13 @@
         <v>25</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>94</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>95</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
@@ -2965,7 +2967,7 @@
         <v>65</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -2979,7 +2981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>29</v>
       </c>
@@ -3002,7 +3004,7 @@
         <v>45104.406759259262</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>66</v>
@@ -3018,13 +3020,13 @@
         <v>38</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="16"/>
@@ -3033,7 +3035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="117.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>31</v>
       </c>
@@ -3041,13 +3043,13 @@
         <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F23" s="13">
         <v>45105</v>
@@ -3056,7 +3058,7 @@
         <v>45105.520231481481</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>66</v>
@@ -3072,13 +3074,13 @@
         <v>38</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O23" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="16"/>
@@ -3087,7 +3089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="156" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>32</v>
       </c>
@@ -3095,13 +3097,13 @@
         <v>25</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="F24" s="13">
         <v>45104</v>
@@ -3110,7 +3112,7 @@
         <v>45104.407858796294</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>66</v>
@@ -3126,13 +3128,13 @@
         <v>38</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="16"/>
@@ -3141,7 +3143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="150" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>35</v>
       </c>
@@ -3149,13 +3151,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="13">
         <v>45104</v>
@@ -3164,7 +3166,7 @@
         <v>45104.410115740742</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>66</v>
@@ -3180,13 +3182,13 @@
         <v>38</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="15"/>
       <c r="R25" s="16"/>
@@ -3195,7 +3197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>37</v>
       </c>
@@ -3218,7 +3220,7 @@
         <v>45104.412164351852</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>66</v>
@@ -3234,24 +3236,24 @@
         <v>38</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="16"/>
       <c r="S26" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T26" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="136.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>39</v>
       </c>
@@ -3259,13 +3261,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F27" s="13">
         <v>45105</v>
@@ -3274,7 +3276,7 @@
         <v>45105.52375</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>66</v>
@@ -3290,13 +3292,13 @@
         <v>38</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
@@ -3305,7 +3307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="110.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>40</v>
       </c>
@@ -3313,13 +3315,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F28" s="13">
         <v>45104</v>
@@ -3328,7 +3330,7 @@
         <v>45104.412905092591</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>66</v>
@@ -3344,13 +3346,13 @@
         <v>38</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="16"/>
@@ -3359,7 +3361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="87.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>43</v>
       </c>
@@ -3367,13 +3369,13 @@
         <v>25</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F29" s="13">
         <v>45104</v>
@@ -3382,7 +3384,7 @@
         <v>45104.413842592592</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>66</v>
@@ -3398,24 +3400,24 @@
         <v>38</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O29" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="16"/>
       <c r="S29" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T29" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>45</v>
       </c>
@@ -3429,7 +3431,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F30" s="13">
         <v>45104</v>
@@ -3450,13 +3452,13 @@
         <v>38</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="O30" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>67</v>
+        <v>404</v>
       </c>
       <c r="Q30" s="20"/>
       <c r="R30" s="21"/>
@@ -3473,13 +3475,13 @@
         <v>25</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F31" s="13">
         <v>45105</v>
@@ -3489,13 +3491,25 @@
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
+      <c r="J31" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
+      <c r="L31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>404</v>
+      </c>
       <c r="Q31" s="20"/>
       <c r="R31" s="40"/>
       <c r="S31" s="41"/>
@@ -3511,13 +3525,13 @@
         <v>25</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F32" s="13">
         <v>45104</v>
@@ -3538,13 +3552,13 @@
         <v>38</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="O32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>67</v>
+        <v>404</v>
       </c>
       <c r="Q32" s="20"/>
       <c r="R32" s="40"/>
@@ -3561,13 +3575,13 @@
         <v>25</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F33" s="13">
         <v>45104</v>
@@ -3588,13 +3602,13 @@
         <v>38</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="O33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>67</v>
+        <v>404</v>
       </c>
       <c r="Q33" s="20"/>
       <c r="S33" s="21"/>
@@ -3602,7 +3616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>63</v>
       </c>
@@ -3626,7 +3640,7 @@
         <v>65</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -3640,7 +3654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>64</v>
       </c>
@@ -3664,7 +3678,7 @@
         <v>65</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -3678,7 +3692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>65</v>
       </c>
@@ -3689,7 +3703,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>44</v>
@@ -3701,10 +3715,10 @@
         <v>45104.416215277779</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>38</v>
@@ -3717,13 +3731,13 @@
         <v>38</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O36" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q36" s="15"/>
       <c r="R36" s="16"/>
@@ -3732,7 +3746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="33" customFormat="1" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>66</v>
       </c>
@@ -3756,7 +3770,7 @@
         <v>65</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
@@ -3770,7 +3784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>67</v>
       </c>
@@ -3794,7 +3808,7 @@
         <v>65</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -3808,7 +3822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>68</v>
       </c>
@@ -3832,7 +3846,7 @@
         <v>65</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -3846,7 +3860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>69</v>
       </c>
@@ -3870,7 +3884,7 @@
         <v>65</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -3884,7 +3898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>70</v>
       </c>
@@ -3908,7 +3922,7 @@
         <v>65</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -3922,7 +3936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>71</v>
       </c>
@@ -3945,10 +3959,10 @@
         <v>45104.426342592589</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J42" s="36" t="s">
         <v>38</v>
@@ -3961,13 +3975,13 @@
         <v>38</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O42" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="16"/>
@@ -3976,7 +3990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>72</v>
       </c>
@@ -3999,10 +4013,10 @@
         <v>45104.427581018521</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>38</v>
@@ -4015,13 +4029,13 @@
         <v>38</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O43" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="16"/>
@@ -4030,7 +4044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>73</v>
       </c>
@@ -4053,10 +4067,10 @@
         <v>45104.428587962961</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>38</v>
@@ -4069,13 +4083,13 @@
         <v>38</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O44" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="16"/>
@@ -4084,7 +4098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>74</v>
       </c>
@@ -4107,10 +4121,10 @@
         <v>45104.429884259262</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>38</v>
@@ -4123,13 +4137,13 @@
         <v>38</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O45" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="16"/>
@@ -4138,7 +4152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>75</v>
       </c>
@@ -4146,13 +4160,13 @@
         <v>25</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F46" s="13">
         <v>45105</v>
@@ -4161,10 +4175,10 @@
         <v>45105.604085648149</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>38</v>
@@ -4177,13 +4191,13 @@
         <v>38</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O46" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="16"/>
@@ -4192,7 +4206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <v>76</v>
       </c>
@@ -4200,13 +4214,13 @@
         <v>25</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="14"/>
@@ -4216,7 +4230,7 @@
         <v>65</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
@@ -4230,7 +4244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <v>77</v>
       </c>
@@ -4238,13 +4252,13 @@
         <v>25</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="14"/>
@@ -4254,7 +4268,7 @@
         <v>65</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
@@ -4268,7 +4282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <v>78</v>
       </c>
@@ -4276,13 +4290,13 @@
         <v>25</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="14"/>
@@ -4292,7 +4306,7 @@
         <v>65</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
@@ -4306,7 +4320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <v>79</v>
       </c>
@@ -4314,13 +4328,13 @@
         <v>25</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
@@ -4330,7 +4344,7 @@
         <v>65</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -4344,7 +4358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <v>80</v>
       </c>
@@ -4352,13 +4366,13 @@
         <v>25</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F51" s="13">
         <v>45105</v>
@@ -4367,10 +4381,10 @@
         <v>45105.675555555557</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>38</v>
@@ -4383,13 +4397,13 @@
         <v>38</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O51" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
@@ -4398,7 +4412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <v>81</v>
       </c>
@@ -4406,13 +4420,13 @@
         <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="14"/>
@@ -4422,7 +4436,7 @@
         <v>65</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
@@ -4436,7 +4450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <v>82</v>
       </c>
@@ -4444,13 +4458,13 @@
         <v>25</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F53" s="13">
         <v>45105</v>
@@ -4459,10 +4473,10 @@
         <v>45105.691793981481</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>38</v>
@@ -4475,13 +4489,13 @@
         <v>38</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O53" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q53" s="15"/>
       <c r="R53" s="16"/>
@@ -4490,7 +4504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <v>83</v>
       </c>
@@ -4498,13 +4512,13 @@
         <v>25</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
@@ -4514,7 +4528,7 @@
         <v>65</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -4528,7 +4542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <v>84</v>
       </c>
@@ -4536,13 +4550,13 @@
         <v>25</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F55" s="13">
         <v>45105</v>
@@ -4551,10 +4565,10 @@
         <v>45105.717881944445</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>38</v>
@@ -4567,13 +4581,13 @@
         <v>38</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O55" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q55" s="15"/>
       <c r="R55" s="16"/>
@@ -4582,7 +4596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <v>85</v>
       </c>
@@ -4590,13 +4604,13 @@
         <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
@@ -4606,7 +4620,7 @@
         <v>65</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4620,7 +4634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>86</v>
       </c>
@@ -4628,13 +4642,13 @@
         <v>25</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="14"/>
@@ -4644,7 +4658,7 @@
         <v>65</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4658,7 +4672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <v>87</v>
       </c>
@@ -4666,13 +4680,13 @@
         <v>25</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
@@ -4682,7 +4696,7 @@
         <v>65</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
@@ -4696,7 +4710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <v>88</v>
       </c>
@@ -4704,13 +4718,13 @@
         <v>25</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="14"/>
@@ -4720,7 +4734,7 @@
         <v>65</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
@@ -4734,7 +4748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <v>89</v>
       </c>
@@ -4742,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="14"/>
@@ -4758,7 +4772,7 @@
         <v>65</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
@@ -4772,7 +4786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <v>90</v>
       </c>
@@ -4780,13 +4794,13 @@
         <v>25</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D61" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>374</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
@@ -4796,7 +4810,7 @@
         <v>65</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
@@ -4810,7 +4824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <v>91</v>
       </c>
@@ -4818,13 +4832,13 @@
         <v>25</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D62" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
@@ -4834,7 +4848,7 @@
         <v>65</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
@@ -4848,7 +4862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <v>92</v>
       </c>
@@ -4856,13 +4870,13 @@
         <v>25</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
@@ -4872,7 +4886,7 @@
         <v>65</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
@@ -4886,7 +4900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <v>93</v>
       </c>
@@ -4894,13 +4908,13 @@
         <v>25</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
@@ -4910,7 +4924,7 @@
         <v>65</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
@@ -4924,7 +4938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>122</v>
       </c>
@@ -4932,13 +4946,13 @@
         <v>25</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
@@ -4948,7 +4962,7 @@
         <v>65</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
@@ -4962,7 +4976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>123</v>
       </c>
@@ -4970,13 +4984,13 @@
         <v>25</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
@@ -4986,7 +5000,7 @@
         <v>65</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
@@ -5000,7 +5014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>124</v>
       </c>
@@ -5008,13 +5022,13 @@
         <v>25</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="F67" s="13">
         <v>45104</v>
@@ -5023,10 +5037,10 @@
         <v>45104.434178240743</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J67" s="15" t="s">
         <v>38</v>
@@ -5038,13 +5052,13 @@
         <v>38</v>
       </c>
       <c r="N67" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O67" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
@@ -5053,7 +5067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>125</v>
       </c>
@@ -5061,13 +5075,13 @@
         <v>25</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D68" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
@@ -5077,7 +5091,7 @@
         <v>65</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
@@ -5091,7 +5105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>126</v>
       </c>
@@ -5099,13 +5113,13 @@
         <v>25</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D69" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
@@ -5115,7 +5129,7 @@
         <v>65</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
@@ -5129,7 +5143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>127</v>
       </c>
@@ -5137,13 +5151,13 @@
         <v>25</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
@@ -5153,7 +5167,7 @@
         <v>65</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
@@ -5167,7 +5181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>128</v>
       </c>
@@ -5175,13 +5189,13 @@
         <v>25</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="14"/>
@@ -5191,7 +5205,7 @@
         <v>65</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
@@ -5205,7 +5219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>129</v>
       </c>
@@ -5213,13 +5227,13 @@
         <v>25</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" s="13">
         <v>45104</v>
@@ -5228,10 +5242,10 @@
         <v>45104.435486111113</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J72" s="15" t="s">
         <v>38</v>
@@ -5244,13 +5258,13 @@
         <v>38</v>
       </c>
       <c r="N72" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O72" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q72" s="15"/>
       <c r="R72" s="16"/>
@@ -5259,7 +5273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>130</v>
       </c>
@@ -5267,13 +5281,13 @@
         <v>25</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="F73" s="13">
         <v>45104</v>
@@ -5282,10 +5296,10 @@
         <v>45104.436909722222</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J73" s="15" t="s">
         <v>38</v>
@@ -5298,13 +5312,13 @@
         <v>38</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O73" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P73" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q73" s="15"/>
       <c r="R73" s="16"/>
@@ -5313,7 +5327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>131</v>
       </c>
@@ -5321,13 +5335,13 @@
         <v>25</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="F74" s="13">
         <v>45104</v>
@@ -5336,10 +5350,10 @@
         <v>45104.438668981478</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J74" s="15" t="s">
         <v>38</v>
@@ -5352,13 +5366,13 @@
         <v>38</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O74" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="16"/>
@@ -5367,7 +5381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <v>132</v>
       </c>
@@ -5375,13 +5389,13 @@
         <v>25</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F75" s="13">
         <v>45104</v>
@@ -5390,10 +5404,10 @@
         <v>45104.439479166664</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J75" s="15" t="s">
         <v>38</v>
@@ -5406,13 +5420,13 @@
         <v>38</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O75" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="16"/>
@@ -5421,7 +5435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <v>133</v>
       </c>
@@ -5429,13 +5443,13 @@
         <v>25</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="14"/>
@@ -5445,7 +5459,7 @@
         <v>65</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
@@ -5459,7 +5473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>134</v>
       </c>
@@ -5467,13 +5481,13 @@
         <v>25</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="14"/>
@@ -5483,7 +5497,7 @@
         <v>65</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
@@ -5497,7 +5511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>135</v>
       </c>
@@ -5505,13 +5519,13 @@
         <v>25</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" s="13">
         <v>45104</v>
@@ -5520,10 +5534,10 @@
         <v>45104.442962962959</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J78" s="15" t="s">
         <v>38</v>
@@ -5536,13 +5550,13 @@
         <v>38</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O78" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q78" s="15"/>
       <c r="R78" s="16"/>
@@ -5551,7 +5565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>136</v>
       </c>
@@ -5559,13 +5573,13 @@
         <v>25</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="14"/>
@@ -5575,7 +5589,7 @@
         <v>65</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="15"/>
@@ -5588,7 +5602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>137</v>
       </c>
@@ -5596,13 +5610,13 @@
         <v>25</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F80" s="13">
         <v>45104</v>
@@ -5611,10 +5625,10 @@
         <v>45104.443761574075</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J80" s="15" t="s">
         <v>38</v>
@@ -5627,13 +5641,13 @@
         <v>38</v>
       </c>
       <c r="N80" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O80" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P80" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q80" s="15"/>
       <c r="R80" s="16"/>
@@ -5642,7 +5656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>138</v>
       </c>
@@ -5650,13 +5664,13 @@
         <v>25</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F81" s="13">
         <v>45104</v>
@@ -5665,10 +5679,10 @@
         <v>45104.444768518515</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J81" s="15" t="s">
         <v>38</v>
@@ -5681,13 +5695,13 @@
         <v>38</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O81" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P81" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q81" s="15"/>
       <c r="R81" s="16"/>
@@ -5696,7 +5710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>139</v>
       </c>
@@ -5704,13 +5718,13 @@
         <v>25</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="14"/>
@@ -5720,7 +5734,7 @@
         <v>65</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
@@ -5734,7 +5748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>140</v>
       </c>
@@ -5742,13 +5756,13 @@
         <v>25</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="14"/>
@@ -5758,7 +5772,7 @@
         <v>65</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
@@ -5772,7 +5786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>141</v>
       </c>
@@ -5780,13 +5794,13 @@
         <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F84" s="13">
         <v>45104</v>
@@ -5795,10 +5809,10 @@
         <v>45104.445601851854</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J84" s="15" t="s">
         <v>38</v>
@@ -5811,13 +5825,13 @@
         <v>38</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O84" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P84" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q84" s="15"/>
       <c r="R84" s="16"/>
@@ -5826,7 +5840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>142</v>
       </c>
@@ -5834,13 +5848,13 @@
         <v>25</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F85" s="13">
         <v>45104</v>
@@ -5849,10 +5863,10 @@
         <v>45104.446585648147</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J85" s="15" t="s">
         <v>38</v>
@@ -5865,13 +5879,13 @@
         <v>38</v>
       </c>
       <c r="N85" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O85" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="16"/>
@@ -5880,7 +5894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <v>143</v>
       </c>
@@ -5888,13 +5902,13 @@
         <v>25</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F86" s="13">
         <v>45104</v>
@@ -5903,10 +5917,10 @@
         <v>45104.447384259256</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J86" s="15" t="s">
         <v>38</v>
@@ -5919,13 +5933,13 @@
         <v>38</v>
       </c>
       <c r="N86" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O86" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q86" s="15"/>
       <c r="R86" s="16"/>
@@ -5934,7 +5948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <v>144</v>
       </c>
@@ -5942,13 +5956,13 @@
         <v>25</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F87" s="13">
         <v>45104</v>
@@ -5957,10 +5971,10 @@
         <v>45104.449189814812</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>38</v>
@@ -5973,13 +5987,13 @@
         <v>38</v>
       </c>
       <c r="N87" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O87" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q87" s="15"/>
       <c r="R87" s="16"/>
@@ -5988,7 +6002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <v>145</v>
       </c>
@@ -5996,13 +6010,13 @@
         <v>25</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="14"/>
@@ -6012,7 +6026,7 @@
         <v>65</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
@@ -6026,7 +6040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <v>146</v>
       </c>
@@ -6034,13 +6048,13 @@
         <v>25</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F89" s="13">
         <v>45104</v>
@@ -6049,10 +6063,10 @@
         <v>45104.450011574074</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J89" s="15" t="s">
         <v>38</v>
@@ -6065,13 +6079,13 @@
         <v>38</v>
       </c>
       <c r="N89" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O89" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q89" s="15"/>
       <c r="R89" s="16"/>
@@ -6080,7 +6094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <v>147</v>
       </c>
@@ -6088,13 +6102,13 @@
         <v>25</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F90" s="13">
         <v>45104</v>
@@ -6103,10 +6117,10 @@
         <v>45104.450856481482</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J90" s="15" t="s">
         <v>38</v>
@@ -6128,7 +6142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <v>148</v>
       </c>
@@ -6136,13 +6150,13 @@
         <v>25</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="14"/>
@@ -6152,7 +6166,7 @@
         <v>65</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
@@ -6166,7 +6180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <v>149</v>
       </c>
@@ -6174,13 +6188,13 @@
         <v>25</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="14"/>
@@ -6190,7 +6204,7 @@
         <v>65</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
@@ -6204,7 +6218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <v>150</v>
       </c>
@@ -6212,13 +6226,13 @@
         <v>25</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
@@ -6228,7 +6242,7 @@
         <v>65</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
@@ -6242,7 +6256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <v>151</v>
       </c>
@@ -6250,13 +6264,13 @@
         <v>25</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F94" s="13">
         <v>45104</v>
@@ -6265,10 +6279,10 @@
         <v>45104.451840277776</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J94" s="15" t="s">
         <v>38</v>
@@ -6281,13 +6295,13 @@
         <v>38</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O94" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q94" s="15"/>
       <c r="R94" s="16"/>
@@ -6296,7 +6310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>152</v>
       </c>
@@ -6304,13 +6318,13 @@
         <v>25</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="14"/>
@@ -6320,7 +6334,7 @@
         <v>65</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
@@ -6334,7 +6348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>153</v>
       </c>
@@ -6342,13 +6356,13 @@
         <v>25</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F96" s="13">
         <v>45111</v>
@@ -6357,10 +6371,10 @@
         <v>45111.63380787037</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J96" s="15" t="s">
         <v>38</v>
@@ -6373,13 +6387,13 @@
         <v>38</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O96" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q96" s="15"/>
       <c r="R96" s="16"/>
@@ -6388,7 +6402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>154</v>
       </c>
@@ -6396,13 +6410,13 @@
         <v>25</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="14"/>
@@ -6412,7 +6426,7 @@
         <v>65</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
@@ -6426,7 +6440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>155</v>
       </c>
@@ -6434,13 +6448,13 @@
         <v>25</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="14"/>
@@ -6450,7 +6464,7 @@
         <v>65</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
@@ -6464,7 +6478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>156</v>
       </c>
@@ -6472,13 +6486,13 @@
         <v>25</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="14"/>
@@ -6488,7 +6502,7 @@
         <v>65</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
@@ -6502,7 +6516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>157</v>
       </c>
@@ -6510,13 +6524,13 @@
         <v>25</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="14"/>
@@ -6526,7 +6540,7 @@
         <v>65</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
@@ -6540,7 +6554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>158</v>
       </c>
@@ -6548,13 +6562,13 @@
         <v>25</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F101" s="13">
         <v>45104</v>
@@ -6563,10 +6577,10 @@
         <v>45104.454525462963</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J101" s="15" t="s">
         <v>38</v>
@@ -6579,13 +6593,13 @@
         <v>38</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O101" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q101" s="15"/>
       <c r="R101" s="16"/>
@@ -6594,7 +6608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>159</v>
       </c>
@@ -6602,13 +6616,13 @@
         <v>25</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F102" s="13">
         <v>45104</v>
@@ -6617,10 +6631,10 @@
         <v>45104.455439814818</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J102" s="15" t="s">
         <v>38</v>
@@ -6633,13 +6647,13 @@
         <v>38</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O102" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q102" s="15"/>
       <c r="R102" s="16"/>
@@ -6648,7 +6662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>160</v>
       </c>
@@ -6656,13 +6670,13 @@
         <v>25</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F103" s="13">
         <v>45104</v>
@@ -6671,10 +6685,10 @@
         <v>45104.456284722219</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J103" s="15" t="s">
         <v>38</v>
@@ -6687,13 +6701,13 @@
         <v>38</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O103" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q103" s="15"/>
       <c r="R103" s="16"/>
@@ -6702,7 +6716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <v>161</v>
       </c>
@@ -6710,13 +6724,13 @@
         <v>25</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F104" s="13">
         <v>45104</v>
@@ -6725,10 +6739,10 @@
         <v>45104.457465277781</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J104" s="15" t="s">
         <v>38</v>
@@ -6741,13 +6755,13 @@
         <v>38</v>
       </c>
       <c r="N104" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O104" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q104" s="15"/>
       <c r="R104" s="16"/>
@@ -6756,7 +6770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="33" customFormat="1" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" s="33" customFormat="1" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>162</v>
       </c>
@@ -6764,13 +6778,13 @@
         <v>25</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F105" s="26">
         <v>45104</v>
@@ -6779,10 +6793,10 @@
         <v>45104.772928240738</v>
       </c>
       <c r="H105" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I105" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J105" s="29" t="s">
         <v>38</v>
@@ -6795,13 +6809,13 @@
         <v>38</v>
       </c>
       <c r="N105" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O105" s="29" t="s">
         <v>38</v>
       </c>
       <c r="P105" s="29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q105" s="29"/>
       <c r="R105" s="30"/>
@@ -6810,7 +6824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <v>163</v>
       </c>
@@ -6818,13 +6832,13 @@
         <v>25</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="14"/>
@@ -6834,7 +6848,7 @@
         <v>65</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
@@ -6848,7 +6862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>164</v>
       </c>
@@ -6856,13 +6870,13 @@
         <v>25</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F107" s="13">
         <v>45104</v>
@@ -6871,10 +6885,10 @@
         <v>45104.464988425927</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J107" s="15" t="s">
         <v>38</v>
@@ -6887,13 +6901,13 @@
         <v>38</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O107" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q107" s="15"/>
       <c r="R107" s="16"/>
@@ -6902,7 +6916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <v>165</v>
       </c>
@@ -6910,13 +6924,13 @@
         <v>25</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F108" s="13">
         <v>45104</v>
@@ -6925,10 +6939,10 @@
         <v>45104.773680555554</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J108" s="15" t="s">
         <v>38</v>
@@ -6941,13 +6955,13 @@
         <v>38</v>
       </c>
       <c r="N108" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O108" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P108" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q108" s="15"/>
       <c r="R108" s="16"/>
@@ -6956,7 +6970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <v>166</v>
       </c>
@@ -6964,13 +6978,13 @@
         <v>25</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F109" s="13">
         <v>45104</v>
@@ -6979,10 +6993,10 @@
         <v>45104.774641203701</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J109" s="15" t="s">
         <v>38</v>
@@ -6995,13 +7009,13 @@
         <v>38</v>
       </c>
       <c r="N109" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O109" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P109" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q109" s="15"/>
       <c r="R109" s="16"/>
@@ -7010,7 +7024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <v>167</v>
       </c>
@@ -7018,13 +7032,13 @@
         <v>25</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F110" s="13">
         <v>45104</v>
@@ -7033,10 +7047,10 @@
         <v>45104.775740740741</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J110" s="15" t="s">
         <v>38</v>
@@ -7049,13 +7063,13 @@
         <v>38</v>
       </c>
       <c r="N110" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O110" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P110" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q110" s="15"/>
       <c r="R110" s="16"/>
@@ -7064,7 +7078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <v>168</v>
       </c>
@@ -7072,13 +7086,13 @@
         <v>25</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="14"/>
@@ -7088,7 +7102,7 @@
         <v>65</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
@@ -7102,7 +7116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
         <v>169</v>
       </c>
@@ -7110,13 +7124,13 @@
         <v>25</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F112" s="13">
         <v>45104</v>
@@ -7125,10 +7139,10 @@
         <v>45104.776620370372</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J112" s="15" t="s">
         <v>38</v>
@@ -7141,13 +7155,13 @@
         <v>38</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O112" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q112" s="15"/>
       <c r="R112" s="16"/>
@@ -7156,7 +7170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <v>369</v>
       </c>
@@ -7167,7 +7181,7 @@
         <v>24</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="13">
@@ -7177,10 +7191,10 @@
         <v>45104.777511574073</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J113" s="15" t="s">
         <v>38</v>
@@ -7202,7 +7216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
         <v>370</v>
       </c>
@@ -7210,10 +7224,10 @@
         <v>25</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="13">
@@ -7223,10 +7237,10 @@
         <v>45105.704733796294</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J114" s="15" t="s">
         <v>38</v>
@@ -7239,7 +7253,7 @@
         <v>38</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q114" s="15"/>
       <c r="R114" s="16"/>
@@ -7248,7 +7262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
         <v>373</v>
       </c>
@@ -7256,10 +7270,10 @@
         <v>25</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="13">
@@ -7269,10 +7283,10 @@
         <v>45104.778263888889</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J115" s="15" t="s">
         <v>38</v>
@@ -7294,7 +7308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
         <v>374</v>
       </c>
@@ -7302,10 +7316,10 @@
         <v>25</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="13">
@@ -7315,10 +7329,10 @@
         <v>45104.779027777775</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J116" s="15" t="s">
         <v>38</v>
@@ -16940,7 +16954,16 @@
       <c r="T736" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T116" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A9:T116" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="VALIDAZIONE_LDO_TIMEOUT"/>
+        <filter val="VALIDAZIONE_RAD_TIMEOUT"/>
+        <filter val="VALIDAZIONE_RSA_TIMEOUT"/>
+        <filter val="VALIDAZIONE_VPS_TIMEOUT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
+++ b/GATEWAY/S1#111NBSSRLXXXXX/NBS/networksanitario/v.4.10.106/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.damiani\Desktop\it-fse-accreditamento\GATEWAY\S1#111NBSSRLXXXXX\NBS\networksanitario\v.4.10.106\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E1DA6B-293F-4058-92FE-2E56117CC7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7785EA-5565-45D7-86BB-ACAB56BBB8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -390,9 +390,6 @@
     <t>subject_application_version:v.4.10.106</t>
   </si>
   <si>
-    <t>Viene segnalato un errore di connessione al gateway e si chiede di segnalare il problema all'amministratore di sistema</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO </t>
   </si>
   <si>
@@ -1499,13 +1496,17 @@
     <t>ae6aa4deccc52eba</t>
   </si>
   <si>
-    <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
-Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.?</t>
-  </si>
-  <si>
     <t>Attenzione!
 Il servizio di validazione ha impiegato troppo tempo a rispondere. 
 Procedere alla firma?</t>
+  </si>
+  <si>
+    <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
+Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuareTali documenti verranno inseriti in una coda e reinviati in maniera automatica al gatawy</t>
+  </si>
+  <si>
+    <t>IIn caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
+Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuareTali documenti verranno inseriti in una coda e reinviati in maniera automatica al gatawy</t>
   </si>
 </sst>
 </file>
@@ -2232,14 +2233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -2516,10 +2516,10 @@
         <v>45104.40084490741</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>254</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>38</v>
@@ -2541,7 +2541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -2564,10 +2564,10 @@
         <v>45104.402025462965</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>256</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -2612,10 +2612,10 @@
         <v>45104.403078703705</v>
       </c>
       <c r="H12" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>38</v>
@@ -2637,7 +2637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>9</v>
       </c>
@@ -2661,12 +2661,12 @@
         <v>65</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -2677,7 +2677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="76.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>11</v>
       </c>
@@ -2685,13 +2685,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="34" t="s">
         <v>328</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>329</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
@@ -2701,7 +2701,7 @@
         <v>65</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -2715,7 +2715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="76.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>12</v>
       </c>
@@ -2723,13 +2723,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>330</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>331</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
@@ -2739,7 +2739,7 @@
         <v>65</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -2753,7 +2753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="76.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>13</v>
       </c>
@@ -2761,13 +2761,13 @@
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
@@ -2777,7 +2777,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -2791,7 +2791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="76.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>14</v>
       </c>
@@ -2799,13 +2799,13 @@
         <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -2815,7 +2815,7 @@
         <v>65</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -2829,7 +2829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>24</v>
       </c>
@@ -2837,13 +2837,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
@@ -2853,7 +2853,7 @@
         <v>65</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -2867,7 +2867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>25</v>
       </c>
@@ -2875,13 +2875,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>89</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
@@ -2891,7 +2891,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
@@ -2905,7 +2905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>26</v>
       </c>
@@ -2913,13 +2913,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
@@ -2929,7 +2929,7 @@
         <v>65</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
@@ -2943,7 +2943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="105" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>27</v>
       </c>
@@ -2951,13 +2951,13 @@
         <v>25</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
@@ -2967,7 +2967,7 @@
         <v>65</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -2981,7 +2981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>29</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>45104.406759259262</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>66</v>
@@ -3020,13 +3020,13 @@
         <v>38</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="16"/>
@@ -3035,7 +3035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="117.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>31</v>
       </c>
@@ -3043,13 +3043,13 @@
         <v>25</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D23" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="F23" s="13">
         <v>45105</v>
@@ -3058,7 +3058,7 @@
         <v>45105.520231481481</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>66</v>
@@ -3074,13 +3074,13 @@
         <v>38</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O23" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="16"/>
@@ -3089,7 +3089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="156" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>32</v>
       </c>
@@ -3097,13 +3097,13 @@
         <v>25</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="E24" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="F24" s="13">
         <v>45104</v>
@@ -3112,7 +3112,7 @@
         <v>45104.407858796294</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>66</v>
@@ -3128,13 +3128,13 @@
         <v>38</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="16"/>
@@ -3143,7 +3143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="150" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>35</v>
       </c>
@@ -3151,13 +3151,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="13">
         <v>45104</v>
@@ -3166,7 +3166,7 @@
         <v>45104.410115740742</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>66</v>
@@ -3182,13 +3182,13 @@
         <v>38</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="Q25" s="15"/>
       <c r="R25" s="16"/>
@@ -3197,7 +3197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>37</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>45104.412164351852</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>66</v>
@@ -3242,7 +3242,7 @@
         <v>38</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="16"/>
@@ -3253,7 +3253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="136.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>39</v>
       </c>
@@ -3261,13 +3261,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="F27" s="13">
         <v>45105</v>
@@ -3276,7 +3276,7 @@
         <v>45105.52375</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>66</v>
@@ -3298,7 +3298,7 @@
         <v>38</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
@@ -3307,7 +3307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="110.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>40</v>
       </c>
@@ -3315,13 +3315,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="13">
         <v>45104</v>
@@ -3330,7 +3330,7 @@
         <v>45104.412905092591</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>66</v>
@@ -3346,13 +3346,13 @@
         <v>38</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="16"/>
@@ -3361,7 +3361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="87.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>43</v>
       </c>
@@ -3369,13 +3369,13 @@
         <v>25</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" s="13">
         <v>45104</v>
@@ -3384,7 +3384,7 @@
         <v>45104.413842592592</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>66</v>
@@ -3406,7 +3406,7 @@
         <v>38</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="16"/>
@@ -3417,7 +3417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>45</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F30" s="13">
         <v>45104</v>
@@ -3452,10 +3452,10 @@
         <v>38</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>404</v>
@@ -3475,13 +3475,13 @@
         <v>25</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" s="13">
         <v>45105</v>
@@ -3502,10 +3502,10 @@
         <v>38</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>404</v>
@@ -3525,13 +3525,13 @@
         <v>25</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="F32" s="13">
         <v>45104</v>
@@ -3552,10 +3552,10 @@
         <v>38</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>404</v>
@@ -3575,13 +3575,13 @@
         <v>25</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="13">
         <v>45104</v>
@@ -3602,13 +3602,13 @@
         <v>38</v>
       </c>
       <c r="N33" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="Q33" s="20"/>
       <c r="S33" s="21"/>
@@ -3616,7 +3616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>63</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>65</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -3654,7 +3654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>64</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>65</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -3692,7 +3692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>65</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>44</v>
@@ -3715,10 +3715,10 @@
         <v>45104.416215277779</v>
       </c>
       <c r="H36" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>266</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>38</v>
@@ -3731,13 +3731,13 @@
         <v>38</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O36" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q36" s="15"/>
       <c r="R36" s="16"/>
@@ -3746,7 +3746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="33" customFormat="1" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="33" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>66</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>65</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
@@ -3784,7 +3784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>67</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>65</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -3822,7 +3822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>68</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>65</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -3860,7 +3860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>69</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>65</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -3898,7 +3898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>70</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>65</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -3936,7 +3936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>71</v>
       </c>
@@ -3959,10 +3959,10 @@
         <v>45104.426342592589</v>
       </c>
       <c r="H42" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>268</v>
       </c>
       <c r="J42" s="36" t="s">
         <v>38</v>
@@ -3975,13 +3975,13 @@
         <v>38</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O42" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q42" s="15"/>
       <c r="R42" s="16"/>
@@ -3990,7 +3990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>72</v>
       </c>
@@ -4013,10 +4013,10 @@
         <v>45104.427581018521</v>
       </c>
       <c r="H43" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="I43" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>38</v>
@@ -4029,13 +4029,13 @@
         <v>38</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O43" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="16"/>
@@ -4044,7 +4044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>73</v>
       </c>
@@ -4067,10 +4067,10 @@
         <v>45104.428587962961</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>38</v>
@@ -4083,13 +4083,13 @@
         <v>38</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O44" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q44" s="15"/>
       <c r="R44" s="16"/>
@@ -4098,7 +4098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>74</v>
       </c>
@@ -4121,10 +4121,10 @@
         <v>45104.429884259262</v>
       </c>
       <c r="H45" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>273</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>38</v>
@@ -4137,13 +4137,13 @@
         <v>38</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O45" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="16"/>
@@ -4152,7 +4152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>75</v>
       </c>
@@ -4160,13 +4160,13 @@
         <v>25</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>342</v>
       </c>
       <c r="F46" s="13">
         <v>45105</v>
@@ -4175,10 +4175,10 @@
         <v>45105.604085648149</v>
       </c>
       <c r="H46" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="I46" s="14" t="s">
         <v>381</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>382</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>38</v>
@@ -4191,13 +4191,13 @@
         <v>38</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O46" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="16"/>
@@ -4206,7 +4206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <v>76</v>
       </c>
@@ -4214,13 +4214,13 @@
         <v>25</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>344</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="14"/>
@@ -4230,7 +4230,7 @@
         <v>65</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
@@ -4244,7 +4244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <v>77</v>
       </c>
@@ -4252,13 +4252,13 @@
         <v>25</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>346</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="14"/>
@@ -4268,7 +4268,7 @@
         <v>65</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
@@ -4282,7 +4282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
         <v>78</v>
       </c>
@@ -4290,13 +4290,13 @@
         <v>25</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D49" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>347</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>348</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="14"/>
@@ -4306,7 +4306,7 @@
         <v>65</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
@@ -4320,7 +4320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19">
         <v>79</v>
       </c>
@@ -4328,13 +4328,13 @@
         <v>25</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
@@ -4344,7 +4344,7 @@
         <v>65</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -4358,7 +4358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <v>80</v>
       </c>
@@ -4366,13 +4366,13 @@
         <v>25</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>352</v>
       </c>
       <c r="F51" s="13">
         <v>45105</v>
@@ -4381,10 +4381,10 @@
         <v>45105.675555555557</v>
       </c>
       <c r="H51" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="I51" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>385</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>38</v>
@@ -4397,13 +4397,13 @@
         <v>38</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O51" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
@@ -4412,7 +4412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
         <v>81</v>
       </c>
@@ -4420,13 +4420,13 @@
         <v>25</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>354</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="14"/>
@@ -4436,7 +4436,7 @@
         <v>65</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
@@ -4450,7 +4450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <v>82</v>
       </c>
@@ -4458,13 +4458,13 @@
         <v>25</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>356</v>
       </c>
       <c r="F53" s="13">
         <v>45105</v>
@@ -4473,10 +4473,10 @@
         <v>45105.691793981481</v>
       </c>
       <c r="H53" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>388</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>38</v>
@@ -4489,13 +4489,13 @@
         <v>38</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O53" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q53" s="15"/>
       <c r="R53" s="16"/>
@@ -4504,7 +4504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19">
         <v>83</v>
       </c>
@@ -4512,13 +4512,13 @@
         <v>25</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
@@ -4528,7 +4528,7 @@
         <v>65</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -4542,7 +4542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <v>84</v>
       </c>
@@ -4550,13 +4550,13 @@
         <v>25</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D55" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>359</v>
       </c>
       <c r="F55" s="13">
         <v>45105</v>
@@ -4565,10 +4565,10 @@
         <v>45105.717881944445</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>38</v>
@@ -4581,13 +4581,13 @@
         <v>38</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O55" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q55" s="15"/>
       <c r="R55" s="16"/>
@@ -4596,7 +4596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19">
         <v>85</v>
       </c>
@@ -4604,13 +4604,13 @@
         <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D56" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>361</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
@@ -4620,7 +4620,7 @@
         <v>65</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4634,7 +4634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>86</v>
       </c>
@@ -4642,13 +4642,13 @@
         <v>25</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D57" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>362</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="14"/>
@@ -4658,7 +4658,7 @@
         <v>65</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4672,7 +4672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <v>87</v>
       </c>
@@ -4680,13 +4680,13 @@
         <v>25</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
@@ -4696,7 +4696,7 @@
         <v>65</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
@@ -4710,7 +4710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <v>88</v>
       </c>
@@ -4718,13 +4718,13 @@
         <v>25</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D59" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="14"/>
@@ -4734,7 +4734,7 @@
         <v>65</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
@@ -4748,7 +4748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <v>89</v>
       </c>
@@ -4756,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>369</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="14"/>
@@ -4772,7 +4772,7 @@
         <v>65</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
@@ -4786,7 +4786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <v>90</v>
       </c>
@@ -4794,13 +4794,13 @@
         <v>25</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
@@ -4810,7 +4810,7 @@
         <v>65</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
@@ -4824,7 +4824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <v>91</v>
       </c>
@@ -4832,13 +4832,13 @@
         <v>25</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
@@ -4848,7 +4848,7 @@
         <v>65</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
@@ -4862,7 +4862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <v>92</v>
       </c>
@@ -4870,13 +4870,13 @@
         <v>25</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D63" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
@@ -4886,7 +4886,7 @@
         <v>65</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
@@ -4900,7 +4900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="102.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <v>93</v>
       </c>
@@ -4908,13 +4908,13 @@
         <v>25</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D64" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>377</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
@@ -4924,7 +4924,7 @@
         <v>65</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
@@ -4938,7 +4938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>122</v>
       </c>
@@ -4946,13 +4946,13 @@
         <v>25</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D65" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
@@ -4962,7 +4962,7 @@
         <v>65</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
@@ -4976,7 +4976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>123</v>
       </c>
@@ -4984,13 +4984,13 @@
         <v>25</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
@@ -5000,7 +5000,7 @@
         <v>65</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
@@ -5014,7 +5014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>124</v>
       </c>
@@ -5022,13 +5022,13 @@
         <v>25</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="F67" s="13">
         <v>45104</v>
@@ -5037,11 +5037,11 @@
         <v>45104.434178240743</v>
       </c>
       <c r="H67" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="I67" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="I67" s="14" t="s">
-        <v>275</v>
-      </c>
       <c r="J67" s="15" t="s">
         <v>38</v>
       </c>
@@ -5052,13 +5052,13 @@
         <v>38</v>
       </c>
       <c r="N67" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O67" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
@@ -5067,7 +5067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>125</v>
       </c>
@@ -5075,13 +5075,13 @@
         <v>25</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
@@ -5091,7 +5091,7 @@
         <v>65</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
@@ -5105,7 +5105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>126</v>
       </c>
@@ -5113,13 +5113,13 @@
         <v>25</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
@@ -5129,7 +5129,7 @@
         <v>65</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
@@ -5143,7 +5143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>127</v>
       </c>
@@ -5151,13 +5151,13 @@
         <v>25</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
@@ -5167,7 +5167,7 @@
         <v>65</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
@@ -5181,7 +5181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>128</v>
       </c>
@@ -5189,13 +5189,13 @@
         <v>25</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="14"/>
@@ -5205,7 +5205,7 @@
         <v>65</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
@@ -5219,7 +5219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>129</v>
       </c>
@@ -5227,13 +5227,13 @@
         <v>25</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F72" s="13">
         <v>45104</v>
@@ -5242,10 +5242,10 @@
         <v>45104.435486111113</v>
       </c>
       <c r="H72" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="I72" s="14" t="s">
         <v>276</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>277</v>
       </c>
       <c r="J72" s="15" t="s">
         <v>38</v>
@@ -5258,13 +5258,13 @@
         <v>38</v>
       </c>
       <c r="N72" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O72" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q72" s="15"/>
       <c r="R72" s="16"/>
@@ -5273,7 +5273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>130</v>
       </c>
@@ -5281,13 +5281,13 @@
         <v>25</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="F73" s="13">
         <v>45104</v>
@@ -5296,10 +5296,10 @@
         <v>45104.436909722222</v>
       </c>
       <c r="H73" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="I73" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="J73" s="15" t="s">
         <v>38</v>
@@ -5312,13 +5312,13 @@
         <v>38</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O73" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P73" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q73" s="15"/>
       <c r="R73" s="16"/>
@@ -5327,7 +5327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>131</v>
       </c>
@@ -5335,13 +5335,13 @@
         <v>25</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D74" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="F74" s="13">
         <v>45104</v>
@@ -5350,10 +5350,10 @@
         <v>45104.438668981478</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J74" s="15" t="s">
         <v>38</v>
@@ -5366,13 +5366,13 @@
         <v>38</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O74" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="16"/>
@@ -5381,7 +5381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <v>132</v>
       </c>
@@ -5389,13 +5389,13 @@
         <v>25</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F75" s="13">
         <v>45104</v>
@@ -5404,10 +5404,10 @@
         <v>45104.439479166664</v>
       </c>
       <c r="H75" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="I75" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>282</v>
       </c>
       <c r="J75" s="15" t="s">
         <v>38</v>
@@ -5420,13 +5420,13 @@
         <v>38</v>
       </c>
       <c r="N75" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O75" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="16"/>
@@ -5435,7 +5435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <v>133</v>
       </c>
@@ -5443,13 +5443,13 @@
         <v>25</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="14"/>
@@ -5459,7 +5459,7 @@
         <v>65</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
@@ -5473,7 +5473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>134</v>
       </c>
@@ -5481,13 +5481,13 @@
         <v>25</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="14"/>
@@ -5497,7 +5497,7 @@
         <v>65</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
@@ -5511,7 +5511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>135</v>
       </c>
@@ -5519,13 +5519,13 @@
         <v>25</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F78" s="13">
         <v>45104</v>
@@ -5534,10 +5534,10 @@
         <v>45104.442962962959</v>
       </c>
       <c r="H78" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I78" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>284</v>
       </c>
       <c r="J78" s="15" t="s">
         <v>38</v>
@@ -5550,13 +5550,13 @@
         <v>38</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O78" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q78" s="15"/>
       <c r="R78" s="16"/>
@@ -5565,7 +5565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>136</v>
       </c>
@@ -5573,13 +5573,13 @@
         <v>25</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="14"/>
@@ -5589,7 +5589,7 @@
         <v>65</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="15"/>
@@ -5602,7 +5602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>137</v>
       </c>
@@ -5610,13 +5610,13 @@
         <v>25</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F80" s="13">
         <v>45104</v>
@@ -5625,10 +5625,10 @@
         <v>45104.443761574075</v>
       </c>
       <c r="H80" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I80" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>286</v>
       </c>
       <c r="J80" s="15" t="s">
         <v>38</v>
@@ -5641,13 +5641,13 @@
         <v>38</v>
       </c>
       <c r="N80" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O80" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P80" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q80" s="15"/>
       <c r="R80" s="16"/>
@@ -5656,7 +5656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>138</v>
       </c>
@@ -5664,13 +5664,13 @@
         <v>25</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F81" s="13">
         <v>45104</v>
@@ -5679,10 +5679,10 @@
         <v>45104.444768518515</v>
       </c>
       <c r="H81" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I81" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>288</v>
       </c>
       <c r="J81" s="15" t="s">
         <v>38</v>
@@ -5695,13 +5695,13 @@
         <v>38</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O81" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P81" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q81" s="15"/>
       <c r="R81" s="16"/>
@@ -5710,7 +5710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>139</v>
       </c>
@@ -5718,13 +5718,13 @@
         <v>25</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="14"/>
@@ -5734,7 +5734,7 @@
         <v>65</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
@@ -5748,7 +5748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>140</v>
       </c>
@@ -5756,13 +5756,13 @@
         <v>25</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="14"/>
@@ -5772,7 +5772,7 @@
         <v>65</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
@@ -5786,7 +5786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>141</v>
       </c>
@@ -5794,13 +5794,13 @@
         <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F84" s="13">
         <v>45104</v>
@@ -5809,10 +5809,10 @@
         <v>45104.445601851854</v>
       </c>
       <c r="H84" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="I84" s="38" t="s">
         <v>289</v>
-      </c>
-      <c r="I84" s="38" t="s">
-        <v>290</v>
       </c>
       <c r="J84" s="15" t="s">
         <v>38</v>
@@ -5825,13 +5825,13 @@
         <v>38</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O84" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P84" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q84" s="15"/>
       <c r="R84" s="16"/>
@@ -5840,7 +5840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>142</v>
       </c>
@@ -5848,13 +5848,13 @@
         <v>25</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F85" s="13">
         <v>45104</v>
@@ -5863,10 +5863,10 @@
         <v>45104.446585648147</v>
       </c>
       <c r="H85" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I85" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>292</v>
       </c>
       <c r="J85" s="15" t="s">
         <v>38</v>
@@ -5879,13 +5879,13 @@
         <v>38</v>
       </c>
       <c r="N85" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O85" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="16"/>
@@ -5894,7 +5894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <v>143</v>
       </c>
@@ -5902,13 +5902,13 @@
         <v>25</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F86" s="13">
         <v>45104</v>
@@ -5917,10 +5917,10 @@
         <v>45104.447384259256</v>
       </c>
       <c r="H86" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="I86" s="14" t="s">
         <v>293</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>294</v>
       </c>
       <c r="J86" s="15" t="s">
         <v>38</v>
@@ -5933,13 +5933,13 @@
         <v>38</v>
       </c>
       <c r="N86" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O86" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q86" s="15"/>
       <c r="R86" s="16"/>
@@ -5948,7 +5948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <v>144</v>
       </c>
@@ -5956,13 +5956,13 @@
         <v>25</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F87" s="13">
         <v>45104</v>
@@ -5971,10 +5971,10 @@
         <v>45104.449189814812</v>
       </c>
       <c r="H87" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I87" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>296</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>38</v>
@@ -5987,13 +5987,13 @@
         <v>38</v>
       </c>
       <c r="N87" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O87" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q87" s="15"/>
       <c r="R87" s="16"/>
@@ -6002,7 +6002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <v>145</v>
       </c>
@@ -6010,13 +6010,13 @@
         <v>25</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="14"/>
@@ -6026,7 +6026,7 @@
         <v>65</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
@@ -6040,7 +6040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <v>146</v>
       </c>
@@ -6048,13 +6048,13 @@
         <v>25</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F89" s="13">
         <v>45104</v>
@@ -6063,10 +6063,10 @@
         <v>45104.450011574074</v>
       </c>
       <c r="H89" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I89" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>298</v>
       </c>
       <c r="J89" s="15" t="s">
         <v>38</v>
@@ -6079,13 +6079,13 @@
         <v>38</v>
       </c>
       <c r="N89" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O89" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q89" s="15"/>
       <c r="R89" s="16"/>
@@ -6094,7 +6094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <v>147</v>
       </c>
@@ -6102,13 +6102,13 @@
         <v>25</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D90" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="F90" s="13">
         <v>45104</v>
@@ -6117,10 +6117,10 @@
         <v>45104.450856481482</v>
       </c>
       <c r="H90" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="I90" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="J90" s="15" t="s">
         <v>38</v>
@@ -6142,7 +6142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <v>148</v>
       </c>
@@ -6150,13 +6150,13 @@
         <v>25</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="14"/>
@@ -6166,7 +6166,7 @@
         <v>65</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
@@ -6180,7 +6180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <v>149</v>
       </c>
@@ -6188,13 +6188,13 @@
         <v>25</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="14"/>
@@ -6204,7 +6204,7 @@
         <v>65</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
@@ -6218,7 +6218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <v>150</v>
       </c>
@@ -6226,13 +6226,13 @@
         <v>25</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
@@ -6242,7 +6242,7 @@
         <v>65</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
@@ -6256,7 +6256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <v>151</v>
       </c>
@@ -6264,13 +6264,13 @@
         <v>25</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F94" s="13">
         <v>45104</v>
@@ -6279,10 +6279,10 @@
         <v>45104.451840277776</v>
       </c>
       <c r="H94" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I94" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>302</v>
       </c>
       <c r="J94" s="15" t="s">
         <v>38</v>
@@ -6295,13 +6295,13 @@
         <v>38</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O94" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q94" s="15"/>
       <c r="R94" s="16"/>
@@ -6310,7 +6310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>152</v>
       </c>
@@ -6318,13 +6318,13 @@
         <v>25</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="14"/>
@@ -6334,7 +6334,7 @@
         <v>65</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
@@ -6348,7 +6348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>153</v>
       </c>
@@ -6356,13 +6356,13 @@
         <v>25</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F96" s="13">
         <v>45111</v>
@@ -6371,10 +6371,10 @@
         <v>45111.63380787037</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J96" s="15" t="s">
         <v>38</v>
@@ -6387,13 +6387,13 @@
         <v>38</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O96" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q96" s="15"/>
       <c r="R96" s="16"/>
@@ -6402,7 +6402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>154</v>
       </c>
@@ -6410,13 +6410,13 @@
         <v>25</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="14"/>
@@ -6426,7 +6426,7 @@
         <v>65</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
@@ -6440,7 +6440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>155</v>
       </c>
@@ -6448,13 +6448,13 @@
         <v>25</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="14"/>
@@ -6464,7 +6464,7 @@
         <v>65</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
@@ -6478,7 +6478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>156</v>
       </c>
@@ -6486,13 +6486,13 @@
         <v>25</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="14"/>
@@ -6502,7 +6502,7 @@
         <v>65</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
@@ -6516,7 +6516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>157</v>
       </c>
@@ -6524,13 +6524,13 @@
         <v>25</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="14"/>
@@ -6540,7 +6540,7 @@
         <v>65</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
@@ -6554,7 +6554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>158</v>
       </c>
@@ -6562,13 +6562,13 @@
         <v>25</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F101" s="13">
         <v>45104</v>
@@ -6577,10 +6577,10 @@
         <v>45104.454525462963</v>
       </c>
       <c r="H101" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="I101" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="J101" s="15" t="s">
         <v>38</v>
@@ -6593,13 +6593,13 @@
         <v>38</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O101" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q101" s="15"/>
       <c r="R101" s="16"/>
@@ -6608,7 +6608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>159</v>
       </c>
@@ -6616,13 +6616,13 @@
         <v>25</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F102" s="13">
         <v>45104</v>
@@ -6631,10 +6631,10 @@
         <v>45104.455439814818</v>
       </c>
       <c r="H102" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="I102" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>306</v>
       </c>
       <c r="J102" s="15" t="s">
         <v>38</v>
@@ -6647,13 +6647,13 @@
         <v>38</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O102" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q102" s="15"/>
       <c r="R102" s="16"/>
@@ -6662,7 +6662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>160</v>
       </c>
@@ -6670,13 +6670,13 @@
         <v>25</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F103" s="13">
         <v>45104</v>
@@ -6685,10 +6685,10 @@
         <v>45104.456284722219</v>
       </c>
       <c r="H103" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="I103" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="I103" s="14" t="s">
-        <v>308</v>
       </c>
       <c r="J103" s="15" t="s">
         <v>38</v>
@@ -6701,13 +6701,13 @@
         <v>38</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O103" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q103" s="15"/>
       <c r="R103" s="16"/>
@@ -6716,7 +6716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <v>161</v>
       </c>
@@ -6724,13 +6724,13 @@
         <v>25</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F104" s="13">
         <v>45104</v>
@@ -6739,10 +6739,10 @@
         <v>45104.457465277781</v>
       </c>
       <c r="H104" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I104" s="14" t="s">
         <v>309</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>310</v>
       </c>
       <c r="J104" s="15" t="s">
         <v>38</v>
@@ -6755,13 +6755,13 @@
         <v>38</v>
       </c>
       <c r="N104" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O104" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q104" s="15"/>
       <c r="R104" s="16"/>
@@ -6770,7 +6770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="33" customFormat="1" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" s="33" customFormat="1" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>162</v>
       </c>
@@ -6778,13 +6778,13 @@
         <v>25</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F105" s="26">
         <v>45104</v>
@@ -6793,10 +6793,10 @@
         <v>45104.772928240738</v>
       </c>
       <c r="H105" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I105" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J105" s="29" t="s">
         <v>38</v>
@@ -6809,13 +6809,13 @@
         <v>38</v>
       </c>
       <c r="N105" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O105" s="29" t="s">
         <v>38</v>
       </c>
       <c r="P105" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q105" s="29"/>
       <c r="R105" s="30"/>
@@ -6824,7 +6824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <v>163</v>
       </c>
@@ -6832,13 +6832,13 @@
         <v>25</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="14"/>
@@ -6848,7 +6848,7 @@
         <v>65</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
@@ -6862,7 +6862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>164</v>
       </c>
@@ -6870,13 +6870,13 @@
         <v>25</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F107" s="13">
         <v>45104</v>
@@ -6885,10 +6885,10 @@
         <v>45104.464988425927</v>
       </c>
       <c r="H107" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I107" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="J107" s="15" t="s">
         <v>38</v>
@@ -6901,13 +6901,13 @@
         <v>38</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O107" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q107" s="15"/>
       <c r="R107" s="16"/>
@@ -6916,7 +6916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="98.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <v>165</v>
       </c>
@@ -6924,13 +6924,13 @@
         <v>25</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F108" s="13">
         <v>45104</v>
@@ -6939,10 +6939,10 @@
         <v>45104.773680555554</v>
       </c>
       <c r="H108" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I108" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="J108" s="15" t="s">
         <v>38</v>
@@ -6955,13 +6955,13 @@
         <v>38</v>
       </c>
       <c r="N108" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O108" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P108" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q108" s="15"/>
       <c r="R108" s="16"/>
@@ -6970,7 +6970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <v>166</v>
       </c>
@@ -6978,13 +6978,13 @@
         <v>25</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F109" s="13">
         <v>45104</v>
@@ -6993,10 +6993,10 @@
         <v>45104.774641203701</v>
       </c>
       <c r="H109" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I109" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="J109" s="15" t="s">
         <v>38</v>
@@ -7009,13 +7009,13 @@
         <v>38</v>
       </c>
       <c r="N109" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O109" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P109" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q109" s="15"/>
       <c r="R109" s="16"/>
@@ -7024,7 +7024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19">
         <v>167</v>
       </c>
@@ -7032,13 +7032,13 @@
         <v>25</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F110" s="13">
         <v>45104</v>
@@ -7047,10 +7047,10 @@
         <v>45104.775740740741</v>
       </c>
       <c r="H110" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I110" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>318</v>
       </c>
       <c r="J110" s="15" t="s">
         <v>38</v>
@@ -7063,13 +7063,13 @@
         <v>38</v>
       </c>
       <c r="N110" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O110" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P110" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q110" s="15"/>
       <c r="R110" s="16"/>
@@ -7078,7 +7078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19">
         <v>168</v>
       </c>
@@ -7086,13 +7086,13 @@
         <v>25</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="14"/>
@@ -7102,7 +7102,7 @@
         <v>65</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
@@ -7116,7 +7116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19">
         <v>169</v>
       </c>
@@ -7124,13 +7124,13 @@
         <v>25</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F112" s="13">
         <v>45104</v>
@@ -7139,10 +7139,10 @@
         <v>45104.776620370372</v>
       </c>
       <c r="H112" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="I112" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="J112" s="15" t="s">
         <v>38</v>
@@ -7155,13 +7155,13 @@
         <v>38</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O112" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q112" s="15"/>
       <c r="R112" s="16"/>
@@ -7170,7 +7170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <v>369</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>24</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="13">
@@ -7191,10 +7191,10 @@
         <v>45104.777511574073</v>
       </c>
       <c r="H113" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="I113" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>322</v>
       </c>
       <c r="J113" s="15" t="s">
         <v>38</v>
@@ -7216,7 +7216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
         <v>370</v>
       </c>
@@ -7224,10 +7224,10 @@
         <v>25</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="13">
@@ -7237,10 +7237,10 @@
         <v>45105.704733796294</v>
       </c>
       <c r="H114" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="I114" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>399</v>
       </c>
       <c r="J114" s="15" t="s">
         <v>38</v>
@@ -7253,7 +7253,7 @@
         <v>38</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q114" s="15"/>
       <c r="R114" s="16"/>
@@ -7262,7 +7262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
         <v>373</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>25</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="13">
@@ -7283,10 +7283,10 @@
         <v>45104.778263888889</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J115" s="15" t="s">
         <v>38</v>
@@ -7308,7 +7308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="100.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19">
         <v>374</v>
       </c>
@@ -7316,10 +7316,10 @@
         <v>25</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="13">
@@ -7329,10 +7329,10 @@
         <v>45104.779027777775</v>
       </c>
       <c r="H116" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I116" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="I116" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="J116" s="15" t="s">
         <v>38</v>
@@ -16954,16 +16954,7 @@
       <c r="T736" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T116" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="VALIDAZIONE_LDO_TIMEOUT"/>
-        <filter val="VALIDAZIONE_RAD_TIMEOUT"/>
-        <filter val="VALIDAZIONE_RSA_TIMEOUT"/>
-        <filter val="VALIDAZIONE_VPS_TIMEOUT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T116" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
